--- a/mappings/package_F02/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F02/transformation/conceptual_mappings.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="1122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="1150">
   <si>
     <t>Field</t>
   </si>
@@ -3675,6 +3675,12 @@
     <t>OBJECT_CONTRACT/OBJECT_DESCR/RENEWAL</t>
   </si>
   <si>
+    <t>epo:Lot / epo:ContractTerm /</t>
+  </si>
+  <si>
+    <t>?this epo:foreseesContractSpecificTerm / epo:isRenewalIndicator ?value .</t>
+  </si>
+  <si>
     <t>OBJECT_CONTRACT/OBJECT_DESCR/NO_RENEWAL</t>
   </si>
   <si>
@@ -3693,6 +3699,12 @@
     <t>OBJECT_CONTRACT/OBJECT_DESCR/RENEWAL_DESCR</t>
   </si>
   <si>
+    <t>epo:Lot / epo:ContractTerm / rdf:langString</t>
+  </si>
+  <si>
+    <t>?this epo:foreseesContractSpecificTerm / epo:hasRenewalDescription ?value .</t>
+  </si>
+  <si>
     <t>II.2.9</t>
   </si>
   <si>
@@ -3705,7 +3717,7 @@
     <t>Envisaged number of candidates</t>
   </si>
   <si>
-    <t>BT-661</t>
+    <t>BT-51</t>
   </si>
   <si>
     <t>Maximum Candidates Indicator</t>
@@ -3715,6 +3727,15 @@
 </t>
   </si>
   <si>
+    <t>epo:Lot / epo:MultipleStageProcedureTerm / xsd:integer</t>
+  </si>
+  <si>
+    <t>?this epo:isSubjectToLotSpecificTerm / epo:hasMaximumNumberOfCandidates ?value .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>II.2.9.2</t>
   </si>
   <si>
@@ -3730,15 +3751,15 @@
     <t>OBJECT_CONTRACT/OBJECT_DESCR/NB_MIN_LIMIT_CANDIDATE</t>
   </si>
   <si>
+    <t>?this epo:isSubjectToLotSpecificTerm / epo:hasMinimumNumberOfCandidates ?value .</t>
+  </si>
+  <si>
     <t>II.2.9.3</t>
   </si>
   <si>
     <t>Envisaged maximum number</t>
   </si>
   <si>
-    <t>BT-51</t>
-  </si>
-  <si>
     <t>Maximum Candidates Number</t>
   </si>
   <si>
@@ -3758,6 +3779,12 @@
   </si>
   <si>
     <t>OBJECT_CONTRACT/OBJECT_DESCR/CRITERIA_CANDIDATE</t>
+  </si>
+  <si>
+    <t>epo:Lot / epo:MultipleStageProcedureTerm / rdf:langString</t>
+  </si>
+  <si>
+    <t>?this epo:isSubjectToLotSpecificTerm / epo:hasQualificationSystemRenewalDescription ?value .</t>
   </si>
   <si>
     <t>II.2.10</t>
@@ -3782,6 +3809,12 @@
 </t>
   </si>
   <si>
+    <t>epo:Lot / epo:SubmissionTerm / at-voc:permission</t>
+  </si>
+  <si>
+    <t>?this epo:isSubjectToLotSpecificTerm / epo:hasVariantPermission ?value</t>
+  </si>
+  <si>
     <t xml:space="preserve">OBJECT_CONTRACT/OBJECT_DESCR/NO_ACCEPTED_VARIANTS
 </t>
   </si>
@@ -3883,9 +3916,6 @@
     <t>OBJECT_CONTRACT/OBJECT_DESCR/OPTIONS_DESCR</t>
   </si>
   <si>
-    <t>epo:Lot / epo:ContractTerm / rdf:langString</t>
-  </si>
-  <si>
     <t>?this epo:foreseesContractSpecificTerm / epo:hasOptionsDescription ?value .</t>
   </si>
   <si>
@@ -3908,6 +3938,9 @@
   </si>
   <si>
     <t>OBJECT_CONTRACT/OBJECT_DESCR/ECATALOGUE_REQUIRED</t>
+  </si>
+  <si>
+    <t>?this epo:isSubjectToLotSpecificTerm / epo:hasECataloguePermission ?value</t>
   </si>
   <si>
     <t>II.2.13</t>
@@ -4685,6 +4718,12 @@
     <t>PROCEDURE/FRAMEWORK/NB_PARTICIPANTS</t>
   </si>
   <si>
+    <t>epo:Procedure /  epo:FrameworkAgreementTerm / xsd:integer</t>
+  </si>
+  <si>
+    <t>?this epo:isSubjectToProcedureSpecificTerm / epo:hasMaximumParticipantsNumber ?value .</t>
+  </si>
+  <si>
     <t>IV.1.3.2</t>
   </si>
   <si>
@@ -4700,25 +4739,10 @@
     <t>PROCEDURE/DPS</t>
   </si>
   <si>
-    <t>epo:Procedure / epo:DynamicPurchaseSystemTechniqueUsage</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t>?this</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve"> epo:usesTechnique ?value .</t>
-    </r>
+    <t>epo:DynamicPurchaseSystemTechniqueUsage / at-voc:dps-usage</t>
+  </si>
+  <si>
+    <t>?this epo:hasDPSScope ?value .</t>
   </si>
   <si>
     <t>IV.1.3.2.1</t>
@@ -4769,6 +4793,12 @@
     <t>PROCEDURE/REDUCTION_RECOURSE</t>
   </si>
   <si>
+    <t>epo:Procedure / epo:Lot / epo:MultipleStageProcedureTerm / xsd:boolean</t>
+  </si>
+  <si>
+    <t>?this epo:hasProcurementScopeDividedIntoLot / epo:isSubjectToLotSpecificTerm / epo:hasSuccessiveReduction ?value .</t>
+  </si>
+  <si>
     <t>IV.1.5</t>
   </si>
   <si>
@@ -4788,6 +4818,9 @@
   </si>
   <si>
     <t>PROCEDURE/RIGHT_CONTRACT_INITIAL_TENDERS</t>
+  </si>
+  <si>
+    <t>?this epo:hasProcurementScopeDividedIntoLot / epo:isSubjectToLotSpecificTerm / epo:hasNoNegotiationNecessary ?value .</t>
   </si>
   <si>
     <t>IV.1.6</t>
@@ -5207,6 +5240,48 @@
     <t>PROCEDURE/DATE_TENDER_VALID</t>
   </si>
   <si>
+    <t>epo:Procedure / epo:SubmissionTerm / xsd:dateTime</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t xml:space="preserve"> epo:isSubjectToProcedureSpecificTerm  / epo:hasReceiptDeadline ?</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t xml:space="preserve"> .</t>
+    </r>
+  </si>
+  <si>
     <t>IV.2.6.2</t>
   </si>
   <si>
@@ -5222,6 +5297,12 @@
     <t>PROCEDURE/DURATION_TENDER_VALID</t>
   </si>
   <si>
+    <t>epo:Procedure / epo:SubmissionTerm / epo:Period / at-voc:timeperiod</t>
+  </si>
+  <si>
+    <t>?this epo:isSubjectToProcedureSpecificTerm  / epo:hasValidityPeriod / epo:hasTimePeriod ?value .</t>
+  </si>
+  <si>
     <t>IV.2.7</t>
   </si>
   <si>
@@ -5243,6 +5324,12 @@
     <t>PROCEDURE/OPENING_CONDITION/DATE_OPENING_TENDERS</t>
   </si>
   <si>
+    <t>epo:Procedure / epo:Lot / epo:OpeningTerm / xsd:dateTime</t>
+  </si>
+  <si>
+    <t>?this epo:hasProcurementScopeDividedIntoLot / epo:isSubjectToLotSpecificTerm / epo:hasOpeningDateTime ?value .</t>
+  </si>
+  <si>
     <t>IV.2.7.2</t>
   </si>
   <si>
@@ -5267,6 +5354,12 @@
     <t>PROCEDURE/OPENING_CONDITION/PLACE</t>
   </si>
   <si>
+    <t>epo:Procedure / epo:Lot / epo:OpeningTerm / xsd:anyURI</t>
+  </si>
+  <si>
+    <t>?this epo:hasProcurementScopeDividedIntoLot / epo:isSubjectToLotSpecificTerm / epo:hasOpeningURL ?value .</t>
+  </si>
+  <si>
     <t>IV.2.7.4</t>
   </si>
   <si>
@@ -5282,6 +5375,12 @@
     <t>PROCEDURE/OPENING_CONDITION/INFO_ADD</t>
   </si>
   <si>
+    <t>epo:Procedure / epo:Lot / epo:OpeningTerm / rdf:langString</t>
+  </si>
+  <si>
+    <t>?this epo:hasProcurementScopeDividedIntoLot / epo:isSubjectToLotSpecificTerm / epo:hasOpeningDescription ?value .</t>
+  </si>
+  <si>
     <t>Section VI</t>
   </si>
   <si>
@@ -5309,6 +5408,9 @@
     <t>COMPLEMENTARY_INFO/NO_RECURRENT_PROCUREMENT</t>
   </si>
   <si>
+    <t>?this epo:isRecurrent ?value .</t>
+  </si>
+  <si>
     <t>COMPLEMENTARY_INFO/RECURRENT_PROCUREMENT</t>
   </si>
   <si>
@@ -5325,6 +5427,9 @@
   </si>
   <si>
     <t>COMPLEMENTARY_INFO/ESTIMATED_TIMING</t>
+  </si>
+  <si>
+    <t>?this epo:hasRecurrenceDescription ?value .</t>
   </si>
   <si>
     <t>VI.2</t>
@@ -7246,7 +7351,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="171">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -7554,11 +7659,20 @@
     <xf borderId="0" fillId="5" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="8" fontId="18" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="8" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -7582,9 +7696,6 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -7600,9 +7711,6 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="12" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="8" fontId="18" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -14908,8 +15016,12 @@
         <v>516</v>
       </c>
       <c r="F122" s="4"/>
-      <c r="G122" s="4"/>
-      <c r="H122" s="4"/>
+      <c r="G122" s="105" t="s">
+        <v>517</v>
+      </c>
+      <c r="H122" s="105" t="s">
+        <v>518</v>
+      </c>
       <c r="I122" s="7"/>
       <c r="J122" s="7"/>
       <c r="K122" s="7"/>
@@ -14928,44 +15040,52 @@
         <v>515</v>
       </c>
       <c r="E123" s="104" t="s">
+        <v>519</v>
+      </c>
+      <c r="F123" s="4"/>
+      <c r="G123" s="105" t="s">
         <v>517</v>
       </c>
-      <c r="F123" s="4"/>
-      <c r="G123" s="4"/>
-      <c r="H123" s="4"/>
+      <c r="H123" s="105" t="s">
+        <v>518</v>
+      </c>
       <c r="I123" s="7"/>
       <c r="J123" s="7"/>
       <c r="K123" s="7"/>
     </row>
     <row r="124">
       <c r="A124" s="98" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B124" s="99" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C124" s="103" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D124" s="103" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="E124" s="104" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="F124" s="4"/>
-      <c r="G124" s="4"/>
-      <c r="H124" s="4"/>
+      <c r="G124" s="105" t="s">
+        <v>525</v>
+      </c>
+      <c r="H124" s="105" t="s">
+        <v>526</v>
+      </c>
       <c r="I124" s="7"/>
       <c r="J124" s="7"/>
       <c r="K124" s="7"/>
     </row>
     <row r="125">
-      <c r="A125" s="105" t="s">
-        <v>523</v>
-      </c>
-      <c r="B125" s="106" t="s">
-        <v>524</v>
+      <c r="A125" s="106" t="s">
+        <v>527</v>
+      </c>
+      <c r="B125" s="107" t="s">
+        <v>528</v>
       </c>
       <c r="C125" s="91"/>
       <c r="D125" s="91"/>
@@ -14979,102 +15099,124 @@
     </row>
     <row r="126">
       <c r="A126" s="98" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="B126" s="99" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="C126" s="91" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="D126" s="91" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="F126" s="91"/>
-      <c r="G126" s="91"/>
-      <c r="H126" s="91"/>
-      <c r="I126" s="7"/>
+      <c r="G126" s="91" t="s">
+        <v>534</v>
+      </c>
+      <c r="H126" s="108" t="s">
+        <v>535</v>
+      </c>
+      <c r="I126" s="103" t="s">
+        <v>536</v>
+      </c>
       <c r="J126" s="7"/>
       <c r="K126" s="7"/>
     </row>
     <row r="127">
       <c r="A127" s="98" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="B127" s="99" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="C127" s="91" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="D127" s="91" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="E127" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="F127" s="91"/>
+      <c r="G127" s="36" t="s">
         <v>534</v>
       </c>
-      <c r="F127" s="91"/>
-      <c r="G127" s="36"/>
-      <c r="H127" s="36"/>
-      <c r="I127" s="7"/>
+      <c r="H127" s="109" t="s">
+        <v>542</v>
+      </c>
+      <c r="I127" s="103" t="s">
+        <v>536</v>
+      </c>
       <c r="J127" s="7"/>
       <c r="K127" s="7"/>
     </row>
     <row r="128">
       <c r="A128" s="98" t="s">
+        <v>543</v>
+      </c>
+      <c r="B128" s="99" t="s">
+        <v>544</v>
+      </c>
+      <c r="C128" s="91" t="s">
+        <v>531</v>
+      </c>
+      <c r="D128" s="91" t="s">
+        <v>545</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="F128" s="36"/>
+      <c r="G128" s="36" t="s">
+        <v>534</v>
+      </c>
+      <c r="H128" s="109" t="s">
         <v>535</v>
       </c>
-      <c r="B128" s="99" t="s">
+      <c r="I128" s="103" t="s">
         <v>536</v>
       </c>
-      <c r="C128" s="91" t="s">
-        <v>537</v>
-      </c>
-      <c r="D128" s="91" t="s">
-        <v>538</v>
-      </c>
-      <c r="E128" s="4" t="s">
-        <v>539</v>
-      </c>
-      <c r="F128" s="36"/>
-      <c r="G128" s="36"/>
-      <c r="H128" s="36"/>
-      <c r="I128" s="7"/>
       <c r="J128" s="7"/>
       <c r="K128" s="7"/>
     </row>
     <row r="129">
       <c r="A129" s="98" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="B129" s="99" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="C129" s="91" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="D129" s="91" t="s">
-        <v>543</v>
-      </c>
-      <c r="E129" s="107" t="s">
-        <v>544</v>
+        <v>550</v>
+      </c>
+      <c r="E129" s="110" t="s">
+        <v>551</v>
       </c>
       <c r="F129" s="36"/>
-      <c r="G129" s="36"/>
-      <c r="H129" s="36"/>
+      <c r="G129" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="H129" s="36" t="s">
+        <v>553</v>
+      </c>
       <c r="I129" s="7"/>
       <c r="J129" s="7"/>
       <c r="K129" s="7"/>
     </row>
     <row r="130">
-      <c r="A130" s="105" t="s">
-        <v>545</v>
-      </c>
-      <c r="B130" s="106" t="s">
-        <v>546</v>
+      <c r="A130" s="106" t="s">
+        <v>554</v>
+      </c>
+      <c r="B130" s="107" t="s">
+        <v>555</v>
       </c>
       <c r="C130" s="91"/>
       <c r="D130" s="91"/>
@@ -15088,56 +15230,64 @@
     </row>
     <row r="131">
       <c r="A131" s="98" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="B131" s="99" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="C131" s="91" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="D131" s="91" t="s">
-        <v>550</v>
-      </c>
-      <c r="E131" s="108" t="s">
-        <v>551</v>
+        <v>559</v>
+      </c>
+      <c r="E131" s="111" t="s">
+        <v>560</v>
       </c>
       <c r="F131" s="91"/>
-      <c r="G131" s="91"/>
-      <c r="H131" s="91"/>
+      <c r="G131" s="91" t="s">
+        <v>561</v>
+      </c>
+      <c r="H131" s="91" t="s">
+        <v>562</v>
+      </c>
       <c r="I131" s="7"/>
       <c r="J131" s="7"/>
       <c r="K131" s="7"/>
     </row>
     <row r="132">
       <c r="A132" s="98" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="B132" s="99" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="C132" s="91" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="D132" s="91" t="s">
-        <v>550</v>
-      </c>
-      <c r="E132" s="107" t="s">
-        <v>552</v>
+        <v>559</v>
+      </c>
+      <c r="E132" s="110" t="s">
+        <v>563</v>
       </c>
       <c r="F132" s="36"/>
-      <c r="G132" s="36"/>
-      <c r="H132" s="36"/>
+      <c r="G132" s="36" t="s">
+        <v>561</v>
+      </c>
+      <c r="H132" s="36" t="s">
+        <v>562</v>
+      </c>
       <c r="I132" s="7"/>
       <c r="J132" s="7"/>
       <c r="K132" s="7"/>
     </row>
     <row r="133">
       <c r="A133" s="45" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="B133" s="46" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="C133" s="58"/>
       <c r="D133" s="58"/>
@@ -15151,26 +15301,26 @@
     </row>
     <row r="134">
       <c r="A134" s="51" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="B134" s="52" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="C134" s="58" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="D134" s="58" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="E134" s="47" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="F134" s="35"/>
       <c r="G134" s="36" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="H134" s="60" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="I134" s="7"/>
       <c r="J134" s="7"/>
@@ -15178,26 +15328,26 @@
     </row>
     <row r="135">
       <c r="A135" s="78" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="B135" s="79" t="s">
-        <v>556</v>
-      </c>
-      <c r="C135" s="109" t="s">
-        <v>557</v>
-      </c>
-      <c r="D135" s="109" t="s">
-        <v>556</v>
+        <v>567</v>
+      </c>
+      <c r="C135" s="112" t="s">
+        <v>568</v>
+      </c>
+      <c r="D135" s="112" t="s">
+        <v>567</v>
       </c>
       <c r="E135" s="47" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="F135" s="35"/>
       <c r="G135" s="36" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="H135" s="47" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="I135" s="7"/>
       <c r="J135" s="7"/>
@@ -15205,26 +15355,26 @@
     </row>
     <row r="136">
       <c r="A136" s="51" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="B136" s="52" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="C136" s="58" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="D136" s="58" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="E136" s="47" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="F136" s="47"/>
       <c r="G136" s="47" t="s">
-        <v>568</v>
+        <v>525</v>
       </c>
       <c r="H136" s="47" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="I136" s="7" t="s">
         <v>69</v>
@@ -15233,11 +15383,11 @@
       <c r="K136" s="7"/>
     </row>
     <row r="137">
-      <c r="A137" s="105" t="s">
-        <v>570</v>
-      </c>
-      <c r="B137" s="106" t="s">
-        <v>571</v>
+      <c r="A137" s="106" t="s">
+        <v>580</v>
+      </c>
+      <c r="B137" s="107" t="s">
+        <v>581</v>
       </c>
       <c r="C137" s="91"/>
       <c r="D137" s="91"/>
@@ -15251,33 +15401,37 @@
     </row>
     <row r="138">
       <c r="A138" s="98" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="B138" s="99" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="C138" s="91" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="D138" s="91" t="s">
-        <v>575</v>
-      </c>
-      <c r="E138" s="107" t="s">
-        <v>576</v>
+        <v>585</v>
+      </c>
+      <c r="E138" s="110" t="s">
+        <v>586</v>
       </c>
       <c r="F138" s="36"/>
-      <c r="G138" s="36"/>
-      <c r="H138" s="36"/>
+      <c r="G138" s="36" t="s">
+        <v>561</v>
+      </c>
+      <c r="H138" s="36" t="s">
+        <v>587</v>
+      </c>
       <c r="I138" s="7"/>
       <c r="J138" s="7"/>
       <c r="K138" s="7"/>
     </row>
     <row r="139">
       <c r="A139" s="45" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="B139" s="46" t="s">
-        <v>578</v>
+        <v>589</v>
       </c>
       <c r="C139" s="7"/>
       <c r="D139" s="7"/>
@@ -15291,26 +15445,26 @@
     </row>
     <row r="140">
       <c r="A140" s="51" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="B140" s="52" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="C140" s="58" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="D140" s="58" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="E140" s="47" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="F140" s="35"/>
       <c r="G140" s="47" t="s">
-        <v>584</v>
-      </c>
-      <c r="H140" s="110" t="s">
-        <v>585</v>
+        <v>595</v>
+      </c>
+      <c r="H140" s="113" t="s">
+        <v>596</v>
       </c>
       <c r="I140" s="7"/>
       <c r="J140" s="7"/>
@@ -15318,26 +15472,26 @@
     </row>
     <row r="141">
       <c r="A141" s="62" t="s">
-        <v>579</v>
+        <v>590</v>
       </c>
       <c r="B141" s="63" t="s">
-        <v>580</v>
-      </c>
-      <c r="C141" s="111" t="s">
-        <v>581</v>
-      </c>
-      <c r="D141" s="112" t="s">
-        <v>582</v>
+        <v>591</v>
+      </c>
+      <c r="C141" s="114" t="s">
+        <v>592</v>
+      </c>
+      <c r="D141" s="115" t="s">
+        <v>593</v>
       </c>
       <c r="E141" s="47" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="F141" s="35"/>
       <c r="G141" s="47" t="s">
-        <v>584</v>
-      </c>
-      <c r="H141" s="110" t="s">
-        <v>587</v>
+        <v>595</v>
+      </c>
+      <c r="H141" s="113" t="s">
+        <v>598</v>
       </c>
       <c r="I141" s="7"/>
       <c r="J141" s="7"/>
@@ -15345,26 +15499,26 @@
     </row>
     <row r="142">
       <c r="A142" s="51" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="B142" s="52" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="C142" s="58" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="D142" s="58" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="E142" s="40" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="F142" s="58"/>
       <c r="G142" s="47" t="s">
-        <v>592</v>
-      </c>
-      <c r="H142" s="110" t="s">
-        <v>593</v>
+        <v>603</v>
+      </c>
+      <c r="H142" s="113" t="s">
+        <v>604</v>
       </c>
       <c r="I142" s="7" t="s">
         <v>69</v>
@@ -15374,26 +15528,26 @@
     </row>
     <row r="143">
       <c r="A143" s="45" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="B143" s="46" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>597</v>
+        <v>608</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="F143" s="4"/>
       <c r="G143" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="H143" s="113" t="s">
-        <v>599</v>
+      <c r="H143" s="116" t="s">
+        <v>610</v>
       </c>
       <c r="I143" s="7" t="s">
         <v>69</v>
@@ -15403,10 +15557,10 @@
     </row>
     <row r="144">
       <c r="A144" s="33" t="s">
-        <v>600</v>
+        <v>611</v>
       </c>
       <c r="B144" s="88" t="s">
-        <v>601</v>
+        <v>612</v>
       </c>
       <c r="C144" s="91"/>
       <c r="D144" s="91"/>
@@ -15420,10 +15574,10 @@
     </row>
     <row r="145">
       <c r="A145" s="38" t="s">
-        <v>602</v>
+        <v>613</v>
       </c>
       <c r="B145" s="39" t="s">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="C145" s="91"/>
       <c r="D145" s="91"/>
@@ -15436,15 +15590,15 @@
       <c r="K145" s="7"/>
     </row>
     <row r="146">
-      <c r="A146" s="105" t="s">
-        <v>604</v>
-      </c>
-      <c r="B146" s="106" t="s">
-        <v>605</v>
+      <c r="A146" s="106" t="s">
+        <v>615</v>
+      </c>
+      <c r="B146" s="107" t="s">
+        <v>616</v>
       </c>
       <c r="C146" s="91"/>
       <c r="D146" s="91"/>
-      <c r="E146" s="114"/>
+      <c r="E146" s="109"/>
       <c r="F146" s="36"/>
       <c r="G146" s="47"/>
       <c r="H146" s="47"/>
@@ -15454,19 +15608,19 @@
     </row>
     <row r="147">
       <c r="A147" s="98" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
       <c r="B147" s="99" t="s">
-        <v>607</v>
-      </c>
-      <c r="C147" s="115" t="s">
-        <v>608</v>
+        <v>618</v>
+      </c>
+      <c r="C147" s="117" t="s">
+        <v>619</v>
       </c>
       <c r="D147" s="103" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
       <c r="E147" s="104" t="s">
-        <v>610</v>
+        <v>621</v>
       </c>
       <c r="F147" s="36"/>
       <c r="G147" s="47"/>
@@ -15476,14 +15630,14 @@
       <c r="K147" s="91"/>
     </row>
     <row r="148">
-      <c r="A148" s="105" t="s">
-        <v>611</v>
-      </c>
-      <c r="B148" s="106" t="s">
-        <v>612</v>
-      </c>
-      <c r="C148" s="115"/>
-      <c r="D148" s="115"/>
+      <c r="A148" s="106" t="s">
+        <v>622</v>
+      </c>
+      <c r="B148" s="107" t="s">
+        <v>623</v>
+      </c>
+      <c r="C148" s="117"/>
+      <c r="D148" s="117"/>
       <c r="E148" s="104"/>
       <c r="F148" s="104"/>
       <c r="G148" s="36"/>
@@ -15494,19 +15648,19 @@
     </row>
     <row r="149">
       <c r="A149" s="98" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="B149" s="99" t="s">
-        <v>614</v>
-      </c>
-      <c r="C149" s="115" t="s">
-        <v>615</v>
-      </c>
-      <c r="D149" s="115" t="s">
-        <v>616</v>
+        <v>625</v>
+      </c>
+      <c r="C149" s="117" t="s">
+        <v>626</v>
+      </c>
+      <c r="D149" s="117" t="s">
+        <v>627</v>
       </c>
       <c r="E149" s="104" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="F149" s="104"/>
       <c r="G149" s="36"/>
@@ -15517,19 +15671,19 @@
     </row>
     <row r="150">
       <c r="A150" s="98" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
       <c r="B150" s="99" t="s">
+        <v>630</v>
+      </c>
+      <c r="C150" s="104" t="s">
         <v>619</v>
       </c>
-      <c r="C150" s="104" t="s">
-        <v>608</v>
-      </c>
       <c r="D150" s="103" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
       <c r="E150" s="104" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
       <c r="F150" s="104"/>
       <c r="G150" s="36"/>
@@ -15540,19 +15694,19 @@
     </row>
     <row r="151">
       <c r="A151" s="98" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="B151" s="99" t="s">
-        <v>622</v>
-      </c>
-      <c r="C151" s="115" t="s">
-        <v>608</v>
+        <v>633</v>
+      </c>
+      <c r="C151" s="117" t="s">
+        <v>619</v>
       </c>
       <c r="D151" s="103" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
       <c r="E151" s="104" t="s">
-        <v>623</v>
+        <v>634</v>
       </c>
       <c r="F151" s="104"/>
       <c r="G151" s="36"/>
@@ -15562,11 +15716,11 @@
       <c r="K151" s="7"/>
     </row>
     <row r="152">
-      <c r="A152" s="105" t="s">
-        <v>624</v>
-      </c>
-      <c r="B152" s="106" t="s">
-        <v>625</v>
+      <c r="A152" s="106" t="s">
+        <v>635</v>
+      </c>
+      <c r="B152" s="107" t="s">
+        <v>636</v>
       </c>
       <c r="C152" s="91"/>
       <c r="D152" s="91"/>
@@ -15580,19 +15734,19 @@
     </row>
     <row r="153">
       <c r="A153" s="98" t="s">
+        <v>637</v>
+      </c>
+      <c r="B153" s="99" t="s">
+        <v>625</v>
+      </c>
+      <c r="C153" s="117" t="s">
         <v>626</v>
       </c>
-      <c r="B153" s="99" t="s">
-        <v>614</v>
-      </c>
-      <c r="C153" s="115" t="s">
-        <v>615</v>
-      </c>
-      <c r="D153" s="115" t="s">
-        <v>616</v>
+      <c r="D153" s="117" t="s">
+        <v>627</v>
       </c>
       <c r="E153" s="104" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
       <c r="F153" s="36"/>
       <c r="G153" s="47"/>
@@ -15603,19 +15757,19 @@
     </row>
     <row r="154">
       <c r="A154" s="98" t="s">
-        <v>628</v>
+        <v>639</v>
       </c>
       <c r="B154" s="99" t="s">
+        <v>630</v>
+      </c>
+      <c r="C154" s="117" t="s">
         <v>619</v>
       </c>
-      <c r="C154" s="115" t="s">
-        <v>608</v>
-      </c>
       <c r="D154" s="103" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
       <c r="E154" s="104" t="s">
-        <v>629</v>
+        <v>640</v>
       </c>
       <c r="F154" s="36"/>
       <c r="G154" s="47"/>
@@ -15626,19 +15780,19 @@
     </row>
     <row r="155">
       <c r="A155" s="98" t="s">
-        <v>630</v>
+        <v>641</v>
       </c>
       <c r="B155" s="99" t="s">
-        <v>631</v>
-      </c>
-      <c r="C155" s="115" t="s">
-        <v>608</v>
+        <v>642</v>
+      </c>
+      <c r="C155" s="117" t="s">
+        <v>619</v>
       </c>
       <c r="D155" s="103" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
       <c r="E155" s="104" t="s">
-        <v>632</v>
+        <v>643</v>
       </c>
       <c r="F155" s="36"/>
       <c r="G155" s="47"/>
@@ -15649,10 +15803,10 @@
     </row>
     <row r="156">
       <c r="A156" s="45" t="s">
-        <v>633</v>
+        <v>644</v>
       </c>
       <c r="B156" s="46" t="s">
-        <v>634</v>
+        <v>645</v>
       </c>
       <c r="C156" s="91"/>
       <c r="D156" s="91"/>
@@ -15666,17 +15820,17 @@
     </row>
     <row r="157">
       <c r="A157" s="51" t="s">
-        <v>635</v>
+        <v>646</v>
       </c>
       <c r="B157" s="52" t="s">
-        <v>636</v>
+        <v>647</v>
       </c>
       <c r="C157" s="91" t="s">
-        <v>637</v>
+        <v>648</v>
       </c>
       <c r="D157" s="58"/>
       <c r="E157" s="47" t="s">
-        <v>638</v>
+        <v>649</v>
       </c>
       <c r="F157" s="36"/>
       <c r="G157" s="47"/>
@@ -15684,22 +15838,22 @@
       <c r="I157" s="7"/>
       <c r="J157" s="7"/>
       <c r="K157" s="7" t="s">
-        <v>639</v>
+        <v>650</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="51" t="s">
-        <v>640</v>
+        <v>651</v>
       </c>
       <c r="B158" s="52" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="C158" s="91" t="s">
-        <v>642</v>
+        <v>653</v>
       </c>
       <c r="D158" s="91"/>
       <c r="E158" s="47" t="s">
-        <v>643</v>
+        <v>654</v>
       </c>
       <c r="F158" s="36"/>
       <c r="G158" s="47"/>
@@ -15707,22 +15861,22 @@
       <c r="I158" s="7"/>
       <c r="J158" s="7"/>
       <c r="K158" s="7" t="s">
-        <v>639</v>
+        <v>650</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="51" t="s">
-        <v>644</v>
+        <v>655</v>
       </c>
       <c r="B159" s="52" t="s">
-        <v>645</v>
+        <v>656</v>
       </c>
       <c r="C159" s="91" t="s">
-        <v>637</v>
+        <v>648</v>
       </c>
       <c r="D159" s="91"/>
       <c r="E159" s="47" t="s">
-        <v>646</v>
+        <v>657</v>
       </c>
       <c r="F159" s="36"/>
       <c r="G159" s="47"/>
@@ -15730,15 +15884,15 @@
       <c r="I159" s="7"/>
       <c r="J159" s="7"/>
       <c r="K159" s="7" t="s">
-        <v>639</v>
+        <v>650</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="38" t="s">
-        <v>647</v>
+        <v>658</v>
       </c>
       <c r="B160" s="39" t="s">
-        <v>648</v>
+        <v>659</v>
       </c>
       <c r="C160" s="7"/>
       <c r="D160" s="7"/>
@@ -15752,10 +15906,10 @@
     </row>
     <row r="161">
       <c r="A161" s="45" t="s">
-        <v>649</v>
+        <v>660</v>
       </c>
       <c r="B161" s="46" t="s">
-        <v>650</v>
+        <v>661</v>
       </c>
       <c r="C161" s="7"/>
       <c r="D161" s="7"/>
@@ -15769,17 +15923,17 @@
     </row>
     <row r="162">
       <c r="A162" s="51" t="s">
-        <v>651</v>
+        <v>662</v>
       </c>
       <c r="B162" s="52" t="s">
-        <v>652</v>
+        <v>663</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
       <c r="D162" s="7"/>
       <c r="E162" s="4" t="s">
-        <v>653</v>
+        <v>664</v>
       </c>
       <c r="F162" s="4"/>
       <c r="G162" s="4"/>
@@ -15787,22 +15941,22 @@
       <c r="I162" s="7"/>
       <c r="J162" s="7"/>
       <c r="K162" s="7" t="s">
-        <v>639</v>
+        <v>650</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="98" t="s">
-        <v>654</v>
+        <v>665</v>
       </c>
       <c r="B163" s="52" t="s">
-        <v>655</v>
+        <v>666</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>656</v>
+        <v>667</v>
       </c>
       <c r="D163" s="7"/>
       <c r="E163" s="7" t="s">
-        <v>657</v>
+        <v>668</v>
       </c>
       <c r="F163" s="7"/>
       <c r="G163" s="7"/>
@@ -15812,22 +15966,22 @@
       </c>
       <c r="J163" s="7"/>
       <c r="K163" s="7" t="s">
-        <v>639</v>
+        <v>650</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="45" t="s">
-        <v>658</v>
+        <v>669</v>
       </c>
       <c r="B164" s="46" t="s">
-        <v>659</v>
+        <v>670</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>660</v>
+        <v>671</v>
       </c>
       <c r="D164" s="7"/>
       <c r="E164" s="4" t="s">
-        <v>661</v>
+        <v>672</v>
       </c>
       <c r="F164" s="4"/>
       <c r="G164" s="4"/>
@@ -15835,15 +15989,15 @@
       <c r="I164" s="7"/>
       <c r="J164" s="7"/>
       <c r="K164" s="7" t="s">
-        <v>639</v>
+        <v>650</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="45" t="s">
-        <v>662</v>
+        <v>673</v>
       </c>
       <c r="B165" s="46" t="s">
-        <v>663</v>
+        <v>674</v>
       </c>
       <c r="C165" s="7"/>
       <c r="D165" s="7"/>
@@ -15857,17 +16011,17 @@
     </row>
     <row r="166">
       <c r="A166" s="51" t="s">
-        <v>664</v>
+        <v>675</v>
       </c>
       <c r="B166" s="52" t="s">
-        <v>665</v>
+        <v>676</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>666</v>
+        <v>677</v>
       </c>
       <c r="D166" s="4"/>
       <c r="E166" s="4" t="s">
-        <v>667</v>
+        <v>678</v>
       </c>
       <c r="F166" s="4"/>
       <c r="G166" s="4"/>
@@ -15875,20 +16029,20 @@
       <c r="I166" s="7"/>
       <c r="J166" s="7"/>
       <c r="K166" s="7" t="s">
-        <v>639</v>
+        <v>650</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="33" t="s">
-        <v>668</v>
+        <v>679</v>
       </c>
       <c r="B167" s="88" t="s">
-        <v>669</v>
+        <v>680</v>
       </c>
       <c r="C167" s="7"/>
       <c r="D167" s="7"/>
       <c r="E167" s="35" t="s">
-        <v>670</v>
+        <v>681</v>
       </c>
       <c r="F167" s="4"/>
       <c r="G167" s="59"/>
@@ -15899,7 +16053,7 @@
     </row>
     <row r="168">
       <c r="A168" s="38" t="s">
-        <v>671</v>
+        <v>682</v>
       </c>
       <c r="B168" s="39" t="s">
         <v>8</v>
@@ -15916,10 +16070,10 @@
     </row>
     <row r="169">
       <c r="A169" s="45" t="s">
-        <v>672</v>
+        <v>683</v>
       </c>
       <c r="B169" s="46" t="s">
-        <v>673</v>
+        <v>684</v>
       </c>
       <c r="C169" s="7"/>
       <c r="D169" s="7"/>
@@ -15933,26 +16087,26 @@
     </row>
     <row r="170">
       <c r="A170" s="51" t="s">
-        <v>674</v>
+        <v>685</v>
       </c>
       <c r="B170" s="52" t="s">
-        <v>675</v>
+        <v>686</v>
       </c>
       <c r="C170" s="91" t="s">
-        <v>676</v>
+        <v>687</v>
       </c>
       <c r="D170" s="91" t="s">
-        <v>677</v>
-      </c>
-      <c r="E170" s="116" t="s">
-        <v>678</v>
-      </c>
-      <c r="F170" s="116"/>
+        <v>688</v>
+      </c>
+      <c r="E170" s="118" t="s">
+        <v>689</v>
+      </c>
+      <c r="F170" s="118"/>
       <c r="G170" s="91" t="s">
-        <v>679</v>
-      </c>
-      <c r="H170" s="117" t="s">
-        <v>680</v>
+        <v>690</v>
+      </c>
+      <c r="H170" s="119" t="s">
+        <v>691</v>
       </c>
       <c r="I170" s="7"/>
       <c r="J170" s="7"/>
@@ -15960,26 +16114,26 @@
     </row>
     <row r="171">
       <c r="A171" s="67" t="s">
-        <v>681</v>
+        <v>692</v>
       </c>
       <c r="B171" s="68" t="s">
-        <v>682</v>
+        <v>693</v>
       </c>
       <c r="C171" s="91" t="s">
-        <v>683</v>
+        <v>694</v>
       </c>
       <c r="D171" s="36" t="s">
-        <v>684</v>
-      </c>
-      <c r="E171" s="116" t="s">
-        <v>685</v>
-      </c>
-      <c r="F171" s="116"/>
+        <v>695</v>
+      </c>
+      <c r="E171" s="118" t="s">
+        <v>696</v>
+      </c>
+      <c r="F171" s="118"/>
       <c r="G171" s="36" t="s">
-        <v>686</v>
+        <v>697</v>
       </c>
       <c r="H171" s="60" t="s">
-        <v>687</v>
+        <v>698</v>
       </c>
       <c r="I171" s="7"/>
       <c r="J171" s="7"/>
@@ -15987,55 +16141,55 @@
     </row>
     <row r="172">
       <c r="A172" s="67" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="B172" s="68" t="s">
-        <v>689</v>
+        <v>700</v>
       </c>
       <c r="C172" s="91" t="s">
-        <v>690</v>
+        <v>701</v>
       </c>
       <c r="D172" s="91" t="s">
-        <v>691</v>
-      </c>
-      <c r="E172" s="118" t="s">
-        <v>685</v>
-      </c>
-      <c r="F172" s="116"/>
+        <v>702</v>
+      </c>
+      <c r="E172" s="120" t="s">
+        <v>696</v>
+      </c>
+      <c r="F172" s="118"/>
       <c r="G172" s="91" t="s">
-        <v>692</v>
-      </c>
-      <c r="H172" s="117" t="s">
-        <v>693</v>
+        <v>703</v>
+      </c>
+      <c r="H172" s="119" t="s">
+        <v>704</v>
       </c>
       <c r="I172" s="7" t="s">
-        <v>694</v>
+        <v>705</v>
       </c>
       <c r="J172" s="7"/>
       <c r="K172" s="7"/>
     </row>
     <row r="173">
       <c r="A173" s="51" t="s">
-        <v>695</v>
+        <v>706</v>
       </c>
       <c r="B173" s="52" t="s">
-        <v>696</v>
+        <v>707</v>
       </c>
       <c r="C173" s="91" t="s">
-        <v>676</v>
+        <v>687</v>
       </c>
       <c r="D173" s="91" t="s">
-        <v>677</v>
-      </c>
-      <c r="E173" s="116" t="s">
-        <v>697</v>
-      </c>
-      <c r="F173" s="116"/>
+        <v>688</v>
+      </c>
+      <c r="E173" s="118" t="s">
+        <v>708</v>
+      </c>
+      <c r="F173" s="118"/>
       <c r="G173" s="36" t="s">
-        <v>679</v>
+        <v>690</v>
       </c>
       <c r="H173" s="60" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="I173" s="7"/>
       <c r="J173" s="7"/>
@@ -16043,26 +16197,26 @@
     </row>
     <row r="174">
       <c r="A174" s="67" t="s">
-        <v>699</v>
+        <v>710</v>
       </c>
       <c r="B174" s="68" t="s">
-        <v>682</v>
+        <v>693</v>
       </c>
       <c r="C174" s="91" t="s">
-        <v>683</v>
+        <v>694</v>
       </c>
       <c r="D174" s="91" t="s">
-        <v>684</v>
-      </c>
-      <c r="E174" s="118" t="s">
-        <v>685</v>
-      </c>
-      <c r="F174" s="116"/>
+        <v>695</v>
+      </c>
+      <c r="E174" s="120" t="s">
+        <v>696</v>
+      </c>
+      <c r="F174" s="118"/>
       <c r="G174" s="36" t="s">
-        <v>686</v>
+        <v>697</v>
       </c>
       <c r="H174" s="60" t="s">
-        <v>700</v>
+        <v>711</v>
       </c>
       <c r="I174" s="7"/>
       <c r="J174" s="7"/>
@@ -16070,55 +16224,55 @@
     </row>
     <row r="175">
       <c r="A175" s="67" t="s">
+        <v>712</v>
+      </c>
+      <c r="B175" s="68" t="s">
+        <v>700</v>
+      </c>
+      <c r="C175" s="91" t="s">
         <v>701</v>
       </c>
-      <c r="B175" s="68" t="s">
-        <v>689</v>
-      </c>
-      <c r="C175" s="91" t="s">
-        <v>690</v>
-      </c>
       <c r="D175" s="91" t="s">
-        <v>691</v>
-      </c>
-      <c r="E175" s="118" t="s">
-        <v>685</v>
-      </c>
-      <c r="F175" s="116"/>
+        <v>702</v>
+      </c>
+      <c r="E175" s="120" t="s">
+        <v>696</v>
+      </c>
+      <c r="F175" s="118"/>
       <c r="G175" s="36" t="s">
-        <v>692</v>
+        <v>703</v>
       </c>
       <c r="H175" s="36" t="s">
-        <v>702</v>
+        <v>713</v>
       </c>
       <c r="I175" s="7" t="s">
-        <v>694</v>
+        <v>705</v>
       </c>
       <c r="J175" s="7"/>
       <c r="K175" s="7"/>
     </row>
     <row r="176">
       <c r="A176" s="51" t="s">
-        <v>703</v>
+        <v>714</v>
       </c>
       <c r="B176" s="52" t="s">
-        <v>704</v>
+        <v>715</v>
       </c>
       <c r="C176" s="91" t="s">
-        <v>676</v>
+        <v>687</v>
       </c>
       <c r="D176" s="91" t="s">
-        <v>677</v>
-      </c>
-      <c r="E176" s="116" t="s">
-        <v>705</v>
-      </c>
-      <c r="F176" s="116"/>
+        <v>688</v>
+      </c>
+      <c r="E176" s="118" t="s">
+        <v>716</v>
+      </c>
+      <c r="F176" s="118"/>
       <c r="G176" s="36" t="s">
-        <v>679</v>
+        <v>690</v>
       </c>
       <c r="H176" s="47" t="s">
-        <v>706</v>
+        <v>717</v>
       </c>
       <c r="I176" s="7"/>
       <c r="J176" s="7"/>
@@ -16126,26 +16280,26 @@
     </row>
     <row r="177">
       <c r="A177" s="67" t="s">
-        <v>707</v>
+        <v>718</v>
       </c>
       <c r="B177" s="68" t="s">
-        <v>682</v>
+        <v>693</v>
       </c>
       <c r="C177" s="91" t="s">
-        <v>683</v>
+        <v>694</v>
       </c>
       <c r="D177" s="91" t="s">
-        <v>684</v>
-      </c>
-      <c r="E177" s="118" t="s">
-        <v>685</v>
-      </c>
-      <c r="F177" s="116"/>
+        <v>695</v>
+      </c>
+      <c r="E177" s="120" t="s">
+        <v>696</v>
+      </c>
+      <c r="F177" s="118"/>
       <c r="G177" s="36" t="s">
-        <v>686</v>
+        <v>697</v>
       </c>
       <c r="H177" s="60" t="s">
-        <v>708</v>
+        <v>719</v>
       </c>
       <c r="I177" s="7"/>
       <c r="J177" s="7"/>
@@ -16153,55 +16307,55 @@
     </row>
     <row r="178">
       <c r="A178" s="67" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="B178" s="68" t="s">
-        <v>689</v>
+        <v>700</v>
       </c>
       <c r="C178" s="91" t="s">
-        <v>690</v>
+        <v>701</v>
       </c>
       <c r="D178" s="91" t="s">
-        <v>691</v>
-      </c>
-      <c r="E178" s="118" t="s">
-        <v>685</v>
-      </c>
-      <c r="F178" s="116"/>
+        <v>702</v>
+      </c>
+      <c r="E178" s="120" t="s">
+        <v>696</v>
+      </c>
+      <c r="F178" s="118"/>
       <c r="G178" s="36" t="s">
-        <v>692</v>
+        <v>703</v>
       </c>
       <c r="H178" s="36" t="s">
-        <v>702</v>
+        <v>713</v>
       </c>
       <c r="I178" s="7" t="s">
-        <v>694</v>
+        <v>705</v>
       </c>
       <c r="J178" s="7"/>
       <c r="K178" s="7"/>
     </row>
     <row r="179">
       <c r="A179" s="51" t="s">
-        <v>710</v>
+        <v>721</v>
       </c>
       <c r="B179" s="52" t="s">
-        <v>711</v>
+        <v>722</v>
       </c>
       <c r="C179" s="36" t="s">
-        <v>676</v>
+        <v>687</v>
       </c>
       <c r="D179" s="91" t="s">
-        <v>677</v>
-      </c>
-      <c r="E179" s="116" t="s">
-        <v>712</v>
-      </c>
-      <c r="F179" s="116"/>
+        <v>688</v>
+      </c>
+      <c r="E179" s="118" t="s">
+        <v>723</v>
+      </c>
+      <c r="F179" s="118"/>
       <c r="G179" s="36" t="s">
-        <v>679</v>
+        <v>690</v>
       </c>
       <c r="H179" s="47" t="s">
-        <v>713</v>
+        <v>724</v>
       </c>
       <c r="I179" s="7"/>
       <c r="J179" s="7"/>
@@ -16209,26 +16363,26 @@
     </row>
     <row r="180">
       <c r="A180" s="51" t="s">
-        <v>714</v>
+        <v>725</v>
       </c>
       <c r="B180" s="52" t="s">
-        <v>715</v>
+        <v>726</v>
       </c>
       <c r="C180" s="91" t="s">
-        <v>676</v>
+        <v>687</v>
       </c>
       <c r="D180" s="91" t="s">
-        <v>677</v>
+        <v>688</v>
       </c>
       <c r="E180" s="47" t="s">
-        <v>716</v>
+        <v>727</v>
       </c>
       <c r="F180" s="47"/>
       <c r="G180" s="36" t="s">
-        <v>679</v>
+        <v>690</v>
       </c>
       <c r="H180" s="47" t="s">
-        <v>717</v>
+        <v>728</v>
       </c>
       <c r="I180" s="7"/>
       <c r="J180" s="7"/>
@@ -16236,183 +16390,191 @@
     </row>
     <row r="181">
       <c r="A181" s="51" t="s">
-        <v>718</v>
+        <v>729</v>
       </c>
       <c r="B181" s="52" t="s">
-        <v>719</v>
+        <v>730</v>
       </c>
       <c r="C181" s="91" t="s">
-        <v>720</v>
+        <v>731</v>
       </c>
       <c r="D181" s="91" t="s">
-        <v>721</v>
+        <v>732</v>
       </c>
       <c r="E181" s="47" t="s">
-        <v>722</v>
+        <v>733</v>
       </c>
       <c r="F181" s="47"/>
       <c r="G181" s="36" t="s">
-        <v>723</v>
+        <v>734</v>
       </c>
       <c r="H181" s="36" t="s">
-        <v>724</v>
+        <v>735</v>
       </c>
       <c r="I181" s="7"/>
       <c r="J181" s="7"/>
       <c r="K181" s="7"/>
     </row>
     <row r="182">
-      <c r="A182" s="119" t="s">
-        <v>725</v>
-      </c>
-      <c r="B182" s="120" t="s">
-        <v>726</v>
+      <c r="A182" s="121" t="s">
+        <v>736</v>
+      </c>
+      <c r="B182" s="122" t="s">
+        <v>737</v>
       </c>
       <c r="C182" s="103" t="s">
-        <v>727</v>
+        <v>738</v>
       </c>
       <c r="D182" s="91" t="s">
-        <v>728</v>
-      </c>
-      <c r="E182" s="121" t="s">
-        <v>729</v>
-      </c>
-      <c r="F182" s="121"/>
-      <c r="G182" s="121"/>
+        <v>739</v>
+      </c>
+      <c r="E182" s="105" t="s">
+        <v>740</v>
+      </c>
+      <c r="F182" s="105"/>
+      <c r="G182" s="105"/>
       <c r="H182" s="4"/>
       <c r="I182" s="7"/>
       <c r="J182" s="7"/>
       <c r="K182" s="7"/>
     </row>
     <row r="183">
-      <c r="A183" s="119" t="s">
-        <v>730</v>
-      </c>
-      <c r="B183" s="120" t="s">
-        <v>731</v>
+      <c r="A183" s="121" t="s">
+        <v>741</v>
+      </c>
+      <c r="B183" s="122" t="s">
+        <v>742</v>
       </c>
       <c r="C183" s="103" t="s">
-        <v>727</v>
+        <v>738</v>
       </c>
       <c r="D183" s="91" t="s">
-        <v>728</v>
-      </c>
-      <c r="E183" s="121" t="s">
-        <v>732</v>
+        <v>739</v>
+      </c>
+      <c r="E183" s="105" t="s">
+        <v>743</v>
       </c>
       <c r="F183" s="103"/>
-      <c r="G183" s="121"/>
+      <c r="G183" s="105"/>
       <c r="H183" s="4"/>
       <c r="I183" s="7"/>
       <c r="J183" s="7"/>
       <c r="K183" s="7"/>
     </row>
     <row r="184">
-      <c r="A184" s="119" t="s">
-        <v>733</v>
-      </c>
-      <c r="B184" s="120" t="s">
-        <v>734</v>
+      <c r="A184" s="121" t="s">
+        <v>744</v>
+      </c>
+      <c r="B184" s="122" t="s">
+        <v>745</v>
       </c>
       <c r="C184" s="103" t="s">
-        <v>735</v>
+        <v>746</v>
       </c>
       <c r="D184" s="103" t="s">
-        <v>736</v>
-      </c>
-      <c r="E184" s="121" t="s">
-        <v>737</v>
-      </c>
-      <c r="F184" s="121"/>
-      <c r="G184" s="121"/>
-      <c r="H184" s="4"/>
+        <v>747</v>
+      </c>
+      <c r="E184" s="105" t="s">
+        <v>748</v>
+      </c>
+      <c r="F184" s="105"/>
+      <c r="G184" s="105" t="s">
+        <v>749</v>
+      </c>
+      <c r="H184" s="4" t="s">
+        <v>750</v>
+      </c>
       <c r="I184" s="7"/>
       <c r="J184" s="7"/>
       <c r="K184" s="7"/>
     </row>
     <row r="185">
       <c r="A185" s="51" t="s">
-        <v>738</v>
+        <v>751</v>
       </c>
       <c r="B185" s="52" t="s">
-        <v>739</v>
-      </c>
-      <c r="C185" s="7" t="s">
-        <v>740</v>
-      </c>
-      <c r="D185" s="7" t="s">
-        <v>741</v>
+        <v>752</v>
+      </c>
+      <c r="C185" s="103" t="s">
+        <v>753</v>
+      </c>
+      <c r="D185" s="103" t="s">
+        <v>754</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>742</v>
+        <v>755</v>
       </c>
       <c r="F185" s="4"/>
-      <c r="G185" s="4" t="s">
-        <v>743</v>
-      </c>
-      <c r="H185" s="93" t="s">
-        <v>744</v>
+      <c r="G185" s="105" t="s">
+        <v>756</v>
+      </c>
+      <c r="H185" s="105" t="s">
+        <v>757</v>
       </c>
       <c r="I185" s="7"/>
       <c r="J185" s="7"/>
       <c r="K185" s="7"/>
     </row>
     <row r="186">
-      <c r="A186" s="119" t="s">
-        <v>745</v>
-      </c>
-      <c r="B186" s="120" t="s">
-        <v>746</v>
+      <c r="A186" s="121" t="s">
+        <v>758</v>
+      </c>
+      <c r="B186" s="122" t="s">
+        <v>759</v>
       </c>
       <c r="C186" s="103" t="s">
-        <v>740</v>
+        <v>753</v>
       </c>
       <c r="D186" s="103" t="s">
-        <v>741</v>
-      </c>
-      <c r="E186" s="121" t="s">
-        <v>747</v>
+        <v>754</v>
+      </c>
+      <c r="E186" s="105" t="s">
+        <v>760</v>
       </c>
       <c r="F186" s="4"/>
-      <c r="G186" s="4"/>
-      <c r="H186" s="4"/>
+      <c r="G186" s="105" t="s">
+        <v>756</v>
+      </c>
+      <c r="H186" s="105" t="s">
+        <v>757</v>
+      </c>
       <c r="I186" s="103"/>
       <c r="J186" s="7"/>
       <c r="K186" s="7"/>
     </row>
     <row r="187">
       <c r="A187" s="51" t="s">
-        <v>738</v>
+        <v>751</v>
       </c>
       <c r="B187" s="52" t="s">
-        <v>748</v>
+        <v>761</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>749</v>
+        <v>762</v>
       </c>
       <c r="D187" s="7"/>
       <c r="E187" s="4" t="s">
-        <v>750</v>
+        <v>763</v>
       </c>
       <c r="F187" s="4"/>
       <c r="G187" s="4" t="s">
-        <v>751</v>
+        <v>764</v>
       </c>
       <c r="H187" s="4" t="s">
-        <v>752</v>
+        <v>765</v>
       </c>
       <c r="I187" s="7" t="s">
-        <v>753</v>
+        <v>766</v>
       </c>
       <c r="J187" s="7"/>
       <c r="K187" s="7"/>
     </row>
     <row r="188">
-      <c r="A188" s="122" t="s">
-        <v>754</v>
-      </c>
-      <c r="B188" s="106" t="s">
-        <v>755</v>
+      <c r="A188" s="123" t="s">
+        <v>767</v>
+      </c>
+      <c r="B188" s="107" t="s">
+        <v>768</v>
       </c>
       <c r="C188" s="103"/>
       <c r="D188" s="91"/>
@@ -16426,33 +16588,37 @@
     </row>
     <row r="189">
       <c r="A189" s="98" t="s">
-        <v>756</v>
+        <v>769</v>
       </c>
       <c r="B189" s="99" t="s">
-        <v>757</v>
-      </c>
-      <c r="C189" s="121" t="s">
-        <v>758</v>
+        <v>770</v>
+      </c>
+      <c r="C189" s="105" t="s">
+        <v>771</v>
       </c>
       <c r="D189" s="91" t="s">
-        <v>759</v>
+        <v>772</v>
       </c>
       <c r="E189" s="36" t="s">
-        <v>760</v>
+        <v>773</v>
       </c>
       <c r="F189" s="36"/>
-      <c r="G189" s="36"/>
-      <c r="H189" s="36"/>
+      <c r="G189" s="36" t="s">
+        <v>774</v>
+      </c>
+      <c r="H189" s="36" t="s">
+        <v>775</v>
+      </c>
       <c r="I189" s="7"/>
       <c r="J189" s="7"/>
       <c r="K189" s="7"/>
     </row>
     <row r="190">
-      <c r="A190" s="122" t="s">
-        <v>761</v>
-      </c>
-      <c r="B190" s="106" t="s">
-        <v>762</v>
+      <c r="A190" s="123" t="s">
+        <v>776</v>
+      </c>
+      <c r="B190" s="107" t="s">
+        <v>777</v>
       </c>
       <c r="C190" s="103"/>
       <c r="D190" s="91"/>
@@ -16466,36 +16632,40 @@
     </row>
     <row r="191">
       <c r="A191" s="98" t="s">
-        <v>763</v>
+        <v>778</v>
       </c>
       <c r="B191" s="99" t="s">
-        <v>764</v>
+        <v>779</v>
       </c>
       <c r="C191" s="103" t="s">
-        <v>765</v>
+        <v>780</v>
       </c>
       <c r="D191" s="91" t="s">
-        <v>766</v>
+        <v>781</v>
       </c>
       <c r="E191" s="36" t="s">
-        <v>767</v>
+        <v>782</v>
       </c>
       <c r="F191" s="36"/>
-      <c r="G191" s="36"/>
-      <c r="H191" s="36"/>
+      <c r="G191" s="36" t="s">
+        <v>774</v>
+      </c>
+      <c r="H191" s="36" t="s">
+        <v>783</v>
+      </c>
       <c r="I191" s="7"/>
       <c r="J191" s="7"/>
       <c r="K191" s="7"/>
     </row>
     <row r="192">
       <c r="A192" s="45" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
       <c r="B192" s="46" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
       <c r="D192" s="91"/>
       <c r="E192" s="36"/>
@@ -16508,26 +16678,26 @@
     </row>
     <row r="193">
       <c r="A193" s="51" t="s">
-        <v>771</v>
+        <v>787</v>
       </c>
       <c r="B193" s="52" t="s">
-        <v>772</v>
+        <v>788</v>
       </c>
       <c r="C193" s="91" t="s">
-        <v>773</v>
+        <v>789</v>
       </c>
       <c r="D193" s="91" t="s">
-        <v>774</v>
+        <v>790</v>
       </c>
       <c r="E193" s="47" t="s">
-        <v>775</v>
+        <v>791</v>
       </c>
       <c r="F193" s="47"/>
       <c r="G193" s="36" t="s">
-        <v>776</v>
+        <v>792</v>
       </c>
       <c r="H193" s="60" t="s">
-        <v>777</v>
+        <v>793</v>
       </c>
       <c r="I193" s="7"/>
       <c r="J193" s="7"/>
@@ -16535,53 +16705,53 @@
     </row>
     <row r="194">
       <c r="A194" s="45" t="s">
-        <v>778</v>
+        <v>794</v>
       </c>
       <c r="B194" s="46" t="s">
-        <v>779</v>
+        <v>795</v>
       </c>
       <c r="C194" s="91" t="s">
-        <v>780</v>
+        <v>796</v>
       </c>
       <c r="D194" s="91" t="s">
-        <v>781</v>
+        <v>797</v>
       </c>
       <c r="E194" s="47" t="s">
-        <v>782</v>
+        <v>798</v>
       </c>
       <c r="F194" s="91"/>
       <c r="G194" s="36" t="s">
-        <v>686</v>
+        <v>697</v>
       </c>
       <c r="H194" s="60" t="s">
-        <v>783</v>
+        <v>799</v>
       </c>
       <c r="I194" s="7"/>
       <c r="J194" s="7"/>
       <c r="K194" s="7"/>
     </row>
     <row r="195">
-      <c r="A195" s="123" t="s">
-        <v>778</v>
-      </c>
-      <c r="B195" s="124" t="s">
-        <v>779</v>
-      </c>
-      <c r="C195" s="112" t="s">
-        <v>780</v>
-      </c>
-      <c r="D195" s="112" t="s">
-        <v>781</v>
+      <c r="A195" s="124" t="s">
+        <v>794</v>
+      </c>
+      <c r="B195" s="125" t="s">
+        <v>795</v>
+      </c>
+      <c r="C195" s="115" t="s">
+        <v>796</v>
+      </c>
+      <c r="D195" s="115" t="s">
+        <v>797</v>
       </c>
       <c r="E195" s="47" t="s">
-        <v>784</v>
+        <v>800</v>
       </c>
       <c r="F195" s="36"/>
       <c r="G195" s="36" t="s">
-        <v>686</v>
+        <v>697</v>
       </c>
       <c r="H195" s="60" t="s">
-        <v>785</v>
+        <v>801</v>
       </c>
       <c r="I195" s="7"/>
       <c r="J195" s="7"/>
@@ -16589,10 +16759,10 @@
     </row>
     <row r="196">
       <c r="A196" s="38" t="s">
-        <v>786</v>
+        <v>802</v>
       </c>
       <c r="B196" s="39" t="s">
-        <v>787</v>
+        <v>803</v>
       </c>
       <c r="C196" s="7"/>
       <c r="D196" s="7"/>
@@ -16606,22 +16776,22 @@
     </row>
     <row r="197">
       <c r="A197" s="45" t="s">
-        <v>788</v>
+        <v>804</v>
       </c>
       <c r="B197" s="46" t="s">
-        <v>789</v>
+        <v>805</v>
       </c>
       <c r="C197" s="91"/>
       <c r="D197" s="91"/>
       <c r="E197" s="47" t="s">
-        <v>790</v>
+        <v>806</v>
       </c>
       <c r="F197" s="36"/>
       <c r="G197" s="47" t="s">
-        <v>791</v>
+        <v>807</v>
       </c>
       <c r="H197" s="60" t="s">
-        <v>792</v>
+        <v>808</v>
       </c>
       <c r="I197" s="7" t="s">
         <v>77</v>
@@ -16631,99 +16801,99 @@
     </row>
     <row r="198">
       <c r="A198" s="45" t="s">
-        <v>793</v>
+        <v>809</v>
       </c>
       <c r="B198" s="46" t="s">
-        <v>794</v>
+        <v>810</v>
       </c>
       <c r="C198" s="7" t="s">
-        <v>656</v>
+        <v>667</v>
       </c>
       <c r="D198" s="7"/>
       <c r="E198" s="35" t="s">
-        <v>795</v>
+        <v>811</v>
       </c>
       <c r="F198" s="35" t="s">
-        <v>796</v>
+        <v>812</v>
       </c>
       <c r="G198" s="35" t="s">
-        <v>797</v>
+        <v>813</v>
       </c>
       <c r="H198" s="35" t="s">
-        <v>798</v>
+        <v>814</v>
       </c>
       <c r="I198" s="7"/>
       <c r="J198" s="7"/>
       <c r="K198" s="70" t="s">
-        <v>799</v>
+        <v>815</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="45" t="s">
-        <v>800</v>
+        <v>816</v>
       </c>
       <c r="B199" s="46" t="s">
-        <v>794</v>
+        <v>810</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>656</v>
+        <v>667</v>
       </c>
       <c r="D199" s="7"/>
       <c r="E199" s="40" t="s">
-        <v>795</v>
+        <v>811</v>
       </c>
       <c r="F199" s="35" t="s">
-        <v>801</v>
+        <v>817</v>
       </c>
       <c r="G199" s="35" t="s">
-        <v>797</v>
+        <v>813</v>
       </c>
       <c r="H199" s="35" t="s">
-        <v>802</v>
+        <v>818</v>
       </c>
       <c r="I199" s="7"/>
       <c r="J199" s="7"/>
       <c r="K199" s="70" t="s">
-        <v>803</v>
+        <v>819</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="45" t="s">
-        <v>804</v>
+        <v>820</v>
       </c>
       <c r="B200" s="46" t="s">
-        <v>805</v>
+        <v>821</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>806</v>
+        <v>822</v>
       </c>
       <c r="D200" s="7"/>
       <c r="E200" s="35" t="s">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="F200" s="4"/>
       <c r="G200" s="4" t="s">
-        <v>808</v>
+        <v>824</v>
       </c>
       <c r="H200" s="35" t="s">
-        <v>809</v>
+        <v>825</v>
       </c>
       <c r="I200" s="7"/>
       <c r="J200" s="7"/>
       <c r="K200" s="7"/>
     </row>
     <row r="201">
-      <c r="A201" s="105" t="s">
-        <v>810</v>
-      </c>
-      <c r="B201" s="106" t="s">
-        <v>811</v>
+      <c r="A201" s="106" t="s">
+        <v>826</v>
+      </c>
+      <c r="B201" s="107" t="s">
+        <v>827</v>
       </c>
       <c r="C201" s="7"/>
       <c r="D201" s="7"/>
       <c r="E201" s="4"/>
       <c r="F201" s="4"/>
-      <c r="G201" s="121"/>
+      <c r="G201" s="105"/>
       <c r="H201" s="4"/>
       <c r="I201" s="7"/>
       <c r="J201" s="7"/>
@@ -16731,62 +16901,70 @@
     </row>
     <row r="202">
       <c r="A202" s="98" t="s">
-        <v>812</v>
+        <v>828</v>
       </c>
       <c r="B202" s="99" t="s">
-        <v>813</v>
+        <v>829</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>814</v>
+        <v>830</v>
       </c>
       <c r="D202" s="7" t="s">
-        <v>815</v>
-      </c>
-      <c r="E202" s="121" t="s">
-        <v>816</v>
+        <v>831</v>
+      </c>
+      <c r="E202" s="105" t="s">
+        <v>832</v>
       </c>
       <c r="F202" s="4"/>
-      <c r="G202" s="121"/>
-      <c r="H202" s="4"/>
+      <c r="G202" s="105" t="s">
+        <v>833</v>
+      </c>
+      <c r="H202" s="105" t="s">
+        <v>834</v>
+      </c>
       <c r="I202" s="7"/>
       <c r="J202" s="7"/>
       <c r="K202" s="7"/>
     </row>
     <row r="203">
       <c r="A203" s="98" t="s">
-        <v>817</v>
+        <v>835</v>
       </c>
       <c r="B203" s="99" t="s">
-        <v>818</v>
+        <v>836</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>819</v>
+        <v>837</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>820</v>
-      </c>
-      <c r="E203" s="121" t="s">
-        <v>821</v>
+        <v>838</v>
+      </c>
+      <c r="E203" s="105" t="s">
+        <v>839</v>
       </c>
       <c r="F203" s="4"/>
-      <c r="G203" s="121"/>
-      <c r="H203" s="4"/>
+      <c r="G203" s="105" t="s">
+        <v>840</v>
+      </c>
+      <c r="H203" s="4" t="s">
+        <v>841</v>
+      </c>
       <c r="I203" s="7"/>
       <c r="J203" s="7"/>
       <c r="K203" s="7"/>
     </row>
     <row r="204">
-      <c r="A204" s="105" t="s">
-        <v>822</v>
-      </c>
-      <c r="B204" s="106" t="s">
-        <v>823</v>
-      </c>
-      <c r="C204" s="125"/>
-      <c r="D204" s="125"/>
+      <c r="A204" s="106" t="s">
+        <v>842</v>
+      </c>
+      <c r="B204" s="107" t="s">
+        <v>843</v>
+      </c>
+      <c r="C204" s="126"/>
+      <c r="D204" s="126"/>
       <c r="E204" s="4"/>
       <c r="F204" s="4"/>
-      <c r="G204" s="121"/>
+      <c r="G204" s="105"/>
       <c r="H204" s="4"/>
       <c r="I204" s="7"/>
       <c r="J204" s="7"/>
@@ -16794,102 +16972,118 @@
     </row>
     <row r="205">
       <c r="A205" s="98" t="s">
-        <v>824</v>
+        <v>844</v>
       </c>
       <c r="B205" s="99" t="s">
-        <v>825</v>
+        <v>845</v>
       </c>
       <c r="C205" s="103" t="s">
-        <v>826</v>
+        <v>846</v>
       </c>
       <c r="D205" s="103" t="s">
-        <v>827</v>
+        <v>847</v>
       </c>
       <c r="E205" s="103" t="s">
-        <v>828</v>
+        <v>848</v>
       </c>
       <c r="F205" s="7"/>
-      <c r="G205" s="103"/>
-      <c r="H205" s="7"/>
+      <c r="G205" s="103" t="s">
+        <v>849</v>
+      </c>
+      <c r="H205" s="7" t="s">
+        <v>850</v>
+      </c>
       <c r="I205" s="7"/>
       <c r="J205" s="7"/>
       <c r="K205" s="7"/>
     </row>
     <row r="206">
       <c r="A206" s="98" t="s">
-        <v>829</v>
+        <v>851</v>
       </c>
       <c r="B206" s="99" t="s">
-        <v>830</v>
+        <v>852</v>
       </c>
       <c r="C206" s="103" t="s">
-        <v>826</v>
+        <v>846</v>
       </c>
       <c r="D206" s="103" t="s">
-        <v>827</v>
-      </c>
-      <c r="E206" s="121" t="s">
-        <v>831</v>
+        <v>847</v>
+      </c>
+      <c r="E206" s="105" t="s">
+        <v>853</v>
       </c>
       <c r="F206" s="7"/>
-      <c r="G206" s="103"/>
-      <c r="H206" s="7"/>
+      <c r="G206" s="103" t="s">
+        <v>849</v>
+      </c>
+      <c r="H206" s="7" t="s">
+        <v>850</v>
+      </c>
       <c r="I206" s="7"/>
       <c r="J206" s="7"/>
       <c r="K206" s="7"/>
     </row>
     <row r="207">
       <c r="A207" s="98" t="s">
-        <v>832</v>
+        <v>854</v>
       </c>
       <c r="B207" s="99" t="s">
-        <v>833</v>
+        <v>855</v>
       </c>
       <c r="C207" s="103" t="s">
-        <v>834</v>
+        <v>856</v>
       </c>
       <c r="D207" s="103" t="s">
-        <v>835</v>
-      </c>
-      <c r="E207" s="121" t="s">
-        <v>836</v>
+        <v>857</v>
+      </c>
+      <c r="E207" s="105" t="s">
+        <v>858</v>
       </c>
       <c r="F207" s="4"/>
-      <c r="G207" s="121"/>
-      <c r="H207" s="4"/>
+      <c r="G207" s="105" t="s">
+        <v>859</v>
+      </c>
+      <c r="H207" s="4" t="s">
+        <v>860</v>
+      </c>
       <c r="I207" s="7"/>
       <c r="J207" s="7"/>
       <c r="K207" s="7"/>
     </row>
     <row r="208">
       <c r="A208" s="98" t="s">
-        <v>837</v>
+        <v>861</v>
       </c>
       <c r="B208" s="99" t="s">
-        <v>838</v>
+        <v>862</v>
       </c>
       <c r="C208" s="103" t="s">
-        <v>839</v>
+        <v>863</v>
       </c>
       <c r="D208" s="103" t="s">
-        <v>840</v>
-      </c>
-      <c r="E208" s="121" t="s">
-        <v>841</v>
+        <v>864</v>
+      </c>
+      <c r="E208" s="105" t="s">
+        <v>865</v>
       </c>
       <c r="F208" s="7"/>
-      <c r="G208" s="121"/>
-      <c r="H208" s="4"/>
+      <c r="G208" s="105" t="s">
+        <v>866</v>
+      </c>
+      <c r="H208" s="4" t="s">
+        <v>867</v>
+      </c>
       <c r="I208" s="7"/>
       <c r="J208" s="7"/>
       <c r="K208" s="7"/>
     </row>
     <row r="209">
       <c r="A209" s="33" t="s">
-        <v>842</v>
+        <v>868</v>
       </c>
       <c r="B209" s="34" t="s">
-        <v>843</v>
+        <v>869</v>
       </c>
       <c r="C209" s="7"/>
       <c r="D209" s="7"/>
@@ -16902,11 +17096,11 @@
       <c r="K209" s="7"/>
     </row>
     <row r="210">
-      <c r="A210" s="126" t="s">
-        <v>844</v>
-      </c>
-      <c r="B210" s="127" t="s">
-        <v>845</v>
+      <c r="A210" s="127" t="s">
+        <v>870</v>
+      </c>
+      <c r="B210" s="128" t="s">
+        <v>871</v>
       </c>
       <c r="C210" s="7"/>
       <c r="D210" s="7"/>
@@ -16919,80 +17113,92 @@
       <c r="K210" s="7"/>
     </row>
     <row r="211">
-      <c r="A211" s="105" t="s">
-        <v>846</v>
-      </c>
-      <c r="B211" s="106" t="s">
-        <v>847</v>
+      <c r="A211" s="106" t="s">
+        <v>872</v>
+      </c>
+      <c r="B211" s="107" t="s">
+        <v>873</v>
       </c>
       <c r="C211" s="103" t="s">
-        <v>848</v>
+        <v>874</v>
       </c>
       <c r="D211" s="103" t="s">
-        <v>849</v>
+        <v>875</v>
       </c>
       <c r="E211" s="94" t="s">
-        <v>850</v>
+        <v>876</v>
       </c>
       <c r="F211" s="18"/>
-      <c r="G211" s="7"/>
-      <c r="H211" s="91"/>
+      <c r="G211" s="103" t="s">
+        <v>697</v>
+      </c>
+      <c r="H211" s="117" t="s">
+        <v>877</v>
+      </c>
       <c r="I211" s="7"/>
       <c r="J211" s="7"/>
       <c r="K211" s="7"/>
     </row>
     <row r="212">
-      <c r="A212" s="105" t="s">
-        <v>846</v>
-      </c>
-      <c r="B212" s="106" t="s">
-        <v>847</v>
+      <c r="A212" s="106" t="s">
+        <v>872</v>
+      </c>
+      <c r="B212" s="107" t="s">
+        <v>873</v>
       </c>
       <c r="C212" s="103" t="s">
-        <v>848</v>
+        <v>874</v>
       </c>
       <c r="D212" s="103" t="s">
-        <v>849</v>
+        <v>875</v>
       </c>
       <c r="E212" s="94" t="s">
-        <v>851</v>
+        <v>878</v>
       </c>
       <c r="F212" s="18"/>
-      <c r="G212" s="4"/>
-      <c r="H212" s="36"/>
+      <c r="G212" s="105" t="s">
+        <v>697</v>
+      </c>
+      <c r="H212" s="104" t="s">
+        <v>877</v>
+      </c>
       <c r="I212" s="7"/>
       <c r="J212" s="7"/>
       <c r="K212" s="7"/>
     </row>
     <row r="213">
-      <c r="A213" s="105" t="s">
-        <v>852</v>
-      </c>
-      <c r="B213" s="106" t="s">
-        <v>853</v>
+      <c r="A213" s="106" t="s">
+        <v>879</v>
+      </c>
+      <c r="B213" s="107" t="s">
+        <v>880</v>
       </c>
       <c r="C213" s="103" t="s">
-        <v>854</v>
+        <v>881</v>
       </c>
       <c r="D213" s="103" t="s">
-        <v>855</v>
+        <v>882</v>
       </c>
       <c r="E213" s="94" t="s">
-        <v>856</v>
+        <v>883</v>
       </c>
       <c r="F213" s="18"/>
-      <c r="G213" s="4"/>
-      <c r="H213" s="36"/>
+      <c r="G213" s="105" t="s">
+        <v>703</v>
+      </c>
+      <c r="H213" s="104" t="s">
+        <v>884</v>
+      </c>
       <c r="I213" s="7"/>
       <c r="J213" s="7"/>
       <c r="K213" s="7"/>
     </row>
     <row r="214">
       <c r="A214" s="38" t="s">
-        <v>857</v>
+        <v>885</v>
       </c>
       <c r="B214" s="39" t="s">
-        <v>858</v>
+        <v>886</v>
       </c>
       <c r="C214" s="7"/>
       <c r="D214" s="7"/>
@@ -17006,24 +17212,24 @@
     </row>
     <row r="215">
       <c r="A215" s="45" t="s">
-        <v>859</v>
+        <v>887</v>
       </c>
       <c r="B215" s="46" t="s">
-        <v>860</v>
+        <v>888</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>861</v>
+        <v>889</v>
       </c>
       <c r="D215" s="7"/>
       <c r="E215" s="18" t="s">
-        <v>862</v>
+        <v>890</v>
       </c>
       <c r="F215" s="18"/>
       <c r="G215" s="4" t="s">
-        <v>863</v>
-      </c>
-      <c r="H215" s="128" t="s">
-        <v>864</v>
+        <v>891</v>
+      </c>
+      <c r="H215" s="129" t="s">
+        <v>892</v>
       </c>
       <c r="I215" s="7"/>
       <c r="J215" s="7"/>
@@ -17031,51 +17237,51 @@
     </row>
     <row r="216">
       <c r="A216" s="45" t="s">
-        <v>865</v>
+        <v>893</v>
       </c>
       <c r="B216" s="46" t="s">
-        <v>866</v>
+        <v>894</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>867</v>
+        <v>895</v>
       </c>
       <c r="D216" s="7"/>
       <c r="E216" s="18" t="s">
-        <v>868</v>
+        <v>896</v>
       </c>
       <c r="F216" s="18"/>
       <c r="G216" s="4" t="s">
-        <v>863</v>
-      </c>
-      <c r="H216" s="128" t="s">
-        <v>869</v>
+        <v>891</v>
+      </c>
+      <c r="H216" s="129" t="s">
+        <v>897</v>
       </c>
       <c r="I216" s="7"/>
       <c r="J216" s="7"/>
       <c r="K216" s="75" t="s">
-        <v>870</v>
+        <v>898</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="45" t="s">
-        <v>871</v>
+        <v>899</v>
       </c>
       <c r="B217" s="46" t="s">
-        <v>872</v>
+        <v>900</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>873</v>
+        <v>901</v>
       </c>
       <c r="D217" s="7"/>
       <c r="E217" s="18" t="s">
-        <v>874</v>
+        <v>902</v>
       </c>
       <c r="F217" s="18"/>
       <c r="G217" s="4" t="s">
-        <v>863</v>
-      </c>
-      <c r="H217" s="128" t="s">
-        <v>875</v>
+        <v>891</v>
+      </c>
+      <c r="H217" s="129" t="s">
+        <v>903</v>
       </c>
       <c r="I217" s="7"/>
       <c r="J217" s="7"/>
@@ -17083,26 +17289,26 @@
     </row>
     <row r="218">
       <c r="A218" s="38" t="s">
-        <v>876</v>
+        <v>904</v>
       </c>
       <c r="B218" s="39" t="s">
-        <v>595</v>
+        <v>606</v>
       </c>
       <c r="C218" s="58" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>597</v>
-      </c>
-      <c r="E218" s="116" t="s">
-        <v>877</v>
-      </c>
-      <c r="F218" s="116"/>
-      <c r="G218" s="129" t="s">
-        <v>692</v>
-      </c>
-      <c r="H218" s="130" t="s">
-        <v>878</v>
+        <v>608</v>
+      </c>
+      <c r="E218" s="118" t="s">
+        <v>905</v>
+      </c>
+      <c r="F218" s="118"/>
+      <c r="G218" s="130" t="s">
+        <v>703</v>
+      </c>
+      <c r="H218" s="131" t="s">
+        <v>906</v>
       </c>
       <c r="I218" s="7" t="s">
         <v>69</v>
@@ -17112,17 +17318,17 @@
     </row>
     <row r="219">
       <c r="A219" s="38" t="s">
-        <v>879</v>
+        <v>907</v>
       </c>
       <c r="B219" s="39" t="s">
-        <v>880</v>
-      </c>
-      <c r="C219" s="131" t="s">
-        <v>770</v>
+        <v>908</v>
+      </c>
+      <c r="C219" s="132" t="s">
+        <v>786</v>
       </c>
       <c r="D219" s="7"/>
-      <c r="E219" s="132"/>
-      <c r="F219" s="132"/>
+      <c r="E219" s="133"/>
+      <c r="F219" s="133"/>
       <c r="G219" s="4"/>
       <c r="H219" s="4"/>
       <c r="I219" s="7"/>
@@ -17131,17 +17337,17 @@
     </row>
     <row r="220">
       <c r="A220" s="45" t="s">
-        <v>881</v>
+        <v>909</v>
       </c>
       <c r="B220" s="46" t="s">
-        <v>882</v>
-      </c>
-      <c r="C220" s="133" t="s">
-        <v>770</v>
+        <v>910</v>
+      </c>
+      <c r="C220" s="134" t="s">
+        <v>786</v>
       </c>
       <c r="D220" s="7"/>
       <c r="E220" s="70" t="s">
-        <v>883</v>
+        <v>911</v>
       </c>
       <c r="F220" s="91"/>
       <c r="G220" s="91" t="s">
@@ -17156,7 +17362,7 @@
     </row>
     <row r="221">
       <c r="A221" s="51" t="s">
-        <v>884</v>
+        <v>912</v>
       </c>
       <c r="B221" s="57" t="s">
         <v>63</v>
@@ -17168,14 +17374,14 @@
         <v>65</v>
       </c>
       <c r="E221" s="36" t="s">
-        <v>885</v>
+        <v>913</v>
       </c>
       <c r="F221" s="91"/>
       <c r="G221" s="35" t="s">
         <v>67</v>
       </c>
       <c r="H221" s="92" t="s">
-        <v>886</v>
+        <v>914</v>
       </c>
       <c r="I221" s="7" t="s">
         <v>69</v>
@@ -17185,7 +17391,7 @@
     </row>
     <row r="222">
       <c r="A222" s="51" t="s">
-        <v>887</v>
+        <v>915</v>
       </c>
       <c r="B222" s="57" t="s">
         <v>79</v>
@@ -17197,14 +17403,14 @@
         <v>81</v>
       </c>
       <c r="E222" s="36" t="s">
-        <v>888</v>
+        <v>916</v>
       </c>
       <c r="F222" s="91"/>
       <c r="G222" s="35" t="s">
         <v>83</v>
       </c>
       <c r="H222" s="92" t="s">
-        <v>889</v>
+        <v>917</v>
       </c>
       <c r="I222" s="7"/>
       <c r="J222" s="7"/>
@@ -17212,7 +17418,7 @@
     </row>
     <row r="223">
       <c r="A223" s="51" t="s">
-        <v>890</v>
+        <v>918</v>
       </c>
       <c r="B223" s="57" t="s">
         <v>86</v>
@@ -17224,14 +17430,14 @@
         <v>88</v>
       </c>
       <c r="E223" s="91" t="s">
-        <v>891</v>
+        <v>919</v>
       </c>
       <c r="F223" s="91"/>
       <c r="G223" s="70" t="s">
         <v>83</v>
       </c>
       <c r="H223" s="96" t="s">
-        <v>892</v>
+        <v>920</v>
       </c>
       <c r="I223" s="7"/>
       <c r="J223" s="7"/>
@@ -17239,7 +17445,7 @@
     </row>
     <row r="224">
       <c r="A224" s="51" t="s">
-        <v>893</v>
+        <v>921</v>
       </c>
       <c r="B224" s="57" t="s">
         <v>100</v>
@@ -17248,17 +17454,17 @@
         <v>101</v>
       </c>
       <c r="D224" s="58" t="s">
-        <v>894</v>
+        <v>922</v>
       </c>
       <c r="E224" s="36" t="s">
-        <v>895</v>
+        <v>923</v>
       </c>
       <c r="F224" s="91"/>
       <c r="G224" s="35" t="s">
         <v>104</v>
       </c>
       <c r="H224" s="92" t="s">
-        <v>896</v>
+        <v>924</v>
       </c>
       <c r="I224" s="7"/>
       <c r="J224" s="7"/>
@@ -17266,7 +17472,7 @@
     </row>
     <row r="225">
       <c r="A225" s="51" t="s">
-        <v>897</v>
+        <v>925</v>
       </c>
       <c r="B225" s="57" t="s">
         <v>107</v>
@@ -17278,14 +17484,14 @@
         <v>109</v>
       </c>
       <c r="E225" s="91" t="s">
-        <v>898</v>
+        <v>926</v>
       </c>
       <c r="F225" s="91"/>
       <c r="G225" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="H225" s="134" t="s">
-        <v>899</v>
+      <c r="H225" s="135" t="s">
+        <v>927</v>
       </c>
       <c r="I225" s="7"/>
       <c r="J225" s="7"/>
@@ -17293,7 +17499,7 @@
     </row>
     <row r="226">
       <c r="A226" s="51" t="s">
-        <v>900</v>
+        <v>928</v>
       </c>
       <c r="B226" s="57" t="s">
         <v>127</v>
@@ -17305,14 +17511,14 @@
         <v>129</v>
       </c>
       <c r="E226" s="91" t="s">
-        <v>901</v>
+        <v>929</v>
       </c>
       <c r="F226" s="91"/>
       <c r="G226" s="58" t="s">
-        <v>902</v>
-      </c>
-      <c r="H226" s="134" t="s">
-        <v>903</v>
+        <v>930</v>
+      </c>
+      <c r="H226" s="135" t="s">
+        <v>931</v>
       </c>
       <c r="I226" s="7"/>
       <c r="J226" s="7"/>
@@ -17320,7 +17526,7 @@
     </row>
     <row r="227">
       <c r="A227" s="51" t="s">
-        <v>904</v>
+        <v>932</v>
       </c>
       <c r="B227" s="57" t="s">
         <v>121</v>
@@ -17332,14 +17538,14 @@
         <v>123</v>
       </c>
       <c r="E227" s="91" t="s">
-        <v>905</v>
+        <v>933</v>
       </c>
       <c r="F227" s="91"/>
       <c r="G227" s="58" t="s">
-        <v>906</v>
-      </c>
-      <c r="H227" s="134" t="s">
-        <v>907</v>
+        <v>934</v>
+      </c>
+      <c r="H227" s="135" t="s">
+        <v>935</v>
       </c>
       <c r="I227" s="7"/>
       <c r="J227" s="7"/>
@@ -17347,10 +17553,10 @@
     </row>
     <row r="228">
       <c r="A228" s="51" t="s">
-        <v>908</v>
+        <v>936</v>
       </c>
       <c r="B228" s="57" t="s">
-        <v>909</v>
+        <v>937</v>
       </c>
       <c r="C228" s="58" t="s">
         <v>143</v>
@@ -17359,14 +17565,14 @@
         <v>144</v>
       </c>
       <c r="E228" s="91" t="s">
-        <v>910</v>
+        <v>938</v>
       </c>
       <c r="F228" s="91"/>
-      <c r="G228" s="135" t="s">
-        <v>902</v>
-      </c>
-      <c r="H228" s="135" t="s">
-        <v>911</v>
+      <c r="G228" s="136" t="s">
+        <v>930</v>
+      </c>
+      <c r="H228" s="136" t="s">
+        <v>939</v>
       </c>
       <c r="I228" s="7"/>
       <c r="J228" s="7"/>
@@ -17374,7 +17580,7 @@
     </row>
     <row r="229">
       <c r="A229" s="51" t="s">
-        <v>912</v>
+        <v>940</v>
       </c>
       <c r="B229" s="57" t="s">
         <v>134</v>
@@ -17386,14 +17592,14 @@
         <v>136</v>
       </c>
       <c r="E229" s="91" t="s">
-        <v>913</v>
+        <v>941</v>
       </c>
       <c r="F229" s="91"/>
       <c r="G229" s="58" t="s">
-        <v>906</v>
+        <v>934</v>
       </c>
       <c r="H229" s="58" t="s">
-        <v>914</v>
+        <v>942</v>
       </c>
       <c r="I229" s="7"/>
       <c r="J229" s="7"/>
@@ -17401,23 +17607,23 @@
     </row>
     <row r="230">
       <c r="A230" s="45" t="s">
-        <v>915</v>
-      </c>
-      <c r="B230" s="136" t="s">
-        <v>916</v>
-      </c>
-      <c r="C230" s="133" t="s">
-        <v>770</v>
-      </c>
-      <c r="D230" s="137"/>
+        <v>943</v>
+      </c>
+      <c r="B230" s="137" t="s">
+        <v>944</v>
+      </c>
+      <c r="C230" s="134" t="s">
+        <v>786</v>
+      </c>
+      <c r="D230" s="138"/>
       <c r="E230" s="70" t="s">
-        <v>917</v>
+        <v>945</v>
       </c>
       <c r="F230" s="58"/>
       <c r="G230" s="91" t="s">
-        <v>918</v>
-      </c>
-      <c r="H230" s="138" t="s">
+        <v>946</v>
+      </c>
+      <c r="H230" s="139" t="s">
         <v>59</v>
       </c>
       <c r="I230" s="7"/>
@@ -17426,7 +17632,7 @@
     </row>
     <row r="231">
       <c r="A231" s="51" t="s">
-        <v>919</v>
+        <v>947</v>
       </c>
       <c r="B231" s="57" t="s">
         <v>63</v>
@@ -17438,14 +17644,14 @@
         <v>65</v>
       </c>
       <c r="E231" s="91" t="s">
-        <v>920</v>
+        <v>948</v>
       </c>
       <c r="F231" s="91"/>
       <c r="G231" s="70" t="s">
         <v>67</v>
       </c>
       <c r="H231" s="70" t="s">
-        <v>921</v>
+        <v>949</v>
       </c>
       <c r="I231" s="7" t="s">
         <v>69</v>
@@ -17455,7 +17661,7 @@
     </row>
     <row r="232">
       <c r="A232" s="51" t="s">
-        <v>922</v>
+        <v>950</v>
       </c>
       <c r="B232" s="57" t="s">
         <v>79</v>
@@ -17467,14 +17673,14 @@
         <v>81</v>
       </c>
       <c r="E232" s="91" t="s">
-        <v>923</v>
+        <v>951</v>
       </c>
       <c r="F232" s="91"/>
       <c r="G232" s="70" t="s">
         <v>83</v>
       </c>
       <c r="H232" s="70" t="s">
-        <v>924</v>
+        <v>952</v>
       </c>
       <c r="I232" s="7"/>
       <c r="J232" s="7"/>
@@ -17482,7 +17688,7 @@
     </row>
     <row r="233">
       <c r="A233" s="51" t="s">
-        <v>925</v>
+        <v>953</v>
       </c>
       <c r="B233" s="57" t="s">
         <v>86</v>
@@ -17494,14 +17700,14 @@
         <v>88</v>
       </c>
       <c r="E233" s="91" t="s">
-        <v>926</v>
+        <v>954</v>
       </c>
       <c r="F233" s="91"/>
       <c r="G233" s="70" t="s">
         <v>83</v>
       </c>
       <c r="H233" s="70" t="s">
-        <v>927</v>
+        <v>955</v>
       </c>
       <c r="I233" s="7"/>
       <c r="J233" s="7"/>
@@ -17509,7 +17715,7 @@
     </row>
     <row r="234">
       <c r="A234" s="51" t="s">
-        <v>928</v>
+        <v>956</v>
       </c>
       <c r="B234" s="57" t="s">
         <v>100</v>
@@ -17518,17 +17724,17 @@
         <v>101</v>
       </c>
       <c r="D234" s="58" t="s">
-        <v>894</v>
+        <v>922</v>
       </c>
       <c r="E234" s="91" t="s">
-        <v>929</v>
+        <v>957</v>
       </c>
       <c r="F234" s="91"/>
       <c r="G234" s="70" t="s">
         <v>104</v>
       </c>
       <c r="H234" s="70" t="s">
-        <v>930</v>
+        <v>958</v>
       </c>
       <c r="I234" s="7"/>
       <c r="J234" s="7"/>
@@ -17536,7 +17742,7 @@
     </row>
     <row r="235">
       <c r="A235" s="51" t="s">
-        <v>931</v>
+        <v>959</v>
       </c>
       <c r="B235" s="57" t="s">
         <v>107</v>
@@ -17548,14 +17754,14 @@
         <v>109</v>
       </c>
       <c r="E235" s="91" t="s">
-        <v>932</v>
+        <v>960</v>
       </c>
       <c r="F235" s="91"/>
       <c r="G235" s="70" t="s">
         <v>111</v>
       </c>
       <c r="H235" s="70" t="s">
-        <v>933</v>
+        <v>961</v>
       </c>
       <c r="I235" s="7"/>
       <c r="J235" s="7"/>
@@ -17563,7 +17769,7 @@
     </row>
     <row r="236">
       <c r="A236" s="51" t="s">
-        <v>934</v>
+        <v>962</v>
       </c>
       <c r="B236" s="57" t="s">
         <v>127</v>
@@ -17575,14 +17781,14 @@
         <v>129</v>
       </c>
       <c r="E236" s="91" t="s">
-        <v>935</v>
+        <v>963</v>
       </c>
       <c r="F236" s="91"/>
       <c r="G236" s="58" t="s">
-        <v>902</v>
+        <v>930</v>
       </c>
       <c r="H236" s="58" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="I236" s="7"/>
       <c r="J236" s="7"/>
@@ -17590,7 +17796,7 @@
     </row>
     <row r="237">
       <c r="A237" s="51" t="s">
-        <v>936</v>
+        <v>964</v>
       </c>
       <c r="B237" s="57" t="s">
         <v>121</v>
@@ -17602,14 +17808,14 @@
         <v>123</v>
       </c>
       <c r="E237" s="91" t="s">
-        <v>937</v>
+        <v>965</v>
       </c>
       <c r="F237" s="91"/>
       <c r="G237" s="58" t="s">
-        <v>906</v>
+        <v>934</v>
       </c>
       <c r="H237" s="58" t="s">
-        <v>907</v>
+        <v>935</v>
       </c>
       <c r="I237" s="7"/>
       <c r="J237" s="7"/>
@@ -17617,10 +17823,10 @@
     </row>
     <row r="238">
       <c r="A238" s="51" t="s">
-        <v>938</v>
+        <v>966</v>
       </c>
       <c r="B238" s="57" t="s">
-        <v>909</v>
+        <v>937</v>
       </c>
       <c r="C238" s="58" t="s">
         <v>143</v>
@@ -17629,14 +17835,14 @@
         <v>144</v>
       </c>
       <c r="E238" s="91" t="s">
-        <v>939</v>
+        <v>967</v>
       </c>
       <c r="F238" s="91"/>
-      <c r="G238" s="135" t="s">
-        <v>902</v>
-      </c>
-      <c r="H238" s="135" t="s">
-        <v>940</v>
+      <c r="G238" s="136" t="s">
+        <v>930</v>
+      </c>
+      <c r="H238" s="136" t="s">
+        <v>968</v>
       </c>
       <c r="I238" s="7"/>
       <c r="J238" s="7"/>
@@ -17644,7 +17850,7 @@
     </row>
     <row r="239">
       <c r="A239" s="51" t="s">
-        <v>941</v>
+        <v>969</v>
       </c>
       <c r="B239" s="57" t="s">
         <v>134</v>
@@ -17656,14 +17862,14 @@
         <v>136</v>
       </c>
       <c r="E239" s="91" t="s">
-        <v>942</v>
+        <v>970</v>
       </c>
       <c r="F239" s="91"/>
       <c r="G239" s="58" t="s">
-        <v>906</v>
+        <v>934</v>
       </c>
       <c r="H239" s="58" t="s">
-        <v>914</v>
+        <v>942</v>
       </c>
       <c r="I239" s="7"/>
       <c r="J239" s="7"/>
@@ -17671,26 +17877,26 @@
     </row>
     <row r="240">
       <c r="A240" s="45" t="s">
-        <v>943</v>
-      </c>
-      <c r="B240" s="136" t="s">
-        <v>944</v>
+        <v>971</v>
+      </c>
+      <c r="B240" s="137" t="s">
+        <v>972</v>
       </c>
       <c r="C240" s="58" t="s">
-        <v>945</v>
+        <v>973</v>
       </c>
       <c r="D240" s="58" t="s">
-        <v>946</v>
+        <v>974</v>
       </c>
       <c r="E240" s="91" t="s">
-        <v>947</v>
+        <v>975</v>
       </c>
       <c r="F240" s="91"/>
       <c r="G240" s="70" t="s">
-        <v>948</v>
+        <v>976</v>
       </c>
       <c r="H240" s="58" t="s">
-        <v>949</v>
+        <v>977</v>
       </c>
       <c r="I240" s="7"/>
       <c r="J240" s="7"/>
@@ -17698,15 +17904,15 @@
     </row>
     <row r="241">
       <c r="A241" s="45" t="s">
-        <v>950</v>
-      </c>
-      <c r="B241" s="136" t="s">
-        <v>951</v>
+        <v>978</v>
+      </c>
+      <c r="B241" s="137" t="s">
+        <v>979</v>
       </c>
       <c r="C241" s="7"/>
       <c r="D241" s="7"/>
       <c r="E241" s="70" t="s">
-        <v>952</v>
+        <v>980</v>
       </c>
       <c r="F241" s="58"/>
       <c r="G241" s="91" t="s">
@@ -17721,7 +17927,7 @@
     </row>
     <row r="242">
       <c r="A242" s="51" t="s">
-        <v>953</v>
+        <v>981</v>
       </c>
       <c r="B242" s="57" t="s">
         <v>63</v>
@@ -17733,14 +17939,14 @@
         <v>65</v>
       </c>
       <c r="E242" s="91" t="s">
-        <v>954</v>
+        <v>982</v>
       </c>
       <c r="F242" s="91"/>
       <c r="G242" s="70" t="s">
         <v>67</v>
       </c>
       <c r="H242" s="70" t="s">
-        <v>955</v>
+        <v>983</v>
       </c>
       <c r="I242" s="7" t="s">
         <v>69</v>
@@ -17750,7 +17956,7 @@
     </row>
     <row r="243">
       <c r="A243" s="51" t="s">
-        <v>956</v>
+        <v>984</v>
       </c>
       <c r="B243" s="57" t="s">
         <v>79</v>
@@ -17762,14 +17968,14 @@
         <v>81</v>
       </c>
       <c r="E243" s="91" t="s">
-        <v>957</v>
+        <v>985</v>
       </c>
       <c r="F243" s="91"/>
       <c r="G243" s="70" t="s">
         <v>83</v>
       </c>
       <c r="H243" s="70" t="s">
-        <v>958</v>
+        <v>986</v>
       </c>
       <c r="I243" s="7"/>
       <c r="J243" s="7"/>
@@ -17777,7 +17983,7 @@
     </row>
     <row r="244">
       <c r="A244" s="51" t="s">
-        <v>959</v>
+        <v>987</v>
       </c>
       <c r="B244" s="57" t="s">
         <v>86</v>
@@ -17789,14 +17995,14 @@
         <v>88</v>
       </c>
       <c r="E244" s="91" t="s">
-        <v>960</v>
+        <v>988</v>
       </c>
       <c r="F244" s="91"/>
       <c r="G244" s="70" t="s">
         <v>83</v>
       </c>
       <c r="H244" s="70" t="s">
-        <v>961</v>
+        <v>989</v>
       </c>
       <c r="I244" s="7"/>
       <c r="J244" s="7"/>
@@ -17804,7 +18010,7 @@
     </row>
     <row r="245">
       <c r="A245" s="51" t="s">
-        <v>962</v>
+        <v>990</v>
       </c>
       <c r="B245" s="57" t="s">
         <v>100</v>
@@ -17813,17 +18019,17 @@
         <v>101</v>
       </c>
       <c r="D245" s="58" t="s">
-        <v>894</v>
+        <v>922</v>
       </c>
       <c r="E245" s="91" t="s">
-        <v>963</v>
+        <v>991</v>
       </c>
       <c r="F245" s="91"/>
       <c r="G245" s="70" t="s">
         <v>104</v>
       </c>
       <c r="H245" s="70" t="s">
-        <v>964</v>
+        <v>992</v>
       </c>
       <c r="I245" s="7"/>
       <c r="J245" s="7"/>
@@ -17831,7 +18037,7 @@
     </row>
     <row r="246">
       <c r="A246" s="51" t="s">
-        <v>965</v>
+        <v>993</v>
       </c>
       <c r="B246" s="57" t="s">
         <v>107</v>
@@ -17843,14 +18049,14 @@
         <v>109</v>
       </c>
       <c r="E246" s="91" t="s">
-        <v>966</v>
+        <v>994</v>
       </c>
       <c r="F246" s="91"/>
       <c r="G246" s="58" t="s">
         <v>111</v>
       </c>
       <c r="H246" s="58" t="s">
-        <v>967</v>
+        <v>995</v>
       </c>
       <c r="I246" s="7"/>
       <c r="J246" s="7"/>
@@ -17858,7 +18064,7 @@
     </row>
     <row r="247">
       <c r="A247" s="51" t="s">
-        <v>968</v>
+        <v>996</v>
       </c>
       <c r="B247" s="57" t="s">
         <v>127</v>
@@ -17870,14 +18076,14 @@
         <v>129</v>
       </c>
       <c r="E247" s="91" t="s">
-        <v>969</v>
+        <v>997</v>
       </c>
       <c r="F247" s="91"/>
       <c r="G247" s="58" t="s">
-        <v>902</v>
+        <v>930</v>
       </c>
       <c r="H247" s="58" t="s">
-        <v>903</v>
+        <v>931</v>
       </c>
       <c r="I247" s="7"/>
       <c r="J247" s="7"/>
@@ -17885,7 +18091,7 @@
     </row>
     <row r="248">
       <c r="A248" s="51" t="s">
-        <v>970</v>
+        <v>998</v>
       </c>
       <c r="B248" s="57" t="s">
         <v>121</v>
@@ -17897,14 +18103,14 @@
         <v>123</v>
       </c>
       <c r="E248" s="91" t="s">
-        <v>971</v>
+        <v>999</v>
       </c>
       <c r="F248" s="91"/>
       <c r="G248" s="58" t="s">
-        <v>906</v>
+        <v>934</v>
       </c>
       <c r="H248" s="58" t="s">
-        <v>907</v>
+        <v>935</v>
       </c>
       <c r="I248" s="7"/>
       <c r="J248" s="7"/>
@@ -17912,10 +18118,10 @@
     </row>
     <row r="249">
       <c r="A249" s="51" t="s">
-        <v>972</v>
+        <v>1000</v>
       </c>
       <c r="B249" s="57" t="s">
-        <v>909</v>
+        <v>937</v>
       </c>
       <c r="C249" s="58" t="s">
         <v>143</v>
@@ -17924,14 +18130,14 @@
         <v>144</v>
       </c>
       <c r="E249" s="91" t="s">
-        <v>973</v>
+        <v>1001</v>
       </c>
       <c r="F249" s="91"/>
-      <c r="G249" s="135" t="s">
-        <v>902</v>
-      </c>
-      <c r="H249" s="135" t="s">
-        <v>974</v>
+      <c r="G249" s="136" t="s">
+        <v>930</v>
+      </c>
+      <c r="H249" s="136" t="s">
+        <v>1002</v>
       </c>
       <c r="I249" s="7"/>
       <c r="J249" s="7"/>
@@ -17939,7 +18145,7 @@
     </row>
     <row r="250">
       <c r="A250" s="51" t="s">
-        <v>975</v>
+        <v>1003</v>
       </c>
       <c r="B250" s="57" t="s">
         <v>134</v>
@@ -17951,14 +18157,14 @@
         <v>136</v>
       </c>
       <c r="E250" s="91" t="s">
-        <v>976</v>
+        <v>1004</v>
       </c>
       <c r="F250" s="91"/>
       <c r="G250" s="58" t="s">
-        <v>906</v>
+        <v>934</v>
       </c>
       <c r="H250" s="58" t="s">
-        <v>914</v>
+        <v>942</v>
       </c>
       <c r="I250" s="7"/>
       <c r="J250" s="7"/>
@@ -17966,26 +18172,26 @@
     </row>
     <row r="251">
       <c r="A251" s="38" t="s">
-        <v>977</v>
-      </c>
-      <c r="B251" s="139" t="s">
-        <v>978</v>
-      </c>
-      <c r="C251" s="140" t="s">
-        <v>979</v>
-      </c>
-      <c r="D251" s="140" t="s">
-        <v>980</v>
-      </c>
-      <c r="E251" s="141" t="s">
-        <v>981</v>
-      </c>
-      <c r="F251" s="141"/>
+        <v>1005</v>
+      </c>
+      <c r="B251" s="140" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C251" s="141" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D251" s="141" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E251" s="142" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F251" s="142"/>
       <c r="G251" s="70" t="s">
-        <v>982</v>
+        <v>1010</v>
       </c>
       <c r="H251" s="102" t="s">
-        <v>983</v>
+        <v>1011</v>
       </c>
       <c r="I251" s="7"/>
       <c r="J251" s="7"/>
@@ -18068,7 +18274,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="143" t="s">
         <v>32</v>
       </c>
       <c r="B1" s="26" t="s">
@@ -18089,7 +18295,7 @@
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>984</v>
+        <v>1012</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>399</v>
@@ -18101,46 +18307,46 @@
         <v>401</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>985</v>
+        <v>1013</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>986</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>987</v>
+        <v>1015</v>
       </c>
       <c r="B3" s="70" t="s">
-        <v>988</v>
+        <v>1016</v>
       </c>
       <c r="C3" s="58" t="s">
-        <v>989</v>
+        <v>1017</v>
       </c>
       <c r="D3" s="58"/>
       <c r="E3" s="35" t="s">
-        <v>990</v>
+        <v>1018</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>991</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>987</v>
+        <v>1015</v>
       </c>
       <c r="B4" s="70" t="s">
-        <v>988</v>
+        <v>1016</v>
       </c>
       <c r="C4" s="58" t="s">
-        <v>989</v>
+        <v>1017</v>
       </c>
       <c r="D4" s="58"/>
       <c r="E4" s="35" t="s">
-        <v>992</v>
+        <v>1020</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>993</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="5">
@@ -18160,167 +18366,167 @@
         <v>402</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>994</v>
-      </c>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="143"/>
-      <c r="K5" s="143"/>
-      <c r="L5" s="143"/>
-      <c r="M5" s="143"/>
-      <c r="N5" s="143"/>
-      <c r="O5" s="143"/>
-      <c r="P5" s="143"/>
-      <c r="Q5" s="143"/>
-      <c r="R5" s="143"/>
-      <c r="S5" s="143"/>
-      <c r="T5" s="143"/>
-      <c r="U5" s="143"/>
-      <c r="V5" s="143"/>
-      <c r="W5" s="143"/>
-      <c r="X5" s="143"/>
-      <c r="Y5" s="143"/>
-      <c r="Z5" s="143"/>
+        <v>1022</v>
+      </c>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="144"/>
+      <c r="K5" s="144"/>
+      <c r="L5" s="144"/>
+      <c r="M5" s="144"/>
+      <c r="N5" s="144"/>
+      <c r="O5" s="144"/>
+      <c r="P5" s="144"/>
+      <c r="Q5" s="144"/>
+      <c r="R5" s="144"/>
+      <c r="S5" s="144"/>
+      <c r="T5" s="144"/>
+      <c r="U5" s="144"/>
+      <c r="V5" s="144"/>
+      <c r="W5" s="144"/>
+      <c r="X5" s="144"/>
+      <c r="Y5" s="144"/>
+      <c r="Z5" s="144"/>
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>995</v>
+        <v>1023</v>
       </c>
       <c r="B6" s="70" t="s">
-        <v>996</v>
+        <v>1024</v>
       </c>
       <c r="C6" s="58" t="s">
-        <v>997</v>
+        <v>1025</v>
       </c>
       <c r="D6" s="58" t="s">
-        <v>998</v>
+        <v>1026</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>999</v>
+        <v>1027</v>
       </c>
       <c r="F6" s="35"/>
-      <c r="G6" s="143"/>
-      <c r="H6" s="143"/>
-      <c r="I6" s="143"/>
-      <c r="J6" s="143"/>
-      <c r="K6" s="143"/>
-      <c r="L6" s="143"/>
-      <c r="M6" s="143"/>
-      <c r="N6" s="143"/>
-      <c r="O6" s="143"/>
-      <c r="P6" s="143"/>
-      <c r="Q6" s="143"/>
-      <c r="R6" s="143"/>
-      <c r="S6" s="143"/>
-      <c r="T6" s="143"/>
-      <c r="U6" s="143"/>
-      <c r="V6" s="143"/>
-      <c r="W6" s="143"/>
-      <c r="X6" s="143"/>
-      <c r="Y6" s="143"/>
-      <c r="Z6" s="143"/>
+      <c r="G6" s="144"/>
+      <c r="H6" s="144"/>
+      <c r="I6" s="144"/>
+      <c r="J6" s="144"/>
+      <c r="K6" s="144"/>
+      <c r="L6" s="144"/>
+      <c r="M6" s="144"/>
+      <c r="N6" s="144"/>
+      <c r="O6" s="144"/>
+      <c r="P6" s="144"/>
+      <c r="Q6" s="144"/>
+      <c r="R6" s="144"/>
+      <c r="S6" s="144"/>
+      <c r="T6" s="144"/>
+      <c r="U6" s="144"/>
+      <c r="V6" s="144"/>
+      <c r="W6" s="144"/>
+      <c r="X6" s="144"/>
+      <c r="Y6" s="144"/>
+      <c r="Z6" s="144"/>
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>1000</v>
+        <v>1028</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>1001</v>
+        <v>1029</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>1002</v>
+        <v>1030</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>1003</v>
+        <v>1031</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>1004</v>
+        <v>1032</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>1005</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>1006</v>
+        <v>1034</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1007</v>
+        <v>1035</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>656</v>
+        <v>667</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="70" t="s">
-        <v>1008</v>
+        <v>1036</v>
       </c>
       <c r="F8" s="70" t="s">
-        <v>1009</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="75" t="s">
-        <v>1010</v>
+        <v>1038</v>
       </c>
       <c r="B9" s="75" t="s">
-        <v>1011</v>
+        <v>1039</v>
       </c>
       <c r="C9" s="75" t="s">
-        <v>656</v>
+        <v>667</v>
       </c>
       <c r="D9" s="75"/>
       <c r="E9" s="75" t="s">
-        <v>1012</v>
+        <v>1040</v>
       </c>
       <c r="F9" s="75" t="s">
-        <v>1009</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>1013</v>
+        <v>1041</v>
       </c>
       <c r="B10" s="70" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C10" s="144" t="s">
-        <v>1015</v>
+        <v>1042</v>
+      </c>
+      <c r="C10" s="145" t="s">
+        <v>1043</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="70" t="s">
-        <v>1016</v>
+        <v>1044</v>
       </c>
       <c r="F10" s="70" t="s">
-        <v>1017</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>1018</v>
+        <v>1046</v>
       </c>
       <c r="B11" s="70" t="s">
-        <v>1019</v>
+        <v>1047</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>1020</v>
+        <v>1048</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1021</v>
+        <v>1049</v>
       </c>
       <c r="E11" s="70" t="s">
-        <v>1022</v>
+        <v>1050</v>
       </c>
       <c r="F11" s="70" t="s">
-        <v>1023</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="76" t="s">
-        <v>1024</v>
+        <v>1052</v>
       </c>
       <c r="B12" s="75" t="s">
-        <v>1025</v>
+        <v>1053</v>
       </c>
       <c r="C12" s="76" t="s">
         <v>472</v>
@@ -18329,42 +18535,42 @@
         <v>473</v>
       </c>
       <c r="E12" s="75" t="s">
-        <v>1026</v>
-      </c>
-      <c r="F12" s="145" t="s">
-        <v>1027</v>
+        <v>1054</v>
+      </c>
+      <c r="F12" s="146" t="s">
+        <v>1055</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>1028</v>
+        <v>1056</v>
       </c>
       <c r="B13" s="70" t="s">
-        <v>1029</v>
+        <v>1057</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="70" t="s">
-        <v>1030</v>
+        <v>1058</v>
       </c>
       <c r="F13" s="96" t="s">
-        <v>1031</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="116" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B14" s="132"/>
-      <c r="C14" s="132"/>
+      <c r="A14" s="118" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B14" s="133"/>
+      <c r="C14" s="133"/>
       <c r="D14" s="58" t="s">
-        <v>1033</v>
+        <v>1061</v>
       </c>
       <c r="E14" s="70" t="s">
-        <v>1034</v>
+        <v>1062</v>
       </c>
       <c r="F14" s="96" t="s">
-        <v>1035</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="15">
@@ -22345,108 +22551,108 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" s="146" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B2" s="147" t="s">
-        <v>1037</v>
+      <c r="A2" s="147" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B2" s="148" t="s">
+        <v>1065</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="148" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B3" s="147" t="s">
-        <v>1039</v>
+      <c r="A3" s="149" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B3" s="148" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="149" t="s">
-        <v>1040</v>
+      <c r="A4" s="150" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="150" t="s">
-        <v>1041</v>
-      </c>
-      <c r="B6" s="147" t="s">
-        <v>1042</v>
+      <c r="A6" s="151" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B6" s="148" t="s">
+        <v>1070</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="147" t="s">
-        <v>1043</v>
+      <c r="B7" s="148" t="s">
+        <v>1071</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="147"/>
+      <c r="B8" s="148"/>
     </row>
     <row r="9">
-      <c r="B9" s="147"/>
+      <c r="B9" s="148"/>
     </row>
     <row r="10">
-      <c r="A10" s="150" t="s">
-        <v>1044</v>
+      <c r="A10" s="151" t="s">
+        <v>1072</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="150" t="s">
-        <v>1045</v>
-      </c>
-      <c r="B11" s="151" t="s">
-        <v>1046</v>
+      <c r="A11" s="151" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B11" s="152" t="s">
+        <v>1074</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="152" t="s">
-        <v>1047</v>
+      <c r="B12" s="153" t="s">
+        <v>1075</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="153"/>
-      <c r="B13" s="154" t="s">
-        <v>1048</v>
+      <c r="A13" s="154"/>
+      <c r="B13" s="155" t="s">
+        <v>1076</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="155" t="s">
-        <v>1049</v>
+      <c r="B14" s="156" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="156" t="s">
-        <v>1050</v>
+      <c r="B15" s="157" t="s">
+        <v>1078</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="157" t="s">
-        <v>1051</v>
+      <c r="B16" s="158" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="150"/>
+      <c r="A17" s="151"/>
       <c r="B17" s="28"/>
     </row>
     <row r="18">
-      <c r="A18" s="150" t="s">
-        <v>1052</v>
-      </c>
-      <c r="B18" s="158" t="s">
-        <v>1053</v>
+      <c r="A18" s="151" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B18" s="159" t="s">
+        <v>1081</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B19" s="159"/>
+        <v>1082</v>
+      </c>
+      <c r="B19" s="160"/>
     </row>
     <row r="21">
-      <c r="A21" s="150" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B21" s="160" t="s">
-        <v>1056</v>
+      <c r="A21" s="151" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B21" s="161" t="s">
+        <v>1084</v>
       </c>
     </row>
   </sheetData>
@@ -22471,48 +22677,48 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="150" t="s">
-        <v>1057</v>
+      <c r="A1" s="151" t="s">
+        <v>1085</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="161" t="s">
-        <v>1058</v>
+      <c r="A2" s="162" t="s">
+        <v>1086</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="147" t="s">
-        <v>1059</v>
+      <c r="A3" s="148" t="s">
+        <v>1087</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="161" t="s">
-        <v>1060</v>
+      <c r="A4" s="162" t="s">
+        <v>1088</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="147" t="s">
-        <v>1061</v>
+      <c r="A5" s="148" t="s">
+        <v>1089</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="147" t="s">
-        <v>1062</v>
+      <c r="A6" s="148" t="s">
+        <v>1090</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="147" t="s">
-        <v>1063</v>
+      <c r="A7" s="148" t="s">
+        <v>1091</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="161" t="s">
-        <v>1064</v>
+      <c r="A8" s="162" t="s">
+        <v>1092</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="147" t="s">
-        <v>1065</v>
+      <c r="A9" s="148" t="s">
+        <v>1093</v>
       </c>
     </row>
   </sheetData>
@@ -22538,48 +22744,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1057</v>
-      </c>
-      <c r="B1" s="162" t="s">
-        <v>1066</v>
+        <v>1085</v>
+      </c>
+      <c r="B1" s="163" t="s">
+        <v>1094</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>1067</v>
+        <v>1095</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>1068</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>1069</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>1070</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>1071</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>1072</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>1073</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>1074</v>
+        <v>1102</v>
       </c>
     </row>
   </sheetData>
@@ -22598,7 +22804,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="151"/>
+      <c r="A1" s="152"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -22622,40 +22828,40 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="163" t="s">
-        <v>1075</v>
-      </c>
-      <c r="C1" s="163" t="s">
-        <v>1076</v>
-      </c>
-      <c r="E1" s="164" t="s">
+      <c r="A1" s="164" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C1" s="164" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E1" s="165" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1077</v>
+        <v>1105</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1078</v>
+        <v>1106</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1079</v>
+        <v>1107</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1080</v>
+        <v>1108</v>
       </c>
       <c r="E2" s="7"/>
     </row>
     <row r="3">
       <c r="A3" s="35" t="s">
-        <v>1081</v>
+        <v>1109</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>1082</v>
+        <v>1110</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
       <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D4" si="1">RIGHT(A3,LEN(A3) - (FIND(" == ",A3) + 3))</f>
@@ -22665,13 +22871,13 @@
     </row>
     <row r="4">
       <c r="A4" s="35" t="s">
-        <v>1084</v>
+        <v>1112</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>1082</v>
+        <v>1110</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
       <c r="D4" s="4" t="str">
         <f t="shared" si="1"/>
@@ -22681,287 +22887,287 @@
     </row>
     <row r="5">
       <c r="A5" s="35" t="s">
-        <v>1085</v>
+        <v>1113</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>1086</v>
+        <v>1114</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>1087</v>
+        <v>1115</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>1088</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>1089</v>
+        <v>1117</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1090</v>
+        <v>1118</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>1091</v>
+        <v>1119</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>1092</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>1093</v>
+        <v>1121</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1094</v>
+        <v>1122</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>1095</v>
+        <v>1123</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>1096</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>1097</v>
+        <v>1125</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1098</v>
+        <v>1126</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1083</v>
+        <v>1111</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>1099</v>
+        <v>1127</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>1100</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="165" t="s">
-        <v>1101</v>
-      </c>
-      <c r="B9" s="166" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C9" s="166" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D9" s="166" t="s">
-        <v>1103</v>
-      </c>
-      <c r="E9" s="166"/>
-      <c r="F9" s="166"/>
-      <c r="G9" s="166"/>
-      <c r="H9" s="166"/>
-      <c r="I9" s="166"/>
-      <c r="J9" s="166"/>
-      <c r="K9" s="166"/>
-      <c r="L9" s="166"/>
-      <c r="M9" s="166"/>
-      <c r="N9" s="166"/>
-      <c r="O9" s="166"/>
-      <c r="P9" s="166"/>
-      <c r="Q9" s="166"/>
-      <c r="R9" s="166"/>
-      <c r="S9" s="166"/>
-      <c r="T9" s="166"/>
-      <c r="U9" s="166"/>
-      <c r="V9" s="166"/>
-      <c r="W9" s="166"/>
-      <c r="X9" s="166"/>
-      <c r="Y9" s="166"/>
-      <c r="Z9" s="166"/>
+      <c r="A9" s="166" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B9" s="167" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C9" s="167" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D9" s="167" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E9" s="167"/>
+      <c r="F9" s="167"/>
+      <c r="G9" s="167"/>
+      <c r="H9" s="167"/>
+      <c r="I9" s="167"/>
+      <c r="J9" s="167"/>
+      <c r="K9" s="167"/>
+      <c r="L9" s="167"/>
+      <c r="M9" s="167"/>
+      <c r="N9" s="167"/>
+      <c r="O9" s="167"/>
+      <c r="P9" s="167"/>
+      <c r="Q9" s="167"/>
+      <c r="R9" s="167"/>
+      <c r="S9" s="167"/>
+      <c r="T9" s="167"/>
+      <c r="U9" s="167"/>
+      <c r="V9" s="167"/>
+      <c r="W9" s="167"/>
+      <c r="X9" s="167"/>
+      <c r="Y9" s="167"/>
+      <c r="Z9" s="167"/>
     </row>
     <row r="10">
-      <c r="A10" s="165" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B10" s="166" t="s">
-        <v>1102</v>
-      </c>
-      <c r="C10" s="166" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D10" s="166" t="s">
-        <v>1105</v>
-      </c>
-      <c r="E10" s="167"/>
-      <c r="F10" s="167"/>
-      <c r="G10" s="167"/>
-      <c r="H10" s="167"/>
-      <c r="I10" s="167"/>
-      <c r="J10" s="167"/>
-      <c r="K10" s="167"/>
-      <c r="L10" s="167"/>
-      <c r="M10" s="167"/>
-      <c r="N10" s="167"/>
-      <c r="O10" s="167"/>
-      <c r="P10" s="167"/>
-      <c r="Q10" s="167"/>
-      <c r="R10" s="167"/>
-      <c r="S10" s="167"/>
-      <c r="T10" s="167"/>
-      <c r="U10" s="167"/>
-      <c r="V10" s="167"/>
-      <c r="W10" s="167"/>
-      <c r="X10" s="167"/>
-      <c r="Y10" s="167"/>
-      <c r="Z10" s="167"/>
+      <c r="A10" s="166" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B10" s="167" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C10" s="167" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D10" s="167" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E10" s="168"/>
+      <c r="F10" s="168"/>
+      <c r="G10" s="168"/>
+      <c r="H10" s="168"/>
+      <c r="I10" s="168"/>
+      <c r="J10" s="168"/>
+      <c r="K10" s="168"/>
+      <c r="L10" s="168"/>
+      <c r="M10" s="168"/>
+      <c r="N10" s="168"/>
+      <c r="O10" s="168"/>
+      <c r="P10" s="168"/>
+      <c r="Q10" s="168"/>
+      <c r="R10" s="168"/>
+      <c r="S10" s="168"/>
+      <c r="T10" s="168"/>
+      <c r="U10" s="168"/>
+      <c r="V10" s="168"/>
+      <c r="W10" s="168"/>
+      <c r="X10" s="168"/>
+      <c r="Y10" s="168"/>
+      <c r="Z10" s="168"/>
     </row>
     <row r="11">
-      <c r="A11" s="165" t="s">
-        <v>1106</v>
-      </c>
-      <c r="B11" s="166" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C11" s="166" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D11" s="166" t="s">
-        <v>1108</v>
-      </c>
-      <c r="E11" s="167"/>
-      <c r="F11" s="167"/>
-      <c r="G11" s="167"/>
-      <c r="H11" s="167"/>
-      <c r="I11" s="167"/>
-      <c r="J11" s="167"/>
-      <c r="K11" s="167"/>
-      <c r="L11" s="167"/>
-      <c r="M11" s="167"/>
-      <c r="N11" s="167"/>
-      <c r="O11" s="167"/>
-      <c r="P11" s="167"/>
-      <c r="Q11" s="167"/>
-      <c r="R11" s="167"/>
-      <c r="S11" s="167"/>
-      <c r="T11" s="167"/>
-      <c r="U11" s="167"/>
-      <c r="V11" s="167"/>
-      <c r="W11" s="167"/>
-      <c r="X11" s="167"/>
-      <c r="Y11" s="167"/>
-      <c r="Z11" s="167"/>
+      <c r="A11" s="166" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B11" s="167" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C11" s="167" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D11" s="167" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E11" s="168"/>
+      <c r="F11" s="168"/>
+      <c r="G11" s="168"/>
+      <c r="H11" s="168"/>
+      <c r="I11" s="168"/>
+      <c r="J11" s="168"/>
+      <c r="K11" s="168"/>
+      <c r="L11" s="168"/>
+      <c r="M11" s="168"/>
+      <c r="N11" s="168"/>
+      <c r="O11" s="168"/>
+      <c r="P11" s="168"/>
+      <c r="Q11" s="168"/>
+      <c r="R11" s="168"/>
+      <c r="S11" s="168"/>
+      <c r="T11" s="168"/>
+      <c r="U11" s="168"/>
+      <c r="V11" s="168"/>
+      <c r="W11" s="168"/>
+      <c r="X11" s="168"/>
+      <c r="Y11" s="168"/>
+      <c r="Z11" s="168"/>
     </row>
     <row r="12">
-      <c r="A12" s="165" t="s">
-        <v>1109</v>
-      </c>
-      <c r="B12" s="166" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C12" s="166" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D12" s="166" t="s">
-        <v>1110</v>
-      </c>
-      <c r="E12" s="167"/>
-      <c r="F12" s="167"/>
-      <c r="G12" s="167"/>
-      <c r="H12" s="167"/>
-      <c r="I12" s="167"/>
-      <c r="J12" s="167"/>
-      <c r="K12" s="167"/>
-      <c r="L12" s="167"/>
-      <c r="M12" s="167"/>
-      <c r="N12" s="167"/>
-      <c r="O12" s="167"/>
-      <c r="P12" s="167"/>
-      <c r="Q12" s="167"/>
-      <c r="R12" s="167"/>
-      <c r="S12" s="167"/>
-      <c r="T12" s="167"/>
-      <c r="U12" s="167"/>
-      <c r="V12" s="167"/>
-      <c r="W12" s="167"/>
-      <c r="X12" s="167"/>
-      <c r="Y12" s="167"/>
-      <c r="Z12" s="167"/>
+      <c r="A12" s="166" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B12" s="167" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C12" s="167" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D12" s="167" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E12" s="168"/>
+      <c r="F12" s="168"/>
+      <c r="G12" s="168"/>
+      <c r="H12" s="168"/>
+      <c r="I12" s="168"/>
+      <c r="J12" s="168"/>
+      <c r="K12" s="168"/>
+      <c r="L12" s="168"/>
+      <c r="M12" s="168"/>
+      <c r="N12" s="168"/>
+      <c r="O12" s="168"/>
+      <c r="P12" s="168"/>
+      <c r="Q12" s="168"/>
+      <c r="R12" s="168"/>
+      <c r="S12" s="168"/>
+      <c r="T12" s="168"/>
+      <c r="U12" s="168"/>
+      <c r="V12" s="168"/>
+      <c r="W12" s="168"/>
+      <c r="X12" s="168"/>
+      <c r="Y12" s="168"/>
+      <c r="Z12" s="168"/>
     </row>
     <row r="13">
-      <c r="A13" s="165" t="s">
+      <c r="A13" s="166" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B13" s="166" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C13" s="167" t="s">
         <v>1111</v>
       </c>
-      <c r="B13" s="165" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C13" s="166" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D13" s="166" t="s">
-        <v>1112</v>
-      </c>
-      <c r="E13" s="167"/>
-      <c r="F13" s="167"/>
-      <c r="G13" s="167"/>
-      <c r="H13" s="167"/>
-      <c r="I13" s="167"/>
-      <c r="J13" s="167"/>
-      <c r="K13" s="167"/>
-      <c r="L13" s="167"/>
-      <c r="M13" s="167"/>
-      <c r="N13" s="167"/>
-      <c r="O13" s="167"/>
-      <c r="P13" s="167"/>
-      <c r="Q13" s="167"/>
-      <c r="R13" s="167"/>
-      <c r="S13" s="167"/>
-      <c r="T13" s="167"/>
-      <c r="U13" s="167"/>
-      <c r="V13" s="167"/>
-      <c r="W13" s="167"/>
-      <c r="X13" s="167"/>
-      <c r="Y13" s="167"/>
-      <c r="Z13" s="167"/>
+      <c r="D13" s="167" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E13" s="168"/>
+      <c r="F13" s="168"/>
+      <c r="G13" s="168"/>
+      <c r="H13" s="168"/>
+      <c r="I13" s="168"/>
+      <c r="J13" s="168"/>
+      <c r="K13" s="168"/>
+      <c r="L13" s="168"/>
+      <c r="M13" s="168"/>
+      <c r="N13" s="168"/>
+      <c r="O13" s="168"/>
+      <c r="P13" s="168"/>
+      <c r="Q13" s="168"/>
+      <c r="R13" s="168"/>
+      <c r="S13" s="168"/>
+      <c r="T13" s="168"/>
+      <c r="U13" s="168"/>
+      <c r="V13" s="168"/>
+      <c r="W13" s="168"/>
+      <c r="X13" s="168"/>
+      <c r="Y13" s="168"/>
+      <c r="Z13" s="168"/>
     </row>
     <row r="14">
-      <c r="A14" s="165" t="s">
-        <v>1113</v>
-      </c>
-      <c r="B14" s="165" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C14" s="166" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D14" s="166" t="s">
+      <c r="A14" s="166" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B14" s="166" t="s">
         <v>1114</v>
       </c>
-      <c r="E14" s="167"/>
-      <c r="F14" s="167"/>
-      <c r="G14" s="167"/>
-      <c r="H14" s="167"/>
-      <c r="I14" s="167"/>
-      <c r="J14" s="167"/>
-      <c r="K14" s="167"/>
-      <c r="L14" s="167"/>
-      <c r="M14" s="167"/>
-      <c r="N14" s="167"/>
-      <c r="O14" s="167"/>
-      <c r="P14" s="167"/>
-      <c r="Q14" s="167"/>
-      <c r="R14" s="167"/>
-      <c r="S14" s="167"/>
-      <c r="T14" s="167"/>
-      <c r="U14" s="167"/>
-      <c r="V14" s="167"/>
-      <c r="W14" s="167"/>
-      <c r="X14" s="167"/>
-      <c r="Y14" s="167"/>
-      <c r="Z14" s="167"/>
+      <c r="C14" s="167" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D14" s="167" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E14" s="168"/>
+      <c r="F14" s="168"/>
+      <c r="G14" s="168"/>
+      <c r="H14" s="168"/>
+      <c r="I14" s="168"/>
+      <c r="J14" s="168"/>
+      <c r="K14" s="168"/>
+      <c r="L14" s="168"/>
+      <c r="M14" s="168"/>
+      <c r="N14" s="168"/>
+      <c r="O14" s="168"/>
+      <c r="P14" s="168"/>
+      <c r="Q14" s="168"/>
+      <c r="R14" s="168"/>
+      <c r="S14" s="168"/>
+      <c r="T14" s="168"/>
+      <c r="U14" s="168"/>
+      <c r="V14" s="168"/>
+      <c r="W14" s="168"/>
+      <c r="X14" s="168"/>
+      <c r="Y14" s="168"/>
+      <c r="Z14" s="168"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -22989,52 +23195,52 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="168" t="s">
-        <v>1075</v>
+      <c r="A1" s="169" t="s">
+        <v>1103</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="150" t="s">
-        <v>1077</v>
-      </c>
-      <c r="B2" s="150" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C2" s="150" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D2" s="150" t="s">
-        <v>1080</v>
+      <c r="A2" s="151" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B2" s="151" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C2" s="151" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D2" s="151" t="s">
+        <v>1108</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="147" t="s">
-        <v>1115</v>
-      </c>
-      <c r="B3" s="147" t="s">
-        <v>1116</v>
+      <c r="A3" s="148" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B3" s="148" t="s">
+        <v>1144</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="147" t="s">
-        <v>1117</v>
-      </c>
-      <c r="B4" s="147" t="s">
-        <v>1118</v>
+      <c r="A4" s="148" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B4" s="148" t="s">
+        <v>1146</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="147" t="s">
-        <v>1119</v>
-      </c>
-      <c r="B5" s="147" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C5" s="169" t="s">
-        <v>1118</v>
-      </c>
-      <c r="D5" s="147" t="s">
-        <v>1121</v>
+      <c r="A5" s="148" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B5" s="148" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C5" s="170" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D5" s="148" t="s">
+        <v>1149</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F02/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F02/transformation/conceptual_mappings.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1721" uniqueCount="1150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="1180">
   <si>
     <t>Field</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>2.1.1-TDArc.1</t>
+    <t>2.1.1-TDAbeta.1</t>
   </si>
   <si>
     <r>
@@ -3253,28 +3253,6 @@
     <t>Award criteria</t>
   </si>
   <si>
-    <t>II.2.5.1.2.1</t>
-  </si>
-  <si>
-    <t>The criteria described below (Criterion:)</t>
-  </si>
-  <si>
-    <t>BT-543</t>
-  </si>
-  <si>
-    <t>Award Criterion complicated</t>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/OBJECT_DESCR/AC/AC_CRITERION
-OBJECT_CONTRACT/OBJECT_DESCR/AC_CRITERION</t>
-  </si>
-  <si>
-    <t>epo:AwardCriterion / rdf:langString</t>
-  </si>
-  <si>
-    <t>?this cccev:description ?value .</t>
-  </si>
-  <si>
     <t>II.2.5.1</t>
   </si>
   <si>
@@ -3291,6 +3269,32 @@
 OBJECT_CONTRACT/OBJECT_DESCR/AC_QUALITY</t>
   </si>
   <si>
+    <t xml:space="preserve">epo:Lot / epo:AwardCriterion </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+      </rPr>
+      <t>?this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+      </rPr>
+      <t xml:space="preserve"> epo:specifiesAwardCriterion </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+      </rPr>
+      <t>?value .</t>
+    </r>
+  </si>
+  <si>
     <t>epo:AwardCriterion / at-voc:award-criterion-type</t>
   </si>
   <si>
@@ -3348,6 +3352,9 @@
 OBJECT_CONTRACT/OBJECT_DESCR/AC_QUALITY/AC_CRITERION</t>
   </si>
   <si>
+    <t>epo:AwardCriterion / rdf:langString</t>
+  </si>
+  <si>
     <t>?this cccev:name ?value .</t>
   </si>
   <si>
@@ -3355,6 +3362,12 @@
   </si>
   <si>
     <t>Weighting</t>
+  </si>
+  <si>
+    <t>BT-543</t>
+  </si>
+  <si>
+    <t>Award Criterion complicated</t>
   </si>
   <si>
     <t>OBJECT_CONTRACT/OBJECT_DESCR/AC/AC_QUALITY/AC_WEIGHTING
@@ -3377,6 +3390,32 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>?this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> epo:specifiesAwardCriterion </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>?value .</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
         <color rgb="FF000000"/>
       </rPr>
       <t>?</t>
@@ -3439,6 +3478,32 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>?this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> epo:specifiesAwardCriterion </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>?value .</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
         <color rgb="FF000000"/>
       </rPr>
       <t>?</t>
@@ -3491,6 +3556,32 @@
 OBJECT_CONTRACT/OBJECT_DESCR/AC_PROCUREMENT_DOC</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>?this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t xml:space="preserve"> epo:specifiesAwardCriterion </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>?value .</t>
+    </r>
+  </si>
+  <si>
     <t>II.2.6</t>
   </si>
   <si>
@@ -3675,15 +3766,18 @@
     <t>OBJECT_CONTRACT/OBJECT_DESCR/RENEWAL</t>
   </si>
   <si>
-    <t>epo:Lot / epo:ContractTerm /</t>
-  </si>
-  <si>
-    <t>?this epo:foreseesContractSpecificTerm / epo:isRenewalIndicator ?value .</t>
+    <t>epo:Lot / epo:ContractTerm / xsd:boolean</t>
+  </si>
+  <si>
+    <t>?this epo:foreseesContractSpecificTerm / epo:isRenewalIndicator true .</t>
   </si>
   <si>
     <t>OBJECT_CONTRACT/OBJECT_DESCR/NO_RENEWAL</t>
   </si>
   <si>
+    <t>?this epo:foreseesContractSpecificTerm / epo:isRenewalIndicator false .</t>
+  </si>
+  <si>
     <t>II.2.7.6</t>
   </si>
   <si>
@@ -3717,55 +3811,51 @@
     <t>Envisaged number of candidates</t>
   </si>
   <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/NB_ENVISAGED_CANDIDATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>II.2.9.2</t>
+  </si>
+  <si>
+    <t>Envisaged minimum number</t>
+  </si>
+  <si>
+    <t>BT-50</t>
+  </si>
+  <si>
+    <t>Minimum Candidates</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/NB_MIN_LIMIT_CANDIDATE</t>
+  </si>
+  <si>
+    <t>epo:Lot / epo:MultipleStageProcedureTerm / xsd:integer</t>
+  </si>
+  <si>
+    <t>?this epo:isSubjectToLotSpecificTerm / epo:hasMinimumNumberOfCandidates ?value .</t>
+  </si>
+  <si>
+    <t>II.2.9.3</t>
+  </si>
+  <si>
+    <t>Envisaged maximum number</t>
+  </si>
+  <si>
     <t>BT-51</t>
   </si>
   <si>
-    <t>Maximum Candidates Indicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OBJECT_CONTRACT/OBJECT_DESCR/NB_ENVISAGED_CANDIDATE
-</t>
-  </si>
-  <si>
-    <t>epo:Lot / epo:MultipleStageProcedureTerm / xsd:integer</t>
+    <t>Maximum Candidates Number</t>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/NB_MAX_LIMIT_CANDIDATE</t>
   </si>
   <si>
     <t>?this epo:isSubjectToLotSpecificTerm / epo:hasMaximumNumberOfCandidates ?value .</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>II.2.9.2</t>
-  </si>
-  <si>
-    <t>Envisaged minimum number</t>
-  </si>
-  <si>
-    <t>BT-50</t>
-  </si>
-  <si>
-    <t>Minimum Candidates</t>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/OBJECT_DESCR/NB_MIN_LIMIT_CANDIDATE</t>
-  </si>
-  <si>
-    <t>?this epo:isSubjectToLotSpecificTerm / epo:hasMinimumNumberOfCandidates ?value .</t>
-  </si>
-  <si>
-    <t>II.2.9.3</t>
-  </si>
-  <si>
-    <t>Envisaged maximum number</t>
-  </si>
-  <si>
-    <t>Maximum Candidates Number</t>
-  </si>
-  <si>
-    <t>OBJECT_CONTRACT/OBJECT_DESCR/NB_MAX_LIMIT_CANDIDATE</t>
-  </si>
-  <si>
     <t>II.2.9.4</t>
   </si>
   <si>
@@ -3805,18 +3895,61 @@
     <t>Variants</t>
   </si>
   <si>
-    <t xml:space="preserve">OBJECT_CONTRACT/OBJECT_DESCR/ACCEPTED_VARIANTS
-</t>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/ACCEPTED_VARIANTS</t>
   </si>
   <si>
     <t>epo:Lot / epo:SubmissionTerm / at-voc:permission</t>
   </si>
   <si>
-    <t>?this epo:isSubjectToLotSpecificTerm / epo:hasVariantPermission ?value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OBJECT_CONTRACT/OBJECT_DESCR/NO_ACCEPTED_VARIANTS
-</t>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>?this epo:isSubjectToLotSpecificTerm / epo:hasVariantPermission &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://publications.europa.eu/resource/authority/permission/allowed</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>&gt; .</t>
+    </r>
+  </si>
+  <si>
+    <t>OBJECT_CONTRACT/OBJECT_DESCR/NO_ACCEPTED_VARIANTS</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>?this epo:isSubjectToLotSpecificTerm / epo:hasVariantPermission &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://publications.europa.eu/resource/authority/permission/not-allowed</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>&gt; .</t>
+    </r>
   </si>
   <si>
     <t>II.2.11</t>
@@ -3834,12 +3967,15 @@
     <t>BT-53</t>
   </si>
   <si>
+    <t>II.2.11.1.1</t>
+  </si>
+  <si>
+    <t>Options (checked / yes)</t>
+  </si>
+  <si>
     <t>OBJECT_CONTRACT/OBJECT_DESCR/OPTIONS</t>
   </si>
   <si>
-    <t>epo:Lot / epo:ContractTerm / xsd:boolean</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -3874,6 +4010,12 @@
     </r>
   </si>
   <si>
+    <t>II.2.11.1.2</t>
+  </si>
+  <si>
+    <t>Options (unchecked / no)</t>
+  </si>
+  <si>
     <t>OBJECT_CONTRACT/OBJECT_DESCR/NO_OPTIONS</t>
   </si>
   <si>
@@ -3940,7 +4082,28 @@
     <t>OBJECT_CONTRACT/OBJECT_DESCR/ECATALOGUE_REQUIRED</t>
   </si>
   <si>
-    <t>?this epo:isSubjectToLotSpecificTerm / epo:hasECataloguePermission ?value</t>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>?this epo:isSubjectToLotSpecificTerm / epo:hasECataloguePermission &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://publications.europa.eu/resource/authority/permission/required</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>&gt; .</t>
+    </r>
   </si>
   <si>
     <t>II.2.13</t>
@@ -3959,6 +4122,12 @@
   </si>
   <si>
     <t>EU Funds</t>
+  </si>
+  <si>
+    <t>II.2.13.1.1</t>
+  </si>
+  <si>
+    <t>The procurement is related to a project and/or programme financed by European Union funds (yes)</t>
   </si>
   <si>
     <t>OBJECT_CONTRACT/OBJECT_DESCR/EU_PROGR_RELATED</t>
@@ -3993,6 +4162,12 @@
     </r>
   </si>
   <si>
+    <t>II.2.13.1.2</t>
+  </si>
+  <si>
+    <t>The procurement is related to a project and/or programme financed by European Union funds (no)</t>
+  </si>
+  <si>
     <t>OBJECT_CONTRACT/OBJECT_DESCR/NO_EU_PROGR_RELATED</t>
   </si>
   <si>
@@ -4122,20 +4297,49 @@
     <t>Suitability to pursue the professional activity, including requirements relating to enrolment on professional or trade registers</t>
   </si>
   <si>
+    <t>LEFTI/SUITABILITY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epo:Lot / epo:SelectionCriterion / at-voc:selection-criterion </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>?this epo:specifiesSelectionCriterion / epo:hasSelectionCriterionType ?&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://publications.europa.eu/resource/authority/selection-criterion/sui-act</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>&gt; .</t>
+    </r>
+  </si>
+  <si>
     <t>III.1.1.1</t>
   </si>
   <si>
     <t>List and brief description of conditions, indication of information and documentation required</t>
   </si>
   <si>
-    <t>BT-749; BT-750</t>
-  </si>
-  <si>
-    <t>Selection Criteria Name; 
-Selection Criteria Description</t>
-  </si>
-  <si>
-    <t>LEFTI/SUITABILITY/P/FT</t>
+    <t>LEFTI/SUITABILITY/P</t>
+  </si>
+  <si>
+    <t>epo:Lot / epo:SelectionCriterion / rdf:langString</t>
+  </si>
+  <si>
+    <t>?this epo:specifiesSelectionCriterion / ccev:description ?value .</t>
   </si>
   <si>
     <t>III.1.2</t>
@@ -4144,18 +4348,47 @@
     <t>Economic and financial standing</t>
   </si>
   <si>
+    <t>BT-747</t>
+  </si>
+  <si>
+    <t>Selection Criteria Type</t>
+  </si>
+  <si>
+    <t>LEFTI/ECONOMIC_CRITERIA_DOC
+LEFTI/ECONOMIC_FINANCIAL_INFO
+LEFTI/ECONOMIC_FINANCIAL_MIN_LEVEL</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>?this epo:specifiesSelectionCriterion / epo:hasSelectionCriterionType ?&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://publications.europa.eu/resource/authority/selection-criterion/ef-stand</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>&gt; .</t>
+    </r>
+  </si>
+  <si>
     <t>III.1.2.1</t>
   </si>
   <si>
     <t>Selection criteria as stated in the procurement documents</t>
   </si>
   <si>
-    <t>BT-747</t>
-  </si>
-  <si>
-    <t>Selection Criteria Type</t>
-  </si>
-  <si>
     <t>LEFTI/ECONOMIC_CRITERIA_DOC</t>
   </si>
   <si>
@@ -4177,10 +4410,45 @@
     <t>LEFTI/ECONOMIC_FINANCIAL_MIN_LEVEL</t>
   </si>
   <si>
+    <t>epo:Lot / epo:SelectionCriterion / cccev:Constraint / cccev:InformationConcept / rdf:langString</t>
+  </si>
+  <si>
+    <t>?this epo:specifiesSelectionCriterion / epo:hasConstraint / cccev:constrains / epo:hasDescription ?value .</t>
+  </si>
+  <si>
     <t>III.1.3</t>
   </si>
   <si>
     <t>Technical and professional ability</t>
+  </si>
+  <si>
+    <t>LEFTI/TECHNICAL_CRITERIA_DOC
+LEFTI/TECHNICAL_PROFESSIONAL_INFO
+LEFTI/TECHNICAL_PROFESSIONAL_MIN_LEVEL</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>?this epo:specifiesSelectionCriterion / epo:hasSelectionCriterionType ?&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://publications.europa.eu/resource/authority/selection-criterion/tp-abil</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>&gt; .</t>
+    </r>
   </si>
   <si>
     <t>III.1.3.1</t>
@@ -4682,7 +4950,7 @@
     <t>IV.1.3.1.1</t>
   </si>
   <si>
-    <t>Framework agreement with single operators</t>
+    <t>Framework agreement with single operator</t>
   </si>
   <si>
     <t>BT-778</t>
@@ -4706,7 +4974,7 @@
     <t>IV.1.3.1.3</t>
   </si>
   <si>
-    <t>Envisaged maximum number of participants to the framework</t>
+    <t>Envisaged maximum number of participants to the framework agreement</t>
   </si>
   <si>
     <t>BT-113</t>
@@ -4739,19 +5007,61 @@
     <t>PROCEDURE/DPS</t>
   </si>
   <si>
+    <t>epo:Procedure / epo:DynamicPurchaseSystemTechniqueUsage</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>?this</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> epo:usesTechnique ?value .</t>
+    </r>
+  </si>
+  <si>
+    <t>IV.1.3.2.1</t>
+  </si>
+  <si>
+    <t>The dynamic purchasing system might be used by additional purchasers</t>
+  </si>
+  <si>
+    <t>PROCEDURE/DPS_ADDITIONAL_PURCHASERS</t>
+  </si>
+  <si>
     <t>epo:DynamicPurchaseSystemTechniqueUsage / at-voc:dps-usage</t>
   </si>
   <si>
-    <t>?this epo:hasDPSScope ?value .</t>
-  </si>
-  <si>
-    <t>IV.1.3.2.1</t>
-  </si>
-  <si>
-    <t>The dynamic purchasing system might be used by additional purchasers</t>
-  </si>
-  <si>
-    <t>PROCEDURE/DPS_ADDITIONAL_PURCHASERS</t>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>?this epo:hasDPSScope &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>http://publications.europa.eu/resource/authority/dps-usage/dps-nlist</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>&gt; .</t>
+    </r>
   </si>
   <si>
     <t>In the case of framework agreements, provide justification for any duration exceeding 8 years</t>
@@ -4796,7 +5106,7 @@
     <t>epo:Procedure / epo:Lot / epo:MultipleStageProcedureTerm / xsd:boolean</t>
   </si>
   <si>
-    <t>?this epo:hasProcurementScopeDividedIntoLot / epo:isSubjectToLotSpecificTerm / epo:hasSuccessiveReduction ?value .</t>
+    <t>?this epo:hasProcurementScopeDividedIntoLot / epo:isSubjectToLotSpecificTerm / epo:hasSuccessiveReduction true .</t>
   </si>
   <si>
     <t>IV.1.5</t>
@@ -4820,7 +5130,7 @@
     <t>PROCEDURE/RIGHT_CONTRACT_INITIAL_TENDERS</t>
   </si>
   <si>
-    <t>?this epo:hasProcurementScopeDividedIntoLot / epo:isSubjectToLotSpecificTerm / epo:hasNoNegotiationNecessary ?value .</t>
+    <t>?this epo:hasProcurementScopeDividedIntoLot / epo:isSubjectToLotSpecificTerm / epo:hasNoNegotiationNecessary true .</t>
   </si>
   <si>
     <t>IV.1.6</t>
@@ -4896,6 +5206,12 @@
     <t>GPA Coverage</t>
   </si>
   <si>
+    <t>IV.1.8.1</t>
+  </si>
+  <si>
+    <t>The procurement is covered by the Government Procurement Agreement (yes)</t>
+  </si>
+  <si>
     <t>PROCEDURE/CONTRACT_COVERED_GPA</t>
   </si>
   <si>
@@ -4931,6 +5247,12 @@
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
+  </si>
+  <si>
+    <t>IV.1.8.2</t>
+  </si>
+  <si>
+    <t>The procurement is covered by the Government Procurement Agreement (no)</t>
   </si>
   <si>
     <t>PROCEDURE/NO_CONTRACT_COVERED_GPA</t>
@@ -5240,7 +5562,7 @@
     <t>PROCEDURE/DATE_TENDER_VALID</t>
   </si>
   <si>
-    <t>epo:Procedure / epo:SubmissionTerm / xsd:dateTime</t>
+    <t>epo:Procedure / epo:SubmissionTerm  / epo:Period / xsd:date</t>
   </si>
   <si>
     <r>
@@ -5263,7 +5585,7 @@
         <rFont val="Arial"/>
         <color rgb="FFFF0000"/>
       </rPr>
-      <t xml:space="preserve"> epo:isSubjectToProcedureSpecificTerm  / epo:hasReceiptDeadline ?</t>
+      <t xml:space="preserve"> epo:isSubjectToProcedureSpecificTerm  / epo:hasValidityPeriod / epo:hasEnd ?</t>
     </r>
     <r>
       <rPr>
@@ -5297,6 +5619,15 @@
     <t>PROCEDURE/DURATION_TENDER_VALID</t>
   </si>
   <si>
+    <t>epo:Procedure / epo:SubmissionTerm / epo:Period / rdf:langString</t>
+  </si>
+  <si>
+    <t>?this epo:isSubjectToProcedureSpecificTerm  / epo:hasValidityPeriod / epo:hasDescription ?value .</t>
+  </si>
+  <si>
+    <t>PROCEDURE/DURATION_TENDER_VALID/@TYPE</t>
+  </si>
+  <si>
     <t>epo:Procedure / epo:SubmissionTerm / epo:Period / at-voc:timeperiod</t>
   </si>
   <si>
@@ -5312,7 +5643,8 @@
     <t>IV.2.7.1</t>
   </si>
   <si>
-    <t>Date</t>
+    <t>Public Opening
+(Date/Time)</t>
   </si>
   <si>
     <t>BT-132</t>
@@ -5321,7 +5653,8 @@
     <t>Public Opening Date</t>
   </si>
   <si>
-    <t>PROCEDURE/OPENING_CONDITION/DATE_OPENING_TENDERS</t>
+    <t>PROCEDURE/OPENING_CONDITION/DATE_OPENING_TENDERS
+PROCEDURE/OPENING_CONDITION/TIME_OPENING_TENDERS</t>
   </si>
   <si>
     <t>epo:Procedure / epo:Lot / epo:OpeningTerm / xsd:dateTime</t>
@@ -5333,36 +5666,27 @@
     <t>IV.2.7.2</t>
   </si>
   <si>
-    <t>Local time</t>
-  </si>
-  <si>
-    <t>PROCEDURE/OPENING_CONDITION/TIME_OPENING_TENDERS</t>
+    <t>Place</t>
+  </si>
+  <si>
+    <t>BT-133</t>
+  </si>
+  <si>
+    <t>Public Opening Place</t>
+  </si>
+  <si>
+    <t>PROCEDURE/OPENING_CONDITION/PLACE</t>
+  </si>
+  <si>
+    <t>epo:Procedure / epo:Lot / epo:OpeningTerm / locn:Address / rdf:langString</t>
+  </si>
+  <si>
+    <t>?this epo:hasProcurementScopeDividedIntoLot / epo:isSubjectToLotSpecificTerm /  epo:definesOpeningPlace / locn:fullAddress ?value .</t>
   </si>
   <si>
     <t>IV.2.7.3</t>
   </si>
   <si>
-    <t>Place</t>
-  </si>
-  <si>
-    <t>BT-133</t>
-  </si>
-  <si>
-    <t>Public Opening Place</t>
-  </si>
-  <si>
-    <t>PROCEDURE/OPENING_CONDITION/PLACE</t>
-  </si>
-  <si>
-    <t>epo:Procedure / epo:Lot / epo:OpeningTerm / xsd:anyURI</t>
-  </si>
-  <si>
-    <t>?this epo:hasProcurementScopeDividedIntoLot / epo:isSubjectToLotSpecificTerm / epo:hasOpeningURL ?value .</t>
-  </si>
-  <si>
-    <t>IV.2.7.4</t>
-  </si>
-  <si>
     <t>Information about authorised persons and opening procedure</t>
   </si>
   <si>
@@ -5405,13 +5729,28 @@
     <t>Recurrence</t>
   </si>
   <si>
+    <t>VI.1.1.1</t>
+  </si>
+  <si>
+    <t>This is a recurrent procurement (yes)</t>
+  </si>
+  <si>
+    <t>COMPLEMENTARY_INFO/RECURRENT_PROCUREMENT</t>
+  </si>
+  <si>
+    <t>?this epo:isRecurrent true .</t>
+  </si>
+  <si>
+    <t>VI.1.1.2</t>
+  </si>
+  <si>
+    <t>This is a recurrent procurement (no)</t>
+  </si>
+  <si>
     <t>COMPLEMENTARY_INFO/NO_RECURRENT_PROCUREMENT</t>
   </si>
   <si>
-    <t>?this epo:isRecurrent ?value .</t>
-  </si>
-  <si>
-    <t>COMPLEMENTARY_INFO/RECURRENT_PROCUREMENT</t>
+    <t>?this epo:isRecurrent false .</t>
   </si>
   <si>
     <t>VI.1.2</t>
@@ -5430,6 +5769,9 @@
   </si>
   <si>
     <t>?this epo:hasRecurrenceDescription ?value .</t>
+  </si>
+  <si>
+    <t>The &lt;P&gt; and &lt;FT&gt; tags should be removed in a post-processing step</t>
   </si>
   <si>
     <t>VI.2</t>
@@ -5615,6 +5957,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -5622,12 +5965,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:playedBy / epo:hasLegalName ?</t>
     </r>
@@ -5635,12 +5980,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -5655,6 +6002,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -5662,12 +6010,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:thoroughfare ?</t>
     </r>
@@ -5675,12 +6025,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -5738,6 +6090,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -5745,12 +6098,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / locn:postCode ?</t>
     </r>
@@ -5758,12 +6113,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -5778,6 +6135,7 @@
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t>?</t>
     </r>
@@ -5785,12 +6143,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>this</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> epo:playedBy / cv:registeredAddress / epo:hasCountryCode ?</t>
     </r>
@@ -5798,12 +6158,14 @@
       <rPr>
         <rFont val="Arial"/>
         <b/>
+        <color theme="1"/>
       </rPr>
       <t>value</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
+        <color theme="1"/>
       </rPr>
       <t xml:space="preserve"> .</t>
     </r>
@@ -7024,7 +7386,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="39">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -7109,7 +7471,9 @@
       <name val="Arial"/>
     </font>
     <font>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <u/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -7123,8 +7487,32 @@
       <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -7134,6 +7522,7 @@
       <name val="Arial"/>
     </font>
     <font>
+      <b/>
       <u/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
@@ -7191,7 +7580,7 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7262,6 +7651,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
@@ -7351,7 +7746,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="172">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -7626,7 +8021,10 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="5" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -7638,106 +8036,115 @@
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="18" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="21" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="18" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="21" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="7" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="18" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="12" fontId="21" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="12" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="18" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="21" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="21" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="18" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="5" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -7749,53 +8156,44 @@
     <xf quotePrefix="1" borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="0" fillId="5" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="7" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -7819,13 +8217,13 @@
     <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -7834,23 +8232,23 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -14513,10 +14911,10 @@
       <c r="K102" s="7"/>
     </row>
     <row r="103">
-      <c r="A103" s="94" t="s">
+      <c r="A103" s="51" t="s">
         <v>427</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B103" s="52" t="s">
         <v>428</v>
       </c>
       <c r="C103" s="4" t="s">
@@ -14525,44 +14923,42 @@
       <c r="D103" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="E103" s="40" t="s">
+      <c r="E103" s="35" t="s">
         <v>431</v>
       </c>
-      <c r="F103" s="4"/>
-      <c r="G103" s="35" t="s">
+      <c r="F103" s="36"/>
+      <c r="G103" s="36" t="s">
         <v>432</v>
       </c>
-      <c r="H103" s="92" t="s">
+      <c r="H103" s="94" t="s">
         <v>433</v>
       </c>
-      <c r="I103" s="7" t="s">
-        <v>69</v>
-      </c>
+      <c r="I103" s="7"/>
       <c r="J103" s="7"/>
       <c r="K103" s="7"/>
     </row>
     <row r="104">
-      <c r="A104" s="51" t="s">
-        <v>434</v>
-      </c>
-      <c r="B104" s="52" t="s">
-        <v>435</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>437</v>
+      <c r="A104" s="78" t="s">
+        <v>427</v>
+      </c>
+      <c r="B104" s="79" t="s">
+        <v>428</v>
+      </c>
+      <c r="C104" s="95" t="s">
+        <v>429</v>
+      </c>
+      <c r="D104" s="95" t="s">
+        <v>430</v>
       </c>
       <c r="E104" s="40" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="F104" s="47"/>
       <c r="G104" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="H104" s="95" t="s">
-        <v>440</v>
+        <v>434</v>
+      </c>
+      <c r="H104" s="96" t="s">
+        <v>435</v>
       </c>
       <c r="I104" s="7"/>
       <c r="J104" s="7"/>
@@ -14570,26 +14966,26 @@
     </row>
     <row r="105">
       <c r="A105" s="67" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B105" s="68" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C105" s="47" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D105" s="47" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E105" s="35" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="F105" s="47"/>
       <c r="G105" s="4" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="H105" s="92" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="I105" s="7" t="s">
         <v>69</v>
@@ -14599,26 +14995,26 @@
     </row>
     <row r="106">
       <c r="A106" s="67" t="s">
+        <v>443</v>
+      </c>
+      <c r="B106" s="68" t="s">
+        <v>444</v>
+      </c>
+      <c r="C106" s="47" t="s">
+        <v>445</v>
+      </c>
+      <c r="D106" s="58" t="s">
+        <v>446</v>
+      </c>
+      <c r="E106" s="70" t="s">
         <v>447</v>
-      </c>
-      <c r="B106" s="68" t="s">
-        <v>448</v>
-      </c>
-      <c r="C106" s="47" t="s">
-        <v>429</v>
-      </c>
-      <c r="D106" s="58" t="s">
-        <v>430</v>
-      </c>
-      <c r="E106" s="70" t="s">
-        <v>449</v>
       </c>
       <c r="F106" s="58"/>
       <c r="G106" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="H106" s="96" t="s">
-        <v>450</v>
+        <v>441</v>
+      </c>
+      <c r="H106" s="97" t="s">
+        <v>448</v>
       </c>
       <c r="I106" s="7" t="s">
         <v>69</v>
@@ -14628,82 +15024,80 @@
     </row>
     <row r="107">
       <c r="A107" s="51" t="s">
+        <v>449</v>
+      </c>
+      <c r="B107" s="52" t="s">
+        <v>450</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="E107" s="35" t="s">
         <v>451</v>
       </c>
-      <c r="B107" s="52" t="s">
+      <c r="F107" s="36"/>
+      <c r="G107" s="36" t="s">
+        <v>432</v>
+      </c>
+      <c r="H107" s="60" t="s">
         <v>452</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="E107" s="40" t="s">
-        <v>453</v>
-      </c>
-      <c r="F107" s="47"/>
-      <c r="G107" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="H107" s="97" t="s">
-        <v>454</v>
       </c>
       <c r="I107" s="7"/>
       <c r="J107" s="7"/>
       <c r="K107" s="7"/>
     </row>
     <row r="108">
-      <c r="A108" s="67" t="s">
-        <v>455</v>
-      </c>
-      <c r="B108" s="68" t="s">
-        <v>442</v>
-      </c>
-      <c r="C108" s="47" t="s">
-        <v>443</v>
-      </c>
-      <c r="D108" s="47" t="s">
-        <v>444</v>
-      </c>
-      <c r="E108" s="35" t="s">
-        <v>456</v>
+      <c r="A108" s="78" t="s">
+        <v>449</v>
+      </c>
+      <c r="B108" s="79" t="s">
+        <v>450</v>
+      </c>
+      <c r="C108" s="95" t="s">
+        <v>429</v>
+      </c>
+      <c r="D108" s="95" t="s">
+        <v>430</v>
+      </c>
+      <c r="E108" s="40" t="s">
+        <v>451</v>
       </c>
       <c r="F108" s="47"/>
       <c r="G108" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="H108" s="35" t="s">
-        <v>446</v>
-      </c>
-      <c r="I108" s="7" t="s">
-        <v>69</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="H108" s="98" t="s">
+        <v>453</v>
+      </c>
+      <c r="I108" s="7"/>
       <c r="J108" s="7"/>
       <c r="K108" s="7"/>
     </row>
     <row r="109">
       <c r="A109" s="67" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B109" s="68" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="C109" s="47" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="D109" s="58" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="E109" s="70" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="F109" s="58"/>
       <c r="G109" s="7" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="H109" s="70" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="I109" s="7" t="s">
         <v>69</v>
@@ -14712,687 +15106,679 @@
       <c r="K109" s="7"/>
     </row>
     <row r="110">
-      <c r="A110" s="51" t="s">
-        <v>459</v>
-      </c>
-      <c r="B110" s="52" t="s">
-        <v>460</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="E110" s="40" t="s">
-        <v>461</v>
+      <c r="A110" s="67" t="s">
+        <v>456</v>
+      </c>
+      <c r="B110" s="68" t="s">
+        <v>444</v>
+      </c>
+      <c r="C110" s="47" t="s">
+        <v>445</v>
+      </c>
+      <c r="D110" s="47" t="s">
+        <v>446</v>
+      </c>
+      <c r="E110" s="35" t="s">
+        <v>457</v>
       </c>
       <c r="F110" s="47"/>
       <c r="G110" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="H110" s="97" t="s">
-        <v>462</v>
-      </c>
-      <c r="I110" s="7"/>
+        <v>441</v>
+      </c>
+      <c r="H110" s="35" t="s">
+        <v>448</v>
+      </c>
+      <c r="I110" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="J110" s="7"/>
       <c r="K110" s="7"/>
     </row>
     <row r="111">
-      <c r="A111" s="67" t="s">
-        <v>463</v>
-      </c>
-      <c r="B111" s="68" t="s">
-        <v>448</v>
-      </c>
-      <c r="C111" s="47" t="s">
+      <c r="A111" s="51" t="s">
+        <v>458</v>
+      </c>
+      <c r="B111" s="52" t="s">
+        <v>459</v>
+      </c>
+      <c r="C111" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="D111" s="47" t="s">
+      <c r="D111" s="4" t="s">
         <v>430</v>
       </c>
       <c r="E111" s="35" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="F111" s="36"/>
-      <c r="G111" s="4" t="s">
+      <c r="G111" s="36" t="s">
         <v>432</v>
       </c>
-      <c r="H111" s="35" t="s">
-        <v>450</v>
-      </c>
-      <c r="I111" s="7" t="s">
-        <v>69</v>
-      </c>
+      <c r="H111" s="60" t="s">
+        <v>461</v>
+      </c>
+      <c r="I111" s="7"/>
       <c r="J111" s="7"/>
       <c r="K111" s="7"/>
     </row>
     <row r="112">
-      <c r="A112" s="98" t="s">
-        <v>465</v>
-      </c>
-      <c r="B112" s="99" t="s">
-        <v>466</v>
-      </c>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="100" t="s">
-        <v>467</v>
-      </c>
-      <c r="F112" s="7"/>
-      <c r="G112" s="7"/>
-      <c r="H112" s="7"/>
+      <c r="A112" s="78" t="s">
+        <v>458</v>
+      </c>
+      <c r="B112" s="79" t="s">
+        <v>459</v>
+      </c>
+      <c r="C112" s="99" t="s">
+        <v>429</v>
+      </c>
+      <c r="D112" s="99" t="s">
+        <v>430</v>
+      </c>
+      <c r="E112" s="61" t="s">
+        <v>460</v>
+      </c>
+      <c r="F112" s="58"/>
+      <c r="G112" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="H112" s="100" t="s">
+        <v>462</v>
+      </c>
       <c r="I112" s="7"/>
       <c r="J112" s="7"/>
       <c r="K112" s="7"/>
     </row>
     <row r="113">
-      <c r="A113" s="45" t="s">
-        <v>468</v>
-      </c>
-      <c r="B113" s="46" t="s">
-        <v>469</v>
-      </c>
-      <c r="C113" s="4"/>
-      <c r="D113" s="4"/>
-      <c r="E113" s="4"/>
-      <c r="F113" s="4"/>
-      <c r="G113" s="4"/>
-      <c r="H113" s="4"/>
-      <c r="I113" s="7"/>
+      <c r="A113" s="67" t="s">
+        <v>463</v>
+      </c>
+      <c r="B113" s="68" t="s">
+        <v>444</v>
+      </c>
+      <c r="C113" s="47" t="s">
+        <v>445</v>
+      </c>
+      <c r="D113" s="47" t="s">
+        <v>446</v>
+      </c>
+      <c r="E113" s="35" t="s">
+        <v>464</v>
+      </c>
+      <c r="F113" s="36"/>
+      <c r="G113" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="H113" s="35" t="s">
+        <v>448</v>
+      </c>
+      <c r="I113" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="J113" s="7"/>
       <c r="K113" s="7"/>
     </row>
     <row r="114">
-      <c r="A114" s="51" t="s">
-        <v>470</v>
-      </c>
-      <c r="B114" s="52" t="s">
-        <v>471</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>474</v>
+      <c r="A114" s="101" t="s">
+        <v>465</v>
+      </c>
+      <c r="B114" s="102" t="s">
+        <v>466</v>
+      </c>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="103" t="s">
+        <v>467</v>
       </c>
       <c r="F114" s="4"/>
-      <c r="G114" s="77" t="s">
-        <v>475</v>
-      </c>
-      <c r="H114" s="59" t="s">
-        <v>476</v>
+      <c r="G114" s="104" t="s">
+        <v>432</v>
+      </c>
+      <c r="H114" s="105" t="s">
+        <v>468</v>
       </c>
       <c r="I114" s="7"/>
       <c r="J114" s="7"/>
       <c r="K114" s="7"/>
     </row>
     <row r="115">
-      <c r="A115" s="51" t="s">
-        <v>477</v>
-      </c>
-      <c r="B115" s="52" t="s">
-        <v>478</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>235</v>
-      </c>
+      <c r="A115" s="101" t="s">
+        <v>465</v>
+      </c>
+      <c r="B115" s="102" t="s">
+        <v>466</v>
+      </c>
+      <c r="C115" s="4"/>
       <c r="D115" s="4"/>
-      <c r="E115" s="4" t="s">
-        <v>479</v>
+      <c r="E115" s="103" t="s">
+        <v>467</v>
       </c>
       <c r="F115" s="4"/>
-      <c r="G115" s="59" t="s">
-        <v>480</v>
-      </c>
-      <c r="H115" s="59" t="s">
-        <v>481</v>
-      </c>
+      <c r="G115" s="106"/>
+      <c r="H115" s="106"/>
       <c r="I115" s="7"/>
       <c r="J115" s="7"/>
       <c r="K115" s="7"/>
     </row>
     <row r="116">
       <c r="A116" s="45" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="B116" s="46" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
       <c r="E116" s="7"/>
       <c r="F116" s="7"/>
       <c r="G116" s="4"/>
-      <c r="H116" s="70"/>
+      <c r="H116" s="7"/>
       <c r="I116" s="7"/>
       <c r="J116" s="7"/>
       <c r="K116" s="7"/>
     </row>
     <row r="117">
       <c r="A117" s="51" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="B117" s="52" t="s">
-        <v>485</v>
-      </c>
-      <c r="C117" s="101" t="s">
-        <v>486</v>
+        <v>472</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>473</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="F117" s="4"/>
-      <c r="G117" s="35" t="s">
-        <v>489</v>
-      </c>
-      <c r="H117" s="35" t="s">
-        <v>490</v>
+      <c r="G117" s="77" t="s">
+        <v>476</v>
+      </c>
+      <c r="H117" s="59" t="s">
+        <v>477</v>
       </c>
       <c r="I117" s="7"/>
       <c r="J117" s="7"/>
       <c r="K117" s="7"/>
     </row>
     <row r="118">
-      <c r="A118" s="67" t="s">
-        <v>491</v>
-      </c>
-      <c r="B118" s="68"/>
-      <c r="C118" s="101"/>
+      <c r="A118" s="51" t="s">
+        <v>478</v>
+      </c>
+      <c r="B118" s="52" t="s">
+        <v>479</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>235</v>
+      </c>
       <c r="D118" s="7"/>
       <c r="E118" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="F118" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="G118" s="70" t="s">
-        <v>494</v>
-      </c>
-      <c r="H118" s="70" t="s">
-        <v>495</v>
+        <v>480</v>
+      </c>
+      <c r="F118" s="7"/>
+      <c r="G118" s="75" t="s">
+        <v>481</v>
+      </c>
+      <c r="H118" s="75" t="s">
+        <v>482</v>
       </c>
       <c r="I118" s="7"/>
       <c r="J118" s="7"/>
       <c r="K118" s="7"/>
     </row>
     <row r="119">
-      <c r="A119" s="67" t="s">
-        <v>496</v>
-      </c>
-      <c r="B119" s="68"/>
-      <c r="C119" s="101"/>
+      <c r="A119" s="45" t="s">
+        <v>483</v>
+      </c>
+      <c r="B119" s="46" t="s">
+        <v>484</v>
+      </c>
+      <c r="C119" s="4"/>
       <c r="D119" s="4"/>
-      <c r="E119" s="40" t="s">
-        <v>492</v>
-      </c>
-      <c r="F119" s="4" t="s">
-        <v>497</v>
-      </c>
-      <c r="G119" s="35" t="s">
-        <v>494</v>
-      </c>
-      <c r="H119" s="35" t="s">
-        <v>498</v>
-      </c>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4"/>
       <c r="I119" s="7"/>
       <c r="J119" s="7"/>
       <c r="K119" s="7"/>
     </row>
     <row r="120">
       <c r="A120" s="51" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="B120" s="52" t="s">
-        <v>500</v>
-      </c>
-      <c r="C120" s="102" t="s">
-        <v>501</v>
+        <v>486</v>
+      </c>
+      <c r="C120" s="107" t="s">
+        <v>487</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="F120" s="4"/>
       <c r="G120" s="35" t="s">
-        <v>504</v>
-      </c>
-      <c r="H120" s="35" t="s">
-        <v>505</v>
+        <v>490</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="I120" s="7"/>
       <c r="J120" s="7"/>
       <c r="K120" s="7"/>
     </row>
     <row r="121">
-      <c r="A121" s="51" t="s">
-        <v>506</v>
-      </c>
-      <c r="B121" s="52" t="s">
-        <v>507</v>
-      </c>
-      <c r="C121" s="102" t="s">
-        <v>508</v>
-      </c>
-      <c r="D121" s="7" t="s">
-        <v>509</v>
-      </c>
+      <c r="A121" s="67" t="s">
+        <v>492</v>
+      </c>
+      <c r="B121" s="68"/>
+      <c r="C121" s="107"/>
+      <c r="D121" s="7"/>
       <c r="E121" s="4" t="s">
-        <v>510</v>
-      </c>
-      <c r="F121" s="4"/>
+        <v>493</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>494</v>
+      </c>
       <c r="G121" s="35" t="s">
-        <v>504</v>
-      </c>
-      <c r="H121" s="35" t="s">
-        <v>511</v>
+        <v>495</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>496</v>
       </c>
       <c r="I121" s="7"/>
       <c r="J121" s="7"/>
       <c r="K121" s="7"/>
     </row>
     <row r="122">
-      <c r="A122" s="98" t="s">
-        <v>512</v>
-      </c>
-      <c r="B122" s="99" t="s">
-        <v>513</v>
-      </c>
-      <c r="C122" s="103" t="s">
-        <v>514</v>
-      </c>
-      <c r="D122" s="103" t="s">
-        <v>515</v>
-      </c>
-      <c r="E122" s="104" t="s">
-        <v>516</v>
-      </c>
-      <c r="F122" s="4"/>
-      <c r="G122" s="105" t="s">
-        <v>517</v>
-      </c>
-      <c r="H122" s="105" t="s">
-        <v>518</v>
+      <c r="A122" s="67" t="s">
+        <v>497</v>
+      </c>
+      <c r="B122" s="68"/>
+      <c r="C122" s="107"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="40" t="s">
+        <v>493</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="G122" s="35" t="s">
+        <v>495</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>499</v>
       </c>
       <c r="I122" s="7"/>
       <c r="J122" s="7"/>
       <c r="K122" s="7"/>
     </row>
     <row r="123">
-      <c r="A123" s="98" t="s">
-        <v>512</v>
-      </c>
-      <c r="B123" s="99" t="s">
-        <v>513</v>
-      </c>
-      <c r="C123" s="103" t="s">
-        <v>514</v>
-      </c>
-      <c r="D123" s="103" t="s">
-        <v>515</v>
-      </c>
-      <c r="E123" s="104" t="s">
-        <v>519</v>
+      <c r="A123" s="51" t="s">
+        <v>500</v>
+      </c>
+      <c r="B123" s="52" t="s">
+        <v>501</v>
+      </c>
+      <c r="C123" s="107" t="s">
+        <v>502</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>504</v>
       </c>
       <c r="F123" s="4"/>
-      <c r="G123" s="105" t="s">
-        <v>517</v>
-      </c>
-      <c r="H123" s="105" t="s">
-        <v>518</v>
+      <c r="G123" s="35" t="s">
+        <v>505</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>506</v>
       </c>
       <c r="I123" s="7"/>
       <c r="J123" s="7"/>
       <c r="K123" s="7"/>
     </row>
     <row r="124">
-      <c r="A124" s="98" t="s">
-        <v>520</v>
-      </c>
-      <c r="B124" s="99" t="s">
-        <v>521</v>
-      </c>
-      <c r="C124" s="103" t="s">
-        <v>522</v>
-      </c>
-      <c r="D124" s="103" t="s">
-        <v>523</v>
-      </c>
-      <c r="E124" s="104" t="s">
-        <v>524</v>
+      <c r="A124" s="51" t="s">
+        <v>507</v>
+      </c>
+      <c r="B124" s="52" t="s">
+        <v>508</v>
+      </c>
+      <c r="C124" s="107" t="s">
+        <v>509</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>511</v>
       </c>
       <c r="F124" s="4"/>
-      <c r="G124" s="105" t="s">
-        <v>525</v>
-      </c>
-      <c r="H124" s="105" t="s">
-        <v>526</v>
+      <c r="G124" s="35" t="s">
+        <v>505</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="I124" s="7"/>
       <c r="J124" s="7"/>
       <c r="K124" s="7"/>
     </row>
     <row r="125">
-      <c r="A125" s="106" t="s">
-        <v>527</v>
-      </c>
-      <c r="B125" s="107" t="s">
-        <v>528</v>
-      </c>
-      <c r="C125" s="91"/>
-      <c r="D125" s="91"/>
-      <c r="E125" s="4"/>
-      <c r="F125" s="36"/>
-      <c r="G125" s="36"/>
-      <c r="H125" s="36"/>
+      <c r="A125" s="101" t="s">
+        <v>513</v>
+      </c>
+      <c r="B125" s="102" t="s">
+        <v>514</v>
+      </c>
+      <c r="C125" s="108" t="s">
+        <v>515</v>
+      </c>
+      <c r="D125" s="108" t="s">
+        <v>516</v>
+      </c>
+      <c r="E125" s="104" t="s">
+        <v>517</v>
+      </c>
+      <c r="F125" s="4"/>
+      <c r="G125" s="109" t="s">
+        <v>518</v>
+      </c>
+      <c r="H125" s="109" t="s">
+        <v>519</v>
+      </c>
       <c r="I125" s="7"/>
       <c r="J125" s="7"/>
       <c r="K125" s="7"/>
     </row>
     <row r="126">
-      <c r="A126" s="98" t="s">
-        <v>529</v>
-      </c>
-      <c r="B126" s="99" t="s">
-        <v>530</v>
-      </c>
-      <c r="C126" s="91" t="s">
-        <v>531</v>
-      </c>
-      <c r="D126" s="91" t="s">
-        <v>532</v>
-      </c>
-      <c r="E126" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="F126" s="91"/>
-      <c r="G126" s="91" t="s">
-        <v>534</v>
-      </c>
-      <c r="H126" s="108" t="s">
-        <v>535</v>
-      </c>
-      <c r="I126" s="103" t="s">
-        <v>536</v>
-      </c>
+      <c r="A126" s="101" t="s">
+        <v>513</v>
+      </c>
+      <c r="B126" s="102" t="s">
+        <v>514</v>
+      </c>
+      <c r="C126" s="108" t="s">
+        <v>515</v>
+      </c>
+      <c r="D126" s="108" t="s">
+        <v>516</v>
+      </c>
+      <c r="E126" s="110" t="s">
+        <v>520</v>
+      </c>
+      <c r="F126" s="7"/>
+      <c r="G126" s="111" t="s">
+        <v>518</v>
+      </c>
+      <c r="H126" s="111" t="s">
+        <v>521</v>
+      </c>
+      <c r="I126" s="7"/>
       <c r="J126" s="7"/>
       <c r="K126" s="7"/>
     </row>
     <row r="127">
-      <c r="A127" s="98" t="s">
-        <v>537</v>
-      </c>
-      <c r="B127" s="99" t="s">
-        <v>538</v>
-      </c>
-      <c r="C127" s="91" t="s">
-        <v>539</v>
-      </c>
-      <c r="D127" s="91" t="s">
-        <v>540</v>
-      </c>
-      <c r="E127" s="7" t="s">
-        <v>541</v>
-      </c>
-      <c r="F127" s="91"/>
-      <c r="G127" s="36" t="s">
-        <v>534</v>
+      <c r="A127" s="101" t="s">
+        <v>522</v>
+      </c>
+      <c r="B127" s="102" t="s">
+        <v>523</v>
+      </c>
+      <c r="C127" s="111" t="s">
+        <v>524</v>
+      </c>
+      <c r="D127" s="111" t="s">
+        <v>525</v>
+      </c>
+      <c r="E127" s="110" t="s">
+        <v>526</v>
+      </c>
+      <c r="F127" s="7"/>
+      <c r="G127" s="109" t="s">
+        <v>527</v>
       </c>
       <c r="H127" s="109" t="s">
-        <v>542</v>
-      </c>
-      <c r="I127" s="103" t="s">
-        <v>536</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="I127" s="7"/>
       <c r="J127" s="7"/>
       <c r="K127" s="7"/>
     </row>
     <row r="128">
-      <c r="A128" s="98" t="s">
-        <v>543</v>
-      </c>
-      <c r="B128" s="99" t="s">
-        <v>544</v>
-      </c>
-      <c r="C128" s="91" t="s">
-        <v>531</v>
-      </c>
-      <c r="D128" s="91" t="s">
-        <v>545</v>
-      </c>
-      <c r="E128" s="4" t="s">
-        <v>546</v>
-      </c>
-      <c r="F128" s="36"/>
-      <c r="G128" s="36" t="s">
-        <v>534</v>
-      </c>
-      <c r="H128" s="109" t="s">
-        <v>535</v>
-      </c>
-      <c r="I128" s="103" t="s">
-        <v>536</v>
-      </c>
+      <c r="A128" s="112" t="s">
+        <v>529</v>
+      </c>
+      <c r="B128" s="113" t="s">
+        <v>530</v>
+      </c>
+      <c r="C128" s="110"/>
+      <c r="D128" s="110"/>
+      <c r="E128" s="4"/>
+      <c r="F128" s="104"/>
+      <c r="G128" s="104"/>
+      <c r="H128" s="36"/>
+      <c r="I128" s="7"/>
       <c r="J128" s="7"/>
       <c r="K128" s="7"/>
     </row>
     <row r="129">
-      <c r="A129" s="98" t="s">
-        <v>547</v>
-      </c>
-      <c r="B129" s="99" t="s">
-        <v>548</v>
-      </c>
-      <c r="C129" s="91" t="s">
-        <v>549</v>
-      </c>
-      <c r="D129" s="91" t="s">
-        <v>550</v>
-      </c>
-      <c r="E129" s="110" t="s">
-        <v>551</v>
-      </c>
-      <c r="F129" s="36"/>
-      <c r="G129" s="36" t="s">
-        <v>552</v>
-      </c>
-      <c r="H129" s="36" t="s">
-        <v>553</v>
-      </c>
-      <c r="I129" s="7"/>
+      <c r="A129" s="101" t="s">
+        <v>531</v>
+      </c>
+      <c r="B129" s="102" t="s">
+        <v>532</v>
+      </c>
+      <c r="C129" s="114"/>
+      <c r="D129" s="114"/>
+      <c r="E129" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="F129" s="104"/>
+      <c r="G129" s="106"/>
+      <c r="H129" s="106"/>
+      <c r="I129" s="111" t="s">
+        <v>534</v>
+      </c>
       <c r="J129" s="7"/>
       <c r="K129" s="7"/>
     </row>
     <row r="130">
-      <c r="A130" s="106" t="s">
-        <v>554</v>
-      </c>
-      <c r="B130" s="107" t="s">
-        <v>555</v>
-      </c>
-      <c r="C130" s="91"/>
-      <c r="D130" s="91"/>
-      <c r="E130" s="4"/>
-      <c r="F130" s="36"/>
-      <c r="G130" s="36"/>
-      <c r="H130" s="36"/>
-      <c r="I130" s="7"/>
+      <c r="A130" s="101" t="s">
+        <v>535</v>
+      </c>
+      <c r="B130" s="102" t="s">
+        <v>536</v>
+      </c>
+      <c r="C130" s="110" t="s">
+        <v>537</v>
+      </c>
+      <c r="D130" s="110" t="s">
+        <v>538</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="F130" s="104"/>
+      <c r="G130" s="106" t="s">
+        <v>540</v>
+      </c>
+      <c r="H130" s="106" t="s">
+        <v>541</v>
+      </c>
+      <c r="I130" s="111" t="s">
+        <v>534</v>
+      </c>
       <c r="J130" s="7"/>
       <c r="K130" s="7"/>
     </row>
     <row r="131">
-      <c r="A131" s="98" t="s">
-        <v>556</v>
-      </c>
-      <c r="B131" s="99" t="s">
-        <v>557</v>
-      </c>
-      <c r="C131" s="91" t="s">
-        <v>558</v>
-      </c>
-      <c r="D131" s="91" t="s">
-        <v>559</v>
-      </c>
-      <c r="E131" s="111" t="s">
-        <v>560</v>
-      </c>
-      <c r="F131" s="91"/>
-      <c r="G131" s="91" t="s">
-        <v>561</v>
-      </c>
-      <c r="H131" s="91" t="s">
-        <v>562</v>
-      </c>
-      <c r="I131" s="7"/>
+      <c r="A131" s="101" t="s">
+        <v>542</v>
+      </c>
+      <c r="B131" s="102" t="s">
+        <v>543</v>
+      </c>
+      <c r="C131" s="110" t="s">
+        <v>544</v>
+      </c>
+      <c r="D131" s="110" t="s">
+        <v>545</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="F131" s="110"/>
+      <c r="G131" s="114" t="s">
+        <v>540</v>
+      </c>
+      <c r="H131" s="114" t="s">
+        <v>547</v>
+      </c>
+      <c r="I131" s="111" t="s">
+        <v>534</v>
+      </c>
       <c r="J131" s="7"/>
       <c r="K131" s="7"/>
     </row>
     <row r="132">
-      <c r="A132" s="98" t="s">
-        <v>556</v>
-      </c>
-      <c r="B132" s="99" t="s">
-        <v>557</v>
-      </c>
-      <c r="C132" s="91" t="s">
-        <v>558</v>
-      </c>
-      <c r="D132" s="91" t="s">
-        <v>559</v>
-      </c>
-      <c r="E132" s="110" t="s">
-        <v>563</v>
-      </c>
-      <c r="F132" s="36"/>
-      <c r="G132" s="36" t="s">
-        <v>561</v>
-      </c>
-      <c r="H132" s="36" t="s">
-        <v>562</v>
+      <c r="A132" s="101" t="s">
+        <v>548</v>
+      </c>
+      <c r="B132" s="102" t="s">
+        <v>549</v>
+      </c>
+      <c r="C132" s="110" t="s">
+        <v>550</v>
+      </c>
+      <c r="D132" s="110" t="s">
+        <v>551</v>
+      </c>
+      <c r="E132" s="104" t="s">
+        <v>552</v>
+      </c>
+      <c r="F132" s="104"/>
+      <c r="G132" s="106" t="s">
+        <v>553</v>
+      </c>
+      <c r="H132" s="115" t="s">
+        <v>554</v>
       </c>
       <c r="I132" s="7"/>
       <c r="J132" s="7"/>
       <c r="K132" s="7"/>
     </row>
     <row r="133">
-      <c r="A133" s="45" t="s">
-        <v>564</v>
-      </c>
-      <c r="B133" s="46" t="s">
-        <v>565</v>
-      </c>
-      <c r="C133" s="58"/>
-      <c r="D133" s="58"/>
-      <c r="E133" s="35"/>
-      <c r="F133" s="47"/>
-      <c r="G133" s="36"/>
+      <c r="A133" s="112" t="s">
+        <v>555</v>
+      </c>
+      <c r="B133" s="113" t="s">
+        <v>556</v>
+      </c>
+      <c r="C133" s="110"/>
+      <c r="D133" s="110"/>
+      <c r="E133" s="4"/>
+      <c r="F133" s="104"/>
+      <c r="G133" s="104"/>
       <c r="H133" s="36"/>
       <c r="I133" s="7"/>
       <c r="J133" s="7"/>
       <c r="K133" s="7"/>
     </row>
     <row r="134">
-      <c r="A134" s="51" t="s">
-        <v>566</v>
-      </c>
-      <c r="B134" s="52" t="s">
-        <v>567</v>
-      </c>
-      <c r="C134" s="58" t="s">
-        <v>568</v>
-      </c>
-      <c r="D134" s="58" t="s">
-        <v>567</v>
-      </c>
-      <c r="E134" s="47" t="s">
-        <v>569</v>
-      </c>
-      <c r="F134" s="35"/>
-      <c r="G134" s="36" t="s">
-        <v>570</v>
-      </c>
-      <c r="H134" s="60" t="s">
-        <v>571</v>
+      <c r="A134" s="101" t="s">
+        <v>557</v>
+      </c>
+      <c r="B134" s="102" t="s">
+        <v>558</v>
+      </c>
+      <c r="C134" s="110" t="s">
+        <v>559</v>
+      </c>
+      <c r="D134" s="110" t="s">
+        <v>560</v>
+      </c>
+      <c r="E134" s="104" t="s">
+        <v>561</v>
+      </c>
+      <c r="F134" s="104"/>
+      <c r="G134" s="104" t="s">
+        <v>562</v>
+      </c>
+      <c r="H134" s="116" t="s">
+        <v>563</v>
       </c>
       <c r="I134" s="7"/>
       <c r="J134" s="7"/>
       <c r="K134" s="7"/>
     </row>
     <row r="135">
-      <c r="A135" s="78" t="s">
-        <v>566</v>
-      </c>
-      <c r="B135" s="79" t="s">
-        <v>567</v>
-      </c>
-      <c r="C135" s="112" t="s">
-        <v>568</v>
-      </c>
-      <c r="D135" s="112" t="s">
-        <v>567</v>
-      </c>
-      <c r="E135" s="47" t="s">
-        <v>572</v>
-      </c>
-      <c r="F135" s="35"/>
-      <c r="G135" s="36" t="s">
-        <v>570</v>
-      </c>
-      <c r="H135" s="47" t="s">
-        <v>573</v>
+      <c r="A135" s="101" t="s">
+        <v>557</v>
+      </c>
+      <c r="B135" s="102" t="s">
+        <v>558</v>
+      </c>
+      <c r="C135" s="110" t="s">
+        <v>559</v>
+      </c>
+      <c r="D135" s="110" t="s">
+        <v>560</v>
+      </c>
+      <c r="E135" s="104" t="s">
+        <v>564</v>
+      </c>
+      <c r="F135" s="104"/>
+      <c r="G135" s="104" t="s">
+        <v>562</v>
+      </c>
+      <c r="H135" s="116" t="s">
+        <v>565</v>
       </c>
       <c r="I135" s="7"/>
       <c r="J135" s="7"/>
       <c r="K135" s="7"/>
     </row>
     <row r="136">
-      <c r="A136" s="51" t="s">
-        <v>574</v>
-      </c>
-      <c r="B136" s="52" t="s">
-        <v>575</v>
-      </c>
-      <c r="C136" s="58" t="s">
-        <v>576</v>
-      </c>
-      <c r="D136" s="58" t="s">
-        <v>577</v>
-      </c>
-      <c r="E136" s="47" t="s">
-        <v>578</v>
-      </c>
+      <c r="A136" s="45" t="s">
+        <v>566</v>
+      </c>
+      <c r="B136" s="46" t="s">
+        <v>567</v>
+      </c>
+      <c r="C136" s="58"/>
+      <c r="D136" s="58"/>
+      <c r="E136" s="35"/>
       <c r="F136" s="47"/>
-      <c r="G136" s="47" t="s">
-        <v>525</v>
-      </c>
-      <c r="H136" s="47" t="s">
-        <v>579</v>
-      </c>
-      <c r="I136" s="7" t="s">
-        <v>69</v>
-      </c>
+      <c r="G136" s="36"/>
+      <c r="H136" s="36"/>
+      <c r="I136" s="7"/>
       <c r="J136" s="7"/>
       <c r="K136" s="7"/>
     </row>
     <row r="137">
-      <c r="A137" s="106" t="s">
-        <v>580</v>
-      </c>
-      <c r="B137" s="107" t="s">
-        <v>581</v>
-      </c>
-      <c r="C137" s="91"/>
-      <c r="D137" s="91"/>
-      <c r="E137" s="4"/>
-      <c r="F137" s="36"/>
+      <c r="A137" s="51" t="s">
+        <v>568</v>
+      </c>
+      <c r="B137" s="52" t="s">
+        <v>569</v>
+      </c>
+      <c r="C137" s="58" t="s">
+        <v>570</v>
+      </c>
+      <c r="D137" s="58" t="s">
+        <v>569</v>
+      </c>
+      <c r="E137" s="47"/>
+      <c r="F137" s="35"/>
       <c r="G137" s="36"/>
       <c r="H137" s="36"/>
       <c r="I137" s="7"/>
@@ -15400,604 +15786,658 @@
       <c r="K137" s="7"/>
     </row>
     <row r="138">
-      <c r="A138" s="98" t="s">
-        <v>582</v>
-      </c>
-      <c r="B138" s="99" t="s">
-        <v>583</v>
-      </c>
-      <c r="C138" s="91" t="s">
-        <v>584</v>
-      </c>
-      <c r="D138" s="91" t="s">
-        <v>585</v>
-      </c>
-      <c r="E138" s="110" t="s">
-        <v>586</v>
-      </c>
-      <c r="F138" s="36"/>
+      <c r="A138" s="67" t="s">
+        <v>571</v>
+      </c>
+      <c r="B138" s="68" t="s">
+        <v>572</v>
+      </c>
+      <c r="C138" s="58" t="s">
+        <v>570</v>
+      </c>
+      <c r="D138" s="58" t="s">
+        <v>569</v>
+      </c>
+      <c r="E138" s="47" t="s">
+        <v>573</v>
+      </c>
+      <c r="F138" s="35"/>
       <c r="G138" s="36" t="s">
-        <v>561</v>
-      </c>
-      <c r="H138" s="36" t="s">
-        <v>587</v>
+        <v>518</v>
+      </c>
+      <c r="H138" s="60" t="s">
+        <v>574</v>
       </c>
       <c r="I138" s="7"/>
       <c r="J138" s="7"/>
       <c r="K138" s="7"/>
     </row>
     <row r="139">
-      <c r="A139" s="45" t="s">
-        <v>588</v>
-      </c>
-      <c r="B139" s="46" t="s">
-        <v>589</v>
-      </c>
-      <c r="C139" s="7"/>
-      <c r="D139" s="7"/>
-      <c r="E139" s="4"/>
-      <c r="F139" s="4"/>
-      <c r="G139" s="4"/>
-      <c r="H139" s="4"/>
+      <c r="A139" s="67" t="s">
+        <v>575</v>
+      </c>
+      <c r="B139" s="68" t="s">
+        <v>576</v>
+      </c>
+      <c r="C139" s="91" t="s">
+        <v>570</v>
+      </c>
+      <c r="D139" s="91" t="s">
+        <v>569</v>
+      </c>
+      <c r="E139" s="47" t="s">
+        <v>577</v>
+      </c>
+      <c r="F139" s="35"/>
+      <c r="G139" s="36" t="s">
+        <v>518</v>
+      </c>
+      <c r="H139" s="47" t="s">
+        <v>578</v>
+      </c>
       <c r="I139" s="7"/>
       <c r="J139" s="7"/>
       <c r="K139" s="7"/>
     </row>
     <row r="140">
       <c r="A140" s="51" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="B140" s="52" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="C140" s="58" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="D140" s="58" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="E140" s="47" t="s">
-        <v>594</v>
-      </c>
-      <c r="F140" s="35"/>
+        <v>583</v>
+      </c>
+      <c r="F140" s="47"/>
       <c r="G140" s="47" t="s">
-        <v>595</v>
-      </c>
-      <c r="H140" s="113" t="s">
-        <v>596</v>
-      </c>
-      <c r="I140" s="7"/>
+        <v>527</v>
+      </c>
+      <c r="H140" s="47" t="s">
+        <v>584</v>
+      </c>
+      <c r="I140" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="J140" s="7"/>
       <c r="K140" s="7"/>
     </row>
     <row r="141">
-      <c r="A141" s="62" t="s">
-        <v>590</v>
-      </c>
-      <c r="B141" s="63" t="s">
-        <v>591</v>
-      </c>
-      <c r="C141" s="114" t="s">
-        <v>592</v>
-      </c>
-      <c r="D141" s="115" t="s">
-        <v>593</v>
-      </c>
-      <c r="E141" s="47" t="s">
-        <v>597</v>
-      </c>
-      <c r="F141" s="35"/>
-      <c r="G141" s="47" t="s">
-        <v>595</v>
-      </c>
-      <c r="H141" s="113" t="s">
-        <v>598</v>
-      </c>
+      <c r="A141" s="112" t="s">
+        <v>585</v>
+      </c>
+      <c r="B141" s="113" t="s">
+        <v>586</v>
+      </c>
+      <c r="C141" s="104"/>
+      <c r="D141" s="110"/>
+      <c r="E141" s="4"/>
+      <c r="F141" s="104"/>
+      <c r="G141" s="104"/>
+      <c r="H141" s="36"/>
       <c r="I141" s="7"/>
       <c r="J141" s="7"/>
       <c r="K141" s="7"/>
     </row>
     <row r="142">
-      <c r="A142" s="51" t="s">
-        <v>599</v>
-      </c>
-      <c r="B142" s="52" t="s">
-        <v>600</v>
-      </c>
-      <c r="C142" s="58" t="s">
-        <v>601</v>
-      </c>
-      <c r="D142" s="58" t="s">
-        <v>602</v>
-      </c>
-      <c r="E142" s="40" t="s">
-        <v>594</v>
-      </c>
-      <c r="F142" s="58"/>
-      <c r="G142" s="47" t="s">
-        <v>603</v>
-      </c>
-      <c r="H142" s="113" t="s">
-        <v>604</v>
-      </c>
-      <c r="I142" s="7" t="s">
-        <v>69</v>
-      </c>
+      <c r="A142" s="101" t="s">
+        <v>587</v>
+      </c>
+      <c r="B142" s="102" t="s">
+        <v>588</v>
+      </c>
+      <c r="C142" s="110" t="s">
+        <v>589</v>
+      </c>
+      <c r="D142" s="110" t="s">
+        <v>590</v>
+      </c>
+      <c r="E142" s="104" t="s">
+        <v>591</v>
+      </c>
+      <c r="F142" s="110"/>
+      <c r="G142" s="104" t="s">
+        <v>562</v>
+      </c>
+      <c r="H142" s="116" t="s">
+        <v>592</v>
+      </c>
+      <c r="I142" s="7"/>
       <c r="J142" s="7"/>
       <c r="K142" s="7"/>
     </row>
     <row r="143">
       <c r="A143" s="45" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="B143" s="46" t="s">
-        <v>606</v>
-      </c>
-      <c r="C143" s="7" t="s">
-        <v>607</v>
-      </c>
-      <c r="D143" s="7" t="s">
-        <v>608</v>
-      </c>
-      <c r="E143" s="4" t="s">
-        <v>609</v>
-      </c>
+        <v>594</v>
+      </c>
+      <c r="C143" s="7"/>
+      <c r="D143" s="7"/>
+      <c r="E143" s="4"/>
       <c r="F143" s="4"/>
-      <c r="G143" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="H143" s="116" t="s">
-        <v>610</v>
-      </c>
-      <c r="I143" s="7" t="s">
-        <v>69</v>
-      </c>
+      <c r="G143" s="4"/>
+      <c r="H143" s="4"/>
+      <c r="I143" s="7"/>
       <c r="J143" s="7"/>
       <c r="K143" s="7"/>
     </row>
     <row r="144">
-      <c r="A144" s="33" t="s">
-        <v>611</v>
-      </c>
-      <c r="B144" s="88" t="s">
-        <v>612</v>
-      </c>
-      <c r="C144" s="91"/>
-      <c r="D144" s="91"/>
+      <c r="A144" s="51" t="s">
+        <v>595</v>
+      </c>
+      <c r="B144" s="52" t="s">
+        <v>596</v>
+      </c>
+      <c r="C144" s="58" t="s">
+        <v>597</v>
+      </c>
+      <c r="D144" s="58" t="s">
+        <v>598</v>
+      </c>
       <c r="E144" s="47"/>
-      <c r="F144" s="36"/>
+      <c r="F144" s="35"/>
       <c r="G144" s="47"/>
-      <c r="H144" s="47"/>
+      <c r="H144" s="36"/>
       <c r="I144" s="7"/>
       <c r="J144" s="7"/>
       <c r="K144" s="7"/>
     </row>
     <row r="145">
-      <c r="A145" s="38" t="s">
-        <v>613</v>
-      </c>
-      <c r="B145" s="39" t="s">
-        <v>614</v>
-      </c>
-      <c r="C145" s="91"/>
-      <c r="D145" s="91"/>
-      <c r="E145" s="47"/>
-      <c r="F145" s="36"/>
-      <c r="G145" s="47"/>
-      <c r="H145" s="47"/>
+      <c r="A145" s="67" t="s">
+        <v>599</v>
+      </c>
+      <c r="B145" s="68" t="s">
+        <v>600</v>
+      </c>
+      <c r="C145" s="58" t="s">
+        <v>597</v>
+      </c>
+      <c r="D145" s="58" t="s">
+        <v>598</v>
+      </c>
+      <c r="E145" s="47" t="s">
+        <v>601</v>
+      </c>
+      <c r="F145" s="35"/>
+      <c r="G145" s="47" t="s">
+        <v>602</v>
+      </c>
+      <c r="H145" s="117" t="s">
+        <v>603</v>
+      </c>
       <c r="I145" s="7"/>
       <c r="J145" s="7"/>
       <c r="K145" s="7"/>
     </row>
     <row r="146">
-      <c r="A146" s="106" t="s">
+      <c r="A146" s="67" t="s">
+        <v>604</v>
+      </c>
+      <c r="B146" s="68" t="s">
+        <v>605</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="E146" s="47" t="s">
+        <v>606</v>
+      </c>
+      <c r="F146" s="35"/>
+      <c r="G146" s="47" t="s">
+        <v>602</v>
+      </c>
+      <c r="H146" s="117" t="s">
+        <v>607</v>
+      </c>
+      <c r="I146" s="7"/>
+      <c r="J146" s="7"/>
+      <c r="K146" s="7"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="51" t="s">
+        <v>608</v>
+      </c>
+      <c r="B147" s="52" t="s">
+        <v>609</v>
+      </c>
+      <c r="C147" s="58" t="s">
+        <v>610</v>
+      </c>
+      <c r="D147" s="58" t="s">
+        <v>611</v>
+      </c>
+      <c r="E147" s="40" t="s">
+        <v>601</v>
+      </c>
+      <c r="F147" s="47"/>
+      <c r="G147" s="47" t="s">
+        <v>612</v>
+      </c>
+      <c r="H147" s="117" t="s">
+        <v>613</v>
+      </c>
+      <c r="I147" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J147" s="7"/>
+      <c r="K147" s="7"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="45" t="s">
+        <v>614</v>
+      </c>
+      <c r="B148" s="46" t="s">
         <v>615</v>
       </c>
-      <c r="B146" s="107" t="s">
+      <c r="C148" s="7" t="s">
         <v>616</v>
       </c>
-      <c r="C146" s="91"/>
-      <c r="D146" s="91"/>
-      <c r="E146" s="109"/>
-      <c r="F146" s="36"/>
-      <c r="G146" s="47"/>
-      <c r="H146" s="47"/>
-      <c r="I146" s="91"/>
-      <c r="J146" s="91"/>
-      <c r="K146" s="91"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="98" t="s">
+      <c r="D148" s="7" t="s">
         <v>617</v>
       </c>
-      <c r="B147" s="99" t="s">
+      <c r="E148" s="4" t="s">
         <v>618</v>
       </c>
-      <c r="C147" s="117" t="s">
+      <c r="F148" s="4"/>
+      <c r="G148" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="H148" s="118" t="s">
         <v>619</v>
       </c>
-      <c r="D147" s="103" t="s">
-        <v>620</v>
-      </c>
-      <c r="E147" s="104" t="s">
-        <v>621</v>
-      </c>
-      <c r="F147" s="36"/>
-      <c r="G147" s="47"/>
-      <c r="H147" s="47"/>
-      <c r="I147" s="91"/>
-      <c r="J147" s="91"/>
-      <c r="K147" s="91"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="106" t="s">
-        <v>622</v>
-      </c>
-      <c r="B148" s="107" t="s">
-        <v>623</v>
-      </c>
-      <c r="C148" s="117"/>
-      <c r="D148" s="117"/>
-      <c r="E148" s="104"/>
-      <c r="F148" s="104"/>
-      <c r="G148" s="36"/>
-      <c r="H148" s="36"/>
-      <c r="I148" s="7"/>
+      <c r="I148" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="J148" s="7"/>
       <c r="K148" s="7"/>
     </row>
     <row r="149">
-      <c r="A149" s="98" t="s">
-        <v>624</v>
-      </c>
-      <c r="B149" s="99" t="s">
-        <v>625</v>
-      </c>
-      <c r="C149" s="117" t="s">
-        <v>626</v>
-      </c>
-      <c r="D149" s="117" t="s">
-        <v>627</v>
-      </c>
-      <c r="E149" s="104" t="s">
-        <v>628</v>
-      </c>
-      <c r="F149" s="104"/>
-      <c r="G149" s="36"/>
-      <c r="H149" s="36"/>
+      <c r="A149" s="33" t="s">
+        <v>620</v>
+      </c>
+      <c r="B149" s="88" t="s">
+        <v>621</v>
+      </c>
+      <c r="C149" s="91"/>
+      <c r="D149" s="91"/>
+      <c r="E149" s="47"/>
+      <c r="F149" s="36"/>
+      <c r="G149" s="47"/>
+      <c r="H149" s="47"/>
       <c r="I149" s="7"/>
       <c r="J149" s="7"/>
       <c r="K149" s="7"/>
     </row>
     <row r="150">
-      <c r="A150" s="98" t="s">
-        <v>629</v>
-      </c>
-      <c r="B150" s="99" t="s">
-        <v>630</v>
-      </c>
-      <c r="C150" s="104" t="s">
-        <v>619</v>
-      </c>
-      <c r="D150" s="103" t="s">
-        <v>620</v>
-      </c>
-      <c r="E150" s="104" t="s">
-        <v>631</v>
-      </c>
-      <c r="F150" s="104"/>
-      <c r="G150" s="36"/>
-      <c r="H150" s="36"/>
+      <c r="A150" s="38" t="s">
+        <v>622</v>
+      </c>
+      <c r="B150" s="39" t="s">
+        <v>623</v>
+      </c>
+      <c r="C150" s="36"/>
+      <c r="D150" s="91"/>
+      <c r="E150" s="47"/>
+      <c r="F150" s="36"/>
+      <c r="G150" s="47"/>
+      <c r="H150" s="47"/>
       <c r="I150" s="7"/>
       <c r="J150" s="7"/>
       <c r="K150" s="7"/>
     </row>
     <row r="151">
-      <c r="A151" s="98" t="s">
+      <c r="A151" s="112" t="s">
+        <v>624</v>
+      </c>
+      <c r="B151" s="113" t="s">
+        <v>625</v>
+      </c>
+      <c r="C151" s="91"/>
+      <c r="D151" s="91"/>
+      <c r="E151" s="104" t="s">
+        <v>626</v>
+      </c>
+      <c r="F151" s="36"/>
+      <c r="G151" s="104" t="s">
+        <v>627</v>
+      </c>
+      <c r="H151" s="116" t="s">
+        <v>628</v>
+      </c>
+      <c r="I151" s="91"/>
+      <c r="J151" s="91"/>
+      <c r="K151" s="91"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="101" t="s">
+        <v>629</v>
+      </c>
+      <c r="B152" s="102" t="s">
+        <v>630</v>
+      </c>
+      <c r="C152" s="110" t="s">
+        <v>550</v>
+      </c>
+      <c r="D152" s="111" t="s">
+        <v>551</v>
+      </c>
+      <c r="E152" s="104" t="s">
+        <v>631</v>
+      </c>
+      <c r="F152" s="36"/>
+      <c r="G152" s="104" t="s">
         <v>632</v>
       </c>
-      <c r="B151" s="99" t="s">
+      <c r="H152" s="104" t="s">
         <v>633</v>
       </c>
-      <c r="C151" s="117" t="s">
-        <v>619</v>
-      </c>
-      <c r="D151" s="103" t="s">
-        <v>620</v>
-      </c>
-      <c r="E151" s="104" t="s">
+      <c r="I152" s="91"/>
+      <c r="J152" s="91"/>
+      <c r="K152" s="91"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="112" t="s">
         <v>634</v>
       </c>
-      <c r="F151" s="104"/>
-      <c r="G151" s="36"/>
-      <c r="H151" s="36"/>
-      <c r="I151" s="7"/>
-      <c r="J151" s="7"/>
-      <c r="K151" s="7"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="106" t="s">
+      <c r="B153" s="113" t="s">
         <v>635</v>
       </c>
-      <c r="B152" s="107" t="s">
+      <c r="C153" s="110" t="s">
         <v>636</v>
       </c>
-      <c r="C152" s="91"/>
-      <c r="D152" s="91"/>
-      <c r="E152" s="47"/>
-      <c r="F152" s="36"/>
-      <c r="G152" s="47"/>
-      <c r="H152" s="47"/>
-      <c r="I152" s="7"/>
-      <c r="J152" s="7"/>
-      <c r="K152" s="7"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="98" t="s">
+      <c r="D153" s="110" t="s">
         <v>637</v>
-      </c>
-      <c r="B153" s="99" t="s">
-        <v>625</v>
-      </c>
-      <c r="C153" s="117" t="s">
-        <v>626</v>
-      </c>
-      <c r="D153" s="117" t="s">
-        <v>627</v>
       </c>
       <c r="E153" s="104" t="s">
         <v>638</v>
       </c>
       <c r="F153" s="36"/>
-      <c r="G153" s="47"/>
-      <c r="H153" s="47"/>
+      <c r="G153" s="104" t="s">
+        <v>627</v>
+      </c>
+      <c r="H153" s="116" t="s">
+        <v>639</v>
+      </c>
       <c r="I153" s="7"/>
       <c r="J153" s="7"/>
       <c r="K153" s="7"/>
     </row>
     <row r="154">
-      <c r="A154" s="98" t="s">
-        <v>639</v>
-      </c>
-      <c r="B154" s="99" t="s">
-        <v>630</v>
-      </c>
-      <c r="C154" s="117" t="s">
-        <v>619</v>
-      </c>
-      <c r="D154" s="103" t="s">
-        <v>620</v>
-      </c>
+      <c r="A154" s="101" t="s">
+        <v>640</v>
+      </c>
+      <c r="B154" s="102" t="s">
+        <v>641</v>
+      </c>
+      <c r="C154" s="114"/>
+      <c r="D154" s="114"/>
       <c r="E154" s="104" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="F154" s="36"/>
-      <c r="G154" s="47"/>
-      <c r="H154" s="47"/>
+      <c r="G154" s="115"/>
+      <c r="H154" s="115"/>
       <c r="I154" s="7"/>
       <c r="J154" s="7"/>
       <c r="K154" s="7"/>
     </row>
     <row r="155">
-      <c r="A155" s="98" t="s">
-        <v>641</v>
-      </c>
-      <c r="B155" s="99" t="s">
-        <v>642</v>
-      </c>
-      <c r="C155" s="117" t="s">
-        <v>619</v>
-      </c>
-      <c r="D155" s="103" t="s">
-        <v>620</v>
+      <c r="A155" s="101" t="s">
+        <v>643</v>
+      </c>
+      <c r="B155" s="102" t="s">
+        <v>644</v>
+      </c>
+      <c r="C155" s="110" t="s">
+        <v>550</v>
+      </c>
+      <c r="D155" s="111" t="s">
+        <v>551</v>
       </c>
       <c r="E155" s="104" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="F155" s="36"/>
-      <c r="G155" s="47"/>
-      <c r="H155" s="47"/>
+      <c r="G155" s="104" t="s">
+        <v>632</v>
+      </c>
+      <c r="H155" s="104" t="s">
+        <v>633</v>
+      </c>
       <c r="I155" s="7"/>
       <c r="J155" s="7"/>
       <c r="K155" s="7"/>
     </row>
     <row r="156">
-      <c r="A156" s="45" t="s">
-        <v>644</v>
-      </c>
-      <c r="B156" s="46" t="s">
-        <v>645</v>
-      </c>
-      <c r="C156" s="91"/>
-      <c r="D156" s="91"/>
-      <c r="E156" s="58"/>
+      <c r="A156" s="101" t="s">
+        <v>646</v>
+      </c>
+      <c r="B156" s="102" t="s">
+        <v>647</v>
+      </c>
+      <c r="C156" s="108" t="s">
+        <v>550</v>
+      </c>
+      <c r="D156" s="108" t="s">
+        <v>551</v>
+      </c>
+      <c r="E156" s="110" t="s">
+        <v>648</v>
+      </c>
       <c r="F156" s="91"/>
-      <c r="G156" s="47"/>
-      <c r="H156" s="47"/>
+      <c r="G156" s="115" t="s">
+        <v>649</v>
+      </c>
+      <c r="H156" s="115" t="s">
+        <v>650</v>
+      </c>
       <c r="I156" s="7"/>
       <c r="J156" s="7"/>
       <c r="K156" s="7"/>
     </row>
     <row r="157">
-      <c r="A157" s="51" t="s">
-        <v>646</v>
-      </c>
-      <c r="B157" s="52" t="s">
-        <v>647</v>
-      </c>
-      <c r="C157" s="91" t="s">
-        <v>648</v>
-      </c>
-      <c r="D157" s="58"/>
-      <c r="E157" s="47" t="s">
-        <v>649</v>
+      <c r="A157" s="112" t="s">
+        <v>651</v>
+      </c>
+      <c r="B157" s="113" t="s">
+        <v>652</v>
+      </c>
+      <c r="C157" s="110" t="s">
+        <v>636</v>
+      </c>
+      <c r="D157" s="110" t="s">
+        <v>637</v>
+      </c>
+      <c r="E157" s="104" t="s">
+        <v>653</v>
       </c>
       <c r="F157" s="36"/>
-      <c r="G157" s="47"/>
-      <c r="H157" s="47"/>
+      <c r="G157" s="104" t="s">
+        <v>627</v>
+      </c>
+      <c r="H157" s="116" t="s">
+        <v>654</v>
+      </c>
       <c r="I157" s="7"/>
       <c r="J157" s="7"/>
-      <c r="K157" s="7" t="s">
-        <v>650</v>
-      </c>
+      <c r="K157" s="7"/>
     </row>
     <row r="158">
-      <c r="A158" s="51" t="s">
-        <v>651</v>
-      </c>
-      <c r="B158" s="52" t="s">
-        <v>652</v>
-      </c>
-      <c r="C158" s="91" t="s">
-        <v>653</v>
-      </c>
-      <c r="D158" s="91"/>
-      <c r="E158" s="47" t="s">
-        <v>654</v>
+      <c r="A158" s="101" t="s">
+        <v>655</v>
+      </c>
+      <c r="B158" s="102" t="s">
+        <v>641</v>
+      </c>
+      <c r="C158" s="114"/>
+      <c r="D158" s="114"/>
+      <c r="E158" s="104" t="s">
+        <v>656</v>
       </c>
       <c r="F158" s="36"/>
-      <c r="G158" s="47"/>
-      <c r="H158" s="47"/>
+      <c r="G158" s="115"/>
+      <c r="H158" s="115"/>
       <c r="I158" s="7"/>
       <c r="J158" s="7"/>
-      <c r="K158" s="7" t="s">
-        <v>650</v>
-      </c>
+      <c r="K158" s="7"/>
     </row>
     <row r="159">
-      <c r="A159" s="51" t="s">
-        <v>655</v>
-      </c>
-      <c r="B159" s="52" t="s">
-        <v>656</v>
-      </c>
-      <c r="C159" s="91" t="s">
-        <v>648</v>
-      </c>
-      <c r="D159" s="91"/>
-      <c r="E159" s="47" t="s">
+      <c r="A159" s="101" t="s">
         <v>657</v>
       </c>
+      <c r="B159" s="102" t="s">
+        <v>644</v>
+      </c>
+      <c r="C159" s="110" t="s">
+        <v>550</v>
+      </c>
+      <c r="D159" s="111" t="s">
+        <v>551</v>
+      </c>
+      <c r="E159" s="104" t="s">
+        <v>658</v>
+      </c>
       <c r="F159" s="36"/>
-      <c r="G159" s="47"/>
-      <c r="H159" s="47"/>
+      <c r="G159" s="104" t="s">
+        <v>632</v>
+      </c>
+      <c r="H159" s="104" t="s">
+        <v>633</v>
+      </c>
       <c r="I159" s="7"/>
       <c r="J159" s="7"/>
-      <c r="K159" s="7" t="s">
+      <c r="K159" s="7"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="101" t="s">
+        <v>659</v>
+      </c>
+      <c r="B160" s="102" t="s">
+        <v>660</v>
+      </c>
+      <c r="C160" s="108" t="s">
+        <v>550</v>
+      </c>
+      <c r="D160" s="108" t="s">
+        <v>551</v>
+      </c>
+      <c r="E160" s="104" t="s">
+        <v>661</v>
+      </c>
+      <c r="F160" s="36"/>
+      <c r="G160" s="115" t="s">
+        <v>649</v>
+      </c>
+      <c r="H160" s="115" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="38" t="s">
-        <v>658</v>
-      </c>
-      <c r="B160" s="39" t="s">
-        <v>659</v>
-      </c>
-      <c r="C160" s="7"/>
-      <c r="D160" s="7"/>
-      <c r="E160" s="4"/>
-      <c r="F160" s="4"/>
-      <c r="G160" s="4"/>
-      <c r="H160" s="4"/>
       <c r="I160" s="7"/>
       <c r="J160" s="7"/>
       <c r="K160" s="7"/>
     </row>
     <row r="161">
       <c r="A161" s="45" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B161" s="46" t="s">
-        <v>661</v>
-      </c>
-      <c r="C161" s="7"/>
-      <c r="D161" s="7"/>
-      <c r="E161" s="4"/>
-      <c r="F161" s="4"/>
-      <c r="G161" s="4"/>
-      <c r="H161" s="4"/>
+        <v>663</v>
+      </c>
+      <c r="C161" s="91"/>
+      <c r="D161" s="91"/>
+      <c r="E161" s="47"/>
+      <c r="F161" s="36"/>
+      <c r="G161" s="47"/>
+      <c r="H161" s="47"/>
       <c r="I161" s="7"/>
       <c r="J161" s="7"/>
       <c r="K161" s="7"/>
     </row>
     <row r="162">
       <c r="A162" s="51" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B162" s="52" t="s">
-        <v>663</v>
-      </c>
-      <c r="C162" s="7" t="s">
-        <v>626</v>
-      </c>
-      <c r="D162" s="7"/>
-      <c r="E162" s="4" t="s">
-        <v>664</v>
-      </c>
-      <c r="F162" s="4"/>
-      <c r="G162" s="4"/>
-      <c r="H162" s="4"/>
+        <v>665</v>
+      </c>
+      <c r="C162" s="91" t="s">
+        <v>666</v>
+      </c>
+      <c r="D162" s="58"/>
+      <c r="E162" s="47" t="s">
+        <v>667</v>
+      </c>
+      <c r="F162" s="36"/>
+      <c r="G162" s="47"/>
+      <c r="H162" s="47"/>
       <c r="I162" s="7"/>
       <c r="J162" s="7"/>
       <c r="K162" s="7" t="s">
-        <v>650</v>
+        <v>668</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="98" t="s">
-        <v>665</v>
+      <c r="A163" s="51" t="s">
+        <v>669</v>
       </c>
       <c r="B163" s="52" t="s">
-        <v>666</v>
-      </c>
-      <c r="C163" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="D163" s="7"/>
-      <c r="E163" s="7" t="s">
-        <v>668</v>
-      </c>
-      <c r="F163" s="7"/>
-      <c r="G163" s="7"/>
-      <c r="H163" s="7"/>
-      <c r="I163" s="7" t="s">
-        <v>69</v>
-      </c>
+        <v>670</v>
+      </c>
+      <c r="C163" s="91" t="s">
+        <v>671</v>
+      </c>
+      <c r="D163" s="91"/>
+      <c r="E163" s="58" t="s">
+        <v>672</v>
+      </c>
+      <c r="F163" s="91"/>
+      <c r="G163" s="58"/>
+      <c r="H163" s="58"/>
+      <c r="I163" s="7"/>
       <c r="J163" s="7"/>
       <c r="K163" s="7" t="s">
-        <v>650</v>
+        <v>668</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="45" t="s">
-        <v>669</v>
-      </c>
-      <c r="B164" s="46" t="s">
-        <v>670</v>
-      </c>
-      <c r="C164" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="D164" s="7"/>
-      <c r="E164" s="4" t="s">
-        <v>672</v>
-      </c>
-      <c r="F164" s="4"/>
-      <c r="G164" s="4"/>
-      <c r="H164" s="4"/>
+      <c r="A164" s="51" t="s">
+        <v>673</v>
+      </c>
+      <c r="B164" s="52" t="s">
+        <v>674</v>
+      </c>
+      <c r="C164" s="91" t="s">
+        <v>666</v>
+      </c>
+      <c r="D164" s="91"/>
+      <c r="E164" s="47" t="s">
+        <v>675</v>
+      </c>
+      <c r="F164" s="36"/>
+      <c r="G164" s="47"/>
+      <c r="H164" s="47"/>
       <c r="I164" s="7"/>
       <c r="J164" s="7"/>
       <c r="K164" s="7" t="s">
-        <v>650</v>
+        <v>668</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="45" t="s">
-        <v>673</v>
-      </c>
-      <c r="B165" s="46" t="s">
-        <v>674</v>
+      <c r="A165" s="38" t="s">
+        <v>676</v>
+      </c>
+      <c r="B165" s="39" t="s">
+        <v>677</v>
       </c>
       <c r="C165" s="7"/>
       <c r="D165" s="7"/>
@@ -16010,269 +16450,235 @@
       <c r="K165" s="7"/>
     </row>
     <row r="166">
-      <c r="A166" s="51" t="s">
-        <v>675</v>
-      </c>
-      <c r="B166" s="52" t="s">
-        <v>676</v>
-      </c>
-      <c r="C166" s="4" t="s">
-        <v>677</v>
-      </c>
+      <c r="A166" s="45" t="s">
+        <v>678</v>
+      </c>
+      <c r="B166" s="46" t="s">
+        <v>679</v>
+      </c>
+      <c r="C166" s="4"/>
       <c r="D166" s="4"/>
-      <c r="E166" s="4" t="s">
-        <v>678</v>
-      </c>
+      <c r="E166" s="4"/>
       <c r="F166" s="4"/>
       <c r="G166" s="4"/>
       <c r="H166" s="4"/>
       <c r="I166" s="7"/>
       <c r="J166" s="7"/>
-      <c r="K166" s="7" t="s">
-        <v>650</v>
-      </c>
+      <c r="K166" s="7"/>
     </row>
     <row r="167">
-      <c r="A167" s="33" t="s">
-        <v>679</v>
-      </c>
-      <c r="B167" s="88" t="s">
+      <c r="A167" s="51" t="s">
         <v>680</v>
       </c>
-      <c r="C167" s="7"/>
+      <c r="B167" s="52" t="s">
+        <v>681</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>636</v>
+      </c>
       <c r="D167" s="7"/>
-      <c r="E167" s="35" t="s">
-        <v>681</v>
+      <c r="E167" s="4" t="s">
+        <v>682</v>
       </c>
       <c r="F167" s="4"/>
-      <c r="G167" s="59"/>
-      <c r="H167" s="59"/>
+      <c r="G167" s="4"/>
+      <c r="H167" s="4"/>
       <c r="I167" s="7"/>
       <c r="J167" s="7"/>
-      <c r="K167" s="7"/>
+      <c r="K167" s="7" t="s">
+        <v>668</v>
+      </c>
     </row>
     <row r="168">
-      <c r="A168" s="38" t="s">
-        <v>682</v>
-      </c>
-      <c r="B168" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C168" s="7"/>
+      <c r="A168" s="101" t="s">
+        <v>683</v>
+      </c>
+      <c r="B168" s="52" t="s">
+        <v>684</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>685</v>
+      </c>
       <c r="D168" s="7"/>
-      <c r="E168" s="18"/>
+      <c r="E168" s="18" t="s">
+        <v>686</v>
+      </c>
       <c r="F168" s="18"/>
       <c r="G168" s="4"/>
       <c r="H168" s="4"/>
-      <c r="I168" s="7"/>
+      <c r="I168" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="J168" s="7"/>
-      <c r="K168" s="7"/>
+      <c r="K168" s="7" t="s">
+        <v>668</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="45" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="B169" s="46" t="s">
-        <v>684</v>
-      </c>
-      <c r="C169" s="7"/>
+        <v>688</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>689</v>
+      </c>
       <c r="D169" s="7"/>
-      <c r="E169" s="18"/>
+      <c r="E169" s="18" t="s">
+        <v>690</v>
+      </c>
       <c r="F169" s="18"/>
       <c r="G169" s="4"/>
       <c r="H169" s="4"/>
       <c r="I169" s="7"/>
       <c r="J169" s="7"/>
-      <c r="K169" s="7"/>
+      <c r="K169" s="7" t="s">
+        <v>668</v>
+      </c>
     </row>
     <row r="170">
-      <c r="A170" s="51" t="s">
-        <v>685</v>
-      </c>
-      <c r="B170" s="52" t="s">
-        <v>686</v>
-      </c>
-      <c r="C170" s="91" t="s">
-        <v>687</v>
-      </c>
-      <c r="D170" s="91" t="s">
-        <v>688</v>
-      </c>
-      <c r="E170" s="118" t="s">
-        <v>689</v>
-      </c>
-      <c r="F170" s="118"/>
-      <c r="G170" s="91" t="s">
-        <v>690</v>
-      </c>
-      <c r="H170" s="119" t="s">
+      <c r="A170" s="45" t="s">
         <v>691</v>
       </c>
+      <c r="B170" s="46" t="s">
+        <v>692</v>
+      </c>
+      <c r="C170" s="7"/>
+      <c r="D170" s="7"/>
+      <c r="E170" s="18"/>
+      <c r="F170" s="18"/>
+      <c r="G170" s="7"/>
+      <c r="H170" s="7"/>
       <c r="I170" s="7"/>
       <c r="J170" s="7"/>
       <c r="K170" s="7"/>
     </row>
     <row r="171">
-      <c r="A171" s="67" t="s">
-        <v>692</v>
-      </c>
-      <c r="B171" s="68" t="s">
+      <c r="A171" s="51" t="s">
         <v>693</v>
       </c>
-      <c r="C171" s="91" t="s">
+      <c r="B171" s="52" t="s">
         <v>694</v>
       </c>
-      <c r="D171" s="36" t="s">
+      <c r="C171" s="7" t="s">
         <v>695</v>
       </c>
-      <c r="E171" s="118" t="s">
+      <c r="D171" s="4"/>
+      <c r="E171" s="18" t="s">
         <v>696</v>
       </c>
-      <c r="F171" s="118"/>
-      <c r="G171" s="36" t="s">
-        <v>697</v>
-      </c>
-      <c r="H171" s="60" t="s">
-        <v>698</v>
-      </c>
+      <c r="F171" s="18"/>
+      <c r="G171" s="4"/>
+      <c r="H171" s="4"/>
       <c r="I171" s="7"/>
       <c r="J171" s="7"/>
-      <c r="K171" s="7"/>
+      <c r="K171" s="7" t="s">
+        <v>668</v>
+      </c>
     </row>
     <row r="172">
-      <c r="A172" s="67" t="s">
+      <c r="A172" s="33" t="s">
+        <v>697</v>
+      </c>
+      <c r="B172" s="88" t="s">
+        <v>698</v>
+      </c>
+      <c r="C172" s="7"/>
+      <c r="D172" s="7"/>
+      <c r="E172" s="82" t="s">
         <v>699</v>
       </c>
-      <c r="B172" s="68" t="s">
-        <v>700</v>
-      </c>
-      <c r="C172" s="91" t="s">
-        <v>701</v>
-      </c>
-      <c r="D172" s="91" t="s">
-        <v>702</v>
-      </c>
-      <c r="E172" s="120" t="s">
-        <v>696</v>
-      </c>
-      <c r="F172" s="118"/>
-      <c r="G172" s="91" t="s">
-        <v>703</v>
-      </c>
-      <c r="H172" s="119" t="s">
-        <v>704</v>
-      </c>
-      <c r="I172" s="7" t="s">
-        <v>705</v>
-      </c>
+      <c r="F172" s="18"/>
+      <c r="G172" s="75"/>
+      <c r="H172" s="75"/>
+      <c r="I172" s="7"/>
       <c r="J172" s="7"/>
       <c r="K172" s="7"/>
     </row>
     <row r="173">
-      <c r="A173" s="51" t="s">
-        <v>706</v>
-      </c>
-      <c r="B173" s="52" t="s">
-        <v>707</v>
-      </c>
-      <c r="C173" s="91" t="s">
-        <v>687</v>
-      </c>
-      <c r="D173" s="91" t="s">
-        <v>688</v>
-      </c>
-      <c r="E173" s="118" t="s">
-        <v>708</v>
-      </c>
-      <c r="F173" s="118"/>
-      <c r="G173" s="36" t="s">
-        <v>690</v>
-      </c>
-      <c r="H173" s="60" t="s">
-        <v>709</v>
-      </c>
+      <c r="A173" s="38" t="s">
+        <v>700</v>
+      </c>
+      <c r="B173" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C173" s="7"/>
+      <c r="D173" s="7"/>
+      <c r="E173" s="18"/>
+      <c r="F173" s="18"/>
+      <c r="G173" s="4"/>
+      <c r="H173" s="4"/>
       <c r="I173" s="7"/>
       <c r="J173" s="7"/>
       <c r="K173" s="7"/>
     </row>
     <row r="174">
-      <c r="A174" s="67" t="s">
-        <v>710</v>
-      </c>
-      <c r="B174" s="68" t="s">
-        <v>693</v>
-      </c>
-      <c r="C174" s="91" t="s">
-        <v>694</v>
-      </c>
-      <c r="D174" s="91" t="s">
-        <v>695</v>
-      </c>
-      <c r="E174" s="120" t="s">
-        <v>696</v>
-      </c>
-      <c r="F174" s="118"/>
-      <c r="G174" s="36" t="s">
-        <v>697</v>
-      </c>
-      <c r="H174" s="60" t="s">
-        <v>711</v>
-      </c>
+      <c r="A174" s="45" t="s">
+        <v>701</v>
+      </c>
+      <c r="B174" s="46" t="s">
+        <v>702</v>
+      </c>
+      <c r="C174" s="7"/>
+      <c r="D174" s="7"/>
+      <c r="E174" s="18"/>
+      <c r="F174" s="18"/>
+      <c r="G174" s="4"/>
+      <c r="H174" s="4"/>
       <c r="I174" s="7"/>
       <c r="J174" s="7"/>
       <c r="K174" s="7"/>
     </row>
     <row r="175">
-      <c r="A175" s="67" t="s">
-        <v>712</v>
-      </c>
-      <c r="B175" s="68" t="s">
-        <v>700</v>
+      <c r="A175" s="51" t="s">
+        <v>703</v>
+      </c>
+      <c r="B175" s="52" t="s">
+        <v>704</v>
       </c>
       <c r="C175" s="91" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="D175" s="91" t="s">
-        <v>702</v>
-      </c>
-      <c r="E175" s="120" t="s">
-        <v>696</v>
-      </c>
-      <c r="F175" s="118"/>
+        <v>706</v>
+      </c>
+      <c r="E175" s="119" t="s">
+        <v>707</v>
+      </c>
+      <c r="F175" s="119"/>
       <c r="G175" s="36" t="s">
-        <v>703</v>
-      </c>
-      <c r="H175" s="36" t="s">
-        <v>713</v>
-      </c>
-      <c r="I175" s="7" t="s">
-        <v>705</v>
-      </c>
+        <v>708</v>
+      </c>
+      <c r="H175" s="60" t="s">
+        <v>709</v>
+      </c>
+      <c r="I175" s="7"/>
       <c r="J175" s="7"/>
       <c r="K175" s="7"/>
     </row>
     <row r="176">
-      <c r="A176" s="51" t="s">
+      <c r="A176" s="67" t="s">
+        <v>710</v>
+      </c>
+      <c r="B176" s="68" t="s">
+        <v>711</v>
+      </c>
+      <c r="C176" s="91" t="s">
+        <v>712</v>
+      </c>
+      <c r="D176" s="91" t="s">
+        <v>713</v>
+      </c>
+      <c r="E176" s="119" t="s">
         <v>714</v>
       </c>
-      <c r="B176" s="52" t="s">
+      <c r="F176" s="119"/>
+      <c r="G176" s="36" t="s">
         <v>715</v>
       </c>
-      <c r="C176" s="91" t="s">
-        <v>687</v>
-      </c>
-      <c r="D176" s="91" t="s">
-        <v>688</v>
-      </c>
-      <c r="E176" s="118" t="s">
+      <c r="H176" s="60" t="s">
         <v>716</v>
-      </c>
-      <c r="F176" s="118"/>
-      <c r="G176" s="36" t="s">
-        <v>690</v>
-      </c>
-      <c r="H176" s="47" t="s">
-        <v>717</v>
       </c>
       <c r="I176" s="7"/>
       <c r="J176" s="7"/>
@@ -16280,135 +16686,137 @@
     </row>
     <row r="177">
       <c r="A177" s="67" t="s">
+        <v>717</v>
+      </c>
+      <c r="B177" s="68" t="s">
         <v>718</v>
       </c>
-      <c r="B177" s="68" t="s">
-        <v>693</v>
-      </c>
       <c r="C177" s="91" t="s">
-        <v>694</v>
+        <v>719</v>
       </c>
       <c r="D177" s="91" t="s">
-        <v>695</v>
+        <v>720</v>
       </c>
       <c r="E177" s="120" t="s">
-        <v>696</v>
-      </c>
-      <c r="F177" s="118"/>
+        <v>714</v>
+      </c>
+      <c r="F177" s="119"/>
       <c r="G177" s="36" t="s">
-        <v>697</v>
+        <v>721</v>
       </c>
       <c r="H177" s="60" t="s">
-        <v>719</v>
-      </c>
-      <c r="I177" s="7"/>
+        <v>722</v>
+      </c>
+      <c r="I177" s="7" t="s">
+        <v>723</v>
+      </c>
       <c r="J177" s="7"/>
       <c r="K177" s="7"/>
     </row>
     <row r="178">
-      <c r="A178" s="67" t="s">
-        <v>720</v>
-      </c>
-      <c r="B178" s="68" t="s">
-        <v>700</v>
+      <c r="A178" s="51" t="s">
+        <v>724</v>
+      </c>
+      <c r="B178" s="52" t="s">
+        <v>725</v>
       </c>
       <c r="C178" s="91" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="D178" s="91" t="s">
-        <v>702</v>
-      </c>
-      <c r="E178" s="120" t="s">
-        <v>696</v>
-      </c>
-      <c r="F178" s="118"/>
+        <v>706</v>
+      </c>
+      <c r="E178" s="119" t="s">
+        <v>726</v>
+      </c>
+      <c r="F178" s="119"/>
       <c r="G178" s="36" t="s">
-        <v>703</v>
-      </c>
-      <c r="H178" s="36" t="s">
-        <v>713</v>
-      </c>
-      <c r="I178" s="7" t="s">
-        <v>705</v>
-      </c>
+        <v>708</v>
+      </c>
+      <c r="H178" s="60" t="s">
+        <v>727</v>
+      </c>
+      <c r="I178" s="7"/>
       <c r="J178" s="7"/>
       <c r="K178" s="7"/>
     </row>
     <row r="179">
-      <c r="A179" s="51" t="s">
-        <v>721</v>
-      </c>
-      <c r="B179" s="52" t="s">
-        <v>722</v>
+      <c r="A179" s="67" t="s">
+        <v>728</v>
+      </c>
+      <c r="B179" s="68" t="s">
+        <v>711</v>
       </c>
       <c r="C179" s="36" t="s">
-        <v>687</v>
+        <v>712</v>
       </c>
       <c r="D179" s="91" t="s">
-        <v>688</v>
-      </c>
-      <c r="E179" s="118" t="s">
-        <v>723</v>
-      </c>
-      <c r="F179" s="118"/>
+        <v>713</v>
+      </c>
+      <c r="E179" s="120" t="s">
+        <v>714</v>
+      </c>
+      <c r="F179" s="119"/>
       <c r="G179" s="36" t="s">
-        <v>690</v>
-      </c>
-      <c r="H179" s="47" t="s">
-        <v>724</v>
+        <v>715</v>
+      </c>
+      <c r="H179" s="60" t="s">
+        <v>729</v>
       </c>
       <c r="I179" s="7"/>
       <c r="J179" s="7"/>
       <c r="K179" s="7"/>
     </row>
     <row r="180">
-      <c r="A180" s="51" t="s">
-        <v>725</v>
-      </c>
-      <c r="B180" s="52" t="s">
-        <v>726</v>
+      <c r="A180" s="67" t="s">
+        <v>730</v>
+      </c>
+      <c r="B180" s="68" t="s">
+        <v>718</v>
       </c>
       <c r="C180" s="91" t="s">
-        <v>687</v>
+        <v>719</v>
       </c>
       <c r="D180" s="91" t="s">
-        <v>688</v>
-      </c>
-      <c r="E180" s="47" t="s">
-        <v>727</v>
+        <v>720</v>
+      </c>
+      <c r="E180" s="40" t="s">
+        <v>714</v>
       </c>
       <c r="F180" s="47"/>
       <c r="G180" s="36" t="s">
-        <v>690</v>
-      </c>
-      <c r="H180" s="47" t="s">
-        <v>728</v>
-      </c>
-      <c r="I180" s="7"/>
+        <v>721</v>
+      </c>
+      <c r="H180" s="36" t="s">
+        <v>731</v>
+      </c>
+      <c r="I180" s="7" t="s">
+        <v>723</v>
+      </c>
       <c r="J180" s="7"/>
       <c r="K180" s="7"/>
     </row>
     <row r="181">
       <c r="A181" s="51" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="B181" s="52" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="C181" s="91" t="s">
-        <v>731</v>
+        <v>705</v>
       </c>
       <c r="D181" s="91" t="s">
-        <v>732</v>
+        <v>706</v>
       </c>
       <c r="E181" s="47" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="F181" s="47"/>
       <c r="G181" s="36" t="s">
-        <v>734</v>
-      </c>
-      <c r="H181" s="36" t="s">
+        <v>708</v>
+      </c>
+      <c r="H181" s="47" t="s">
         <v>735</v>
       </c>
       <c r="I181" s="7"/>
@@ -16416,73 +16824,83 @@
       <c r="K181" s="7"/>
     </row>
     <row r="182">
-      <c r="A182" s="121" t="s">
+      <c r="A182" s="67" t="s">
         <v>736</v>
       </c>
-      <c r="B182" s="122" t="s">
+      <c r="B182" s="68" t="s">
+        <v>711</v>
+      </c>
+      <c r="C182" s="91" t="s">
+        <v>712</v>
+      </c>
+      <c r="D182" s="91" t="s">
+        <v>713</v>
+      </c>
+      <c r="E182" s="40" t="s">
+        <v>714</v>
+      </c>
+      <c r="F182" s="47"/>
+      <c r="G182" s="36" t="s">
+        <v>715</v>
+      </c>
+      <c r="H182" s="60" t="s">
         <v>737</v>
       </c>
-      <c r="C182" s="103" t="s">
-        <v>738</v>
-      </c>
-      <c r="D182" s="91" t="s">
-        <v>739</v>
-      </c>
-      <c r="E182" s="105" t="s">
-        <v>740</v>
-      </c>
-      <c r="F182" s="105"/>
-      <c r="G182" s="105"/>
-      <c r="H182" s="4"/>
       <c r="I182" s="7"/>
       <c r="J182" s="7"/>
       <c r="K182" s="7"/>
     </row>
     <row r="183">
-      <c r="A183" s="121" t="s">
-        <v>741</v>
-      </c>
-      <c r="B183" s="122" t="s">
-        <v>742</v>
-      </c>
-      <c r="C183" s="103" t="s">
+      <c r="A183" s="67" t="s">
         <v>738</v>
       </c>
+      <c r="B183" s="68" t="s">
+        <v>718</v>
+      </c>
+      <c r="C183" s="91" t="s">
+        <v>719</v>
+      </c>
       <c r="D183" s="91" t="s">
-        <v>739</v>
-      </c>
-      <c r="E183" s="105" t="s">
-        <v>743</v>
-      </c>
-      <c r="F183" s="103"/>
-      <c r="G183" s="105"/>
-      <c r="H183" s="4"/>
-      <c r="I183" s="7"/>
+        <v>720</v>
+      </c>
+      <c r="E183" s="40" t="s">
+        <v>714</v>
+      </c>
+      <c r="F183" s="58"/>
+      <c r="G183" s="36" t="s">
+        <v>721</v>
+      </c>
+      <c r="H183" s="36" t="s">
+        <v>731</v>
+      </c>
+      <c r="I183" s="7" t="s">
+        <v>723</v>
+      </c>
       <c r="J183" s="7"/>
       <c r="K183" s="7"/>
     </row>
     <row r="184">
-      <c r="A184" s="121" t="s">
-        <v>744</v>
-      </c>
-      <c r="B184" s="122" t="s">
-        <v>745</v>
-      </c>
-      <c r="C184" s="103" t="s">
-        <v>746</v>
-      </c>
-      <c r="D184" s="103" t="s">
-        <v>747</v>
-      </c>
-      <c r="E184" s="105" t="s">
-        <v>748</v>
-      </c>
-      <c r="F184" s="105"/>
-      <c r="G184" s="105" t="s">
-        <v>749</v>
-      </c>
-      <c r="H184" s="4" t="s">
-        <v>750</v>
+      <c r="A184" s="51" t="s">
+        <v>739</v>
+      </c>
+      <c r="B184" s="52" t="s">
+        <v>740</v>
+      </c>
+      <c r="C184" s="91" t="s">
+        <v>705</v>
+      </c>
+      <c r="D184" s="91" t="s">
+        <v>706</v>
+      </c>
+      <c r="E184" s="47" t="s">
+        <v>741</v>
+      </c>
+      <c r="F184" s="47"/>
+      <c r="G184" s="36" t="s">
+        <v>708</v>
+      </c>
+      <c r="H184" s="47" t="s">
+        <v>742</v>
       </c>
       <c r="I184" s="7"/>
       <c r="J184" s="7"/>
@@ -16490,241 +16908,251 @@
     </row>
     <row r="185">
       <c r="A185" s="51" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="B185" s="52" t="s">
-        <v>752</v>
-      </c>
-      <c r="C185" s="103" t="s">
-        <v>753</v>
-      </c>
-      <c r="D185" s="103" t="s">
-        <v>754</v>
-      </c>
-      <c r="E185" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="F185" s="4"/>
-      <c r="G185" s="105" t="s">
-        <v>756</v>
-      </c>
-      <c r="H185" s="105" t="s">
-        <v>757</v>
+        <v>744</v>
+      </c>
+      <c r="C185" s="91" t="s">
+        <v>705</v>
+      </c>
+      <c r="D185" s="91" t="s">
+        <v>706</v>
+      </c>
+      <c r="E185" s="47" t="s">
+        <v>745</v>
+      </c>
+      <c r="F185" s="47"/>
+      <c r="G185" s="36" t="s">
+        <v>708</v>
+      </c>
+      <c r="H185" s="47" t="s">
+        <v>746</v>
       </c>
       <c r="I185" s="7"/>
       <c r="J185" s="7"/>
       <c r="K185" s="7"/>
     </row>
     <row r="186">
-      <c r="A186" s="121" t="s">
-        <v>758</v>
-      </c>
-      <c r="B186" s="122" t="s">
-        <v>759</v>
-      </c>
-      <c r="C186" s="103" t="s">
+      <c r="A186" s="51" t="s">
+        <v>747</v>
+      </c>
+      <c r="B186" s="52" t="s">
+        <v>748</v>
+      </c>
+      <c r="C186" s="91" t="s">
+        <v>749</v>
+      </c>
+      <c r="D186" s="91" t="s">
+        <v>750</v>
+      </c>
+      <c r="E186" s="47" t="s">
+        <v>751</v>
+      </c>
+      <c r="F186" s="47"/>
+      <c r="G186" s="36" t="s">
+        <v>752</v>
+      </c>
+      <c r="H186" s="36" t="s">
         <v>753</v>
       </c>
-      <c r="D186" s="103" t="s">
-        <v>754</v>
-      </c>
-      <c r="E186" s="105" t="s">
-        <v>760</v>
-      </c>
-      <c r="F186" s="4"/>
-      <c r="G186" s="105" t="s">
-        <v>756</v>
-      </c>
-      <c r="H186" s="105" t="s">
-        <v>757</v>
-      </c>
-      <c r="I186" s="103"/>
+      <c r="I186" s="7"/>
       <c r="J186" s="7"/>
       <c r="K186" s="7"/>
     </row>
     <row r="187">
-      <c r="A187" s="51" t="s">
-        <v>751</v>
-      </c>
-      <c r="B187" s="52" t="s">
-        <v>761</v>
-      </c>
-      <c r="C187" s="7" t="s">
-        <v>762</v>
-      </c>
-      <c r="D187" s="7"/>
-      <c r="E187" s="4" t="s">
-        <v>763</v>
-      </c>
-      <c r="F187" s="4"/>
-      <c r="G187" s="4" t="s">
-        <v>764</v>
-      </c>
-      <c r="H187" s="4" t="s">
-        <v>765</v>
-      </c>
-      <c r="I187" s="7" t="s">
-        <v>766</v>
-      </c>
+      <c r="A187" s="121" t="s">
+        <v>754</v>
+      </c>
+      <c r="B187" s="122" t="s">
+        <v>755</v>
+      </c>
+      <c r="C187" s="114" t="s">
+        <v>756</v>
+      </c>
+      <c r="D187" s="114" t="s">
+        <v>757</v>
+      </c>
+      <c r="E187" s="109" t="s">
+        <v>758</v>
+      </c>
+      <c r="F187" s="109"/>
+      <c r="G187" s="106"/>
+      <c r="H187" s="106"/>
+      <c r="I187" s="7"/>
       <c r="J187" s="7"/>
       <c r="K187" s="7"/>
     </row>
     <row r="188">
-      <c r="A188" s="123" t="s">
-        <v>767</v>
-      </c>
-      <c r="B188" s="107" t="s">
-        <v>768</v>
-      </c>
-      <c r="C188" s="103"/>
-      <c r="D188" s="91"/>
-      <c r="E188" s="36"/>
-      <c r="F188" s="36"/>
-      <c r="G188" s="36"/>
-      <c r="H188" s="36"/>
+      <c r="A188" s="121" t="s">
+        <v>759</v>
+      </c>
+      <c r="B188" s="122" t="s">
+        <v>760</v>
+      </c>
+      <c r="C188" s="114" t="s">
+        <v>756</v>
+      </c>
+      <c r="D188" s="114" t="s">
+        <v>757</v>
+      </c>
+      <c r="E188" s="109" t="s">
+        <v>761</v>
+      </c>
+      <c r="F188" s="109"/>
+      <c r="G188" s="106"/>
+      <c r="H188" s="106"/>
       <c r="I188" s="7"/>
       <c r="J188" s="7"/>
       <c r="K188" s="7"/>
     </row>
     <row r="189">
-      <c r="A189" s="98" t="s">
-        <v>769</v>
-      </c>
-      <c r="B189" s="99" t="s">
-        <v>770</v>
-      </c>
-      <c r="C189" s="105" t="s">
-        <v>771</v>
-      </c>
-      <c r="D189" s="91" t="s">
-        <v>772</v>
-      </c>
-      <c r="E189" s="36" t="s">
-        <v>773</v>
-      </c>
-      <c r="F189" s="36"/>
-      <c r="G189" s="36" t="s">
-        <v>774</v>
-      </c>
-      <c r="H189" s="36" t="s">
-        <v>775</v>
+      <c r="A189" s="121" t="s">
+        <v>762</v>
+      </c>
+      <c r="B189" s="122" t="s">
+        <v>763</v>
+      </c>
+      <c r="C189" s="109" t="s">
+        <v>764</v>
+      </c>
+      <c r="D189" s="111" t="s">
+        <v>765</v>
+      </c>
+      <c r="E189" s="109" t="s">
+        <v>766</v>
+      </c>
+      <c r="F189" s="109"/>
+      <c r="G189" s="109" t="s">
+        <v>767</v>
+      </c>
+      <c r="H189" s="109" t="s">
+        <v>768</v>
       </c>
       <c r="I189" s="7"/>
       <c r="J189" s="7"/>
       <c r="K189" s="7"/>
     </row>
     <row r="190">
-      <c r="A190" s="123" t="s">
-        <v>776</v>
-      </c>
-      <c r="B190" s="107" t="s">
-        <v>777</v>
-      </c>
-      <c r="C190" s="103"/>
-      <c r="D190" s="91"/>
-      <c r="E190" s="36"/>
-      <c r="F190" s="36"/>
-      <c r="G190" s="36"/>
-      <c r="H190" s="36"/>
+      <c r="A190" s="51" t="s">
+        <v>769</v>
+      </c>
+      <c r="B190" s="52" t="s">
+        <v>770</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="D190" s="7" t="s">
+        <v>772</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="F190" s="4"/>
+      <c r="G190" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="H190" s="93" t="s">
+        <v>775</v>
+      </c>
       <c r="I190" s="7"/>
       <c r="J190" s="7"/>
       <c r="K190" s="7"/>
     </row>
     <row r="191">
-      <c r="A191" s="98" t="s">
+      <c r="A191" s="121" t="s">
+        <v>776</v>
+      </c>
+      <c r="B191" s="122" t="s">
+        <v>777</v>
+      </c>
+      <c r="C191" s="111" t="s">
+        <v>771</v>
+      </c>
+      <c r="D191" s="111" t="s">
+        <v>772</v>
+      </c>
+      <c r="E191" s="109" t="s">
         <v>778</v>
       </c>
-      <c r="B191" s="99" t="s">
+      <c r="F191" s="4"/>
+      <c r="G191" s="109" t="s">
         <v>779</v>
       </c>
-      <c r="C191" s="103" t="s">
+      <c r="H191" s="123" t="s">
         <v>780</v>
       </c>
-      <c r="D191" s="91" t="s">
-        <v>781</v>
-      </c>
-      <c r="E191" s="36" t="s">
-        <v>782</v>
-      </c>
-      <c r="F191" s="36"/>
-      <c r="G191" s="36" t="s">
-        <v>774</v>
-      </c>
-      <c r="H191" s="36" t="s">
-        <v>783</v>
-      </c>
-      <c r="I191" s="7"/>
+      <c r="I191" s="111"/>
       <c r="J191" s="7"/>
       <c r="K191" s="7"/>
     </row>
     <row r="192">
-      <c r="A192" s="45" t="s">
+      <c r="A192" s="51" t="s">
+        <v>769</v>
+      </c>
+      <c r="B192" s="52" t="s">
+        <v>781</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="D192" s="7"/>
+      <c r="E192" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="F192" s="4"/>
+      <c r="G192" s="4" t="s">
         <v>784</v>
       </c>
-      <c r="B192" s="46" t="s">
+      <c r="H192" s="4" t="s">
         <v>785</v>
       </c>
-      <c r="C192" s="7" t="s">
+      <c r="I192" s="7" t="s">
         <v>786</v>
       </c>
-      <c r="D192" s="91"/>
-      <c r="E192" s="36"/>
-      <c r="F192" s="36"/>
-      <c r="G192" s="36"/>
-      <c r="H192" s="36"/>
-      <c r="I192" s="7"/>
       <c r="J192" s="7"/>
       <c r="K192" s="7"/>
     </row>
     <row r="193">
-      <c r="A193" s="51" t="s">
+      <c r="A193" s="124" t="s">
         <v>787</v>
       </c>
-      <c r="B193" s="52" t="s">
+      <c r="B193" s="113" t="s">
         <v>788</v>
       </c>
-      <c r="C193" s="91" t="s">
-        <v>789</v>
-      </c>
-      <c r="D193" s="91" t="s">
-        <v>790</v>
-      </c>
-      <c r="E193" s="47" t="s">
-        <v>791</v>
-      </c>
-      <c r="F193" s="47"/>
-      <c r="G193" s="36" t="s">
-        <v>792</v>
-      </c>
-      <c r="H193" s="60" t="s">
-        <v>793</v>
-      </c>
+      <c r="C193" s="111"/>
+      <c r="D193" s="110"/>
+      <c r="E193" s="36"/>
+      <c r="F193" s="36"/>
+      <c r="G193" s="36"/>
+      <c r="H193" s="36"/>
       <c r="I193" s="7"/>
       <c r="J193" s="7"/>
       <c r="K193" s="7"/>
     </row>
     <row r="194">
-      <c r="A194" s="45" t="s">
+      <c r="A194" s="101" t="s">
+        <v>789</v>
+      </c>
+      <c r="B194" s="102" t="s">
+        <v>790</v>
+      </c>
+      <c r="C194" s="111" t="s">
+        <v>791</v>
+      </c>
+      <c r="D194" s="110" t="s">
+        <v>792</v>
+      </c>
+      <c r="E194" s="104" t="s">
+        <v>793</v>
+      </c>
+      <c r="F194" s="91"/>
+      <c r="G194" s="106" t="s">
         <v>794</v>
       </c>
-      <c r="B194" s="46" t="s">
+      <c r="H194" s="106" t="s">
         <v>795</v>
-      </c>
-      <c r="C194" s="91" t="s">
-        <v>796</v>
-      </c>
-      <c r="D194" s="91" t="s">
-        <v>797</v>
-      </c>
-      <c r="E194" s="47" t="s">
-        <v>798</v>
-      </c>
-      <c r="F194" s="91"/>
-      <c r="G194" s="36" t="s">
-        <v>697</v>
-      </c>
-      <c r="H194" s="60" t="s">
-        <v>799</v>
       </c>
       <c r="I194" s="7"/>
       <c r="J194" s="7"/>
@@ -16732,44 +17160,44 @@
     </row>
     <row r="195">
       <c r="A195" s="124" t="s">
-        <v>794</v>
-      </c>
-      <c r="B195" s="125" t="s">
-        <v>795</v>
-      </c>
-      <c r="C195" s="115" t="s">
         <v>796</v>
       </c>
-      <c r="D195" s="115" t="s">
+      <c r="B195" s="113" t="s">
         <v>797</v>
       </c>
-      <c r="E195" s="47" t="s">
-        <v>800</v>
-      </c>
+      <c r="C195" s="111"/>
+      <c r="D195" s="110"/>
+      <c r="E195" s="36"/>
       <c r="F195" s="36"/>
-      <c r="G195" s="36" t="s">
-        <v>697</v>
-      </c>
-      <c r="H195" s="60" t="s">
-        <v>801</v>
-      </c>
+      <c r="G195" s="36"/>
+      <c r="H195" s="36"/>
       <c r="I195" s="7"/>
       <c r="J195" s="7"/>
       <c r="K195" s="7"/>
     </row>
     <row r="196">
-      <c r="A196" s="38" t="s">
+      <c r="A196" s="101" t="s">
+        <v>798</v>
+      </c>
+      <c r="B196" s="102" t="s">
+        <v>799</v>
+      </c>
+      <c r="C196" s="111" t="s">
+        <v>800</v>
+      </c>
+      <c r="D196" s="110" t="s">
+        <v>801</v>
+      </c>
+      <c r="E196" s="104" t="s">
         <v>802</v>
       </c>
-      <c r="B196" s="39" t="s">
+      <c r="F196" s="36"/>
+      <c r="G196" s="106" t="s">
+        <v>794</v>
+      </c>
+      <c r="H196" s="106" t="s">
         <v>803</v>
       </c>
-      <c r="C196" s="7"/>
-      <c r="D196" s="7"/>
-      <c r="E196" s="4"/>
-      <c r="F196" s="4"/>
-      <c r="G196" s="4"/>
-      <c r="H196" s="4"/>
       <c r="I196" s="7"/>
       <c r="J196" s="7"/>
       <c r="K196" s="7"/>
@@ -16781,385 +17209,381 @@
       <c r="B197" s="46" t="s">
         <v>805</v>
       </c>
-      <c r="C197" s="91"/>
+      <c r="C197" s="7" t="s">
+        <v>806</v>
+      </c>
       <c r="D197" s="91"/>
-      <c r="E197" s="47" t="s">
-        <v>806</v>
-      </c>
+      <c r="E197" s="36"/>
       <c r="F197" s="36"/>
-      <c r="G197" s="47" t="s">
-        <v>807</v>
-      </c>
-      <c r="H197" s="60" t="s">
-        <v>808</v>
-      </c>
-      <c r="I197" s="7" t="s">
-        <v>77</v>
-      </c>
+      <c r="G197" s="36"/>
+      <c r="H197" s="36"/>
+      <c r="I197" s="7"/>
       <c r="J197" s="7"/>
       <c r="K197" s="7"/>
     </row>
     <row r="198">
-      <c r="A198" s="45" t="s">
+      <c r="A198" s="51" t="s">
+        <v>807</v>
+      </c>
+      <c r="B198" s="52" t="s">
+        <v>808</v>
+      </c>
+      <c r="C198" s="91" t="s">
         <v>809</v>
       </c>
-      <c r="B198" s="46" t="s">
+      <c r="D198" s="91" t="s">
         <v>810</v>
       </c>
-      <c r="C198" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="D198" s="7"/>
-      <c r="E198" s="35" t="s">
+      <c r="E198" s="47" t="s">
         <v>811</v>
       </c>
-      <c r="F198" s="35" t="s">
+      <c r="F198" s="47"/>
+      <c r="G198" s="36" t="s">
         <v>812</v>
       </c>
-      <c r="G198" s="35" t="s">
+      <c r="H198" s="60" t="s">
         <v>813</v>
-      </c>
-      <c r="H198" s="35" t="s">
-        <v>814</v>
       </c>
       <c r="I198" s="7"/>
       <c r="J198" s="7"/>
-      <c r="K198" s="70" t="s">
-        <v>815</v>
-      </c>
+      <c r="K198" s="7"/>
     </row>
     <row r="199">
       <c r="A199" s="45" t="s">
+        <v>814</v>
+      </c>
+      <c r="B199" s="46" t="s">
+        <v>815</v>
+      </c>
+      <c r="C199" s="91" t="s">
         <v>816</v>
       </c>
-      <c r="B199" s="46" t="s">
-        <v>810</v>
-      </c>
-      <c r="C199" s="7" t="s">
-        <v>667</v>
-      </c>
-      <c r="D199" s="7"/>
-      <c r="E199" s="40" t="s">
-        <v>811</v>
-      </c>
-      <c r="F199" s="35" t="s">
+      <c r="D199" s="91" t="s">
         <v>817</v>
       </c>
-      <c r="G199" s="35" t="s">
-        <v>813</v>
-      </c>
-      <c r="H199" s="35" t="s">
-        <v>818</v>
-      </c>
+      <c r="E199" s="47"/>
+      <c r="F199" s="36"/>
+      <c r="G199" s="36"/>
+      <c r="H199" s="36"/>
       <c r="I199" s="7"/>
       <c r="J199" s="7"/>
-      <c r="K199" s="70" t="s">
+      <c r="K199" s="7"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="51" t="s">
+        <v>818</v>
+      </c>
+      <c r="B200" s="52" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="45" t="s">
+      <c r="C200" s="36" t="s">
+        <v>816</v>
+      </c>
+      <c r="D200" s="91" t="s">
+        <v>817</v>
+      </c>
+      <c r="E200" s="47" t="s">
         <v>820</v>
       </c>
-      <c r="B200" s="46" t="s">
+      <c r="F200" s="36"/>
+      <c r="G200" s="36" t="s">
+        <v>715</v>
+      </c>
+      <c r="H200" s="60" t="s">
         <v>821</v>
-      </c>
-      <c r="C200" s="4" t="s">
-        <v>822</v>
-      </c>
-      <c r="D200" s="7"/>
-      <c r="E200" s="35" t="s">
-        <v>823</v>
-      </c>
-      <c r="F200" s="4"/>
-      <c r="G200" s="4" t="s">
-        <v>824</v>
-      </c>
-      <c r="H200" s="35" t="s">
-        <v>825</v>
       </c>
       <c r="I200" s="7"/>
       <c r="J200" s="7"/>
       <c r="K200" s="7"/>
     </row>
     <row r="201">
-      <c r="A201" s="106" t="s">
-        <v>826</v>
-      </c>
-      <c r="B201" s="107" t="s">
-        <v>827</v>
-      </c>
-      <c r="C201" s="7"/>
-      <c r="D201" s="7"/>
-      <c r="E201" s="4"/>
-      <c r="F201" s="4"/>
-      <c r="G201" s="105"/>
-      <c r="H201" s="4"/>
+      <c r="A201" s="51" t="s">
+        <v>822</v>
+      </c>
+      <c r="B201" s="52" t="s">
+        <v>823</v>
+      </c>
+      <c r="C201" s="91" t="s">
+        <v>816</v>
+      </c>
+      <c r="D201" s="91" t="s">
+        <v>817</v>
+      </c>
+      <c r="E201" s="47" t="s">
+        <v>824</v>
+      </c>
+      <c r="F201" s="36"/>
+      <c r="G201" s="36" t="s">
+        <v>715</v>
+      </c>
+      <c r="H201" s="60" t="s">
+        <v>825</v>
+      </c>
       <c r="I201" s="7"/>
       <c r="J201" s="7"/>
       <c r="K201" s="7"/>
     </row>
     <row r="202">
-      <c r="A202" s="98" t="s">
-        <v>828</v>
-      </c>
-      <c r="B202" s="99" t="s">
-        <v>829</v>
-      </c>
-      <c r="C202" s="7" t="s">
-        <v>830</v>
-      </c>
-      <c r="D202" s="7" t="s">
-        <v>831</v>
-      </c>
-      <c r="E202" s="105" t="s">
-        <v>832</v>
-      </c>
+      <c r="A202" s="38" t="s">
+        <v>826</v>
+      </c>
+      <c r="B202" s="39" t="s">
+        <v>827</v>
+      </c>
+      <c r="C202" s="7"/>
+      <c r="D202" s="7"/>
+      <c r="E202" s="4"/>
       <c r="F202" s="4"/>
-      <c r="G202" s="105" t="s">
-        <v>833</v>
-      </c>
-      <c r="H202" s="105" t="s">
-        <v>834</v>
-      </c>
+      <c r="G202" s="4"/>
+      <c r="H202" s="4"/>
       <c r="I202" s="7"/>
       <c r="J202" s="7"/>
       <c r="K202" s="7"/>
     </row>
     <row r="203">
-      <c r="A203" s="98" t="s">
-        <v>835</v>
-      </c>
-      <c r="B203" s="99" t="s">
-        <v>836</v>
-      </c>
-      <c r="C203" s="7" t="s">
-        <v>837</v>
-      </c>
-      <c r="D203" s="7" t="s">
-        <v>838</v>
-      </c>
-      <c r="E203" s="105" t="s">
-        <v>839</v>
-      </c>
-      <c r="F203" s="4"/>
-      <c r="G203" s="105" t="s">
-        <v>840</v>
-      </c>
-      <c r="H203" s="4" t="s">
-        <v>841</v>
-      </c>
-      <c r="I203" s="7"/>
+      <c r="A203" s="45" t="s">
+        <v>828</v>
+      </c>
+      <c r="B203" s="46" t="s">
+        <v>829</v>
+      </c>
+      <c r="C203" s="91"/>
+      <c r="D203" s="91"/>
+      <c r="E203" s="47" t="s">
+        <v>830</v>
+      </c>
+      <c r="F203" s="36"/>
+      <c r="G203" s="47" t="s">
+        <v>831</v>
+      </c>
+      <c r="H203" s="60" t="s">
+        <v>832</v>
+      </c>
+      <c r="I203" s="7" t="s">
+        <v>77</v>
+      </c>
       <c r="J203" s="7"/>
       <c r="K203" s="7"/>
     </row>
     <row r="204">
-      <c r="A204" s="106" t="s">
-        <v>842</v>
-      </c>
-      <c r="B204" s="107" t="s">
-        <v>843</v>
-      </c>
-      <c r="C204" s="126"/>
-      <c r="D204" s="126"/>
-      <c r="E204" s="4"/>
-      <c r="F204" s="4"/>
-      <c r="G204" s="105"/>
-      <c r="H204" s="4"/>
+      <c r="A204" s="45" t="s">
+        <v>833</v>
+      </c>
+      <c r="B204" s="46" t="s">
+        <v>834</v>
+      </c>
+      <c r="C204" s="125" t="s">
+        <v>685</v>
+      </c>
+      <c r="D204" s="125"/>
+      <c r="E204" s="35" t="s">
+        <v>835</v>
+      </c>
+      <c r="F204" s="35" t="s">
+        <v>836</v>
+      </c>
+      <c r="G204" s="35" t="s">
+        <v>837</v>
+      </c>
+      <c r="H204" s="35" t="s">
+        <v>838</v>
+      </c>
       <c r="I204" s="7"/>
       <c r="J204" s="7"/>
-      <c r="K204" s="7"/>
+      <c r="K204" s="70" t="s">
+        <v>839</v>
+      </c>
     </row>
     <row r="205">
-      <c r="A205" s="98" t="s">
-        <v>844</v>
-      </c>
-      <c r="B205" s="99" t="s">
-        <v>845</v>
-      </c>
-      <c r="C205" s="103" t="s">
-        <v>846</v>
-      </c>
-      <c r="D205" s="103" t="s">
-        <v>847</v>
-      </c>
-      <c r="E205" s="103" t="s">
-        <v>848</v>
-      </c>
-      <c r="F205" s="7"/>
-      <c r="G205" s="103" t="s">
-        <v>849</v>
-      </c>
-      <c r="H205" s="7" t="s">
-        <v>850</v>
+      <c r="A205" s="45" t="s">
+        <v>840</v>
+      </c>
+      <c r="B205" s="46" t="s">
+        <v>834</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="D205" s="7"/>
+      <c r="E205" s="61" t="s">
+        <v>835</v>
+      </c>
+      <c r="F205" s="70" t="s">
+        <v>841</v>
+      </c>
+      <c r="G205" s="70" t="s">
+        <v>837</v>
+      </c>
+      <c r="H205" s="70" t="s">
+        <v>842</v>
       </c>
       <c r="I205" s="7"/>
       <c r="J205" s="7"/>
-      <c r="K205" s="7"/>
+      <c r="K205" s="70" t="s">
+        <v>843</v>
+      </c>
     </row>
     <row r="206">
-      <c r="A206" s="98" t="s">
-        <v>851</v>
-      </c>
-      <c r="B206" s="99" t="s">
-        <v>852</v>
-      </c>
-      <c r="C206" s="103" t="s">
+      <c r="A206" s="45" t="s">
+        <v>844</v>
+      </c>
+      <c r="B206" s="46" t="s">
+        <v>845</v>
+      </c>
+      <c r="C206" s="7" t="s">
         <v>846</v>
       </c>
-      <c r="D206" s="103" t="s">
+      <c r="D206" s="7"/>
+      <c r="E206" s="35" t="s">
         <v>847</v>
       </c>
-      <c r="E206" s="105" t="s">
-        <v>853</v>
-      </c>
       <c r="F206" s="7"/>
-      <c r="G206" s="103" t="s">
+      <c r="G206" s="7" t="s">
+        <v>848</v>
+      </c>
+      <c r="H206" s="70" t="s">
         <v>849</v>
-      </c>
-      <c r="H206" s="7" t="s">
-        <v>850</v>
       </c>
       <c r="I206" s="7"/>
       <c r="J206" s="7"/>
       <c r="K206" s="7"/>
     </row>
     <row r="207">
-      <c r="A207" s="98" t="s">
-        <v>854</v>
-      </c>
-      <c r="B207" s="99" t="s">
-        <v>855</v>
-      </c>
-      <c r="C207" s="103" t="s">
-        <v>856</v>
-      </c>
-      <c r="D207" s="103" t="s">
-        <v>857</v>
-      </c>
-      <c r="E207" s="105" t="s">
-        <v>858</v>
-      </c>
+      <c r="A207" s="112" t="s">
+        <v>850</v>
+      </c>
+      <c r="B207" s="113" t="s">
+        <v>851</v>
+      </c>
+      <c r="C207" s="7"/>
+      <c r="D207" s="7"/>
+      <c r="E207" s="4"/>
       <c r="F207" s="4"/>
-      <c r="G207" s="105" t="s">
-        <v>859</v>
-      </c>
-      <c r="H207" s="4" t="s">
-        <v>860</v>
-      </c>
+      <c r="G207" s="109"/>
+      <c r="H207" s="4"/>
       <c r="I207" s="7"/>
       <c r="J207" s="7"/>
       <c r="K207" s="7"/>
     </row>
     <row r="208">
-      <c r="A208" s="98" t="s">
-        <v>861</v>
-      </c>
-      <c r="B208" s="99" t="s">
-        <v>862</v>
-      </c>
-      <c r="C208" s="103" t="s">
-        <v>863</v>
-      </c>
-      <c r="D208" s="103" t="s">
-        <v>864</v>
-      </c>
-      <c r="E208" s="105" t="s">
-        <v>865</v>
+      <c r="A208" s="101" t="s">
+        <v>852</v>
+      </c>
+      <c r="B208" s="102" t="s">
+        <v>853</v>
+      </c>
+      <c r="C208" s="7" t="s">
+        <v>854</v>
+      </c>
+      <c r="D208" s="7" t="s">
+        <v>855</v>
+      </c>
+      <c r="E208" s="109" t="s">
+        <v>856</v>
       </c>
       <c r="F208" s="7"/>
-      <c r="G208" s="105" t="s">
-        <v>866</v>
-      </c>
-      <c r="H208" s="4" t="s">
-        <v>867</v>
+      <c r="G208" s="109" t="s">
+        <v>857</v>
+      </c>
+      <c r="H208" s="109" t="s">
+        <v>858</v>
       </c>
       <c r="I208" s="7"/>
       <c r="J208" s="7"/>
       <c r="K208" s="7"/>
     </row>
     <row r="209">
-      <c r="A209" s="33" t="s">
-        <v>868</v>
-      </c>
-      <c r="B209" s="34" t="s">
-        <v>869</v>
-      </c>
-      <c r="C209" s="7"/>
-      <c r="D209" s="7"/>
-      <c r="E209" s="4"/>
+      <c r="A209" s="101" t="s">
+        <v>859</v>
+      </c>
+      <c r="B209" s="102" t="s">
+        <v>860</v>
+      </c>
+      <c r="C209" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="D209" s="7" t="s">
+        <v>862</v>
+      </c>
+      <c r="E209" s="109" t="s">
+        <v>863</v>
+      </c>
       <c r="F209" s="7"/>
-      <c r="G209" s="4"/>
-      <c r="H209" s="4"/>
+      <c r="G209" s="106" t="s">
+        <v>864</v>
+      </c>
+      <c r="H209" s="115" t="s">
+        <v>865</v>
+      </c>
       <c r="I209" s="7"/>
       <c r="J209" s="7"/>
       <c r="K209" s="7"/>
     </row>
     <row r="210">
-      <c r="A210" s="127" t="s">
-        <v>870</v>
-      </c>
-      <c r="B210" s="128" t="s">
-        <v>871</v>
-      </c>
-      <c r="C210" s="7"/>
-      <c r="D210" s="7"/>
-      <c r="E210" s="18"/>
+      <c r="A210" s="101" t="s">
+        <v>859</v>
+      </c>
+      <c r="B210" s="102" t="s">
+        <v>860</v>
+      </c>
+      <c r="C210" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="D210" s="7" t="s">
+        <v>862</v>
+      </c>
+      <c r="E210" s="126" t="s">
+        <v>866</v>
+      </c>
       <c r="F210" s="18"/>
-      <c r="G210" s="4"/>
-      <c r="H210" s="36"/>
+      <c r="G210" s="106" t="s">
+        <v>867</v>
+      </c>
+      <c r="H210" s="115" t="s">
+        <v>868</v>
+      </c>
       <c r="I210" s="7"/>
       <c r="J210" s="7"/>
       <c r="K210" s="7"/>
     </row>
     <row r="211">
-      <c r="A211" s="106" t="s">
-        <v>872</v>
-      </c>
-      <c r="B211" s="107" t="s">
-        <v>873</v>
-      </c>
-      <c r="C211" s="103" t="s">
-        <v>874</v>
-      </c>
-      <c r="D211" s="103" t="s">
-        <v>875</v>
-      </c>
-      <c r="E211" s="94" t="s">
-        <v>876</v>
-      </c>
+      <c r="A211" s="112" t="s">
+        <v>869</v>
+      </c>
+      <c r="B211" s="113" t="s">
+        <v>870</v>
+      </c>
+      <c r="C211" s="111"/>
+      <c r="D211" s="111"/>
+      <c r="E211" s="18"/>
       <c r="F211" s="18"/>
-      <c r="G211" s="103" t="s">
-        <v>697</v>
-      </c>
-      <c r="H211" s="117" t="s">
-        <v>877</v>
-      </c>
+      <c r="G211" s="111"/>
+      <c r="H211" s="7"/>
       <c r="I211" s="7"/>
       <c r="J211" s="7"/>
       <c r="K211" s="7"/>
     </row>
     <row r="212">
-      <c r="A212" s="106" t="s">
+      <c r="A212" s="101" t="s">
+        <v>871</v>
+      </c>
+      <c r="B212" s="102" t="s">
         <v>872</v>
       </c>
-      <c r="B212" s="107" t="s">
+      <c r="C212" s="111" t="s">
         <v>873</v>
       </c>
-      <c r="C212" s="103" t="s">
+      <c r="D212" s="111" t="s">
         <v>874</v>
       </c>
-      <c r="D212" s="103" t="s">
+      <c r="E212" s="126" t="s">
         <v>875</v>
       </c>
-      <c r="E212" s="94" t="s">
-        <v>878</v>
-      </c>
       <c r="F212" s="18"/>
-      <c r="G212" s="105" t="s">
-        <v>697</v>
-      </c>
-      <c r="H212" s="104" t="s">
+      <c r="G212" s="106" t="s">
+        <v>876</v>
+      </c>
+      <c r="H212" s="115" t="s">
         <v>877</v>
       </c>
       <c r="I212" s="7"/>
@@ -17167,26 +17591,26 @@
       <c r="K212" s="7"/>
     </row>
     <row r="213">
-      <c r="A213" s="106" t="s">
+      <c r="A213" s="101" t="s">
+        <v>878</v>
+      </c>
+      <c r="B213" s="102" t="s">
         <v>879</v>
       </c>
-      <c r="B213" s="107" t="s">
+      <c r="C213" s="111" t="s">
         <v>880</v>
       </c>
-      <c r="C213" s="103" t="s">
+      <c r="D213" s="111" t="s">
         <v>881</v>
       </c>
-      <c r="D213" s="103" t="s">
+      <c r="E213" s="126" t="s">
         <v>882</v>
       </c>
-      <c r="E213" s="94" t="s">
+      <c r="F213" s="18"/>
+      <c r="G213" s="106" t="s">
         <v>883</v>
       </c>
-      <c r="F213" s="18"/>
-      <c r="G213" s="105" t="s">
-        <v>703</v>
-      </c>
-      <c r="H213" s="104" t="s">
+      <c r="H213" s="115" t="s">
         <v>884</v>
       </c>
       <c r="I213" s="7"/>
@@ -17194,358 +17618,332 @@
       <c r="K213" s="7"/>
     </row>
     <row r="214">
-      <c r="A214" s="38" t="s">
+      <c r="A214" s="101" t="s">
         <v>885</v>
       </c>
-      <c r="B214" s="39" t="s">
+      <c r="B214" s="102" t="s">
         <v>886</v>
       </c>
-      <c r="C214" s="7"/>
-      <c r="D214" s="7"/>
-      <c r="E214" s="18"/>
+      <c r="C214" s="111" t="s">
+        <v>887</v>
+      </c>
+      <c r="D214" s="111" t="s">
+        <v>888</v>
+      </c>
+      <c r="E214" s="126" t="s">
+        <v>889</v>
+      </c>
       <c r="F214" s="18"/>
-      <c r="G214" s="4"/>
-      <c r="H214" s="47"/>
+      <c r="G214" s="106" t="s">
+        <v>890</v>
+      </c>
+      <c r="H214" s="115" t="s">
+        <v>891</v>
+      </c>
       <c r="I214" s="7"/>
       <c r="J214" s="7"/>
       <c r="K214" s="7"/>
     </row>
     <row r="215">
-      <c r="A215" s="45" t="s">
-        <v>887</v>
-      </c>
-      <c r="B215" s="46" t="s">
-        <v>888</v>
-      </c>
-      <c r="C215" s="7" t="s">
-        <v>889</v>
-      </c>
+      <c r="A215" s="33" t="s">
+        <v>892</v>
+      </c>
+      <c r="B215" s="34" t="s">
+        <v>893</v>
+      </c>
+      <c r="C215" s="7"/>
       <c r="D215" s="7"/>
-      <c r="E215" s="18" t="s">
-        <v>890</v>
-      </c>
+      <c r="E215" s="18"/>
       <c r="F215" s="18"/>
-      <c r="G215" s="4" t="s">
-        <v>891</v>
-      </c>
-      <c r="H215" s="129" t="s">
-        <v>892</v>
-      </c>
+      <c r="G215" s="4"/>
+      <c r="H215" s="4"/>
       <c r="I215" s="7"/>
       <c r="J215" s="7"/>
       <c r="K215" s="7"/>
     </row>
     <row r="216">
-      <c r="A216" s="45" t="s">
-        <v>893</v>
-      </c>
-      <c r="B216" s="46" t="s">
+      <c r="A216" s="127" t="s">
         <v>894</v>
       </c>
-      <c r="C216" s="7" t="s">
+      <c r="B216" s="128" t="s">
         <v>895</v>
       </c>
+      <c r="C216" s="7"/>
       <c r="D216" s="7"/>
-      <c r="E216" s="18" t="s">
-        <v>896</v>
-      </c>
+      <c r="E216" s="18"/>
       <c r="F216" s="18"/>
-      <c r="G216" s="4" t="s">
-        <v>891</v>
-      </c>
-      <c r="H216" s="129" t="s">
-        <v>897</v>
-      </c>
+      <c r="G216" s="4"/>
+      <c r="H216" s="36"/>
       <c r="I216" s="7"/>
       <c r="J216" s="7"/>
-      <c r="K216" s="75" t="s">
+      <c r="K216" s="7"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="112" t="s">
+        <v>896</v>
+      </c>
+      <c r="B217" s="113" t="s">
+        <v>897</v>
+      </c>
+      <c r="C217" s="111" t="s">
         <v>898</v>
       </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="45" t="s">
+      <c r="D217" s="111" t="s">
         <v>899</v>
       </c>
-      <c r="B217" s="46" t="s">
-        <v>900</v>
-      </c>
-      <c r="C217" s="7" t="s">
-        <v>901</v>
-      </c>
-      <c r="D217" s="7"/>
-      <c r="E217" s="18" t="s">
-        <v>902</v>
-      </c>
+      <c r="E217" s="18"/>
       <c r="F217" s="18"/>
-      <c r="G217" s="4" t="s">
-        <v>891</v>
-      </c>
-      <c r="H217" s="129" t="s">
-        <v>903</v>
-      </c>
+      <c r="G217" s="109"/>
+      <c r="H217" s="36"/>
       <c r="I217" s="7"/>
       <c r="J217" s="7"/>
       <c r="K217" s="7"/>
     </row>
     <row r="218">
-      <c r="A218" s="38" t="s">
-        <v>904</v>
-      </c>
-      <c r="B218" s="39" t="s">
-        <v>606</v>
-      </c>
-      <c r="C218" s="58" t="s">
-        <v>607</v>
-      </c>
-      <c r="D218" s="7" t="s">
-        <v>608</v>
-      </c>
-      <c r="E218" s="118" t="s">
-        <v>905</v>
-      </c>
-      <c r="F218" s="118"/>
-      <c r="G218" s="130" t="s">
-        <v>703</v>
-      </c>
-      <c r="H218" s="131" t="s">
-        <v>906</v>
-      </c>
-      <c r="I218" s="7" t="s">
-        <v>69</v>
-      </c>
+      <c r="A218" s="101" t="s">
+        <v>900</v>
+      </c>
+      <c r="B218" s="102" t="s">
+        <v>901</v>
+      </c>
+      <c r="C218" s="111" t="s">
+        <v>898</v>
+      </c>
+      <c r="D218" s="111" t="s">
+        <v>899</v>
+      </c>
+      <c r="E218" s="18" t="s">
+        <v>902</v>
+      </c>
+      <c r="F218" s="18"/>
+      <c r="G218" s="109" t="s">
+        <v>715</v>
+      </c>
+      <c r="H218" s="129" t="s">
+        <v>903</v>
+      </c>
+      <c r="I218" s="7"/>
       <c r="J218" s="7"/>
       <c r="K218" s="7"/>
     </row>
     <row r="219">
-      <c r="A219" s="38" t="s">
+      <c r="A219" s="101" t="s">
+        <v>904</v>
+      </c>
+      <c r="B219" s="102" t="s">
+        <v>905</v>
+      </c>
+      <c r="C219" s="111" t="s">
+        <v>898</v>
+      </c>
+      <c r="D219" s="111" t="s">
+        <v>899</v>
+      </c>
+      <c r="E219" s="18" t="s">
+        <v>906</v>
+      </c>
+      <c r="F219" s="18"/>
+      <c r="G219" s="109" t="s">
+        <v>715</v>
+      </c>
+      <c r="H219" s="36" t="s">
         <v>907</v>
       </c>
-      <c r="B219" s="39" t="s">
-        <v>908</v>
-      </c>
-      <c r="C219" s="132" t="s">
-        <v>786</v>
-      </c>
-      <c r="D219" s="7"/>
-      <c r="E219" s="133"/>
-      <c r="F219" s="133"/>
-      <c r="G219" s="4"/>
-      <c r="H219" s="4"/>
       <c r="I219" s="7"/>
       <c r="J219" s="7"/>
       <c r="K219" s="7"/>
     </row>
     <row r="220">
-      <c r="A220" s="45" t="s">
+      <c r="A220" s="112" t="s">
+        <v>908</v>
+      </c>
+      <c r="B220" s="113" t="s">
         <v>909</v>
       </c>
-      <c r="B220" s="46" t="s">
+      <c r="C220" s="111" t="s">
         <v>910</v>
       </c>
-      <c r="C220" s="134" t="s">
-        <v>786</v>
-      </c>
-      <c r="D220" s="7"/>
-      <c r="E220" s="70" t="s">
+      <c r="D220" s="111" t="s">
         <v>911</v>
       </c>
-      <c r="F220" s="91"/>
-      <c r="G220" s="91" t="s">
-        <v>58</v>
+      <c r="E220" s="18" t="s">
+        <v>912</v>
+      </c>
+      <c r="F220" s="18"/>
+      <c r="G220" s="111" t="s">
+        <v>721</v>
       </c>
       <c r="H220" s="91" t="s">
-        <v>59</v>
+        <v>913</v>
       </c>
       <c r="I220" s="7"/>
       <c r="J220" s="7"/>
-      <c r="K220" s="7"/>
+      <c r="K220" s="111" t="s">
+        <v>914</v>
+      </c>
     </row>
     <row r="221">
-      <c r="A221" s="51" t="s">
-        <v>912</v>
-      </c>
-      <c r="B221" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="C221" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="D221" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="E221" s="36" t="s">
-        <v>913</v>
-      </c>
-      <c r="F221" s="91"/>
-      <c r="G221" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="H221" s="92" t="s">
-        <v>914</v>
-      </c>
-      <c r="I221" s="7" t="s">
-        <v>69</v>
-      </c>
+      <c r="A221" s="38" t="s">
+        <v>915</v>
+      </c>
+      <c r="B221" s="130" t="s">
+        <v>916</v>
+      </c>
+      <c r="C221" s="7"/>
+      <c r="D221" s="7"/>
+      <c r="E221" s="18"/>
+      <c r="F221" s="18"/>
+      <c r="G221" s="4"/>
+      <c r="H221" s="47"/>
+      <c r="I221" s="7"/>
       <c r="J221" s="7"/>
       <c r="K221" s="7"/>
     </row>
     <row r="222">
-      <c r="A222" s="51" t="s">
-        <v>915</v>
-      </c>
-      <c r="B222" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="C222" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="D222" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="E222" s="36" t="s">
-        <v>916</v>
-      </c>
-      <c r="F222" s="91"/>
-      <c r="G222" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="H222" s="92" t="s">
+      <c r="A222" s="45" t="s">
         <v>917</v>
+      </c>
+      <c r="B222" s="131" t="s">
+        <v>918</v>
+      </c>
+      <c r="C222" s="7" t="s">
+        <v>919</v>
+      </c>
+      <c r="D222" s="7"/>
+      <c r="E222" s="18" t="s">
+        <v>920</v>
+      </c>
+      <c r="F222" s="18"/>
+      <c r="G222" s="4" t="s">
+        <v>921</v>
+      </c>
+      <c r="H222" s="132" t="s">
+        <v>922</v>
       </c>
       <c r="I222" s="7"/>
       <c r="J222" s="7"/>
       <c r="K222" s="7"/>
     </row>
     <row r="223">
-      <c r="A223" s="51" t="s">
-        <v>918</v>
-      </c>
-      <c r="B223" s="57" t="s">
-        <v>86</v>
-      </c>
-      <c r="C223" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="D223" s="58" t="s">
-        <v>88</v>
-      </c>
-      <c r="E223" s="91" t="s">
-        <v>919</v>
-      </c>
-      <c r="F223" s="91"/>
-      <c r="G223" s="70" t="s">
-        <v>83</v>
-      </c>
-      <c r="H223" s="96" t="s">
-        <v>920</v>
+      <c r="A223" s="45" t="s">
+        <v>923</v>
+      </c>
+      <c r="B223" s="131" t="s">
+        <v>924</v>
+      </c>
+      <c r="C223" s="7" t="s">
+        <v>925</v>
+      </c>
+      <c r="D223" s="7"/>
+      <c r="E223" s="18" t="s">
+        <v>926</v>
+      </c>
+      <c r="F223" s="18"/>
+      <c r="G223" s="7" t="s">
+        <v>921</v>
+      </c>
+      <c r="H223" s="133" t="s">
+        <v>927</v>
       </c>
       <c r="I223" s="7"/>
       <c r="J223" s="7"/>
-      <c r="K223" s="7"/>
+      <c r="K223" s="75" t="s">
+        <v>928</v>
+      </c>
     </row>
     <row r="224">
-      <c r="A224" s="51" t="s">
+      <c r="A224" s="45" t="s">
+        <v>929</v>
+      </c>
+      <c r="B224" s="131" t="s">
+        <v>930</v>
+      </c>
+      <c r="C224" s="7" t="s">
+        <v>931</v>
+      </c>
+      <c r="D224" s="7"/>
+      <c r="E224" s="18" t="s">
+        <v>932</v>
+      </c>
+      <c r="F224" s="18"/>
+      <c r="G224" s="4" t="s">
         <v>921</v>
       </c>
-      <c r="B224" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="C224" s="58" t="s">
-        <v>101</v>
-      </c>
-      <c r="D224" s="58" t="s">
-        <v>922</v>
-      </c>
-      <c r="E224" s="36" t="s">
-        <v>923</v>
-      </c>
-      <c r="F224" s="91"/>
-      <c r="G224" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="H224" s="92" t="s">
-        <v>924</v>
+      <c r="H224" s="132" t="s">
+        <v>933</v>
       </c>
       <c r="I224" s="7"/>
       <c r="J224" s="7"/>
       <c r="K224" s="7"/>
     </row>
     <row r="225">
-      <c r="A225" s="51" t="s">
-        <v>925</v>
-      </c>
-      <c r="B225" s="57" t="s">
-        <v>107</v>
+      <c r="A225" s="38" t="s">
+        <v>934</v>
+      </c>
+      <c r="B225" s="130" t="s">
+        <v>615</v>
       </c>
       <c r="C225" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="D225" s="58" t="s">
-        <v>109</v>
-      </c>
-      <c r="E225" s="91" t="s">
-        <v>926</v>
-      </c>
-      <c r="F225" s="91"/>
-      <c r="G225" s="58" t="s">
-        <v>111</v>
+        <v>616</v>
+      </c>
+      <c r="D225" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="E225" s="119" t="s">
+        <v>935</v>
+      </c>
+      <c r="F225" s="119"/>
+      <c r="G225" s="134" t="s">
+        <v>721</v>
       </c>
       <c r="H225" s="135" t="s">
-        <v>927</v>
-      </c>
-      <c r="I225" s="7"/>
+        <v>936</v>
+      </c>
+      <c r="I225" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="J225" s="7"/>
       <c r="K225" s="7"/>
     </row>
     <row r="226">
-      <c r="A226" s="51" t="s">
-        <v>928</v>
-      </c>
-      <c r="B226" s="57" t="s">
-        <v>127</v>
-      </c>
-      <c r="C226" s="91" t="s">
-        <v>128</v>
-      </c>
-      <c r="D226" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="E226" s="91" t="s">
-        <v>929</v>
-      </c>
-      <c r="F226" s="91"/>
-      <c r="G226" s="58" t="s">
-        <v>930</v>
-      </c>
-      <c r="H226" s="135" t="s">
-        <v>931</v>
-      </c>
+      <c r="A226" s="38" t="s">
+        <v>937</v>
+      </c>
+      <c r="B226" s="130" t="s">
+        <v>938</v>
+      </c>
+      <c r="C226" s="136" t="s">
+        <v>806</v>
+      </c>
+      <c r="D226" s="7"/>
+      <c r="E226" s="137"/>
+      <c r="F226" s="137"/>
+      <c r="G226" s="7"/>
+      <c r="H226" s="7"/>
       <c r="I226" s="7"/>
       <c r="J226" s="7"/>
       <c r="K226" s="7"/>
     </row>
     <row r="227">
-      <c r="A227" s="51" t="s">
-        <v>932</v>
-      </c>
-      <c r="B227" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="C227" s="58" t="s">
-        <v>122</v>
-      </c>
-      <c r="D227" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="E227" s="91" t="s">
-        <v>933</v>
+      <c r="A227" s="45" t="s">
+        <v>939</v>
+      </c>
+      <c r="B227" s="131" t="s">
+        <v>940</v>
+      </c>
+      <c r="C227" s="138" t="s">
+        <v>806</v>
+      </c>
+      <c r="D227" s="7"/>
+      <c r="E227" s="70" t="s">
+        <v>941</v>
       </c>
       <c r="F227" s="91"/>
-      <c r="G227" s="58" t="s">
-        <v>934</v>
-      </c>
-      <c r="H227" s="135" t="s">
-        <v>935</v>
+      <c r="G227" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="H227" s="139" t="s">
+        <v>59</v>
       </c>
       <c r="I227" s="7"/>
       <c r="J227" s="7"/>
@@ -17553,78 +17951,82 @@
     </row>
     <row r="228">
       <c r="A228" s="51" t="s">
-        <v>936</v>
+        <v>942</v>
       </c>
       <c r="B228" s="57" t="s">
-        <v>937</v>
+        <v>63</v>
       </c>
       <c r="C228" s="58" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="D228" s="58" t="s">
-        <v>144</v>
+        <v>65</v>
       </c>
       <c r="E228" s="91" t="s">
-        <v>938</v>
+        <v>943</v>
       </c>
       <c r="F228" s="91"/>
-      <c r="G228" s="136" t="s">
-        <v>930</v>
-      </c>
-      <c r="H228" s="136" t="s">
-        <v>939</v>
-      </c>
-      <c r="I228" s="7"/>
+      <c r="G228" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="H228" s="70" t="s">
+        <v>944</v>
+      </c>
+      <c r="I228" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="J228" s="7"/>
       <c r="K228" s="7"/>
     </row>
     <row r="229">
       <c r="A229" s="51" t="s">
-        <v>940</v>
+        <v>945</v>
       </c>
       <c r="B229" s="57" t="s">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="C229" s="58" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="D229" s="58" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="E229" s="91" t="s">
-        <v>941</v>
+        <v>946</v>
       </c>
       <c r="F229" s="91"/>
-      <c r="G229" s="58" t="s">
-        <v>934</v>
-      </c>
-      <c r="H229" s="58" t="s">
-        <v>942</v>
+      <c r="G229" s="70" t="s">
+        <v>83</v>
+      </c>
+      <c r="H229" s="70" t="s">
+        <v>947</v>
       </c>
       <c r="I229" s="7"/>
       <c r="J229" s="7"/>
       <c r="K229" s="7"/>
     </row>
     <row r="230">
-      <c r="A230" s="45" t="s">
-        <v>943</v>
-      </c>
-      <c r="B230" s="137" t="s">
-        <v>944</v>
-      </c>
-      <c r="C230" s="134" t="s">
-        <v>786</v>
-      </c>
-      <c r="D230" s="138"/>
-      <c r="E230" s="70" t="s">
-        <v>945</v>
-      </c>
-      <c r="F230" s="58"/>
-      <c r="G230" s="91" t="s">
-        <v>946</v>
-      </c>
-      <c r="H230" s="139" t="s">
-        <v>59</v>
+      <c r="A230" s="51" t="s">
+        <v>948</v>
+      </c>
+      <c r="B230" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="C230" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="D230" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="E230" s="91" t="s">
+        <v>949</v>
+      </c>
+      <c r="F230" s="91"/>
+      <c r="G230" s="70" t="s">
+        <v>83</v>
+      </c>
+      <c r="H230" s="97" t="s">
+        <v>950</v>
       </c>
       <c r="I230" s="7"/>
       <c r="J230" s="7"/>
@@ -17632,55 +18034,53 @@
     </row>
     <row r="231">
       <c r="A231" s="51" t="s">
-        <v>947</v>
+        <v>951</v>
       </c>
       <c r="B231" s="57" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="C231" s="58" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="D231" s="58" t="s">
-        <v>65</v>
+        <v>952</v>
       </c>
       <c r="E231" s="91" t="s">
-        <v>948</v>
+        <v>953</v>
       </c>
       <c r="F231" s="91"/>
       <c r="G231" s="70" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="H231" s="70" t="s">
-        <v>949</v>
-      </c>
-      <c r="I231" s="7" t="s">
-        <v>69</v>
-      </c>
+        <v>954</v>
+      </c>
+      <c r="I231" s="7"/>
       <c r="J231" s="7"/>
       <c r="K231" s="7"/>
     </row>
     <row r="232">
       <c r="A232" s="51" t="s">
-        <v>950</v>
+        <v>955</v>
       </c>
       <c r="B232" s="57" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="C232" s="58" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="D232" s="58" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="E232" s="91" t="s">
-        <v>951</v>
+        <v>956</v>
       </c>
       <c r="F232" s="91"/>
-      <c r="G232" s="70" t="s">
-        <v>83</v>
-      </c>
-      <c r="H232" s="70" t="s">
-        <v>952</v>
+      <c r="G232" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="H232" s="58" t="s">
+        <v>957</v>
       </c>
       <c r="I232" s="7"/>
       <c r="J232" s="7"/>
@@ -17688,26 +18088,26 @@
     </row>
     <row r="233">
       <c r="A233" s="51" t="s">
-        <v>953</v>
+        <v>958</v>
       </c>
       <c r="B233" s="57" t="s">
-        <v>86</v>
-      </c>
-      <c r="C233" s="58" t="s">
-        <v>87</v>
+        <v>127</v>
+      </c>
+      <c r="C233" s="91" t="s">
+        <v>128</v>
       </c>
       <c r="D233" s="58" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="E233" s="91" t="s">
-        <v>954</v>
+        <v>959</v>
       </c>
       <c r="F233" s="91"/>
-      <c r="G233" s="70" t="s">
-        <v>83</v>
-      </c>
-      <c r="H233" s="70" t="s">
-        <v>955</v>
+      <c r="G233" s="58" t="s">
+        <v>960</v>
+      </c>
+      <c r="H233" s="58" t="s">
+        <v>961</v>
       </c>
       <c r="I233" s="7"/>
       <c r="J233" s="7"/>
@@ -17715,26 +18115,26 @@
     </row>
     <row r="234">
       <c r="A234" s="51" t="s">
-        <v>956</v>
+        <v>962</v>
       </c>
       <c r="B234" s="57" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="C234" s="58" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="D234" s="58" t="s">
-        <v>922</v>
+        <v>123</v>
       </c>
       <c r="E234" s="91" t="s">
-        <v>957</v>
+        <v>963</v>
       </c>
       <c r="F234" s="91"/>
-      <c r="G234" s="70" t="s">
-        <v>104</v>
-      </c>
-      <c r="H234" s="70" t="s">
-        <v>958</v>
+      <c r="G234" s="58" t="s">
+        <v>964</v>
+      </c>
+      <c r="H234" s="58" t="s">
+        <v>965</v>
       </c>
       <c r="I234" s="7"/>
       <c r="J234" s="7"/>
@@ -17742,26 +18142,26 @@
     </row>
     <row r="235">
       <c r="A235" s="51" t="s">
-        <v>959</v>
+        <v>966</v>
       </c>
       <c r="B235" s="57" t="s">
-        <v>107</v>
+        <v>967</v>
       </c>
       <c r="C235" s="58" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="D235" s="58" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="E235" s="91" t="s">
+        <v>968</v>
+      </c>
+      <c r="F235" s="91"/>
+      <c r="G235" s="140" t="s">
         <v>960</v>
       </c>
-      <c r="F235" s="91"/>
-      <c r="G235" s="70" t="s">
-        <v>111</v>
-      </c>
-      <c r="H235" s="70" t="s">
-        <v>961</v>
+      <c r="H235" s="140" t="s">
+        <v>969</v>
       </c>
       <c r="I235" s="7"/>
       <c r="J235" s="7"/>
@@ -17769,53 +18169,51 @@
     </row>
     <row r="236">
       <c r="A236" s="51" t="s">
-        <v>962</v>
+        <v>970</v>
       </c>
       <c r="B236" s="57" t="s">
-        <v>127</v>
-      </c>
-      <c r="C236" s="91" t="s">
-        <v>128</v>
+        <v>134</v>
+      </c>
+      <c r="C236" s="58" t="s">
+        <v>135</v>
       </c>
       <c r="D236" s="58" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E236" s="91" t="s">
-        <v>963</v>
+        <v>971</v>
       </c>
       <c r="F236" s="91"/>
       <c r="G236" s="58" t="s">
-        <v>930</v>
+        <v>964</v>
       </c>
       <c r="H236" s="58" t="s">
-        <v>931</v>
+        <v>972</v>
       </c>
       <c r="I236" s="7"/>
       <c r="J236" s="7"/>
       <c r="K236" s="7"/>
     </row>
     <row r="237">
-      <c r="A237" s="51" t="s">
-        <v>964</v>
-      </c>
-      <c r="B237" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="C237" s="58" t="s">
-        <v>122</v>
-      </c>
-      <c r="D237" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="E237" s="91" t="s">
-        <v>965</v>
-      </c>
-      <c r="F237" s="91"/>
-      <c r="G237" s="58" t="s">
-        <v>934</v>
-      </c>
-      <c r="H237" s="58" t="s">
-        <v>935</v>
+      <c r="A237" s="45" t="s">
+        <v>973</v>
+      </c>
+      <c r="B237" s="131" t="s">
+        <v>974</v>
+      </c>
+      <c r="C237" s="138" t="s">
+        <v>806</v>
+      </c>
+      <c r="D237" s="141"/>
+      <c r="E237" s="70" t="s">
+        <v>975</v>
+      </c>
+      <c r="F237" s="58"/>
+      <c r="G237" s="91" t="s">
+        <v>976</v>
+      </c>
+      <c r="H237" s="91" t="s">
+        <v>59</v>
       </c>
       <c r="I237" s="7"/>
       <c r="J237" s="7"/>
@@ -17823,103 +18221,109 @@
     </row>
     <row r="238">
       <c r="A238" s="51" t="s">
-        <v>966</v>
+        <v>977</v>
       </c>
       <c r="B238" s="57" t="s">
-        <v>937</v>
+        <v>63</v>
       </c>
       <c r="C238" s="58" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="D238" s="58" t="s">
-        <v>144</v>
+        <v>65</v>
       </c>
       <c r="E238" s="91" t="s">
-        <v>967</v>
+        <v>978</v>
       </c>
       <c r="F238" s="91"/>
-      <c r="G238" s="136" t="s">
-        <v>930</v>
-      </c>
-      <c r="H238" s="136" t="s">
-        <v>968</v>
-      </c>
-      <c r="I238" s="7"/>
+      <c r="G238" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="H238" s="70" t="s">
+        <v>979</v>
+      </c>
+      <c r="I238" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="J238" s="7"/>
       <c r="K238" s="7"/>
     </row>
     <row r="239">
       <c r="A239" s="51" t="s">
-        <v>969</v>
+        <v>980</v>
       </c>
       <c r="B239" s="57" t="s">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="C239" s="58" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="D239" s="58" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="E239" s="91" t="s">
-        <v>970</v>
+        <v>981</v>
       </c>
       <c r="F239" s="91"/>
-      <c r="G239" s="58" t="s">
-        <v>934</v>
-      </c>
-      <c r="H239" s="58" t="s">
-        <v>942</v>
+      <c r="G239" s="70" t="s">
+        <v>83</v>
+      </c>
+      <c r="H239" s="70" t="s">
+        <v>982</v>
       </c>
       <c r="I239" s="7"/>
       <c r="J239" s="7"/>
       <c r="K239" s="7"/>
     </row>
     <row r="240">
-      <c r="A240" s="45" t="s">
-        <v>971</v>
-      </c>
-      <c r="B240" s="137" t="s">
-        <v>972</v>
+      <c r="A240" s="51" t="s">
+        <v>983</v>
+      </c>
+      <c r="B240" s="57" t="s">
+        <v>86</v>
       </c>
       <c r="C240" s="58" t="s">
-        <v>973</v>
+        <v>87</v>
       </c>
       <c r="D240" s="58" t="s">
-        <v>974</v>
+        <v>88</v>
       </c>
       <c r="E240" s="91" t="s">
-        <v>975</v>
+        <v>984</v>
       </c>
       <c r="F240" s="91"/>
       <c r="G240" s="70" t="s">
-        <v>976</v>
-      </c>
-      <c r="H240" s="58" t="s">
-        <v>977</v>
+        <v>83</v>
+      </c>
+      <c r="H240" s="70" t="s">
+        <v>985</v>
       </c>
       <c r="I240" s="7"/>
       <c r="J240" s="7"/>
       <c r="K240" s="7"/>
     </row>
     <row r="241">
-      <c r="A241" s="45" t="s">
-        <v>978</v>
-      </c>
-      <c r="B241" s="137" t="s">
-        <v>979</v>
-      </c>
-      <c r="C241" s="7"/>
-      <c r="D241" s="7"/>
-      <c r="E241" s="70" t="s">
-        <v>980</v>
-      </c>
-      <c r="F241" s="58"/>
-      <c r="G241" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="H241" s="91" t="s">
-        <v>59</v>
+      <c r="A241" s="51" t="s">
+        <v>986</v>
+      </c>
+      <c r="B241" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="C241" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="D241" s="58" t="s">
+        <v>952</v>
+      </c>
+      <c r="E241" s="91" t="s">
+        <v>987</v>
+      </c>
+      <c r="F241" s="91"/>
+      <c r="G241" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="H241" s="70" t="s">
+        <v>988</v>
       </c>
       <c r="I241" s="7"/>
       <c r="J241" s="7"/>
@@ -17927,55 +18331,53 @@
     </row>
     <row r="242">
       <c r="A242" s="51" t="s">
-        <v>981</v>
+        <v>989</v>
       </c>
       <c r="B242" s="57" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="C242" s="58" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="D242" s="58" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="E242" s="91" t="s">
-        <v>982</v>
+        <v>990</v>
       </c>
       <c r="F242" s="91"/>
       <c r="G242" s="70" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="H242" s="70" t="s">
-        <v>983</v>
-      </c>
-      <c r="I242" s="7" t="s">
-        <v>69</v>
-      </c>
+        <v>991</v>
+      </c>
+      <c r="I242" s="7"/>
       <c r="J242" s="7"/>
       <c r="K242" s="7"/>
     </row>
     <row r="243">
       <c r="A243" s="51" t="s">
-        <v>984</v>
+        <v>992</v>
       </c>
       <c r="B243" s="57" t="s">
-        <v>79</v>
-      </c>
-      <c r="C243" s="58" t="s">
-        <v>80</v>
+        <v>127</v>
+      </c>
+      <c r="C243" s="91" t="s">
+        <v>128</v>
       </c>
       <c r="D243" s="58" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="E243" s="91" t="s">
-        <v>985</v>
+        <v>993</v>
       </c>
       <c r="F243" s="91"/>
-      <c r="G243" s="70" t="s">
-        <v>83</v>
-      </c>
-      <c r="H243" s="70" t="s">
-        <v>986</v>
+      <c r="G243" s="58" t="s">
+        <v>960</v>
+      </c>
+      <c r="H243" s="58" t="s">
+        <v>961</v>
       </c>
       <c r="I243" s="7"/>
       <c r="J243" s="7"/>
@@ -17983,26 +18385,26 @@
     </row>
     <row r="244">
       <c r="A244" s="51" t="s">
-        <v>987</v>
+        <v>994</v>
       </c>
       <c r="B244" s="57" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="C244" s="58" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="D244" s="58" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="E244" s="91" t="s">
-        <v>988</v>
+        <v>995</v>
       </c>
       <c r="F244" s="91"/>
-      <c r="G244" s="70" t="s">
-        <v>83</v>
-      </c>
-      <c r="H244" s="70" t="s">
-        <v>989</v>
+      <c r="G244" s="58" t="s">
+        <v>964</v>
+      </c>
+      <c r="H244" s="58" t="s">
+        <v>965</v>
       </c>
       <c r="I244" s="7"/>
       <c r="J244" s="7"/>
@@ -18010,26 +18412,26 @@
     </row>
     <row r="245">
       <c r="A245" s="51" t="s">
-        <v>990</v>
+        <v>996</v>
       </c>
       <c r="B245" s="57" t="s">
-        <v>100</v>
+        <v>967</v>
       </c>
       <c r="C245" s="58" t="s">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="D245" s="58" t="s">
-        <v>922</v>
+        <v>144</v>
       </c>
       <c r="E245" s="91" t="s">
-        <v>991</v>
+        <v>997</v>
       </c>
       <c r="F245" s="91"/>
-      <c r="G245" s="70" t="s">
-        <v>104</v>
-      </c>
-      <c r="H245" s="70" t="s">
-        <v>992</v>
+      <c r="G245" s="140" t="s">
+        <v>960</v>
+      </c>
+      <c r="H245" s="140" t="s">
+        <v>998</v>
       </c>
       <c r="I245" s="7"/>
       <c r="J245" s="7"/>
@@ -18037,80 +18439,76 @@
     </row>
     <row r="246">
       <c r="A246" s="51" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="B246" s="57" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="C246" s="58" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="D246" s="58" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="E246" s="91" t="s">
-        <v>994</v>
+        <v>1000</v>
       </c>
       <c r="F246" s="91"/>
       <c r="G246" s="58" t="s">
-        <v>111</v>
+        <v>964</v>
       </c>
       <c r="H246" s="58" t="s">
-        <v>995</v>
+        <v>972</v>
       </c>
       <c r="I246" s="7"/>
       <c r="J246" s="7"/>
       <c r="K246" s="7"/>
     </row>
     <row r="247">
-      <c r="A247" s="51" t="s">
-        <v>996</v>
-      </c>
-      <c r="B247" s="57" t="s">
-        <v>127</v>
-      </c>
-      <c r="C247" s="91" t="s">
-        <v>128</v>
+      <c r="A247" s="45" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B247" s="131" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C247" s="58" t="s">
+        <v>1003</v>
       </c>
       <c r="D247" s="58" t="s">
-        <v>129</v>
+        <v>1004</v>
       </c>
       <c r="E247" s="91" t="s">
-        <v>997</v>
+        <v>1005</v>
       </c>
       <c r="F247" s="91"/>
-      <c r="G247" s="58" t="s">
-        <v>930</v>
+      <c r="G247" s="70" t="s">
+        <v>1006</v>
       </c>
       <c r="H247" s="58" t="s">
-        <v>931</v>
+        <v>1007</v>
       </c>
       <c r="I247" s="7"/>
       <c r="J247" s="7"/>
       <c r="K247" s="7"/>
     </row>
     <row r="248">
-      <c r="A248" s="51" t="s">
-        <v>998</v>
-      </c>
-      <c r="B248" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="C248" s="58" t="s">
-        <v>122</v>
-      </c>
-      <c r="D248" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="E248" s="91" t="s">
-        <v>999</v>
-      </c>
-      <c r="F248" s="91"/>
-      <c r="G248" s="58" t="s">
-        <v>934</v>
-      </c>
-      <c r="H248" s="58" t="s">
-        <v>935</v>
+      <c r="A248" s="45" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B248" s="131" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C248" s="7"/>
+      <c r="D248" s="7"/>
+      <c r="E248" s="70" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F248" s="58"/>
+      <c r="G248" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="H248" s="91" t="s">
+        <v>59</v>
       </c>
       <c r="I248" s="7"/>
       <c r="J248" s="7"/>
@@ -18118,84 +18516,275 @@
     </row>
     <row r="249">
       <c r="A249" s="51" t="s">
-        <v>1000</v>
+        <v>1011</v>
       </c>
       <c r="B249" s="57" t="s">
-        <v>937</v>
+        <v>63</v>
       </c>
       <c r="C249" s="58" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="D249" s="58" t="s">
-        <v>144</v>
+        <v>65</v>
       </c>
       <c r="E249" s="91" t="s">
-        <v>1001</v>
+        <v>1012</v>
       </c>
       <c r="F249" s="91"/>
-      <c r="G249" s="136" t="s">
-        <v>930</v>
-      </c>
-      <c r="H249" s="136" t="s">
-        <v>1002</v>
-      </c>
-      <c r="I249" s="7"/>
+      <c r="G249" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="H249" s="70" t="s">
+        <v>1013</v>
+      </c>
+      <c r="I249" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="J249" s="7"/>
       <c r="K249" s="7"/>
     </row>
     <row r="250">
       <c r="A250" s="51" t="s">
-        <v>1003</v>
+        <v>1014</v>
       </c>
       <c r="B250" s="57" t="s">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="C250" s="58" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="D250" s="58" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="E250" s="91" t="s">
-        <v>1004</v>
+        <v>1015</v>
       </c>
       <c r="F250" s="91"/>
-      <c r="G250" s="58" t="s">
-        <v>934</v>
-      </c>
-      <c r="H250" s="58" t="s">
-        <v>942</v>
+      <c r="G250" s="70" t="s">
+        <v>83</v>
+      </c>
+      <c r="H250" s="70" t="s">
+        <v>1016</v>
       </c>
       <c r="I250" s="7"/>
       <c r="J250" s="7"/>
       <c r="K250" s="7"/>
     </row>
     <row r="251">
-      <c r="A251" s="38" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B251" s="140" t="s">
-        <v>1006</v>
-      </c>
-      <c r="C251" s="141" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D251" s="141" t="s">
-        <v>1008</v>
-      </c>
-      <c r="E251" s="142" t="s">
-        <v>1009</v>
-      </c>
-      <c r="F251" s="142"/>
+      <c r="A251" s="51" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B251" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="C251" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="D251" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="E251" s="91" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F251" s="91"/>
       <c r="G251" s="70" t="s">
-        <v>1010</v>
-      </c>
-      <c r="H251" s="102" t="s">
-        <v>1011</v>
+        <v>83</v>
+      </c>
+      <c r="H251" s="70" t="s">
+        <v>1019</v>
       </c>
       <c r="I251" s="7"/>
       <c r="J251" s="7"/>
       <c r="K251" s="7"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="51" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B252" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="C252" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="D252" s="58" t="s">
+        <v>952</v>
+      </c>
+      <c r="E252" s="91" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F252" s="91"/>
+      <c r="G252" s="70" t="s">
+        <v>104</v>
+      </c>
+      <c r="H252" s="70" t="s">
+        <v>1022</v>
+      </c>
+      <c r="I252" s="7"/>
+      <c r="J252" s="7"/>
+      <c r="K252" s="7"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="51" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B253" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="C253" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="D253" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="E253" s="91" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F253" s="91"/>
+      <c r="G253" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="H253" s="58" t="s">
+        <v>1025</v>
+      </c>
+      <c r="I253" s="7"/>
+      <c r="J253" s="7"/>
+      <c r="K253" s="7"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="51" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B254" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="C254" s="91" t="s">
+        <v>128</v>
+      </c>
+      <c r="D254" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="E254" s="91" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F254" s="91"/>
+      <c r="G254" s="58" t="s">
+        <v>960</v>
+      </c>
+      <c r="H254" s="58" t="s">
+        <v>961</v>
+      </c>
+      <c r="I254" s="7"/>
+      <c r="J254" s="7"/>
+      <c r="K254" s="7"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="51" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B255" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="C255" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="D255" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="E255" s="91" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F255" s="91"/>
+      <c r="G255" s="58" t="s">
+        <v>964</v>
+      </c>
+      <c r="H255" s="58" t="s">
+        <v>965</v>
+      </c>
+      <c r="I255" s="7"/>
+      <c r="J255" s="7"/>
+      <c r="K255" s="7"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="51" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B256" s="57" t="s">
+        <v>967</v>
+      </c>
+      <c r="C256" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="D256" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="E256" s="91" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F256" s="91"/>
+      <c r="G256" s="140" t="s">
+        <v>960</v>
+      </c>
+      <c r="H256" s="140" t="s">
+        <v>1032</v>
+      </c>
+      <c r="I256" s="7"/>
+      <c r="J256" s="7"/>
+      <c r="K256" s="7"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="51" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B257" s="57" t="s">
+        <v>134</v>
+      </c>
+      <c r="C257" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="D257" s="58" t="s">
+        <v>136</v>
+      </c>
+      <c r="E257" s="91" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F257" s="91"/>
+      <c r="G257" s="58" t="s">
+        <v>964</v>
+      </c>
+      <c r="H257" s="58" t="s">
+        <v>972</v>
+      </c>
+      <c r="I257" s="7"/>
+      <c r="J257" s="7"/>
+      <c r="K257" s="7"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="38" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B258" s="130" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C258" s="142" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D258" s="142" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E258" s="143" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F258" s="143"/>
+      <c r="G258" s="70" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H258" s="107" t="s">
+        <v>1041</v>
+      </c>
+      <c r="I258" s="7"/>
+      <c r="J258" s="7"/>
+      <c r="K258" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -18239,20 +18828,22 @@
     <hyperlink r:id="rId9" ref="H104"/>
     <hyperlink r:id="rId10" ref="H105"/>
     <hyperlink r:id="rId11" ref="H106"/>
-    <hyperlink r:id="rId12" ref="H215"/>
-    <hyperlink r:id="rId13" ref="H216"/>
-    <hyperlink r:id="rId14" ref="H217"/>
-    <hyperlink r:id="rId15" ref="H218"/>
-    <hyperlink r:id="rId16" ref="H221"/>
-    <hyperlink r:id="rId17" ref="H222"/>
-    <hyperlink r:id="rId18" ref="H223"/>
-    <hyperlink r:id="rId19" ref="H224"/>
-    <hyperlink r:id="rId20" ref="H225"/>
-    <hyperlink r:id="rId21" ref="H226"/>
-    <hyperlink r:id="rId22" ref="H227"/>
-    <hyperlink r:id="rId23" ref="H230"/>
+    <hyperlink r:id="rId12" ref="H134"/>
+    <hyperlink r:id="rId13" ref="H135"/>
+    <hyperlink r:id="rId14" ref="H142"/>
+    <hyperlink r:id="rId15" ref="H151"/>
+    <hyperlink r:id="rId16" ref="H153"/>
+    <hyperlink r:id="rId17" ref="H157"/>
+    <hyperlink r:id="rId18" ref="H191"/>
+    <hyperlink r:id="rId19" ref="H218"/>
+    <hyperlink r:id="rId20" ref="H222"/>
+    <hyperlink r:id="rId21" ref="H223"/>
+    <hyperlink r:id="rId22" ref="H224"/>
+    <hyperlink r:id="rId23" ref="H225"/>
+    <hyperlink r:id="rId24" ref="H227"/>
+    <hyperlink r:id="rId25" ref="H230"/>
   </hyperlinks>
-  <drawing r:id="rId24"/>
+  <drawing r:id="rId26"/>
 </worksheet>
 </file>
 
@@ -18274,7 +18865,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="144" t="s">
         <v>32</v>
       </c>
       <c r="B1" s="26" t="s">
@@ -18295,7 +18886,7 @@
     </row>
     <row r="2">
       <c r="A2" s="18" t="s">
-        <v>1012</v>
+        <v>1042</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>399</v>
@@ -18307,46 +18898,46 @@
         <v>401</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>1013</v>
+        <v>1043</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>1014</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
-        <v>1015</v>
+        <v>1045</v>
       </c>
       <c r="B3" s="70" t="s">
-        <v>1016</v>
+        <v>1046</v>
       </c>
       <c r="C3" s="58" t="s">
-        <v>1017</v>
+        <v>1047</v>
       </c>
       <c r="D3" s="58"/>
       <c r="E3" s="35" t="s">
-        <v>1018</v>
+        <v>1048</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>1019</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
-        <v>1015</v>
+        <v>1045</v>
       </c>
       <c r="B4" s="70" t="s">
-        <v>1016</v>
+        <v>1046</v>
       </c>
       <c r="C4" s="58" t="s">
-        <v>1017</v>
+        <v>1047</v>
       </c>
       <c r="D4" s="58"/>
       <c r="E4" s="35" t="s">
-        <v>1020</v>
+        <v>1050</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>1021</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="5">
@@ -18366,211 +18957,211 @@
         <v>402</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>1022</v>
-      </c>
-      <c r="G5" s="144"/>
-      <c r="H5" s="144"/>
-      <c r="I5" s="144"/>
-      <c r="J5" s="144"/>
-      <c r="K5" s="144"/>
-      <c r="L5" s="144"/>
-      <c r="M5" s="144"/>
-      <c r="N5" s="144"/>
-      <c r="O5" s="144"/>
-      <c r="P5" s="144"/>
-      <c r="Q5" s="144"/>
-      <c r="R5" s="144"/>
-      <c r="S5" s="144"/>
-      <c r="T5" s="144"/>
-      <c r="U5" s="144"/>
-      <c r="V5" s="144"/>
-      <c r="W5" s="144"/>
-      <c r="X5" s="144"/>
-      <c r="Y5" s="144"/>
-      <c r="Z5" s="144"/>
+        <v>1052</v>
+      </c>
+      <c r="G5" s="145"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="145"/>
+      <c r="K5" s="145"/>
+      <c r="L5" s="145"/>
+      <c r="M5" s="145"/>
+      <c r="N5" s="145"/>
+      <c r="O5" s="145"/>
+      <c r="P5" s="145"/>
+      <c r="Q5" s="145"/>
+      <c r="R5" s="145"/>
+      <c r="S5" s="145"/>
+      <c r="T5" s="145"/>
+      <c r="U5" s="145"/>
+      <c r="V5" s="145"/>
+      <c r="W5" s="145"/>
+      <c r="X5" s="145"/>
+      <c r="Y5" s="145"/>
+      <c r="Z5" s="145"/>
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
-        <v>1023</v>
+        <v>1053</v>
       </c>
       <c r="B6" s="70" t="s">
-        <v>1024</v>
+        <v>1054</v>
       </c>
       <c r="C6" s="58" t="s">
-        <v>1025</v>
+        <v>1055</v>
       </c>
       <c r="D6" s="58" t="s">
-        <v>1026</v>
+        <v>1056</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>1027</v>
+        <v>1057</v>
       </c>
       <c r="F6" s="35"/>
-      <c r="G6" s="144"/>
-      <c r="H6" s="144"/>
-      <c r="I6" s="144"/>
-      <c r="J6" s="144"/>
-      <c r="K6" s="144"/>
-      <c r="L6" s="144"/>
-      <c r="M6" s="144"/>
-      <c r="N6" s="144"/>
-      <c r="O6" s="144"/>
-      <c r="P6" s="144"/>
-      <c r="Q6" s="144"/>
-      <c r="R6" s="144"/>
-      <c r="S6" s="144"/>
-      <c r="T6" s="144"/>
-      <c r="U6" s="144"/>
-      <c r="V6" s="144"/>
-      <c r="W6" s="144"/>
-      <c r="X6" s="144"/>
-      <c r="Y6" s="144"/>
-      <c r="Z6" s="144"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="145"/>
+      <c r="K6" s="145"/>
+      <c r="L6" s="145"/>
+      <c r="M6" s="145"/>
+      <c r="N6" s="145"/>
+      <c r="O6" s="145"/>
+      <c r="P6" s="145"/>
+      <c r="Q6" s="145"/>
+      <c r="R6" s="145"/>
+      <c r="S6" s="145"/>
+      <c r="T6" s="145"/>
+      <c r="U6" s="145"/>
+      <c r="V6" s="145"/>
+      <c r="W6" s="145"/>
+      <c r="X6" s="145"/>
+      <c r="Y6" s="145"/>
+      <c r="Z6" s="145"/>
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
-        <v>1028</v>
+        <v>1058</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>1029</v>
+        <v>1059</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>1030</v>
+        <v>1060</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>1031</v>
+        <v>1061</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>1032</v>
+        <v>1062</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>1033</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>1034</v>
+        <v>1064</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1035</v>
+        <v>1065</v>
       </c>
       <c r="C8" s="70" t="s">
-        <v>667</v>
+        <v>685</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="70" t="s">
-        <v>1036</v>
+        <v>1066</v>
       </c>
       <c r="F8" s="70" t="s">
-        <v>1037</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="75" t="s">
-        <v>1038</v>
+        <v>1068</v>
       </c>
       <c r="B9" s="75" t="s">
-        <v>1039</v>
+        <v>1069</v>
       </c>
       <c r="C9" s="75" t="s">
-        <v>667</v>
+        <v>685</v>
       </c>
       <c r="D9" s="75"/>
       <c r="E9" s="75" t="s">
-        <v>1040</v>
+        <v>1070</v>
       </c>
       <c r="F9" s="75" t="s">
-        <v>1037</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>1041</v>
+        <v>1071</v>
       </c>
       <c r="B10" s="70" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C10" s="145" t="s">
-        <v>1043</v>
+        <v>1072</v>
+      </c>
+      <c r="C10" s="146" t="s">
+        <v>1073</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="70" t="s">
-        <v>1044</v>
+        <v>1074</v>
       </c>
       <c r="F10" s="70" t="s">
-        <v>1045</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>1046</v>
+        <v>1076</v>
       </c>
       <c r="B11" s="70" t="s">
-        <v>1047</v>
+        <v>1077</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>1048</v>
+        <v>1078</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1049</v>
+        <v>1079</v>
       </c>
       <c r="E11" s="70" t="s">
-        <v>1050</v>
+        <v>1080</v>
       </c>
       <c r="F11" s="70" t="s">
-        <v>1051</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="76" t="s">
-        <v>1052</v>
+        <v>1082</v>
       </c>
       <c r="B12" s="75" t="s">
-        <v>1053</v>
+        <v>1083</v>
       </c>
       <c r="C12" s="76" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D12" s="76" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E12" s="75" t="s">
-        <v>1054</v>
-      </c>
-      <c r="F12" s="146" t="s">
-        <v>1055</v>
+        <v>1084</v>
+      </c>
+      <c r="F12" s="147" t="s">
+        <v>1085</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>1056</v>
+        <v>1086</v>
       </c>
       <c r="B13" s="70" t="s">
-        <v>1057</v>
+        <v>1087</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="70" t="s">
-        <v>1058</v>
-      </c>
-      <c r="F13" s="96" t="s">
-        <v>1059</v>
+        <v>1088</v>
+      </c>
+      <c r="F13" s="97" t="s">
+        <v>1089</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="118" t="s">
-        <v>1060</v>
-      </c>
-      <c r="B14" s="133"/>
-      <c r="C14" s="133"/>
+      <c r="A14" s="119" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B14" s="137"/>
+      <c r="C14" s="137"/>
       <c r="D14" s="58" t="s">
-        <v>1061</v>
+        <v>1091</v>
       </c>
       <c r="E14" s="70" t="s">
-        <v>1062</v>
-      </c>
-      <c r="F14" s="96" t="s">
-        <v>1063</v>
+        <v>1092</v>
+      </c>
+      <c r="F14" s="97" t="s">
+        <v>1093</v>
       </c>
     </row>
     <row r="15">
@@ -22551,108 +23142,108 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" s="147" t="s">
-        <v>1064</v>
-      </c>
-      <c r="B2" s="148" t="s">
-        <v>1065</v>
+      <c r="A2" s="148" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B2" s="149" t="s">
+        <v>1095</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="149" t="s">
-        <v>1066</v>
-      </c>
-      <c r="B3" s="148" t="s">
-        <v>1067</v>
+      <c r="A3" s="150" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B3" s="149" t="s">
+        <v>1097</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="150" t="s">
-        <v>1068</v>
+      <c r="A4" s="151" t="s">
+        <v>1098</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="151" t="s">
-        <v>1069</v>
-      </c>
-      <c r="B6" s="148" t="s">
-        <v>1070</v>
+      <c r="A6" s="152" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B6" s="149" t="s">
+        <v>1100</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="148" t="s">
-        <v>1071</v>
+      <c r="B7" s="149" t="s">
+        <v>1101</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="148"/>
+      <c r="B8" s="149"/>
     </row>
     <row r="9">
-      <c r="B9" s="148"/>
+      <c r="B9" s="149"/>
     </row>
     <row r="10">
-      <c r="A10" s="151" t="s">
-        <v>1072</v>
+      <c r="A10" s="152" t="s">
+        <v>1102</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="151" t="s">
-        <v>1073</v>
-      </c>
-      <c r="B11" s="152" t="s">
-        <v>1074</v>
+      <c r="A11" s="152" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B11" s="153" t="s">
+        <v>1104</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="153" t="s">
-        <v>1075</v>
+      <c r="B12" s="154" t="s">
+        <v>1105</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="154"/>
-      <c r="B13" s="155" t="s">
-        <v>1076</v>
+      <c r="A13" s="155"/>
+      <c r="B13" s="156" t="s">
+        <v>1106</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="156" t="s">
-        <v>1077</v>
+      <c r="B14" s="157" t="s">
+        <v>1107</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="157" t="s">
-        <v>1078</v>
+      <c r="B15" s="158" t="s">
+        <v>1108</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="158" t="s">
-        <v>1079</v>
+      <c r="B16" s="159" t="s">
+        <v>1109</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="151"/>
+      <c r="A17" s="152"/>
       <c r="B17" s="28"/>
     </row>
     <row r="18">
-      <c r="A18" s="151" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B18" s="159" t="s">
-        <v>1081</v>
+      <c r="A18" s="152" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B18" s="160" t="s">
+        <v>1111</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B19" s="160"/>
+        <v>1112</v>
+      </c>
+      <c r="B19" s="161"/>
     </row>
     <row r="21">
-      <c r="A21" s="151" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B21" s="161" t="s">
-        <v>1084</v>
+      <c r="A21" s="152" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B21" s="162" t="s">
+        <v>1114</v>
       </c>
     </row>
   </sheetData>
@@ -22677,48 +23268,48 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="151" t="s">
-        <v>1085</v>
+      <c r="A1" s="152" t="s">
+        <v>1115</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="162" t="s">
-        <v>1086</v>
+      <c r="A2" s="163" t="s">
+        <v>1116</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="148" t="s">
-        <v>1087</v>
+      <c r="A3" s="149" t="s">
+        <v>1117</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="162" t="s">
-        <v>1088</v>
+      <c r="A4" s="163" t="s">
+        <v>1118</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="148" t="s">
-        <v>1089</v>
+      <c r="A5" s="149" t="s">
+        <v>1119</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="148" t="s">
-        <v>1090</v>
+      <c r="A6" s="149" t="s">
+        <v>1120</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="148" t="s">
-        <v>1091</v>
+      <c r="A7" s="149" t="s">
+        <v>1121</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="162" t="s">
-        <v>1092</v>
+      <c r="A8" s="163" t="s">
+        <v>1122</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="148" t="s">
-        <v>1093</v>
+      <c r="A9" s="149" t="s">
+        <v>1123</v>
       </c>
     </row>
   </sheetData>
@@ -22744,48 +23335,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B1" s="163" t="s">
-        <v>1094</v>
+        <v>1115</v>
+      </c>
+      <c r="B1" s="164" t="s">
+        <v>1124</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>1095</v>
+        <v>1125</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>1096</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>1097</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>1098</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>1099</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>1100</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>1101</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>1102</v>
+        <v>1132</v>
       </c>
     </row>
   </sheetData>
@@ -22804,7 +23395,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="152"/>
+      <c r="A1" s="153"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -22828,40 +23419,40 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="164" t="s">
-        <v>1103</v>
-      </c>
-      <c r="C1" s="164" t="s">
-        <v>1104</v>
-      </c>
-      <c r="E1" s="165" t="s">
+      <c r="A1" s="165" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C1" s="165" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E1" s="166" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1105</v>
+        <v>1135</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1106</v>
+        <v>1136</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1107</v>
+        <v>1137</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1108</v>
+        <v>1138</v>
       </c>
       <c r="E2" s="7"/>
     </row>
     <row r="3">
       <c r="A3" s="35" t="s">
-        <v>1109</v>
+        <v>1139</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>1110</v>
+        <v>1140</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1111</v>
+        <v>1141</v>
       </c>
       <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D4" si="1">RIGHT(A3,LEN(A3) - (FIND(" == ",A3) + 3))</f>
@@ -22871,13 +23462,13 @@
     </row>
     <row r="4">
       <c r="A4" s="35" t="s">
-        <v>1112</v>
+        <v>1142</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>1110</v>
+        <v>1140</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1111</v>
+        <v>1141</v>
       </c>
       <c r="D4" s="4" t="str">
         <f t="shared" si="1"/>
@@ -22887,287 +23478,287 @@
     </row>
     <row r="5">
       <c r="A5" s="35" t="s">
-        <v>1113</v>
+        <v>1143</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>1114</v>
+        <v>1144</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1111</v>
+        <v>1141</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>1115</v>
+        <v>1145</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>1116</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>1117</v>
+        <v>1147</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1118</v>
+        <v>1148</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1111</v>
+        <v>1141</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>1119</v>
+        <v>1149</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>1120</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>1121</v>
+        <v>1151</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1122</v>
+        <v>1152</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1111</v>
+        <v>1141</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>1123</v>
+        <v>1153</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>1124</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>1125</v>
+        <v>1155</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1126</v>
+        <v>1156</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1111</v>
+        <v>1141</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>1127</v>
+        <v>1157</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>1128</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="166" t="s">
-        <v>1129</v>
-      </c>
-      <c r="B9" s="167" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C9" s="167" t="s">
-        <v>1111</v>
-      </c>
-      <c r="D9" s="167" t="s">
-        <v>1131</v>
-      </c>
-      <c r="E9" s="167"/>
-      <c r="F9" s="167"/>
-      <c r="G9" s="167"/>
-      <c r="H9" s="167"/>
-      <c r="I9" s="167"/>
-      <c r="J9" s="167"/>
-      <c r="K9" s="167"/>
-      <c r="L9" s="167"/>
-      <c r="M9" s="167"/>
-      <c r="N9" s="167"/>
-      <c r="O9" s="167"/>
-      <c r="P9" s="167"/>
-      <c r="Q9" s="167"/>
-      <c r="R9" s="167"/>
-      <c r="S9" s="167"/>
-      <c r="T9" s="167"/>
-      <c r="U9" s="167"/>
-      <c r="V9" s="167"/>
-      <c r="W9" s="167"/>
-      <c r="X9" s="167"/>
-      <c r="Y9" s="167"/>
-      <c r="Z9" s="167"/>
+      <c r="A9" s="167" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B9" s="168" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C9" s="168" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D9" s="168" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
+      <c r="G9" s="168"/>
+      <c r="H9" s="168"/>
+      <c r="I9" s="168"/>
+      <c r="J9" s="168"/>
+      <c r="K9" s="168"/>
+      <c r="L9" s="168"/>
+      <c r="M9" s="168"/>
+      <c r="N9" s="168"/>
+      <c r="O9" s="168"/>
+      <c r="P9" s="168"/>
+      <c r="Q9" s="168"/>
+      <c r="R9" s="168"/>
+      <c r="S9" s="168"/>
+      <c r="T9" s="168"/>
+      <c r="U9" s="168"/>
+      <c r="V9" s="168"/>
+      <c r="W9" s="168"/>
+      <c r="X9" s="168"/>
+      <c r="Y9" s="168"/>
+      <c r="Z9" s="168"/>
     </row>
     <row r="10">
-      <c r="A10" s="166" t="s">
-        <v>1132</v>
-      </c>
-      <c r="B10" s="167" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C10" s="167" t="s">
-        <v>1111</v>
-      </c>
-      <c r="D10" s="167" t="s">
-        <v>1133</v>
-      </c>
-      <c r="E10" s="168"/>
-      <c r="F10" s="168"/>
-      <c r="G10" s="168"/>
-      <c r="H10" s="168"/>
-      <c r="I10" s="168"/>
-      <c r="J10" s="168"/>
-      <c r="K10" s="168"/>
-      <c r="L10" s="168"/>
-      <c r="M10" s="168"/>
-      <c r="N10" s="168"/>
-      <c r="O10" s="168"/>
-      <c r="P10" s="168"/>
-      <c r="Q10" s="168"/>
-      <c r="R10" s="168"/>
-      <c r="S10" s="168"/>
-      <c r="T10" s="168"/>
-      <c r="U10" s="168"/>
-      <c r="V10" s="168"/>
-      <c r="W10" s="168"/>
-      <c r="X10" s="168"/>
-      <c r="Y10" s="168"/>
-      <c r="Z10" s="168"/>
+      <c r="A10" s="167" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B10" s="168" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C10" s="168" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D10" s="168" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E10" s="169"/>
+      <c r="F10" s="169"/>
+      <c r="G10" s="169"/>
+      <c r="H10" s="169"/>
+      <c r="I10" s="169"/>
+      <c r="J10" s="169"/>
+      <c r="K10" s="169"/>
+      <c r="L10" s="169"/>
+      <c r="M10" s="169"/>
+      <c r="N10" s="169"/>
+      <c r="O10" s="169"/>
+      <c r="P10" s="169"/>
+      <c r="Q10" s="169"/>
+      <c r="R10" s="169"/>
+      <c r="S10" s="169"/>
+      <c r="T10" s="169"/>
+      <c r="U10" s="169"/>
+      <c r="V10" s="169"/>
+      <c r="W10" s="169"/>
+      <c r="X10" s="169"/>
+      <c r="Y10" s="169"/>
+      <c r="Z10" s="169"/>
     </row>
     <row r="11">
-      <c r="A11" s="166" t="s">
-        <v>1134</v>
-      </c>
-      <c r="B11" s="167" t="s">
-        <v>1135</v>
-      </c>
-      <c r="C11" s="167" t="s">
-        <v>1111</v>
-      </c>
-      <c r="D11" s="167" t="s">
-        <v>1136</v>
-      </c>
-      <c r="E11" s="168"/>
-      <c r="F11" s="168"/>
-      <c r="G11" s="168"/>
-      <c r="H11" s="168"/>
-      <c r="I11" s="168"/>
-      <c r="J11" s="168"/>
-      <c r="K11" s="168"/>
-      <c r="L11" s="168"/>
-      <c r="M11" s="168"/>
-      <c r="N11" s="168"/>
-      <c r="O11" s="168"/>
-      <c r="P11" s="168"/>
-      <c r="Q11" s="168"/>
-      <c r="R11" s="168"/>
-      <c r="S11" s="168"/>
-      <c r="T11" s="168"/>
-      <c r="U11" s="168"/>
-      <c r="V11" s="168"/>
-      <c r="W11" s="168"/>
-      <c r="X11" s="168"/>
-      <c r="Y11" s="168"/>
-      <c r="Z11" s="168"/>
+      <c r="A11" s="167" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B11" s="168" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C11" s="168" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D11" s="168" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E11" s="169"/>
+      <c r="F11" s="169"/>
+      <c r="G11" s="169"/>
+      <c r="H11" s="169"/>
+      <c r="I11" s="169"/>
+      <c r="J11" s="169"/>
+      <c r="K11" s="169"/>
+      <c r="L11" s="169"/>
+      <c r="M11" s="169"/>
+      <c r="N11" s="169"/>
+      <c r="O11" s="169"/>
+      <c r="P11" s="169"/>
+      <c r="Q11" s="169"/>
+      <c r="R11" s="169"/>
+      <c r="S11" s="169"/>
+      <c r="T11" s="169"/>
+      <c r="U11" s="169"/>
+      <c r="V11" s="169"/>
+      <c r="W11" s="169"/>
+      <c r="X11" s="169"/>
+      <c r="Y11" s="169"/>
+      <c r="Z11" s="169"/>
     </row>
     <row r="12">
-      <c r="A12" s="166" t="s">
-        <v>1137</v>
-      </c>
-      <c r="B12" s="167" t="s">
-        <v>1135</v>
-      </c>
-      <c r="C12" s="167" t="s">
-        <v>1111</v>
-      </c>
-      <c r="D12" s="167" t="s">
-        <v>1138</v>
-      </c>
-      <c r="E12" s="168"/>
-      <c r="F12" s="168"/>
-      <c r="G12" s="168"/>
-      <c r="H12" s="168"/>
-      <c r="I12" s="168"/>
-      <c r="J12" s="168"/>
-      <c r="K12" s="168"/>
-      <c r="L12" s="168"/>
-      <c r="M12" s="168"/>
-      <c r="N12" s="168"/>
-      <c r="O12" s="168"/>
-      <c r="P12" s="168"/>
-      <c r="Q12" s="168"/>
-      <c r="R12" s="168"/>
-      <c r="S12" s="168"/>
-      <c r="T12" s="168"/>
-      <c r="U12" s="168"/>
-      <c r="V12" s="168"/>
-      <c r="W12" s="168"/>
-      <c r="X12" s="168"/>
-      <c r="Y12" s="168"/>
-      <c r="Z12" s="168"/>
+      <c r="A12" s="167" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B12" s="168" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C12" s="168" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D12" s="168" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E12" s="169"/>
+      <c r="F12" s="169"/>
+      <c r="G12" s="169"/>
+      <c r="H12" s="169"/>
+      <c r="I12" s="169"/>
+      <c r="J12" s="169"/>
+      <c r="K12" s="169"/>
+      <c r="L12" s="169"/>
+      <c r="M12" s="169"/>
+      <c r="N12" s="169"/>
+      <c r="O12" s="169"/>
+      <c r="P12" s="169"/>
+      <c r="Q12" s="169"/>
+      <c r="R12" s="169"/>
+      <c r="S12" s="169"/>
+      <c r="T12" s="169"/>
+      <c r="U12" s="169"/>
+      <c r="V12" s="169"/>
+      <c r="W12" s="169"/>
+      <c r="X12" s="169"/>
+      <c r="Y12" s="169"/>
+      <c r="Z12" s="169"/>
     </row>
     <row r="13">
-      <c r="A13" s="166" t="s">
-        <v>1139</v>
-      </c>
-      <c r="B13" s="166" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C13" s="167" t="s">
-        <v>1111</v>
-      </c>
-      <c r="D13" s="167" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E13" s="168"/>
-      <c r="F13" s="168"/>
-      <c r="G13" s="168"/>
-      <c r="H13" s="168"/>
-      <c r="I13" s="168"/>
-      <c r="J13" s="168"/>
-      <c r="K13" s="168"/>
-      <c r="L13" s="168"/>
-      <c r="M13" s="168"/>
-      <c r="N13" s="168"/>
-      <c r="O13" s="168"/>
-      <c r="P13" s="168"/>
-      <c r="Q13" s="168"/>
-      <c r="R13" s="168"/>
-      <c r="S13" s="168"/>
-      <c r="T13" s="168"/>
-      <c r="U13" s="168"/>
-      <c r="V13" s="168"/>
-      <c r="W13" s="168"/>
-      <c r="X13" s="168"/>
-      <c r="Y13" s="168"/>
-      <c r="Z13" s="168"/>
+      <c r="A13" s="167" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B13" s="167" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C13" s="168" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D13" s="168" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E13" s="169"/>
+      <c r="F13" s="169"/>
+      <c r="G13" s="169"/>
+      <c r="H13" s="169"/>
+      <c r="I13" s="169"/>
+      <c r="J13" s="169"/>
+      <c r="K13" s="169"/>
+      <c r="L13" s="169"/>
+      <c r="M13" s="169"/>
+      <c r="N13" s="169"/>
+      <c r="O13" s="169"/>
+      <c r="P13" s="169"/>
+      <c r="Q13" s="169"/>
+      <c r="R13" s="169"/>
+      <c r="S13" s="169"/>
+      <c r="T13" s="169"/>
+      <c r="U13" s="169"/>
+      <c r="V13" s="169"/>
+      <c r="W13" s="169"/>
+      <c r="X13" s="169"/>
+      <c r="Y13" s="169"/>
+      <c r="Z13" s="169"/>
     </row>
     <row r="14">
-      <c r="A14" s="166" t="s">
+      <c r="A14" s="167" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B14" s="167" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C14" s="168" t="s">
         <v>1141</v>
       </c>
-      <c r="B14" s="166" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C14" s="167" t="s">
-        <v>1111</v>
-      </c>
-      <c r="D14" s="167" t="s">
-        <v>1142</v>
-      </c>
-      <c r="E14" s="168"/>
-      <c r="F14" s="168"/>
-      <c r="G14" s="168"/>
-      <c r="H14" s="168"/>
-      <c r="I14" s="168"/>
-      <c r="J14" s="168"/>
-      <c r="K14" s="168"/>
-      <c r="L14" s="168"/>
-      <c r="M14" s="168"/>
-      <c r="N14" s="168"/>
-      <c r="O14" s="168"/>
-      <c r="P14" s="168"/>
-      <c r="Q14" s="168"/>
-      <c r="R14" s="168"/>
-      <c r="S14" s="168"/>
-      <c r="T14" s="168"/>
-      <c r="U14" s="168"/>
-      <c r="V14" s="168"/>
-      <c r="W14" s="168"/>
-      <c r="X14" s="168"/>
-      <c r="Y14" s="168"/>
-      <c r="Z14" s="168"/>
+      <c r="D14" s="168" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E14" s="169"/>
+      <c r="F14" s="169"/>
+      <c r="G14" s="169"/>
+      <c r="H14" s="169"/>
+      <c r="I14" s="169"/>
+      <c r="J14" s="169"/>
+      <c r="K14" s="169"/>
+      <c r="L14" s="169"/>
+      <c r="M14" s="169"/>
+      <c r="N14" s="169"/>
+      <c r="O14" s="169"/>
+      <c r="P14" s="169"/>
+      <c r="Q14" s="169"/>
+      <c r="R14" s="169"/>
+      <c r="S14" s="169"/>
+      <c r="T14" s="169"/>
+      <c r="U14" s="169"/>
+      <c r="V14" s="169"/>
+      <c r="W14" s="169"/>
+      <c r="X14" s="169"/>
+      <c r="Y14" s="169"/>
+      <c r="Z14" s="169"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -23195,52 +23786,52 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="169" t="s">
-        <v>1103</v>
+      <c r="A1" s="170" t="s">
+        <v>1133</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="151" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B2" s="151" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C2" s="151" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D2" s="151" t="s">
-        <v>1108</v>
+      <c r="A2" s="152" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B2" s="152" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C2" s="152" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D2" s="152" t="s">
+        <v>1138</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="148" t="s">
-        <v>1143</v>
-      </c>
-      <c r="B3" s="148" t="s">
-        <v>1144</v>
+      <c r="A3" s="149" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B3" s="149" t="s">
+        <v>1174</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="148" t="s">
-        <v>1145</v>
-      </c>
-      <c r="B4" s="148" t="s">
-        <v>1146</v>
+      <c r="A4" s="149" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B4" s="149" t="s">
+        <v>1176</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="148" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B5" s="148" t="s">
-        <v>1148</v>
-      </c>
-      <c r="C5" s="170" t="s">
-        <v>1146</v>
-      </c>
-      <c r="D5" s="148" t="s">
-        <v>1149</v>
+      <c r="A5" s="149" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B5" s="149" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C5" s="171" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D5" s="149" t="s">
+        <v>1179</v>
       </c>
     </row>
   </sheetData>

--- a/mappings/package_F02/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F02/transformation/conceptual_mappings.xlsx
@@ -54,7 +54,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>2.1.1-TDAbeta.1</t>
+    <t>2.1.2-alpha.1</t>
   </si>
   <si>
     <r>

--- a/mappings/package_F02/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F02/transformation/conceptual_mappings.xlsx
@@ -4315,7 +4315,7 @@
         <rFont val="Arial"/>
         <color rgb="FFFF0000"/>
       </rPr>
-      <t>?this epo:specifiesSelectionCriterion / epo:hasSelectionCriterionType ?&lt;</t>
+      <t>?this epo:specifiesSelectionCriterion / epo:hasSelectionCriterionType &lt;</t>
     </r>
     <r>
       <rPr>
@@ -4356,7 +4356,7 @@
     <t>epo:Lot / epo:SelectionCriterion / rdf:langString</t>
   </si>
   <si>
-    <t>?this epo:specifiesSelectionCriterion / ccev:description ?value .</t>
+    <t>?this epo:specifiesSelectionCriterion / cccev:description ?value .</t>
   </si>
   <si>
     <t>epo:ProfessionalSuitabilitySummary / rdf:langString</t>
@@ -4385,7 +4385,7 @@
         <rFont val="Arial"/>
         <color rgb="FFFF0000"/>
       </rPr>
-      <t>?this epo:specifiesSelectionCriterion / epo:hasSelectionCriterionType ?&lt;</t>
+      <t>?this epo:specifiesSelectionCriterion / epo:hasSelectionCriterionType &lt;</t>
     </r>
     <r>
       <rPr>
@@ -4466,7 +4466,7 @@
         <rFont val="Arial"/>
         <color rgb="FFFF0000"/>
       </rPr>
-      <t>?this epo:specifiesSelectionCriterion / epo:hasSelectionCriterionType ?&lt;</t>
+      <t>?this epo:specifiesSelectionCriterion / epo:hasSelectionCriterionType &lt;</t>
     </r>
     <r>
       <rPr>
@@ -7827,7 +7827,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="179">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -7903,8 +7903,8 @@
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -7914,9 +7914,6 @@
     </xf>
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -11806,25 +11803,25 @@
       <c r="D2" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="30" t="s">
         <v>38</v>
       </c>
       <c r="H2" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="32" t="s">
         <v>42</v>
       </c>
       <c r="L2" s="28"/>
@@ -11844,27 +11841,27 @@
       <c r="Z2" s="28"/>
     </row>
     <row r="3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38" t="s">
+      <c r="F3" s="36"/>
+      <c r="G3" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36" t="s">
+      <c r="J3" s="35"/>
+      <c r="K3" s="35" t="s">
         <v>48</v>
       </c>
       <c r="L3" s="28"/>
@@ -11876,25 +11873,25 @@
       <c r="R3" s="28"/>
     </row>
     <row r="4">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38" t="s">
+      <c r="F4" s="36"/>
+      <c r="G4" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="39" t="s">
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="38" t="s">
         <v>52</v>
       </c>
       <c r="L4" s="28"/>
@@ -11906,20 +11903,20 @@
       <c r="R4" s="28"/>
     </row>
     <row r="5">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="34" t="s">
         <v>54</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
       <c r="K5" s="7"/>
       <c r="L5" s="28"/>
       <c r="M5" s="28"/>
@@ -11930,26 +11927,26 @@
       <c r="R5" s="28"/>
     </row>
     <row r="6">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="40" t="s">
         <v>56</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36" t="s">
+      <c r="F6" s="35"/>
+      <c r="G6" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="H6" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
       <c r="K6" s="7"/>
       <c r="L6" s="28"/>
       <c r="M6" s="28"/>
@@ -11960,26 +11957,26 @@
       <c r="R6" s="28"/>
     </row>
     <row r="7">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="40" t="s">
         <v>56</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36" t="s">
+      <c r="F7" s="35"/>
+      <c r="G7" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
       <c r="K7" s="7"/>
       <c r="L7" s="28"/>
       <c r="M7" s="28"/>
@@ -11990,32 +11987,32 @@
       <c r="R7" s="28"/>
     </row>
     <row r="8">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45" t="s">
+      <c r="F8" s="44"/>
+      <c r="G8" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="45" t="s">
+      <c r="H8" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="I8" s="36" t="s">
+      <c r="I8" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="J8" s="36"/>
+      <c r="J8" s="35"/>
       <c r="K8" s="7"/>
       <c r="L8" s="28"/>
       <c r="M8" s="28"/>
@@ -12026,32 +12023,32 @@
       <c r="R8" s="28"/>
     </row>
     <row r="9">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46" t="s">
+      <c r="F9" s="45"/>
+      <c r="G9" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="H9" s="46" t="s">
+      <c r="H9" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="I9" s="36" t="s">
+      <c r="I9" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="J9" s="36"/>
+      <c r="J9" s="35"/>
       <c r="K9" s="7"/>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -12062,10 +12059,10 @@
       <c r="R9" s="28"/>
     </row>
     <row r="10">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="47" t="s">
         <v>79</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -12074,18 +12071,18 @@
       <c r="D10" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36" t="s">
+      <c r="F10" s="35"/>
+      <c r="G10" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="H10" s="36" t="s">
+      <c r="H10" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
       <c r="K10" s="7"/>
       <c r="L10" s="28"/>
       <c r="M10" s="28"/>
@@ -12096,10 +12093,10 @@
       <c r="R10" s="28"/>
     </row>
     <row r="11">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="47" t="s">
         <v>86</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -12108,18 +12105,18 @@
       <c r="D11" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="E11" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36" t="s">
+      <c r="F11" s="35"/>
+      <c r="G11" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="H11" s="36" t="s">
+      <c r="H11" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
       <c r="K11" s="7"/>
       <c r="L11" s="28"/>
       <c r="M11" s="28"/>
@@ -12130,32 +12127,32 @@
       <c r="R11" s="28"/>
     </row>
     <row r="12">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="36" t="s">
+      <c r="F12" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="G12" s="37" t="s">
+      <c r="G12" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="H12" s="49" t="s">
+      <c r="H12" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
       <c r="K12" s="7"/>
       <c r="L12" s="28"/>
       <c r="M12" s="28"/>
@@ -12166,10 +12163,10 @@
       <c r="R12" s="28"/>
     </row>
     <row r="13">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="47" t="s">
         <v>100</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -12178,18 +12175,18 @@
       <c r="D13" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E13" s="36" t="s">
+      <c r="E13" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36" t="s">
+      <c r="F13" s="35"/>
+      <c r="G13" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="H13" s="36" t="s">
+      <c r="H13" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
       <c r="K13" s="7"/>
       <c r="L13" s="28"/>
       <c r="M13" s="28"/>
@@ -12200,30 +12197,30 @@
       <c r="R13" s="28"/>
     </row>
     <row r="14">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="45" t="s">
+      <c r="D14" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45" t="s">
+      <c r="F14" s="44"/>
+      <c r="G14" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="H14" s="46" t="s">
+      <c r="H14" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
       <c r="K14" s="7"/>
       <c r="L14" s="28"/>
       <c r="M14" s="28"/>
@@ -12234,32 +12231,32 @@
       <c r="R14" s="28"/>
     </row>
     <row r="15">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="47" t="s">
         <v>114</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="F15" s="36"/>
-      <c r="G15" s="37" t="s">
+      <c r="F15" s="35"/>
+      <c r="G15" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="H15" s="49" t="s">
+      <c r="H15" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="I15" s="36" t="s">
+      <c r="I15" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="J15" s="36"/>
+      <c r="J15" s="35"/>
       <c r="K15" s="7"/>
       <c r="L15" s="28"/>
       <c r="M15" s="28"/>
@@ -12270,10 +12267,10 @@
       <c r="R15" s="28"/>
     </row>
     <row r="16">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="47" t="s">
         <v>120</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -12282,18 +12279,18 @@
       <c r="D16" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E16" s="36" t="s">
+      <c r="E16" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="F16" s="36"/>
-      <c r="G16" s="37" t="s">
+      <c r="F16" s="35"/>
+      <c r="G16" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="H16" s="50" t="s">
+      <c r="H16" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
       <c r="K16" s="7"/>
       <c r="L16" s="28"/>
       <c r="M16" s="28"/>
@@ -12304,10 +12301,10 @@
       <c r="R16" s="28"/>
     </row>
     <row r="17">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="47" t="s">
         <v>126</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -12316,18 +12313,18 @@
       <c r="D17" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="F17" s="36"/>
-      <c r="G17" s="37" t="s">
+      <c r="F17" s="35"/>
+      <c r="G17" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="H17" s="49" t="s">
+      <c r="H17" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
       <c r="K17" s="7"/>
       <c r="L17" s="28"/>
       <c r="M17" s="28"/>
@@ -12338,10 +12335,10 @@
       <c r="R17" s="28"/>
     </row>
     <row r="18">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="47" t="s">
         <v>133</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -12350,18 +12347,18 @@
       <c r="D18" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="F18" s="36"/>
-      <c r="G18" s="37" t="s">
+      <c r="F18" s="35"/>
+      <c r="G18" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="H18" s="49" t="s">
+      <c r="H18" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
       <c r="K18" s="7"/>
       <c r="L18" s="28"/>
       <c r="M18" s="28"/>
@@ -12372,20 +12369,20 @@
       <c r="R18" s="28"/>
     </row>
     <row r="19">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="47" t="s">
         <v>139</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
       <c r="K19" s="7"/>
       <c r="L19" s="28"/>
       <c r="M19" s="28"/>
@@ -12396,30 +12393,30 @@
       <c r="R19" s="28"/>
     </row>
     <row r="20">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="C20" s="45" t="s">
+      <c r="C20" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="D20" s="45" t="s">
+      <c r="D20" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="E20" s="45" t="s">
+      <c r="E20" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="F20" s="45"/>
-      <c r="G20" s="46" t="s">
+      <c r="F20" s="44"/>
+      <c r="G20" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="H20" s="46" t="s">
+      <c r="H20" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
       <c r="K20" s="7"/>
       <c r="L20" s="28"/>
       <c r="M20" s="28"/>
@@ -12430,10 +12427,10 @@
       <c r="R20" s="28"/>
     </row>
     <row r="21">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="52" t="s">
         <v>146</v>
       </c>
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="53" t="s">
         <v>147</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -12442,18 +12439,18 @@
       <c r="D21" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="E21" s="36" t="s">
+      <c r="E21" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36" t="s">
+      <c r="F21" s="35"/>
+      <c r="G21" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="H21" s="49" t="s">
+      <c r="H21" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
       <c r="K21" s="7"/>
       <c r="L21" s="28"/>
       <c r="M21" s="28"/>
@@ -12464,20 +12461,20 @@
       <c r="R21" s="28"/>
     </row>
     <row r="22">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="34" t="s">
         <v>54</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
       <c r="K22" s="7"/>
       <c r="L22" s="28"/>
       <c r="M22" s="28"/>
@@ -12488,115 +12485,115 @@
       <c r="R22" s="28"/>
     </row>
     <row r="23">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="40" t="s">
         <v>56</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="42" t="s">
+      <c r="E23" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36" t="s">
+      <c r="F23" s="35"/>
+      <c r="G23" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="H23" s="36" t="s">
+      <c r="H23" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="55"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="56"/>
-      <c r="U23" s="56"/>
-      <c r="V23" s="56"/>
-      <c r="W23" s="56"/>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="56"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="54"/>
+      <c r="R23" s="54"/>
+      <c r="S23" s="55"/>
+      <c r="T23" s="55"/>
+      <c r="U23" s="55"/>
+      <c r="V23" s="55"/>
+      <c r="W23" s="55"/>
+      <c r="X23" s="55"/>
+      <c r="Y23" s="55"/>
+      <c r="Z23" s="55"/>
     </row>
     <row r="24">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="45" t="s">
+      <c r="C24" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="45" t="s">
+      <c r="D24" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="45" t="s">
+      <c r="E24" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45" t="s">
+      <c r="F24" s="44"/>
+      <c r="G24" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="H24" s="45" t="s">
+      <c r="H24" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="I24" s="46" t="s">
+      <c r="I24" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="J24" s="46"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="55"/>
-      <c r="R24" s="55"/>
-      <c r="S24" s="56"/>
-      <c r="T24" s="56"/>
-      <c r="U24" s="56"/>
-      <c r="V24" s="56"/>
-      <c r="W24" s="56"/>
-      <c r="X24" s="56"/>
-      <c r="Y24" s="56"/>
-      <c r="Z24" s="56"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="54"/>
+      <c r="R24" s="54"/>
+      <c r="S24" s="55"/>
+      <c r="T24" s="55"/>
+      <c r="U24" s="55"/>
+      <c r="V24" s="55"/>
+      <c r="W24" s="55"/>
+      <c r="X24" s="55"/>
+      <c r="Y24" s="55"/>
+      <c r="Z24" s="55"/>
     </row>
     <row r="25">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="46" t="s">
+      <c r="C25" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="46" t="s">
+      <c r="D25" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="E25" s="46" t="s">
+      <c r="E25" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46" t="s">
+      <c r="F25" s="45"/>
+      <c r="G25" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="H25" s="46" t="s">
+      <c r="H25" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="I25" s="45" t="s">
+      <c r="I25" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="J25" s="45"/>
-      <c r="K25" s="57"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="56"/>
       <c r="L25" s="28"/>
       <c r="M25" s="28"/>
       <c r="N25" s="28"/>
@@ -12606,10 +12603,10 @@
       <c r="R25" s="28"/>
     </row>
     <row r="26">
-      <c r="A26" s="47" t="s">
+      <c r="A26" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="47" t="s">
         <v>79</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -12618,18 +12615,18 @@
       <c r="D26" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E26" s="36" t="s">
+      <c r="E26" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36" t="s">
+      <c r="F26" s="35"/>
+      <c r="G26" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="H26" s="36" t="s">
+      <c r="H26" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
       <c r="K26" s="7"/>
       <c r="L26" s="28"/>
       <c r="M26" s="28"/>
@@ -12640,10 +12637,10 @@
       <c r="R26" s="28"/>
     </row>
     <row r="27">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="47" t="s">
         <v>86</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -12652,18 +12649,18 @@
       <c r="D27" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E27" s="36" t="s">
+      <c r="E27" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36" t="s">
+      <c r="F27" s="35"/>
+      <c r="G27" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="H27" s="36" t="s">
+      <c r="H27" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
       <c r="K27" s="7"/>
       <c r="L27" s="28"/>
       <c r="M27" s="28"/>
@@ -12674,32 +12671,32 @@
       <c r="R27" s="28"/>
     </row>
     <row r="28">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="48" t="s">
+      <c r="B28" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="C28" s="49" t="s">
+      <c r="C28" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="D28" s="49" t="s">
+      <c r="D28" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="E28" s="36" t="s">
+      <c r="E28" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="F28" s="36" t="s">
+      <c r="F28" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="G28" s="37" t="s">
+      <c r="G28" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="H28" s="49" t="s">
+      <c r="H28" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="I28" s="36"/>
-      <c r="J28" s="36"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
       <c r="K28" s="7"/>
       <c r="L28" s="28"/>
       <c r="M28" s="28"/>
@@ -12710,10 +12707,10 @@
       <c r="R28" s="28"/>
     </row>
     <row r="29">
-      <c r="A29" s="47" t="s">
+      <c r="A29" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="B29" s="48" t="s">
+      <c r="B29" s="47" t="s">
         <v>100</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -12722,61 +12719,61 @@
       <c r="D29" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E29" s="36" t="s">
+      <c r="E29" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36" t="s">
+      <c r="F29" s="35"/>
+      <c r="G29" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="H29" s="36" t="s">
+      <c r="H29" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
       <c r="K29" s="7"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="55"/>
-      <c r="Q29" s="55"/>
-      <c r="R29" s="55"/>
-      <c r="S29" s="56"/>
-      <c r="T29" s="56"/>
-      <c r="U29" s="56"/>
-      <c r="V29" s="56"/>
-      <c r="W29" s="56"/>
-      <c r="X29" s="56"/>
-      <c r="Y29" s="56"/>
-      <c r="Z29" s="56"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="54"/>
+      <c r="S29" s="55"/>
+      <c r="T29" s="55"/>
+      <c r="U29" s="55"/>
+      <c r="V29" s="55"/>
+      <c r="W29" s="55"/>
+      <c r="X29" s="55"/>
+      <c r="Y29" s="55"/>
+      <c r="Z29" s="55"/>
     </row>
     <row r="30">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="C30" s="44" t="s">
         <v>108</v>
       </c>
-      <c r="D30" s="45" t="s">
+      <c r="D30" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="E30" s="45" t="s">
+      <c r="E30" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45" t="s">
+      <c r="F30" s="44"/>
+      <c r="G30" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="H30" s="45" t="s">
+      <c r="H30" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="57"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="56"/>
       <c r="L30" s="28"/>
       <c r="M30" s="28"/>
       <c r="N30" s="28"/>
@@ -12786,10 +12783,10 @@
       <c r="R30" s="28"/>
     </row>
     <row r="31">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="47" t="s">
         <v>114</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -12798,20 +12795,20 @@
       <c r="D31" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E31" s="36" t="s">
+      <c r="E31" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="F31" s="36"/>
-      <c r="G31" s="37" t="s">
+      <c r="F31" s="35"/>
+      <c r="G31" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="H31" s="49" t="s">
+      <c r="H31" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="I31" s="36" t="s">
+      <c r="I31" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="J31" s="36"/>
+      <c r="J31" s="35"/>
       <c r="K31" s="7"/>
       <c r="L31" s="28"/>
       <c r="M31" s="28"/>
@@ -12822,10 +12819,10 @@
       <c r="R31" s="28"/>
     </row>
     <row r="32">
-      <c r="A32" s="47" t="s">
+      <c r="A32" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="47" t="s">
         <v>120</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -12834,18 +12831,18 @@
       <c r="D32" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E32" s="36" t="s">
+      <c r="E32" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="F32" s="36"/>
-      <c r="G32" s="37" t="s">
+      <c r="F32" s="35"/>
+      <c r="G32" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="H32" s="50" t="s">
+      <c r="H32" s="49" t="s">
         <v>174</v>
       </c>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
       <c r="K32" s="7"/>
       <c r="L32" s="28"/>
       <c r="M32" s="28"/>
@@ -12856,10 +12853,10 @@
       <c r="R32" s="28"/>
     </row>
     <row r="33">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="B33" s="48" t="s">
+      <c r="B33" s="47" t="s">
         <v>126</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -12868,18 +12865,18 @@
       <c r="D33" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E33" s="36" t="s">
+      <c r="E33" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="F33" s="36"/>
-      <c r="G33" s="37" t="s">
+      <c r="F33" s="35"/>
+      <c r="G33" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="H33" s="49" t="s">
+      <c r="H33" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="I33" s="36"/>
-      <c r="J33" s="36"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
       <c r="K33" s="7"/>
       <c r="L33" s="28"/>
       <c r="M33" s="28"/>
@@ -12890,10 +12887,10 @@
       <c r="R33" s="28"/>
     </row>
     <row r="34">
-      <c r="A34" s="47" t="s">
+      <c r="A34" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="48" t="s">
+      <c r="B34" s="47" t="s">
         <v>133</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -12902,18 +12899,18 @@
       <c r="D34" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E34" s="36" t="s">
+      <c r="E34" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="F34" s="36"/>
-      <c r="G34" s="37" t="s">
+      <c r="F34" s="35"/>
+      <c r="G34" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="H34" s="49" t="s">
+      <c r="H34" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="I34" s="36"/>
-      <c r="J34" s="36"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
       <c r="K34" s="7"/>
       <c r="L34" s="28"/>
       <c r="M34" s="28"/>
@@ -12924,63 +12921,63 @@
       <c r="R34" s="28"/>
     </row>
     <row r="35">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="B35" s="48" t="s">
+      <c r="B35" s="47" t="s">
         <v>139</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
       <c r="K35" s="7"/>
-      <c r="L35" s="55"/>
-      <c r="M35" s="55"/>
-      <c r="N35" s="55"/>
-      <c r="O35" s="55"/>
-      <c r="P35" s="55"/>
-      <c r="Q35" s="55"/>
-      <c r="R35" s="55"/>
-      <c r="S35" s="56"/>
-      <c r="T35" s="56"/>
-      <c r="U35" s="56"/>
-      <c r="V35" s="56"/>
-      <c r="W35" s="56"/>
-      <c r="X35" s="56"/>
-      <c r="Y35" s="56"/>
-      <c r="Z35" s="56"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="54"/>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="54"/>
+      <c r="R35" s="54"/>
+      <c r="S35" s="55"/>
+      <c r="T35" s="55"/>
+      <c r="U35" s="55"/>
+      <c r="V35" s="55"/>
+      <c r="W35" s="55"/>
+      <c r="X35" s="55"/>
+      <c r="Y35" s="55"/>
+      <c r="Z35" s="55"/>
     </row>
     <row r="36">
-      <c r="A36" s="51" t="s">
+      <c r="A36" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="B36" s="52" t="s">
+      <c r="B36" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="C36" s="45" t="s">
+      <c r="C36" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="D36" s="45" t="s">
+      <c r="D36" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="E36" s="45" t="s">
+      <c r="E36" s="44" t="s">
         <v>179</v>
       </c>
-      <c r="F36" s="45"/>
-      <c r="G36" s="46" t="s">
+      <c r="F36" s="44"/>
+      <c r="G36" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="H36" s="46" t="s">
+      <c r="H36" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="I36" s="39"/>
-      <c r="J36" s="58"/>
-      <c r="K36" s="57"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="56"/>
       <c r="L36" s="28"/>
       <c r="M36" s="28"/>
       <c r="N36" s="28"/>
@@ -12990,10 +12987,10 @@
       <c r="R36" s="28"/>
     </row>
     <row r="37">
-      <c r="A37" s="53" t="s">
+      <c r="A37" s="52" t="s">
         <v>146</v>
       </c>
-      <c r="B37" s="59" t="s">
+      <c r="B37" s="58" t="s">
         <v>147</v>
       </c>
       <c r="C37" s="7" t="s">
@@ -13002,17 +12999,17 @@
       <c r="D37" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="E37" s="39" t="s">
+      <c r="E37" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39" t="s">
+      <c r="F37" s="38"/>
+      <c r="G37" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="H37" s="60" t="s">
+      <c r="H37" s="59" t="s">
         <v>182</v>
       </c>
-      <c r="I37" s="39"/>
+      <c r="I37" s="38"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
       <c r="L37" s="28"/>
@@ -13024,10 +13021,10 @@
       <c r="R37" s="28"/>
     </row>
     <row r="38">
-      <c r="A38" s="40" t="s">
+      <c r="A38" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="B38" s="41" t="s">
+      <c r="B38" s="40" t="s">
         <v>184</v>
       </c>
       <c r="C38" s="7"/>
@@ -13036,7 +13033,7 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
-      <c r="I38" s="39"/>
+      <c r="I38" s="38"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="L38" s="28"/>
@@ -13048,25 +13045,25 @@
       <c r="R38" s="28"/>
     </row>
     <row r="39">
-      <c r="A39" s="47" t="s">
+      <c r="A39" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="B39" s="48" t="s">
+      <c r="B39" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37" t="s">
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="F39" s="45"/>
-      <c r="G39" s="37" t="s">
+      <c r="F39" s="44"/>
+      <c r="G39" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="H39" s="49" t="s">
+      <c r="H39" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="I39" s="39"/>
+      <c r="I39" s="38"/>
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
       <c r="L39" s="28"/>
@@ -13078,69 +13075,69 @@
       <c r="R39" s="28"/>
     </row>
     <row r="40">
-      <c r="A40" s="53" t="s">
+      <c r="A40" s="52" t="s">
         <v>190</v>
       </c>
-      <c r="B40" s="54" t="s">
+      <c r="B40" s="53" t="s">
         <v>191</v>
       </c>
-      <c r="C40" s="49" t="s">
+      <c r="C40" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="D40" s="49" t="s">
+      <c r="D40" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="E40" s="37" t="s">
+      <c r="E40" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37" t="s">
+      <c r="F40" s="36"/>
+      <c r="G40" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="H40" s="49" t="s">
+      <c r="H40" s="48" t="s">
         <v>196</v>
       </c>
-      <c r="I40" s="39" t="s">
+      <c r="I40" s="38" t="s">
         <v>197</v>
       </c>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
-      <c r="L40" s="55"/>
-      <c r="M40" s="55"/>
-      <c r="N40" s="55"/>
-      <c r="O40" s="55"/>
-      <c r="P40" s="55"/>
-      <c r="Q40" s="55"/>
-      <c r="R40" s="55"/>
-      <c r="S40" s="56"/>
-      <c r="T40" s="56"/>
-      <c r="U40" s="56"/>
-      <c r="V40" s="56"/>
-      <c r="W40" s="56"/>
-      <c r="X40" s="56"/>
-      <c r="Y40" s="56"/>
-      <c r="Z40" s="56"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="54"/>
+      <c r="N40" s="54"/>
+      <c r="O40" s="54"/>
+      <c r="P40" s="54"/>
+      <c r="Q40" s="54"/>
+      <c r="R40" s="54"/>
+      <c r="S40" s="55"/>
+      <c r="T40" s="55"/>
+      <c r="U40" s="55"/>
+      <c r="V40" s="55"/>
+      <c r="W40" s="55"/>
+      <c r="X40" s="55"/>
+      <c r="Y40" s="55"/>
+      <c r="Z40" s="55"/>
     </row>
     <row r="41">
-      <c r="A41" s="43" t="s">
+      <c r="A41" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="B41" s="44" t="s">
+      <c r="B41" s="43" t="s">
         <v>199</v>
       </c>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46" t="s">
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45" t="s">
         <v>200</v>
       </c>
-      <c r="F41" s="45"/>
-      <c r="G41" s="36" t="s">
+      <c r="F41" s="44"/>
+      <c r="G41" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="H41" s="36" t="s">
+      <c r="H41" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="I41" s="39"/>
+      <c r="I41" s="38"/>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="28"/>
@@ -13152,24 +13149,24 @@
       <c r="R41" s="28"/>
     </row>
     <row r="42">
-      <c r="A42" s="40" t="s">
+      <c r="A42" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="B42" s="41" t="s">
+      <c r="B42" s="40" t="s">
         <v>204</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
-      <c r="E42" s="61" t="s">
+      <c r="E42" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="F42" s="61" t="s">
+      <c r="F42" s="60" t="s">
         <v>206</v>
       </c>
-      <c r="G42" s="61" t="s">
+      <c r="G42" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="H42" s="61" t="s">
+      <c r="H42" s="60" t="s">
         <v>208</v>
       </c>
       <c r="I42" s="7"/>
@@ -13184,24 +13181,24 @@
       <c r="R42" s="28"/>
     </row>
     <row r="43">
-      <c r="A43" s="47" t="s">
+      <c r="A43" s="46" t="s">
         <v>209</v>
       </c>
-      <c r="B43" s="48" t="s">
+      <c r="B43" s="47" t="s">
         <v>210</v>
       </c>
-      <c r="C43" s="49" t="s">
+      <c r="C43" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49" t="s">
+      <c r="D43" s="48"/>
+      <c r="E43" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49" t="s">
+      <c r="F43" s="48"/>
+      <c r="G43" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="H43" s="49" t="s">
+      <c r="H43" s="48" t="s">
         <v>214</v>
       </c>
       <c r="I43" s="7"/>
@@ -13216,26 +13213,26 @@
       <c r="R43" s="28"/>
     </row>
     <row r="44">
-      <c r="A44" s="53" t="s">
+      <c r="A44" s="52" t="s">
         <v>215</v>
       </c>
-      <c r="B44" s="54" t="s">
+      <c r="B44" s="53" t="s">
         <v>216</v>
       </c>
-      <c r="C44" s="49" t="s">
+      <c r="C44" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49" t="s">
+      <c r="D44" s="48"/>
+      <c r="E44" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="F44" s="49" t="s">
+      <c r="F44" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="G44" s="49" t="s">
+      <c r="G44" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="H44" s="49" t="s">
+      <c r="H44" s="48" t="s">
         <v>221</v>
       </c>
       <c r="I44" s="7"/>
@@ -13250,24 +13247,24 @@
       <c r="R44" s="28"/>
     </row>
     <row r="45">
-      <c r="A45" s="47" t="s">
+      <c r="A45" s="46" t="s">
         <v>222</v>
       </c>
-      <c r="B45" s="48" t="s">
+      <c r="B45" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="C45" s="49" t="s">
+      <c r="C45" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49" t="s">
+      <c r="D45" s="48"/>
+      <c r="E45" s="48" t="s">
         <v>224</v>
       </c>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49" t="s">
+      <c r="F45" s="48"/>
+      <c r="G45" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="H45" s="62" t="s">
+      <c r="H45" s="61" t="s">
         <v>225</v>
       </c>
       <c r="I45" s="7"/>
@@ -13282,26 +13279,26 @@
       <c r="R45" s="28"/>
     </row>
     <row r="46">
-      <c r="A46" s="53" t="s">
+      <c r="A46" s="52" t="s">
         <v>226</v>
       </c>
-      <c r="B46" s="59" t="s">
+      <c r="B46" s="58" t="s">
         <v>227</v>
       </c>
-      <c r="C46" s="60" t="s">
+      <c r="C46" s="59" t="s">
         <v>228</v>
       </c>
-      <c r="D46" s="60"/>
-      <c r="E46" s="63" t="s">
+      <c r="D46" s="59"/>
+      <c r="E46" s="62" t="s">
         <v>218</v>
       </c>
-      <c r="F46" s="60" t="s">
+      <c r="F46" s="59" t="s">
         <v>229</v>
       </c>
-      <c r="G46" s="60" t="s">
+      <c r="G46" s="59" t="s">
         <v>220</v>
       </c>
-      <c r="H46" s="60" t="s">
+      <c r="H46" s="59" t="s">
         <v>230</v>
       </c>
       <c r="I46" s="7"/>
@@ -13316,16 +13313,16 @@
       <c r="R46" s="28"/>
     </row>
     <row r="47">
-      <c r="A47" s="47" t="s">
+      <c r="A47" s="46" t="s">
         <v>231</v>
       </c>
-      <c r="B47" s="48" t="s">
+      <c r="B47" s="47" t="s">
         <v>232</v>
       </c>
-      <c r="C47" s="49"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="49"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
@@ -13340,10 +13337,10 @@
       <c r="R47" s="28"/>
     </row>
     <row r="48">
-      <c r="A48" s="53" t="s">
+      <c r="A48" s="52" t="s">
         <v>233</v>
       </c>
-      <c r="B48" s="54" t="s">
+      <c r="B48" s="53" t="s">
         <v>234</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -13354,10 +13351,10 @@
         <v>236</v>
       </c>
       <c r="F48" s="4"/>
-      <c r="G48" s="61" t="s">
+      <c r="G48" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="H48" s="61" t="s">
+      <c r="H48" s="60" t="s">
         <v>59</v>
       </c>
       <c r="I48" s="4"/>
@@ -13372,50 +13369,50 @@
       <c r="R48" s="28"/>
     </row>
     <row r="49">
-      <c r="A49" s="64" t="s">
+      <c r="A49" s="63" t="s">
         <v>233</v>
       </c>
-      <c r="B49" s="65" t="s">
+      <c r="B49" s="64" t="s">
         <v>234</v>
       </c>
-      <c r="C49" s="66" t="s">
+      <c r="C49" s="65" t="s">
         <v>235</v>
       </c>
-      <c r="D49" s="66"/>
-      <c r="E49" s="67" t="s">
+      <c r="D49" s="65"/>
+      <c r="E49" s="66" t="s">
         <v>236</v>
       </c>
       <c r="F49" s="4"/>
-      <c r="G49" s="61" t="s">
+      <c r="G49" s="60" t="s">
         <v>237</v>
       </c>
-      <c r="H49" s="61" t="s">
+      <c r="H49" s="60" t="s">
         <v>238</v>
       </c>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
       <c r="K49" s="7"/>
-      <c r="L49" s="55"/>
-      <c r="M49" s="55"/>
-      <c r="N49" s="55"/>
-      <c r="O49" s="55"/>
-      <c r="P49" s="55"/>
-      <c r="Q49" s="55"/>
-      <c r="R49" s="55"/>
-      <c r="S49" s="56"/>
-      <c r="T49" s="56"/>
-      <c r="U49" s="56"/>
-      <c r="V49" s="56"/>
-      <c r="W49" s="56"/>
-      <c r="X49" s="56"/>
-      <c r="Y49" s="56"/>
-      <c r="Z49" s="56"/>
+      <c r="L49" s="54"/>
+      <c r="M49" s="54"/>
+      <c r="N49" s="54"/>
+      <c r="O49" s="54"/>
+      <c r="P49" s="54"/>
+      <c r="Q49" s="54"/>
+      <c r="R49" s="54"/>
+      <c r="S49" s="55"/>
+      <c r="T49" s="55"/>
+      <c r="U49" s="55"/>
+      <c r="V49" s="55"/>
+      <c r="W49" s="55"/>
+      <c r="X49" s="55"/>
+      <c r="Y49" s="55"/>
+      <c r="Z49" s="55"/>
     </row>
     <row r="50">
-      <c r="A50" s="53" t="s">
+      <c r="A50" s="52" t="s">
         <v>239</v>
       </c>
-      <c r="B50" s="54" t="s">
+      <c r="B50" s="53" t="s">
         <v>240</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -13426,15 +13423,15 @@
         <v>241</v>
       </c>
       <c r="F50" s="4"/>
-      <c r="G50" s="68" t="s">
+      <c r="G50" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="H50" s="68" t="s">
+      <c r="H50" s="67" t="s">
         <v>59</v>
       </c>
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
-      <c r="K50" s="57"/>
+      <c r="K50" s="56"/>
       <c r="L50" s="28"/>
       <c r="M50" s="28"/>
       <c r="N50" s="28"/>
@@ -13444,10 +13441,10 @@
       <c r="R50" s="28"/>
     </row>
     <row r="51">
-      <c r="A51" s="69" t="s">
+      <c r="A51" s="68" t="s">
         <v>242</v>
       </c>
-      <c r="B51" s="70" t="s">
+      <c r="B51" s="69" t="s">
         <v>63</v>
       </c>
       <c r="C51" s="4" t="s">
@@ -13460,13 +13457,13 @@
         <v>243</v>
       </c>
       <c r="F51" s="4"/>
-      <c r="G51" s="68" t="s">
+      <c r="G51" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="H51" s="71" t="s">
+      <c r="H51" s="70" t="s">
         <v>244</v>
       </c>
-      <c r="I51" s="39" t="s">
+      <c r="I51" s="38" t="s">
         <v>69</v>
       </c>
       <c r="J51" s="7"/>
@@ -13480,29 +13477,29 @@
       <c r="R51" s="28"/>
     </row>
     <row r="52">
-      <c r="A52" s="69" t="s">
+      <c r="A52" s="68" t="s">
         <v>245</v>
       </c>
-      <c r="B52" s="70" t="s">
+      <c r="B52" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="C52" s="49" t="s">
+      <c r="C52" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="D52" s="49" t="s">
+      <c r="D52" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="E52" s="49" t="s">
+      <c r="E52" s="48" t="s">
         <v>246</v>
       </c>
-      <c r="F52" s="49"/>
-      <c r="G52" s="68" t="s">
+      <c r="F52" s="48"/>
+      <c r="G52" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="H52" s="71" t="s">
+      <c r="H52" s="70" t="s">
         <v>247</v>
       </c>
-      <c r="I52" s="39" t="s">
+      <c r="I52" s="38" t="s">
         <v>77</v>
       </c>
       <c r="J52" s="7"/>
@@ -13516,10 +13513,10 @@
       <c r="R52" s="28"/>
     </row>
     <row r="53">
-      <c r="A53" s="69" t="s">
+      <c r="A53" s="68" t="s">
         <v>248</v>
       </c>
-      <c r="B53" s="70" t="s">
+      <c r="B53" s="69" t="s">
         <v>79</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -13532,10 +13529,10 @@
         <v>249</v>
       </c>
       <c r="F53" s="4"/>
-      <c r="G53" s="68" t="s">
+      <c r="G53" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="H53" s="71" t="s">
+      <c r="H53" s="70" t="s">
         <v>250</v>
       </c>
       <c r="I53" s="7"/>
@@ -13550,10 +13547,10 @@
       <c r="R53" s="28"/>
     </row>
     <row r="54">
-      <c r="A54" s="69" t="s">
+      <c r="A54" s="68" t="s">
         <v>251</v>
       </c>
-      <c r="B54" s="70" t="s">
+      <c r="B54" s="69" t="s">
         <v>86</v>
       </c>
       <c r="C54" s="7" t="s">
@@ -13566,10 +13563,10 @@
         <v>252</v>
       </c>
       <c r="F54" s="4"/>
-      <c r="G54" s="72" t="s">
+      <c r="G54" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="H54" s="73" t="s">
+      <c r="H54" s="72" t="s">
         <v>253</v>
       </c>
       <c r="I54" s="7"/>
@@ -13584,28 +13581,28 @@
       <c r="R54" s="28"/>
     </row>
     <row r="55">
-      <c r="A55" s="69" t="s">
+      <c r="A55" s="68" t="s">
         <v>254</v>
       </c>
-      <c r="B55" s="70" t="s">
+      <c r="B55" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="C55" s="49" t="s">
+      <c r="C55" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="D55" s="60" t="s">
+      <c r="D55" s="59" t="s">
         <v>94</v>
       </c>
-      <c r="E55" s="36" t="s">
+      <c r="E55" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="F55" s="36" t="s">
+      <c r="F55" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="G55" s="72" t="s">
+      <c r="G55" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="H55" s="73" t="s">
+      <c r="H55" s="72" t="s">
         <v>257</v>
       </c>
       <c r="I55" s="7"/>
@@ -13620,10 +13617,10 @@
       <c r="R55" s="28"/>
     </row>
     <row r="56">
-      <c r="A56" s="69" t="s">
+      <c r="A56" s="68" t="s">
         <v>258</v>
       </c>
-      <c r="B56" s="70" t="s">
+      <c r="B56" s="69" t="s">
         <v>100</v>
       </c>
       <c r="C56" s="4" t="s">
@@ -13636,10 +13633,10 @@
         <v>259</v>
       </c>
       <c r="F56" s="4"/>
-      <c r="G56" s="68" t="s">
+      <c r="G56" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="H56" s="71" t="s">
+      <c r="H56" s="70" t="s">
         <v>260</v>
       </c>
       <c r="I56" s="7"/>
@@ -13654,10 +13651,10 @@
       <c r="R56" s="28"/>
     </row>
     <row r="57">
-      <c r="A57" s="69" t="s">
+      <c r="A57" s="68" t="s">
         <v>261</v>
       </c>
-      <c r="B57" s="70" t="s">
+      <c r="B57" s="69" t="s">
         <v>107</v>
       </c>
       <c r="C57" s="4" t="s">
@@ -13670,10 +13667,10 @@
         <v>262</v>
       </c>
       <c r="F57" s="4"/>
-      <c r="G57" s="68" t="s">
+      <c r="G57" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="H57" s="71" t="s">
+      <c r="H57" s="70" t="s">
         <v>263</v>
       </c>
       <c r="I57" s="7"/>
@@ -13688,10 +13685,10 @@
       <c r="R57" s="28"/>
     </row>
     <row r="58">
-      <c r="A58" s="69" t="s">
+      <c r="A58" s="68" t="s">
         <v>264</v>
       </c>
-      <c r="B58" s="70" t="s">
+      <c r="B58" s="69" t="s">
         <v>114</v>
       </c>
       <c r="C58" s="4" t="s">
@@ -13704,13 +13701,13 @@
         <v>265</v>
       </c>
       <c r="F58" s="4"/>
-      <c r="G58" s="68" t="s">
+      <c r="G58" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="H58" s="71" t="s">
+      <c r="H58" s="70" t="s">
         <v>266</v>
       </c>
-      <c r="I58" s="39" t="s">
+      <c r="I58" s="38" t="s">
         <v>69</v>
       </c>
       <c r="J58" s="7"/>
@@ -13724,10 +13721,10 @@
       <c r="R58" s="28"/>
     </row>
     <row r="59">
-      <c r="A59" s="69" t="s">
+      <c r="A59" s="68" t="s">
         <v>267</v>
       </c>
-      <c r="B59" s="70" t="s">
+      <c r="B59" s="69" t="s">
         <v>120</v>
       </c>
       <c r="C59" s="4" t="s">
@@ -13740,10 +13737,10 @@
         <v>268</v>
       </c>
       <c r="F59" s="4"/>
-      <c r="G59" s="68" t="s">
+      <c r="G59" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="H59" s="71" t="s">
+      <c r="H59" s="70" t="s">
         <v>269</v>
       </c>
       <c r="I59" s="7"/>
@@ -13758,10 +13755,10 @@
       <c r="R59" s="28"/>
     </row>
     <row r="60">
-      <c r="A60" s="69" t="s">
+      <c r="A60" s="68" t="s">
         <v>270</v>
       </c>
-      <c r="B60" s="70" t="s">
+      <c r="B60" s="69" t="s">
         <v>126</v>
       </c>
       <c r="C60" s="7" t="s">
@@ -13774,10 +13771,10 @@
         <v>271</v>
       </c>
       <c r="F60" s="4"/>
-      <c r="G60" s="68" t="s">
+      <c r="G60" s="67" t="s">
         <v>130</v>
       </c>
-      <c r="H60" s="71" t="s">
+      <c r="H60" s="70" t="s">
         <v>272</v>
       </c>
       <c r="I60" s="7"/>
@@ -13792,10 +13789,10 @@
       <c r="R60" s="28"/>
     </row>
     <row r="61">
-      <c r="A61" s="69" t="s">
+      <c r="A61" s="68" t="s">
         <v>273</v>
       </c>
-      <c r="B61" s="70" t="s">
+      <c r="B61" s="69" t="s">
         <v>133</v>
       </c>
       <c r="C61" s="7" t="s">
@@ -13808,10 +13805,10 @@
         <v>274</v>
       </c>
       <c r="F61" s="7"/>
-      <c r="G61" s="68" t="s">
+      <c r="G61" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="H61" s="71" t="s">
+      <c r="H61" s="70" t="s">
         <v>275</v>
       </c>
       <c r="I61" s="7"/>
@@ -13826,10 +13823,10 @@
       <c r="R61" s="28"/>
     </row>
     <row r="62">
-      <c r="A62" s="69" t="s">
+      <c r="A62" s="68" t="s">
         <v>276</v>
       </c>
-      <c r="B62" s="70" t="s">
+      <c r="B62" s="69" t="s">
         <v>139</v>
       </c>
       <c r="C62" s="7"/>
@@ -13850,31 +13847,31 @@
       <c r="R62" s="28"/>
     </row>
     <row r="63">
-      <c r="A63" s="74" t="s">
+      <c r="A63" s="73" t="s">
         <v>277</v>
       </c>
-      <c r="B63" s="45" t="s">
+      <c r="B63" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="C63" s="45" t="s">
+      <c r="C63" s="44" t="s">
         <v>142</v>
       </c>
-      <c r="D63" s="45" t="s">
+      <c r="D63" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="E63" s="45" t="s">
+      <c r="E63" s="44" t="s">
         <v>278</v>
       </c>
-      <c r="F63" s="75"/>
-      <c r="G63" s="76" t="s">
+      <c r="F63" s="74"/>
+      <c r="G63" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="H63" s="76" t="s">
+      <c r="H63" s="75" t="s">
         <v>279</v>
       </c>
-      <c r="I63" s="57"/>
-      <c r="J63" s="57"/>
-      <c r="K63" s="57"/>
+      <c r="I63" s="56"/>
+      <c r="J63" s="56"/>
+      <c r="K63" s="56"/>
       <c r="L63" s="28"/>
       <c r="M63" s="28"/>
       <c r="N63" s="28"/>
@@ -13884,10 +13881,10 @@
       <c r="R63" s="28"/>
     </row>
     <row r="64">
-      <c r="A64" s="47" t="s">
+      <c r="A64" s="46" t="s">
         <v>280</v>
       </c>
-      <c r="B64" s="48" t="s">
+      <c r="B64" s="47" t="s">
         <v>281</v>
       </c>
       <c r="C64" s="4"/>
@@ -13908,24 +13905,24 @@
       <c r="R64" s="28"/>
     </row>
     <row r="65">
-      <c r="A65" s="53" t="s">
+      <c r="A65" s="52" t="s">
         <v>282</v>
       </c>
-      <c r="B65" s="54" t="s">
+      <c r="B65" s="53" t="s">
         <v>283</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>284</v>
       </c>
       <c r="D65" s="4"/>
-      <c r="E65" s="77" t="s">
+      <c r="E65" s="76" t="s">
         <v>285</v>
       </c>
-      <c r="F65" s="78"/>
-      <c r="G65" s="77" t="s">
+      <c r="F65" s="77"/>
+      <c r="G65" s="76" t="s">
         <v>286</v>
       </c>
-      <c r="H65" s="77" t="s">
+      <c r="H65" s="76" t="s">
         <v>287</v>
       </c>
       <c r="I65" s="7"/>
@@ -13940,24 +13937,24 @@
       <c r="R65" s="28"/>
     </row>
     <row r="66">
-      <c r="A66" s="53" t="s">
+      <c r="A66" s="52" t="s">
         <v>288</v>
       </c>
-      <c r="B66" s="54" t="s">
+      <c r="B66" s="53" t="s">
         <v>289</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>290</v>
       </c>
       <c r="D66" s="4"/>
-      <c r="E66" s="61" t="s">
+      <c r="E66" s="60" t="s">
         <v>291</v>
       </c>
-      <c r="F66" s="79"/>
-      <c r="G66" s="61" t="s">
+      <c r="F66" s="78"/>
+      <c r="G66" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="H66" s="61" t="s">
+      <c r="H66" s="60" t="s">
         <v>59</v>
       </c>
       <c r="I66" s="7"/>
@@ -13972,27 +13969,27 @@
       <c r="R66" s="28"/>
     </row>
     <row r="67">
-      <c r="A67" s="80" t="s">
+      <c r="A67" s="79" t="s">
         <v>288</v>
       </c>
-      <c r="B67" s="81" t="s">
+      <c r="B67" s="80" t="s">
         <v>289</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
-      <c r="E67" s="82" t="s">
+      <c r="E67" s="81" t="s">
         <v>291</v>
       </c>
-      <c r="F67" s="79"/>
-      <c r="G67" s="61" t="s">
+      <c r="F67" s="78"/>
+      <c r="G67" s="60" t="s">
         <v>237</v>
       </c>
-      <c r="H67" s="61" t="s">
+      <c r="H67" s="60" t="s">
         <v>238</v>
       </c>
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
-      <c r="K67" s="39" t="s">
+      <c r="K67" s="38" t="s">
         <v>292</v>
       </c>
       <c r="L67" s="28"/>
@@ -14004,24 +14001,24 @@
       <c r="R67" s="28"/>
     </row>
     <row r="68">
-      <c r="A68" s="53" t="s">
+      <c r="A68" s="52" t="s">
         <v>293</v>
       </c>
-      <c r="B68" s="54" t="s">
+      <c r="B68" s="53" t="s">
         <v>294</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>290</v>
       </c>
       <c r="D68" s="4"/>
-      <c r="E68" s="77" t="s">
+      <c r="E68" s="76" t="s">
         <v>295</v>
       </c>
-      <c r="F68" s="78"/>
-      <c r="G68" s="77" t="s">
+      <c r="F68" s="77"/>
+      <c r="G68" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="H68" s="77" t="s">
+      <c r="H68" s="76" t="s">
         <v>59</v>
       </c>
       <c r="I68" s="7"/>
@@ -14036,29 +14033,29 @@
       <c r="R68" s="28"/>
     </row>
     <row r="69">
-      <c r="A69" s="69" t="s">
+      <c r="A69" s="68" t="s">
         <v>296</v>
       </c>
-      <c r="B69" s="70" t="s">
+      <c r="B69" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="C69" s="36" t="s">
+      <c r="C69" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="D69" s="36" t="s">
+      <c r="D69" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="E69" s="61" t="s">
+      <c r="E69" s="60" t="s">
         <v>297</v>
       </c>
-      <c r="F69" s="79"/>
-      <c r="G69" s="61" t="s">
+      <c r="F69" s="78"/>
+      <c r="G69" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="H69" s="61" t="s">
+      <c r="H69" s="60" t="s">
         <v>298</v>
       </c>
-      <c r="I69" s="39" t="s">
+      <c r="I69" s="38" t="s">
         <v>69</v>
       </c>
       <c r="J69" s="7"/>
@@ -14072,29 +14069,29 @@
       <c r="R69" s="28"/>
     </row>
     <row r="70">
-      <c r="A70" s="69" t="s">
+      <c r="A70" s="68" t="s">
         <v>299</v>
       </c>
-      <c r="B70" s="70" t="s">
+      <c r="B70" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="C70" s="36" t="s">
+      <c r="C70" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="D70" s="36" t="s">
+      <c r="D70" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="E70" s="61" t="s">
+      <c r="E70" s="60" t="s">
         <v>300</v>
       </c>
-      <c r="F70" s="79"/>
-      <c r="G70" s="61" t="s">
+      <c r="F70" s="78"/>
+      <c r="G70" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="H70" s="61" t="s">
+      <c r="H70" s="60" t="s">
         <v>301</v>
       </c>
-      <c r="I70" s="39" t="s">
+      <c r="I70" s="38" t="s">
         <v>77</v>
       </c>
       <c r="J70" s="7"/>
@@ -14108,26 +14105,26 @@
       <c r="R70" s="28"/>
     </row>
     <row r="71">
-      <c r="A71" s="69" t="s">
+      <c r="A71" s="68" t="s">
         <v>302</v>
       </c>
-      <c r="B71" s="70" t="s">
+      <c r="B71" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="C71" s="36" t="s">
+      <c r="C71" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D71" s="36" t="s">
+      <c r="D71" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="E71" s="61" t="s">
+      <c r="E71" s="60" t="s">
         <v>303</v>
       </c>
-      <c r="F71" s="79"/>
-      <c r="G71" s="61" t="s">
+      <c r="F71" s="78"/>
+      <c r="G71" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="H71" s="61" t="s">
+      <c r="H71" s="60" t="s">
         <v>304</v>
       </c>
       <c r="I71" s="7"/>
@@ -14142,26 +14139,26 @@
       <c r="R71" s="28"/>
     </row>
     <row r="72">
-      <c r="A72" s="69" t="s">
+      <c r="A72" s="68" t="s">
         <v>305</v>
       </c>
-      <c r="B72" s="70" t="s">
+      <c r="B72" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="C72" s="39" t="s">
+      <c r="C72" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="D72" s="39" t="s">
+      <c r="D72" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="E72" s="61" t="s">
+      <c r="E72" s="60" t="s">
         <v>306</v>
       </c>
-      <c r="F72" s="78"/>
-      <c r="G72" s="61" t="s">
+      <c r="F72" s="77"/>
+      <c r="G72" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="H72" s="61" t="s">
+      <c r="H72" s="60" t="s">
         <v>307</v>
       </c>
       <c r="I72" s="7"/>
@@ -14176,28 +14173,28 @@
       <c r="R72" s="28"/>
     </row>
     <row r="73">
-      <c r="A73" s="69" t="s">
+      <c r="A73" s="68" t="s">
         <v>308</v>
       </c>
-      <c r="B73" s="70" t="s">
+      <c r="B73" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="C73" s="36" t="s">
+      <c r="C73" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="D73" s="36" t="s">
+      <c r="D73" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="E73" s="61" t="s">
+      <c r="E73" s="60" t="s">
         <v>309</v>
       </c>
-      <c r="F73" s="77" t="s">
+      <c r="F73" s="76" t="s">
         <v>310</v>
       </c>
-      <c r="G73" s="61" t="s">
+      <c r="G73" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="H73" s="83" t="s">
+      <c r="H73" s="82" t="s">
         <v>311</v>
       </c>
       <c r="I73" s="7"/>
@@ -14212,26 +14209,26 @@
       <c r="R73" s="28"/>
     </row>
     <row r="74">
-      <c r="A74" s="69" t="s">
+      <c r="A74" s="68" t="s">
         <v>312</v>
       </c>
-      <c r="B74" s="70" t="s">
+      <c r="B74" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="C74" s="36" t="s">
+      <c r="C74" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="D74" s="36" t="s">
+      <c r="D74" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="E74" s="61" t="s">
+      <c r="E74" s="60" t="s">
         <v>313</v>
       </c>
-      <c r="F74" s="79"/>
-      <c r="G74" s="61" t="s">
+      <c r="F74" s="78"/>
+      <c r="G74" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="H74" s="83" t="s">
+      <c r="H74" s="82" t="s">
         <v>314</v>
       </c>
       <c r="I74" s="7"/>
@@ -14246,26 +14243,26 @@
       <c r="R74" s="28"/>
     </row>
     <row r="75">
-      <c r="A75" s="69" t="s">
+      <c r="A75" s="68" t="s">
         <v>315</v>
       </c>
-      <c r="B75" s="70" t="s">
+      <c r="B75" s="69" t="s">
         <v>107</v>
       </c>
-      <c r="C75" s="36" t="s">
+      <c r="C75" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="D75" s="36" t="s">
+      <c r="D75" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="E75" s="61" t="s">
+      <c r="E75" s="60" t="s">
         <v>316</v>
       </c>
-      <c r="F75" s="79"/>
-      <c r="G75" s="61" t="s">
+      <c r="F75" s="78"/>
+      <c r="G75" s="60" t="s">
         <v>111</v>
       </c>
-      <c r="H75" s="61" t="s">
+      <c r="H75" s="60" t="s">
         <v>317</v>
       </c>
       <c r="I75" s="7"/>
@@ -14280,29 +14277,29 @@
       <c r="R75" s="28"/>
     </row>
     <row r="76">
-      <c r="A76" s="69" t="s">
+      <c r="A76" s="68" t="s">
         <v>318</v>
       </c>
-      <c r="B76" s="70" t="s">
+      <c r="B76" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="C76" s="36" t="s">
+      <c r="C76" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="D76" s="36" t="s">
+      <c r="D76" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="E76" s="61" t="s">
+      <c r="E76" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="F76" s="79"/>
-      <c r="G76" s="61" t="s">
+      <c r="F76" s="78"/>
+      <c r="G76" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="H76" s="83" t="s">
+      <c r="H76" s="82" t="s">
         <v>320</v>
       </c>
-      <c r="I76" s="39" t="s">
+      <c r="I76" s="38" t="s">
         <v>69</v>
       </c>
       <c r="J76" s="7"/>
@@ -14316,26 +14313,26 @@
       <c r="R76" s="28"/>
     </row>
     <row r="77">
-      <c r="A77" s="69" t="s">
+      <c r="A77" s="68" t="s">
         <v>321</v>
       </c>
-      <c r="B77" s="70" t="s">
+      <c r="B77" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="C77" s="36" t="s">
+      <c r="C77" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="D77" s="36" t="s">
+      <c r="D77" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="E77" s="61" t="s">
+      <c r="E77" s="60" t="s">
         <v>322</v>
       </c>
-      <c r="F77" s="78"/>
-      <c r="G77" s="61" t="s">
+      <c r="F77" s="77"/>
+      <c r="G77" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="H77" s="83" t="s">
+      <c r="H77" s="82" t="s">
         <v>323</v>
       </c>
       <c r="I77" s="7"/>
@@ -14350,26 +14347,26 @@
       <c r="R77" s="28"/>
     </row>
     <row r="78">
-      <c r="A78" s="69" t="s">
+      <c r="A78" s="68" t="s">
         <v>324</v>
       </c>
-      <c r="B78" s="70" t="s">
+      <c r="B78" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="C78" s="36" t="s">
+      <c r="C78" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="D78" s="36" t="s">
+      <c r="D78" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="E78" s="61" t="s">
+      <c r="E78" s="60" t="s">
         <v>325</v>
       </c>
-      <c r="F78" s="79"/>
-      <c r="G78" s="61" t="s">
+      <c r="F78" s="78"/>
+      <c r="G78" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="H78" s="83" t="s">
+      <c r="H78" s="82" t="s">
         <v>326</v>
       </c>
       <c r="I78" s="7"/>
@@ -14384,26 +14381,26 @@
       <c r="R78" s="28"/>
     </row>
     <row r="79">
-      <c r="A79" s="69" t="s">
+      <c r="A79" s="68" t="s">
         <v>327</v>
       </c>
-      <c r="B79" s="70" t="s">
+      <c r="B79" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="C79" s="36" t="s">
+      <c r="C79" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="D79" s="36" t="s">
+      <c r="D79" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="E79" s="61" t="s">
+      <c r="E79" s="60" t="s">
         <v>328</v>
       </c>
-      <c r="F79" s="79"/>
-      <c r="G79" s="61" t="s">
+      <c r="F79" s="78"/>
+      <c r="G79" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="H79" s="61" t="s">
+      <c r="H79" s="60" t="s">
         <v>329</v>
       </c>
       <c r="I79" s="7"/>
@@ -14418,18 +14415,18 @@
       <c r="R79" s="28"/>
     </row>
     <row r="80">
-      <c r="A80" s="69" t="s">
+      <c r="A80" s="68" t="s">
         <v>330</v>
       </c>
-      <c r="B80" s="70" t="s">
+      <c r="B80" s="69" t="s">
         <v>139</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
-      <c r="E80" s="61"/>
-      <c r="F80" s="79"/>
-      <c r="G80" s="61"/>
-      <c r="H80" s="61"/>
+      <c r="E80" s="60"/>
+      <c r="F80" s="78"/>
+      <c r="G80" s="60"/>
+      <c r="H80" s="60"/>
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
       <c r="K80" s="7"/>
@@ -14442,26 +14439,26 @@
       <c r="R80" s="28"/>
     </row>
     <row r="81">
-      <c r="A81" s="84" t="s">
+      <c r="A81" s="83" t="s">
         <v>331</v>
       </c>
-      <c r="B81" s="36" t="s">
+      <c r="B81" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="C81" s="36" t="s">
+      <c r="C81" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="D81" s="36" t="s">
+      <c r="D81" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="E81" s="61" t="s">
+      <c r="E81" s="60" t="s">
         <v>332</v>
       </c>
-      <c r="F81" s="78"/>
-      <c r="G81" s="61" t="s">
+      <c r="F81" s="77"/>
+      <c r="G81" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="H81" s="83" t="s">
+      <c r="H81" s="82" t="s">
         <v>333</v>
       </c>
       <c r="I81" s="7"/>
@@ -14476,24 +14473,24 @@
       <c r="R81" s="28"/>
     </row>
     <row r="82">
-      <c r="A82" s="47" t="s">
+      <c r="A82" s="46" t="s">
         <v>334</v>
       </c>
-      <c r="B82" s="48" t="s">
+      <c r="B82" s="47" t="s">
         <v>335</v>
       </c>
-      <c r="C82" s="49" t="s">
+      <c r="C82" s="48" t="s">
         <v>336</v>
       </c>
-      <c r="D82" s="49"/>
-      <c r="E82" s="49" t="s">
+      <c r="D82" s="48"/>
+      <c r="E82" s="48" t="s">
         <v>337</v>
       </c>
-      <c r="F82" s="49"/>
-      <c r="G82" s="49" t="s">
+      <c r="F82" s="48"/>
+      <c r="G82" s="48" t="s">
         <v>338</v>
       </c>
-      <c r="H82" s="49" t="s">
+      <c r="H82" s="48" t="s">
         <v>339</v>
       </c>
       <c r="I82" s="7"/>
@@ -14508,24 +14505,24 @@
       <c r="R82" s="28"/>
     </row>
     <row r="83">
-      <c r="A83" s="85" t="s">
+      <c r="A83" s="84" t="s">
         <v>334</v>
       </c>
-      <c r="B83" s="86" t="s">
+      <c r="B83" s="85" t="s">
         <v>335</v>
       </c>
-      <c r="C83" s="87" t="s">
+      <c r="C83" s="86" t="s">
         <v>336</v>
       </c>
-      <c r="D83" s="87"/>
-      <c r="E83" s="88" t="s">
+      <c r="D83" s="86"/>
+      <c r="E83" s="87" t="s">
         <v>337</v>
       </c>
-      <c r="F83" s="89"/>
-      <c r="G83" s="87" t="s">
+      <c r="F83" s="88"/>
+      <c r="G83" s="86" t="s">
         <v>340</v>
       </c>
-      <c r="H83" s="87" t="s">
+      <c r="H83" s="86" t="s">
         <v>341</v>
       </c>
       <c r="I83" s="7"/>
@@ -14540,10 +14537,10 @@
       <c r="R83" s="28"/>
     </row>
     <row r="84">
-      <c r="A84" s="40" t="s">
+      <c r="A84" s="39" t="s">
         <v>342</v>
       </c>
-      <c r="B84" s="41" t="s">
+      <c r="B84" s="40" t="s">
         <v>343</v>
       </c>
       <c r="C84" s="4" t="s">
@@ -14552,14 +14549,14 @@
       <c r="D84" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="E84" s="36" t="s">
+      <c r="E84" s="35" t="s">
         <v>346</v>
       </c>
-      <c r="F84" s="36"/>
-      <c r="G84" s="36" t="s">
+      <c r="F84" s="35"/>
+      <c r="G84" s="35" t="s">
         <v>347</v>
       </c>
-      <c r="H84" s="36" t="s">
+      <c r="H84" s="35" t="s">
         <v>348</v>
       </c>
       <c r="I84" s="7"/>
@@ -14574,20 +14571,20 @@
       <c r="R84" s="28"/>
     </row>
     <row r="85">
-      <c r="A85" s="47" t="s">
+      <c r="A85" s="46" t="s">
         <v>349</v>
       </c>
-      <c r="B85" s="48"/>
+      <c r="B85" s="47"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
-      <c r="E85" s="36" t="s">
+      <c r="E85" s="35" t="s">
         <v>350</v>
       </c>
-      <c r="F85" s="36"/>
-      <c r="G85" s="36" t="s">
+      <c r="F85" s="35"/>
+      <c r="G85" s="35" t="s">
         <v>351</v>
       </c>
-      <c r="H85" s="36" t="s">
+      <c r="H85" s="35" t="s">
         <v>352</v>
       </c>
       <c r="I85" s="7"/>
@@ -14602,10 +14599,10 @@
       <c r="R85" s="28"/>
     </row>
     <row r="86">
-      <c r="A86" s="40" t="s">
+      <c r="A86" s="39" t="s">
         <v>353</v>
       </c>
-      <c r="B86" s="41" t="s">
+      <c r="B86" s="40" t="s">
         <v>354</v>
       </c>
       <c r="C86" s="4" t="s">
@@ -14614,14 +14611,14 @@
       <c r="D86" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="E86" s="36" t="s">
+      <c r="E86" s="35" t="s">
         <v>357</v>
       </c>
-      <c r="F86" s="36"/>
-      <c r="G86" s="36" t="s">
+      <c r="F86" s="35"/>
+      <c r="G86" s="35" t="s">
         <v>358</v>
       </c>
-      <c r="H86" s="36" t="s">
+      <c r="H86" s="35" t="s">
         <v>359</v>
       </c>
       <c r="I86" s="7"/>
@@ -14636,20 +14633,20 @@
       <c r="R86" s="28"/>
     </row>
     <row r="87">
-      <c r="A87" s="47" t="s">
+      <c r="A87" s="46" t="s">
         <v>360</v>
       </c>
-      <c r="B87" s="48"/>
+      <c r="B87" s="47"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
-      <c r="E87" s="39" t="s">
+      <c r="E87" s="38" t="s">
         <v>361</v>
       </c>
-      <c r="F87" s="39"/>
-      <c r="G87" s="39" t="s">
+      <c r="F87" s="38"/>
+      <c r="G87" s="38" t="s">
         <v>351</v>
       </c>
-      <c r="H87" s="39" t="s">
+      <c r="H87" s="38" t="s">
         <v>362</v>
       </c>
       <c r="I87" s="7"/>
@@ -14657,16 +14654,16 @@
       <c r="K87" s="7"/>
     </row>
     <row r="88">
-      <c r="A88" s="40" t="s">
+      <c r="A88" s="39" t="s">
         <v>363</v>
       </c>
-      <c r="B88" s="41" t="s">
+      <c r="B88" s="40" t="s">
         <v>354</v>
       </c>
-      <c r="C88" s="36" t="s">
+      <c r="C88" s="35" t="s">
         <v>355</v>
       </c>
-      <c r="D88" s="36" t="s">
+      <c r="D88" s="35" t="s">
         <v>356</v>
       </c>
       <c r="E88" s="4" t="s">
@@ -14676,7 +14673,7 @@
       <c r="G88" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="H88" s="36" t="s">
+      <c r="H88" s="35" t="s">
         <v>365</v>
       </c>
       <c r="I88" s="7"/>
@@ -14684,31 +14681,31 @@
       <c r="K88" s="7"/>
     </row>
     <row r="89">
-      <c r="A89" s="47" t="s">
+      <c r="A89" s="46" t="s">
         <v>366</v>
       </c>
-      <c r="B89" s="48"/>
+      <c r="B89" s="47"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
-      <c r="E89" s="36" t="s">
+      <c r="E89" s="35" t="s">
         <v>367</v>
       </c>
       <c r="F89" s="4"/>
-      <c r="G89" s="36" t="s">
+      <c r="G89" s="35" t="s">
         <v>351</v>
       </c>
-      <c r="H89" s="36" t="s">
+      <c r="H89" s="35" t="s">
         <v>368</v>
       </c>
-      <c r="I89" s="39"/>
-      <c r="J89" s="39"/>
+      <c r="I89" s="38"/>
+      <c r="J89" s="38"/>
       <c r="K89" s="7"/>
     </row>
     <row r="90">
-      <c r="A90" s="34" t="s">
+      <c r="A90" s="33" t="s">
         <v>369</v>
       </c>
-      <c r="B90" s="90" t="s">
+      <c r="B90" s="89" t="s">
         <v>370</v>
       </c>
       <c r="C90" s="4"/>
@@ -14722,41 +14719,41 @@
       <c r="K90" s="7"/>
     </row>
     <row r="91">
-      <c r="A91" s="40" t="s">
+      <c r="A91" s="39" t="s">
         <v>371</v>
       </c>
-      <c r="B91" s="41" t="s">
+      <c r="B91" s="40" t="s">
         <v>8</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
-      <c r="E91" s="42" t="s">
+      <c r="E91" s="41" t="s">
         <v>372</v>
       </c>
       <c r="F91" s="7"/>
-      <c r="G91" s="36"/>
-      <c r="H91" s="36"/>
+      <c r="G91" s="35"/>
+      <c r="H91" s="35"/>
       <c r="I91" s="7"/>
       <c r="J91" s="7"/>
       <c r="K91" s="7"/>
     </row>
     <row r="92">
-      <c r="A92" s="91" t="s">
+      <c r="A92" s="90" t="s">
         <v>371</v>
       </c>
-      <c r="B92" s="92" t="s">
+      <c r="B92" s="91" t="s">
         <v>8</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
-      <c r="E92" s="63" t="s">
+      <c r="E92" s="62" t="s">
         <v>372</v>
       </c>
       <c r="F92" s="7"/>
-      <c r="G92" s="77" t="s">
+      <c r="G92" s="76" t="s">
         <v>373</v>
       </c>
-      <c r="H92" s="77" t="s">
+      <c r="H92" s="76" t="s">
         <v>374</v>
       </c>
       <c r="I92" s="7"/>
@@ -14764,68 +14761,68 @@
       <c r="K92" s="7"/>
     </row>
     <row r="93">
-      <c r="A93" s="47" t="s">
+      <c r="A93" s="46" t="s">
         <v>375</v>
       </c>
-      <c r="B93" s="48" t="s">
+      <c r="B93" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C93" s="60" t="s">
+      <c r="C93" s="59" t="s">
         <v>376</v>
       </c>
-      <c r="D93" s="60" t="s">
+      <c r="D93" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="E93" s="60" t="s">
+      <c r="E93" s="59" t="s">
         <v>377</v>
       </c>
-      <c r="F93" s="60"/>
-      <c r="G93" s="89" t="s">
+      <c r="F93" s="59"/>
+      <c r="G93" s="88" t="s">
         <v>378</v>
       </c>
-      <c r="H93" s="60" t="s">
+      <c r="H93" s="59" t="s">
         <v>379</v>
       </c>
-      <c r="I93" s="39" t="s">
+      <c r="I93" s="38" t="s">
         <v>69</v>
       </c>
       <c r="J93" s="7"/>
       <c r="K93" s="7"/>
     </row>
     <row r="94">
-      <c r="A94" s="53" t="s">
+      <c r="A94" s="52" t="s">
         <v>380</v>
       </c>
-      <c r="B94" s="54" t="s">
+      <c r="B94" s="53" t="s">
         <v>381</v>
       </c>
-      <c r="C94" s="49" t="s">
+      <c r="C94" s="48" t="s">
         <v>382</v>
       </c>
-      <c r="D94" s="49" t="s">
+      <c r="D94" s="48" t="s">
         <v>383</v>
       </c>
-      <c r="E94" s="49" t="s">
+      <c r="E94" s="48" t="s">
         <v>384</v>
       </c>
-      <c r="F94" s="49"/>
-      <c r="G94" s="37" t="s">
+      <c r="F94" s="48"/>
+      <c r="G94" s="36" t="s">
         <v>385</v>
       </c>
-      <c r="H94" s="49" t="s">
+      <c r="H94" s="48" t="s">
         <v>386</v>
       </c>
-      <c r="I94" s="39" t="s">
+      <c r="I94" s="38" t="s">
         <v>77</v>
       </c>
       <c r="J94" s="7"/>
       <c r="K94" s="7"/>
     </row>
     <row r="95">
-      <c r="A95" s="47" t="s">
+      <c r="A95" s="46" t="s">
         <v>387</v>
       </c>
-      <c r="B95" s="48" t="s">
+      <c r="B95" s="47" t="s">
         <v>388</v>
       </c>
       <c r="C95" s="4"/>
@@ -14839,10 +14836,10 @@
       <c r="K95" s="7"/>
     </row>
     <row r="96">
-      <c r="A96" s="53" t="s">
+      <c r="A96" s="52" t="s">
         <v>389</v>
       </c>
-      <c r="B96" s="54" t="s">
+      <c r="B96" s="53" t="s">
         <v>390</v>
       </c>
       <c r="C96" s="4" t="s">
@@ -14851,14 +14848,14 @@
       <c r="D96" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="E96" s="36" t="s">
+      <c r="E96" s="35" t="s">
         <v>393</v>
       </c>
-      <c r="F96" s="36"/>
-      <c r="G96" s="36" t="s">
+      <c r="F96" s="35"/>
+      <c r="G96" s="35" t="s">
         <v>394</v>
       </c>
-      <c r="H96" s="93" t="s">
+      <c r="H96" s="92" t="s">
         <v>395</v>
       </c>
       <c r="I96" s="7"/>
@@ -14866,10 +14863,10 @@
       <c r="K96" s="7"/>
     </row>
     <row r="97">
-      <c r="A97" s="53" t="s">
+      <c r="A97" s="52" t="s">
         <v>396</v>
       </c>
-      <c r="B97" s="54" t="s">
+      <c r="B97" s="53" t="s">
         <v>397</v>
       </c>
       <c r="C97" s="4" t="s">
@@ -14878,23 +14875,23 @@
       <c r="D97" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="E97" s="36" t="s">
+      <c r="E97" s="35" t="s">
         <v>400</v>
       </c>
-      <c r="F97" s="36"/>
-      <c r="G97" s="36"/>
-      <c r="H97" s="36"/>
+      <c r="F97" s="35"/>
+      <c r="G97" s="35"/>
+      <c r="H97" s="35"/>
       <c r="I97" s="7"/>
       <c r="J97" s="7"/>
-      <c r="K97" s="39" t="s">
+      <c r="K97" s="38" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="47" t="s">
+      <c r="A98" s="46" t="s">
         <v>402</v>
       </c>
-      <c r="B98" s="48" t="s">
+      <c r="B98" s="47" t="s">
         <v>403</v>
       </c>
       <c r="C98" s="4"/>
@@ -14908,10 +14905,10 @@
       <c r="K98" s="7"/>
     </row>
     <row r="99">
-      <c r="A99" s="53" t="s">
+      <c r="A99" s="52" t="s">
         <v>404</v>
       </c>
-      <c r="B99" s="54" t="s">
+      <c r="B99" s="53" t="s">
         <v>92</v>
       </c>
       <c r="C99" s="4" t="s">
@@ -14920,16 +14917,16 @@
       <c r="D99" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="E99" s="36" t="s">
+      <c r="E99" s="35" t="s">
         <v>407</v>
       </c>
-      <c r="F99" s="36" t="s">
+      <c r="F99" s="35" t="s">
         <v>408</v>
       </c>
-      <c r="G99" s="37" t="s">
+      <c r="G99" s="36" t="s">
         <v>409</v>
       </c>
-      <c r="H99" s="62" t="s">
+      <c r="H99" s="61" t="s">
         <v>410</v>
       </c>
       <c r="I99" s="7"/>
@@ -14937,85 +14934,85 @@
       <c r="K99" s="7"/>
     </row>
     <row r="100">
-      <c r="A100" s="53" t="s">
+      <c r="A100" s="52" t="s">
         <v>411</v>
       </c>
-      <c r="B100" s="54" t="s">
+      <c r="B100" s="53" t="s">
         <v>412</v>
       </c>
-      <c r="C100" s="49" t="s">
+      <c r="C100" s="48" t="s">
         <v>413</v>
       </c>
-      <c r="D100" s="49" t="s">
+      <c r="D100" s="48" t="s">
         <v>414</v>
       </c>
-      <c r="E100" s="36" t="s">
+      <c r="E100" s="35" t="s">
         <v>415</v>
       </c>
-      <c r="F100" s="36"/>
-      <c r="G100" s="37" t="s">
+      <c r="F100" s="35"/>
+      <c r="G100" s="36" t="s">
         <v>416</v>
       </c>
-      <c r="H100" s="37" t="s">
+      <c r="H100" s="36" t="s">
         <v>417</v>
       </c>
-      <c r="I100" s="39" t="s">
+      <c r="I100" s="38" t="s">
         <v>69</v>
       </c>
       <c r="J100" s="7"/>
       <c r="K100" s="7"/>
     </row>
     <row r="101">
-      <c r="A101" s="47" t="s">
+      <c r="A101" s="46" t="s">
         <v>418</v>
       </c>
-      <c r="B101" s="48" t="s">
+      <c r="B101" s="47" t="s">
         <v>419</v>
       </c>
-      <c r="C101" s="49" t="s">
+      <c r="C101" s="48" t="s">
         <v>420</v>
       </c>
-      <c r="D101" s="49" t="s">
+      <c r="D101" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="E101" s="36" t="s">
+      <c r="E101" s="35" t="s">
         <v>421</v>
       </c>
-      <c r="F101" s="36"/>
-      <c r="G101" s="36" t="s">
+      <c r="F101" s="35"/>
+      <c r="G101" s="35" t="s">
         <v>378</v>
       </c>
-      <c r="H101" s="94" t="s">
+      <c r="H101" s="93" t="s">
         <v>422</v>
       </c>
-      <c r="I101" s="39" t="s">
+      <c r="I101" s="38" t="s">
         <v>69</v>
       </c>
       <c r="J101" s="7"/>
       <c r="K101" s="7"/>
     </row>
     <row r="102">
-      <c r="A102" s="47" t="s">
+      <c r="A102" s="46" t="s">
         <v>423</v>
       </c>
-      <c r="B102" s="48" t="s">
+      <c r="B102" s="47" t="s">
         <v>424</v>
       </c>
-      <c r="C102" s="37"/>
-      <c r="D102" s="37"/>
-      <c r="E102" s="36"/>
+      <c r="C102" s="36"/>
+      <c r="D102" s="36"/>
+      <c r="E102" s="35"/>
       <c r="F102" s="4"/>
-      <c r="G102" s="36"/>
-      <c r="H102" s="36"/>
+      <c r="G102" s="35"/>
+      <c r="H102" s="35"/>
       <c r="I102" s="7"/>
       <c r="J102" s="7"/>
       <c r="K102" s="7"/>
     </row>
     <row r="103">
-      <c r="A103" s="53" t="s">
+      <c r="A103" s="52" t="s">
         <v>425</v>
       </c>
-      <c r="B103" s="54" t="s">
+      <c r="B103" s="53" t="s">
         <v>426</v>
       </c>
       <c r="C103" s="4" t="s">
@@ -15024,14 +15021,14 @@
       <c r="D103" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="E103" s="36" t="s">
+      <c r="E103" s="35" t="s">
         <v>429</v>
       </c>
-      <c r="F103" s="37"/>
-      <c r="G103" s="37" t="s">
+      <c r="F103" s="36"/>
+      <c r="G103" s="36" t="s">
         <v>430</v>
       </c>
-      <c r="H103" s="95" t="s">
+      <c r="H103" s="94" t="s">
         <v>431</v>
       </c>
       <c r="I103" s="7"/>
@@ -15039,26 +15036,26 @@
       <c r="K103" s="7"/>
     </row>
     <row r="104">
-      <c r="A104" s="80" t="s">
+      <c r="A104" s="79" t="s">
         <v>425</v>
       </c>
-      <c r="B104" s="81" t="s">
+      <c r="B104" s="80" t="s">
         <v>426</v>
       </c>
-      <c r="C104" s="96" t="s">
+      <c r="C104" s="95" t="s">
         <v>427</v>
       </c>
-      <c r="D104" s="96" t="s">
+      <c r="D104" s="95" t="s">
         <v>428</v>
       </c>
-      <c r="E104" s="42" t="s">
+      <c r="E104" s="41" t="s">
         <v>429</v>
       </c>
-      <c r="F104" s="49"/>
-      <c r="G104" s="36" t="s">
+      <c r="F104" s="48"/>
+      <c r="G104" s="35" t="s">
         <v>432</v>
       </c>
-      <c r="H104" s="97" t="s">
+      <c r="H104" s="96" t="s">
         <v>433</v>
       </c>
       <c r="I104" s="7"/>
@@ -15066,68 +15063,68 @@
       <c r="K104" s="7"/>
     </row>
     <row r="105">
-      <c r="A105" s="69" t="s">
+      <c r="A105" s="68" t="s">
         <v>434</v>
       </c>
-      <c r="B105" s="70" t="s">
+      <c r="B105" s="69" t="s">
         <v>435</v>
       </c>
-      <c r="C105" s="49" t="s">
+      <c r="C105" s="48" t="s">
         <v>436</v>
       </c>
-      <c r="D105" s="49" t="s">
+      <c r="D105" s="48" t="s">
         <v>437</v>
       </c>
-      <c r="E105" s="36" t="s">
+      <c r="E105" s="35" t="s">
         <v>438</v>
       </c>
-      <c r="F105" s="49"/>
-      <c r="G105" s="36" t="s">
+      <c r="F105" s="48"/>
+      <c r="G105" s="35" t="s">
         <v>439</v>
       </c>
-      <c r="H105" s="93" t="s">
+      <c r="H105" s="92" t="s">
         <v>440</v>
       </c>
-      <c r="I105" s="39" t="s">
+      <c r="I105" s="38" t="s">
         <v>69</v>
       </c>
       <c r="J105" s="7"/>
       <c r="K105" s="7"/>
     </row>
     <row r="106">
-      <c r="A106" s="69" t="s">
+      <c r="A106" s="68" t="s">
         <v>441</v>
       </c>
-      <c r="B106" s="70" t="s">
+      <c r="B106" s="69" t="s">
         <v>442</v>
       </c>
-      <c r="C106" s="49" t="s">
+      <c r="C106" s="48" t="s">
         <v>443</v>
       </c>
-      <c r="D106" s="60" t="s">
+      <c r="D106" s="59" t="s">
         <v>444</v>
       </c>
-      <c r="E106" s="39" t="s">
+      <c r="E106" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="F106" s="60"/>
-      <c r="G106" s="39" t="s">
+      <c r="F106" s="59"/>
+      <c r="G106" s="38" t="s">
         <v>439</v>
       </c>
-      <c r="H106" s="98" t="s">
+      <c r="H106" s="97" t="s">
         <v>446</v>
       </c>
-      <c r="I106" s="39" t="s">
+      <c r="I106" s="38" t="s">
         <v>69</v>
       </c>
       <c r="J106" s="7"/>
       <c r="K106" s="7"/>
     </row>
     <row r="107">
-      <c r="A107" s="53" t="s">
+      <c r="A107" s="52" t="s">
         <v>447</v>
       </c>
-      <c r="B107" s="54" t="s">
+      <c r="B107" s="53" t="s">
         <v>448</v>
       </c>
       <c r="C107" s="4" t="s">
@@ -15136,14 +15133,14 @@
       <c r="D107" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="E107" s="36" t="s">
+      <c r="E107" s="35" t="s">
         <v>449</v>
       </c>
-      <c r="F107" s="37"/>
-      <c r="G107" s="37" t="s">
+      <c r="F107" s="36"/>
+      <c r="G107" s="36" t="s">
         <v>430</v>
       </c>
-      <c r="H107" s="62" t="s">
+      <c r="H107" s="61" t="s">
         <v>450</v>
       </c>
       <c r="I107" s="7"/>
@@ -15151,26 +15148,26 @@
       <c r="K107" s="7"/>
     </row>
     <row r="108">
-      <c r="A108" s="80" t="s">
+      <c r="A108" s="79" t="s">
         <v>447</v>
       </c>
-      <c r="B108" s="81" t="s">
+      <c r="B108" s="80" t="s">
         <v>448</v>
       </c>
-      <c r="C108" s="96" t="s">
+      <c r="C108" s="95" t="s">
         <v>427</v>
       </c>
-      <c r="D108" s="96" t="s">
+      <c r="D108" s="95" t="s">
         <v>428</v>
       </c>
-      <c r="E108" s="42" t="s">
+      <c r="E108" s="41" t="s">
         <v>449</v>
       </c>
-      <c r="F108" s="49"/>
-      <c r="G108" s="36" t="s">
+      <c r="F108" s="48"/>
+      <c r="G108" s="35" t="s">
         <v>432</v>
       </c>
-      <c r="H108" s="99" t="s">
+      <c r="H108" s="98" t="s">
         <v>451</v>
       </c>
       <c r="I108" s="7"/>
@@ -15178,68 +15175,68 @@
       <c r="K108" s="7"/>
     </row>
     <row r="109">
-      <c r="A109" s="69" t="s">
+      <c r="A109" s="68" t="s">
         <v>452</v>
       </c>
-      <c r="B109" s="70" t="s">
+      <c r="B109" s="69" t="s">
         <v>435</v>
       </c>
-      <c r="C109" s="49" t="s">
+      <c r="C109" s="48" t="s">
         <v>436</v>
       </c>
-      <c r="D109" s="60" t="s">
+      <c r="D109" s="59" t="s">
         <v>437</v>
       </c>
-      <c r="E109" s="39" t="s">
+      <c r="E109" s="38" t="s">
         <v>453</v>
       </c>
-      <c r="F109" s="60"/>
-      <c r="G109" s="39" t="s">
+      <c r="F109" s="59"/>
+      <c r="G109" s="38" t="s">
         <v>439</v>
       </c>
-      <c r="H109" s="39" t="s">
+      <c r="H109" s="38" t="s">
         <v>440</v>
       </c>
-      <c r="I109" s="39" t="s">
+      <c r="I109" s="38" t="s">
         <v>69</v>
       </c>
       <c r="J109" s="7"/>
       <c r="K109" s="7"/>
     </row>
     <row r="110">
-      <c r="A110" s="69" t="s">
+      <c r="A110" s="68" t="s">
         <v>454</v>
       </c>
-      <c r="B110" s="70" t="s">
+      <c r="B110" s="69" t="s">
         <v>442</v>
       </c>
-      <c r="C110" s="49" t="s">
+      <c r="C110" s="48" t="s">
         <v>443</v>
       </c>
-      <c r="D110" s="49" t="s">
+      <c r="D110" s="48" t="s">
         <v>444</v>
       </c>
-      <c r="E110" s="36" t="s">
+      <c r="E110" s="35" t="s">
         <v>455</v>
       </c>
-      <c r="F110" s="49"/>
-      <c r="G110" s="36" t="s">
+      <c r="F110" s="48"/>
+      <c r="G110" s="35" t="s">
         <v>439</v>
       </c>
-      <c r="H110" s="36" t="s">
+      <c r="H110" s="35" t="s">
         <v>446</v>
       </c>
-      <c r="I110" s="39" t="s">
+      <c r="I110" s="38" t="s">
         <v>69</v>
       </c>
       <c r="J110" s="7"/>
       <c r="K110" s="7"/>
     </row>
     <row r="111">
-      <c r="A111" s="53" t="s">
+      <c r="A111" s="52" t="s">
         <v>456</v>
       </c>
-      <c r="B111" s="54" t="s">
+      <c r="B111" s="53" t="s">
         <v>457</v>
       </c>
       <c r="C111" s="4" t="s">
@@ -15248,14 +15245,14 @@
       <c r="D111" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="E111" s="36" t="s">
+      <c r="E111" s="35" t="s">
         <v>458</v>
       </c>
-      <c r="F111" s="37"/>
-      <c r="G111" s="37" t="s">
+      <c r="F111" s="36"/>
+      <c r="G111" s="36" t="s">
         <v>430</v>
       </c>
-      <c r="H111" s="62" t="s">
+      <c r="H111" s="61" t="s">
         <v>459</v>
       </c>
       <c r="I111" s="7"/>
@@ -15263,26 +15260,26 @@
       <c r="K111" s="7"/>
     </row>
     <row r="112">
-      <c r="A112" s="80" t="s">
+      <c r="A112" s="79" t="s">
         <v>456</v>
       </c>
-      <c r="B112" s="81" t="s">
+      <c r="B112" s="80" t="s">
         <v>457</v>
       </c>
-      <c r="C112" s="100" t="s">
+      <c r="C112" s="99" t="s">
         <v>427</v>
       </c>
-      <c r="D112" s="100" t="s">
+      <c r="D112" s="99" t="s">
         <v>428</v>
       </c>
-      <c r="E112" s="63" t="s">
+      <c r="E112" s="62" t="s">
         <v>458</v>
       </c>
-      <c r="F112" s="60"/>
-      <c r="G112" s="39" t="s">
+      <c r="F112" s="59"/>
+      <c r="G112" s="38" t="s">
         <v>432</v>
       </c>
-      <c r="H112" s="101" t="s">
+      <c r="H112" s="100" t="s">
         <v>460</v>
       </c>
       <c r="I112" s="7"/>
@@ -15290,83 +15287,83 @@
       <c r="K112" s="7"/>
     </row>
     <row r="113">
-      <c r="A113" s="69" t="s">
+      <c r="A113" s="68" t="s">
         <v>461</v>
       </c>
-      <c r="B113" s="70" t="s">
+      <c r="B113" s="69" t="s">
         <v>442</v>
       </c>
-      <c r="C113" s="49" t="s">
+      <c r="C113" s="48" t="s">
         <v>443</v>
       </c>
-      <c r="D113" s="49" t="s">
+      <c r="D113" s="48" t="s">
         <v>444</v>
       </c>
-      <c r="E113" s="36" t="s">
+      <c r="E113" s="35" t="s">
         <v>462</v>
       </c>
-      <c r="F113" s="37"/>
-      <c r="G113" s="36" t="s">
+      <c r="F113" s="36"/>
+      <c r="G113" s="35" t="s">
         <v>439</v>
       </c>
-      <c r="H113" s="36" t="s">
+      <c r="H113" s="35" t="s">
         <v>446</v>
       </c>
-      <c r="I113" s="39" t="s">
+      <c r="I113" s="38" t="s">
         <v>69</v>
       </c>
       <c r="J113" s="7"/>
       <c r="K113" s="7"/>
     </row>
     <row r="114">
-      <c r="A114" s="102" t="s">
+      <c r="A114" s="101" t="s">
         <v>463</v>
       </c>
-      <c r="B114" s="103" t="s">
+      <c r="B114" s="102" t="s">
         <v>464</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
-      <c r="E114" s="104" t="s">
+      <c r="E114" s="103" t="s">
         <v>465</v>
       </c>
       <c r="F114" s="4"/>
-      <c r="G114" s="105" t="s">
+      <c r="G114" s="104" t="s">
         <v>430</v>
       </c>
-      <c r="H114" s="106" t="s">
+      <c r="H114" s="105" t="s">
         <v>466</v>
       </c>
-      <c r="I114" s="89"/>
-      <c r="J114" s="89"/>
+      <c r="I114" s="88"/>
+      <c r="J114" s="88"/>
       <c r="K114" s="7"/>
     </row>
     <row r="115">
-      <c r="A115" s="102" t="s">
+      <c r="A115" s="101" t="s">
         <v>463</v>
       </c>
-      <c r="B115" s="103" t="s">
+      <c r="B115" s="102" t="s">
         <v>464</v>
       </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
-      <c r="E115" s="104" t="s">
+      <c r="E115" s="103" t="s">
         <v>465</v>
       </c>
       <c r="F115" s="4"/>
-      <c r="G115" s="107"/>
-      <c r="H115" s="107"/>
-      <c r="I115" s="89"/>
-      <c r="J115" s="89"/>
-      <c r="K115" s="108" t="s">
+      <c r="G115" s="106"/>
+      <c r="H115" s="106"/>
+      <c r="I115" s="88"/>
+      <c r="J115" s="88"/>
+      <c r="K115" s="107" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="47" t="s">
+      <c r="A116" s="46" t="s">
         <v>468</v>
       </c>
-      <c r="B116" s="48" t="s">
+      <c r="B116" s="47" t="s">
         <v>469</v>
       </c>
       <c r="C116" s="7"/>
@@ -15380,10 +15377,10 @@
       <c r="K116" s="7"/>
     </row>
     <row r="117">
-      <c r="A117" s="53" t="s">
+      <c r="A117" s="52" t="s">
         <v>470</v>
       </c>
-      <c r="B117" s="54" t="s">
+      <c r="B117" s="53" t="s">
         <v>471</v>
       </c>
       <c r="C117" s="4" t="s">
@@ -15396,10 +15393,10 @@
         <v>474</v>
       </c>
       <c r="F117" s="4"/>
-      <c r="G117" s="79" t="s">
+      <c r="G117" s="78" t="s">
         <v>475</v>
       </c>
-      <c r="H117" s="61" t="s">
+      <c r="H117" s="60" t="s">
         <v>476</v>
       </c>
       <c r="I117" s="7"/>
@@ -15407,10 +15404,10 @@
       <c r="K117" s="7"/>
     </row>
     <row r="118">
-      <c r="A118" s="53" t="s">
+      <c r="A118" s="52" t="s">
         <v>477</v>
       </c>
-      <c r="B118" s="54" t="s">
+      <c r="B118" s="53" t="s">
         <v>478</v>
       </c>
       <c r="C118" s="4" t="s">
@@ -15421,10 +15418,10 @@
         <v>479</v>
       </c>
       <c r="F118" s="7"/>
-      <c r="G118" s="77" t="s">
+      <c r="G118" s="76" t="s">
         <v>480</v>
       </c>
-      <c r="H118" s="77" t="s">
+      <c r="H118" s="76" t="s">
         <v>481</v>
       </c>
       <c r="I118" s="7"/>
@@ -15432,10 +15429,10 @@
       <c r="K118" s="7"/>
     </row>
     <row r="119">
-      <c r="A119" s="47" t="s">
+      <c r="A119" s="46" t="s">
         <v>482</v>
       </c>
-      <c r="B119" s="48" t="s">
+      <c r="B119" s="47" t="s">
         <v>483</v>
       </c>
       <c r="C119" s="4"/>
@@ -15449,13 +15446,13 @@
       <c r="K119" s="7"/>
     </row>
     <row r="120">
-      <c r="A120" s="53" t="s">
+      <c r="A120" s="52" t="s">
         <v>484</v>
       </c>
-      <c r="B120" s="54" t="s">
+      <c r="B120" s="53" t="s">
         <v>485</v>
       </c>
-      <c r="C120" s="109" t="s">
+      <c r="C120" s="108" t="s">
         <v>486</v>
       </c>
       <c r="D120" s="7" t="s">
@@ -15465,7 +15462,7 @@
         <v>488</v>
       </c>
       <c r="F120" s="4"/>
-      <c r="G120" s="36" t="s">
+      <c r="G120" s="35" t="s">
         <v>489</v>
       </c>
       <c r="H120" s="4" t="s">
@@ -15476,11 +15473,11 @@
       <c r="K120" s="7"/>
     </row>
     <row r="121">
-      <c r="A121" s="69" t="s">
+      <c r="A121" s="68" t="s">
         <v>491</v>
       </c>
-      <c r="B121" s="70"/>
-      <c r="C121" s="109"/>
+      <c r="B121" s="69"/>
+      <c r="C121" s="108"/>
       <c r="D121" s="7"/>
       <c r="E121" s="4" t="s">
         <v>492</v>
@@ -15488,7 +15485,7 @@
       <c r="F121" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="G121" s="36" t="s">
+      <c r="G121" s="35" t="s">
         <v>494</v>
       </c>
       <c r="H121" s="4" t="s">
@@ -15499,19 +15496,19 @@
       <c r="K121" s="7"/>
     </row>
     <row r="122">
-      <c r="A122" s="69" t="s">
+      <c r="A122" s="68" t="s">
         <v>496</v>
       </c>
-      <c r="B122" s="70"/>
-      <c r="C122" s="109"/>
+      <c r="B122" s="69"/>
+      <c r="C122" s="108"/>
       <c r="D122" s="7"/>
-      <c r="E122" s="42" t="s">
+      <c r="E122" s="41" t="s">
         <v>492</v>
       </c>
       <c r="F122" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="G122" s="36" t="s">
+      <c r="G122" s="35" t="s">
         <v>494</v>
       </c>
       <c r="H122" s="4" t="s">
@@ -15522,13 +15519,13 @@
       <c r="K122" s="7"/>
     </row>
     <row r="123">
-      <c r="A123" s="53" t="s">
+      <c r="A123" s="52" t="s">
         <v>499</v>
       </c>
-      <c r="B123" s="54" t="s">
+      <c r="B123" s="53" t="s">
         <v>500</v>
       </c>
-      <c r="C123" s="109" t="s">
+      <c r="C123" s="108" t="s">
         <v>501</v>
       </c>
       <c r="D123" s="7" t="s">
@@ -15538,7 +15535,7 @@
         <v>503</v>
       </c>
       <c r="F123" s="4"/>
-      <c r="G123" s="36" t="s">
+      <c r="G123" s="35" t="s">
         <v>504</v>
       </c>
       <c r="H123" s="4" t="s">
@@ -15549,13 +15546,13 @@
       <c r="K123" s="7"/>
     </row>
     <row r="124">
-      <c r="A124" s="53" t="s">
+      <c r="A124" s="52" t="s">
         <v>506</v>
       </c>
-      <c r="B124" s="54" t="s">
+      <c r="B124" s="53" t="s">
         <v>507</v>
       </c>
-      <c r="C124" s="109" t="s">
+      <c r="C124" s="108" t="s">
         <v>508</v>
       </c>
       <c r="D124" s="7" t="s">
@@ -15565,7 +15562,7 @@
         <v>510</v>
       </c>
       <c r="F124" s="4"/>
-      <c r="G124" s="36" t="s">
+      <c r="G124" s="35" t="s">
         <v>504</v>
       </c>
       <c r="H124" s="4" t="s">
@@ -15576,47 +15573,47 @@
       <c r="K124" s="7"/>
     </row>
     <row r="125">
-      <c r="A125" s="102" t="s">
+      <c r="A125" s="101" t="s">
         <v>512</v>
       </c>
-      <c r="B125" s="103" t="s">
+      <c r="B125" s="102" t="s">
         <v>513</v>
       </c>
-      <c r="C125" s="110" t="s">
+      <c r="C125" s="109" t="s">
         <v>514</v>
       </c>
-      <c r="D125" s="110" t="s">
+      <c r="D125" s="109" t="s">
         <v>515</v>
       </c>
-      <c r="E125" s="37"/>
+      <c r="E125" s="36"/>
       <c r="F125" s="4"/>
-      <c r="G125" s="37"/>
-      <c r="H125" s="37"/>
-      <c r="I125" s="89"/>
-      <c r="J125" s="89"/>
+      <c r="G125" s="36"/>
+      <c r="H125" s="36"/>
+      <c r="I125" s="88"/>
+      <c r="J125" s="88"/>
       <c r="K125" s="7"/>
     </row>
     <row r="126">
-      <c r="A126" s="111" t="s">
+      <c r="A126" s="110" t="s">
         <v>516</v>
       </c>
-      <c r="B126" s="112" t="s">
+      <c r="B126" s="111" t="s">
         <v>513</v>
       </c>
-      <c r="C126" s="110" t="s">
+      <c r="C126" s="109" t="s">
         <v>514</v>
       </c>
-      <c r="D126" s="110" t="s">
+      <c r="D126" s="109" t="s">
         <v>515</v>
       </c>
-      <c r="E126" s="89" t="s">
+      <c r="E126" s="88" t="s">
         <v>517</v>
       </c>
       <c r="F126" s="7"/>
-      <c r="G126" s="113" t="s">
+      <c r="G126" s="112" t="s">
         <v>518</v>
       </c>
-      <c r="H126" s="113" t="s">
+      <c r="H126" s="112" t="s">
         <v>519</v>
       </c>
       <c r="I126" s="7"/>
@@ -15624,26 +15621,26 @@
       <c r="K126" s="7"/>
     </row>
     <row r="127">
-      <c r="A127" s="111" t="s">
+      <c r="A127" s="110" t="s">
         <v>520</v>
       </c>
-      <c r="B127" s="112" t="s">
+      <c r="B127" s="111" t="s">
         <v>513</v>
       </c>
-      <c r="C127" s="110" t="s">
+      <c r="C127" s="109" t="s">
         <v>514</v>
       </c>
-      <c r="D127" s="110" t="s">
+      <c r="D127" s="109" t="s">
         <v>515</v>
       </c>
-      <c r="E127" s="89" t="s">
+      <c r="E127" s="88" t="s">
         <v>521</v>
       </c>
       <c r="F127" s="7"/>
-      <c r="G127" s="114" t="s">
+      <c r="G127" s="113" t="s">
         <v>518</v>
       </c>
-      <c r="H127" s="114" t="s">
+      <c r="H127" s="113" t="s">
         <v>522</v>
       </c>
       <c r="I127" s="7"/>
@@ -15651,26 +15648,26 @@
       <c r="K127" s="7"/>
     </row>
     <row r="128">
-      <c r="A128" s="102" t="s">
+      <c r="A128" s="101" t="s">
         <v>523</v>
       </c>
-      <c r="B128" s="103" t="s">
+      <c r="B128" s="102" t="s">
         <v>524</v>
       </c>
-      <c r="C128" s="113" t="s">
+      <c r="C128" s="112" t="s">
         <v>525</v>
       </c>
-      <c r="D128" s="113" t="s">
+      <c r="D128" s="112" t="s">
         <v>526</v>
       </c>
-      <c r="E128" s="37" t="s">
+      <c r="E128" s="36" t="s">
         <v>527</v>
       </c>
       <c r="F128" s="4"/>
-      <c r="G128" s="114" t="s">
+      <c r="G128" s="113" t="s">
         <v>528</v>
       </c>
-      <c r="H128" s="114" t="s">
+      <c r="H128" s="113" t="s">
         <v>529</v>
       </c>
       <c r="I128" s="7"/>
@@ -15678,170 +15675,170 @@
       <c r="K128" s="7"/>
     </row>
     <row r="129">
-      <c r="A129" s="115" t="s">
+      <c r="A129" s="114" t="s">
         <v>530</v>
       </c>
-      <c r="B129" s="116" t="s">
+      <c r="B129" s="115" t="s">
         <v>531</v>
       </c>
-      <c r="C129" s="89"/>
-      <c r="D129" s="89"/>
+      <c r="C129" s="88"/>
+      <c r="D129" s="88"/>
       <c r="E129" s="4"/>
-      <c r="F129" s="105"/>
-      <c r="G129" s="37"/>
-      <c r="H129" s="37"/>
+      <c r="F129" s="104"/>
+      <c r="G129" s="36"/>
+      <c r="H129" s="36"/>
       <c r="I129" s="7"/>
       <c r="J129" s="7"/>
       <c r="K129" s="7"/>
     </row>
     <row r="130">
-      <c r="A130" s="102" t="s">
+      <c r="A130" s="101" t="s">
         <v>532</v>
       </c>
-      <c r="B130" s="103" t="s">
+      <c r="B130" s="102" t="s">
         <v>533</v>
       </c>
-      <c r="C130" s="117"/>
-      <c r="D130" s="117"/>
+      <c r="C130" s="116"/>
+      <c r="D130" s="116"/>
       <c r="E130" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="F130" s="105"/>
-      <c r="G130" s="118" t="s">
+      <c r="F130" s="104"/>
+      <c r="G130" s="117" t="s">
         <v>535</v>
       </c>
-      <c r="H130" s="118" t="s">
+      <c r="H130" s="117" t="s">
         <v>536</v>
       </c>
-      <c r="I130" s="113" t="s">
+      <c r="I130" s="112" t="s">
         <v>537</v>
       </c>
       <c r="J130" s="7"/>
-      <c r="K130" s="108" t="s">
+      <c r="K130" s="107" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="102" t="s">
+      <c r="A131" s="101" t="s">
         <v>539</v>
       </c>
-      <c r="B131" s="103" t="s">
+      <c r="B131" s="102" t="s">
         <v>540</v>
       </c>
-      <c r="C131" s="89" t="s">
+      <c r="C131" s="88" t="s">
         <v>541</v>
       </c>
-      <c r="D131" s="89" t="s">
+      <c r="D131" s="88" t="s">
         <v>542</v>
       </c>
       <c r="E131" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="F131" s="119"/>
-      <c r="G131" s="108" t="s">
+      <c r="F131" s="118"/>
+      <c r="G131" s="107" t="s">
         <v>535</v>
       </c>
-      <c r="H131" s="108" t="s">
+      <c r="H131" s="107" t="s">
         <v>544</v>
       </c>
-      <c r="I131" s="113" t="s">
+      <c r="I131" s="112" t="s">
         <v>537</v>
       </c>
       <c r="J131" s="7"/>
       <c r="K131" s="7"/>
     </row>
     <row r="132">
-      <c r="A132" s="102" t="s">
+      <c r="A132" s="101" t="s">
         <v>545</v>
       </c>
-      <c r="B132" s="103" t="s">
+      <c r="B132" s="102" t="s">
         <v>546</v>
       </c>
-      <c r="C132" s="89" t="s">
+      <c r="C132" s="88" t="s">
         <v>547</v>
       </c>
-      <c r="D132" s="89" t="s">
+      <c r="D132" s="88" t="s">
         <v>548</v>
       </c>
       <c r="E132" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="F132" s="105"/>
-      <c r="G132" s="118" t="s">
+      <c r="F132" s="104"/>
+      <c r="G132" s="117" t="s">
         <v>535</v>
       </c>
-      <c r="H132" s="118" t="s">
+      <c r="H132" s="117" t="s">
         <v>536</v>
       </c>
-      <c r="I132" s="113" t="s">
+      <c r="I132" s="112" t="s">
         <v>537</v>
       </c>
       <c r="J132" s="7"/>
       <c r="K132" s="7"/>
     </row>
     <row r="133">
-      <c r="A133" s="102" t="s">
+      <c r="A133" s="101" t="s">
         <v>550</v>
       </c>
-      <c r="B133" s="103" t="s">
+      <c r="B133" s="102" t="s">
         <v>551</v>
       </c>
-      <c r="C133" s="89" t="s">
+      <c r="C133" s="88" t="s">
         <v>552</v>
       </c>
-      <c r="D133" s="89" t="s">
+      <c r="D133" s="88" t="s">
         <v>553</v>
       </c>
-      <c r="E133" s="105" t="s">
+      <c r="E133" s="104" t="s">
         <v>554</v>
       </c>
-      <c r="F133" s="105"/>
-      <c r="G133" s="118"/>
-      <c r="H133" s="107"/>
+      <c r="F133" s="104"/>
+      <c r="G133" s="117"/>
+      <c r="H133" s="106"/>
       <c r="I133" s="7"/>
       <c r="J133" s="7"/>
-      <c r="K133" s="108" t="s">
+      <c r="K133" s="107" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="115" t="s">
+      <c r="A134" s="114" t="s">
         <v>556</v>
       </c>
-      <c r="B134" s="116" t="s">
+      <c r="B134" s="115" t="s">
         <v>557</v>
       </c>
-      <c r="C134" s="89"/>
-      <c r="D134" s="89"/>
+      <c r="C134" s="88"/>
+      <c r="D134" s="88"/>
       <c r="E134" s="4"/>
-      <c r="F134" s="105"/>
-      <c r="G134" s="37"/>
-      <c r="H134" s="37"/>
+      <c r="F134" s="104"/>
+      <c r="G134" s="36"/>
+      <c r="H134" s="36"/>
       <c r="I134" s="7"/>
       <c r="J134" s="7"/>
       <c r="K134" s="7"/>
     </row>
     <row r="135">
-      <c r="A135" s="102" t="s">
+      <c r="A135" s="101" t="s">
         <v>558</v>
       </c>
-      <c r="B135" s="103" t="s">
+      <c r="B135" s="102" t="s">
         <v>559</v>
       </c>
-      <c r="C135" s="89" t="s">
+      <c r="C135" s="88" t="s">
         <v>560</v>
       </c>
-      <c r="D135" s="89" t="s">
+      <c r="D135" s="88" t="s">
         <v>561</v>
       </c>
-      <c r="E135" s="105" t="s">
+      <c r="E135" s="104" t="s">
         <v>562</v>
       </c>
-      <c r="F135" s="105"/>
-      <c r="G135" s="105" t="s">
+      <c r="F135" s="104"/>
+      <c r="G135" s="104" t="s">
         <v>563</v>
       </c>
-      <c r="H135" s="120" t="s">
+      <c r="H135" s="119" t="s">
         <v>564</v>
       </c>
       <c r="I135" s="7"/>
@@ -15849,26 +15846,26 @@
       <c r="K135" s="7"/>
     </row>
     <row r="136">
-      <c r="A136" s="102" t="s">
+      <c r="A136" s="101" t="s">
         <v>558</v>
       </c>
-      <c r="B136" s="103" t="s">
+      <c r="B136" s="102" t="s">
         <v>559</v>
       </c>
-      <c r="C136" s="89" t="s">
+      <c r="C136" s="88" t="s">
         <v>560</v>
       </c>
-      <c r="D136" s="89" t="s">
+      <c r="D136" s="88" t="s">
         <v>561</v>
       </c>
-      <c r="E136" s="105" t="s">
+      <c r="E136" s="104" t="s">
         <v>565</v>
       </c>
-      <c r="F136" s="105"/>
-      <c r="G136" s="105" t="s">
+      <c r="F136" s="104"/>
+      <c r="G136" s="104" t="s">
         <v>563</v>
       </c>
-      <c r="H136" s="120" t="s">
+      <c r="H136" s="119" t="s">
         <v>566</v>
       </c>
       <c r="I136" s="7"/>
@@ -15876,64 +15873,64 @@
       <c r="K136" s="7"/>
     </row>
     <row r="137">
-      <c r="A137" s="47" t="s">
+      <c r="A137" s="46" t="s">
         <v>567</v>
       </c>
-      <c r="B137" s="48" t="s">
+      <c r="B137" s="47" t="s">
         <v>568</v>
       </c>
-      <c r="C137" s="60"/>
-      <c r="D137" s="60"/>
-      <c r="E137" s="36"/>
-      <c r="F137" s="49"/>
-      <c r="G137" s="37"/>
-      <c r="H137" s="37"/>
+      <c r="C137" s="59"/>
+      <c r="D137" s="59"/>
+      <c r="E137" s="35"/>
+      <c r="F137" s="48"/>
+      <c r="G137" s="36"/>
+      <c r="H137" s="36"/>
       <c r="I137" s="7"/>
       <c r="J137" s="7"/>
       <c r="K137" s="7"/>
     </row>
     <row r="138">
-      <c r="A138" s="53" t="s">
+      <c r="A138" s="52" t="s">
         <v>569</v>
       </c>
-      <c r="B138" s="54" t="s">
+      <c r="B138" s="53" t="s">
         <v>570</v>
       </c>
-      <c r="C138" s="60" t="s">
+      <c r="C138" s="59" t="s">
         <v>571</v>
       </c>
-      <c r="D138" s="60" t="s">
+      <c r="D138" s="59" t="s">
         <v>570</v>
       </c>
-      <c r="E138" s="49"/>
-      <c r="F138" s="36"/>
-      <c r="G138" s="37"/>
-      <c r="H138" s="37"/>
+      <c r="E138" s="48"/>
+      <c r="F138" s="35"/>
+      <c r="G138" s="36"/>
+      <c r="H138" s="36"/>
       <c r="I138" s="7"/>
       <c r="J138" s="7"/>
       <c r="K138" s="7"/>
     </row>
     <row r="139">
-      <c r="A139" s="69" t="s">
+      <c r="A139" s="68" t="s">
         <v>572</v>
       </c>
-      <c r="B139" s="70" t="s">
+      <c r="B139" s="69" t="s">
         <v>573</v>
       </c>
-      <c r="C139" s="60" t="s">
+      <c r="C139" s="59" t="s">
         <v>571</v>
       </c>
-      <c r="D139" s="60" t="s">
+      <c r="D139" s="59" t="s">
         <v>570</v>
       </c>
-      <c r="E139" s="49" t="s">
+      <c r="E139" s="48" t="s">
         <v>574</v>
       </c>
-      <c r="F139" s="36"/>
-      <c r="G139" s="37" t="s">
+      <c r="F139" s="35"/>
+      <c r="G139" s="36" t="s">
         <v>518</v>
       </c>
-      <c r="H139" s="62" t="s">
+      <c r="H139" s="61" t="s">
         <v>575</v>
       </c>
       <c r="I139" s="7"/>
@@ -15941,26 +15938,26 @@
       <c r="K139" s="7"/>
     </row>
     <row r="140">
-      <c r="A140" s="69" t="s">
+      <c r="A140" s="68" t="s">
         <v>576</v>
       </c>
-      <c r="B140" s="70" t="s">
+      <c r="B140" s="69" t="s">
         <v>577</v>
       </c>
-      <c r="C140" s="60" t="s">
+      <c r="C140" s="59" t="s">
         <v>571</v>
       </c>
-      <c r="D140" s="60" t="s">
+      <c r="D140" s="59" t="s">
         <v>570</v>
       </c>
-      <c r="E140" s="49" t="s">
+      <c r="E140" s="48" t="s">
         <v>578</v>
       </c>
-      <c r="F140" s="36"/>
-      <c r="G140" s="37" t="s">
+      <c r="F140" s="35"/>
+      <c r="G140" s="36" t="s">
         <v>518</v>
       </c>
-      <c r="H140" s="49" t="s">
+      <c r="H140" s="48" t="s">
         <v>579</v>
       </c>
       <c r="I140" s="7"/>
@@ -15968,72 +15965,72 @@
       <c r="K140" s="7"/>
     </row>
     <row r="141">
-      <c r="A141" s="53" t="s">
+      <c r="A141" s="52" t="s">
         <v>580</v>
       </c>
-      <c r="B141" s="54" t="s">
+      <c r="B141" s="53" t="s">
         <v>581</v>
       </c>
-      <c r="C141" s="49" t="s">
+      <c r="C141" s="48" t="s">
         <v>582</v>
       </c>
-      <c r="D141" s="60" t="s">
+      <c r="D141" s="59" t="s">
         <v>583</v>
       </c>
-      <c r="E141" s="49" t="s">
+      <c r="E141" s="48" t="s">
         <v>584</v>
       </c>
-      <c r="F141" s="49"/>
-      <c r="G141" s="49" t="s">
+      <c r="F141" s="48"/>
+      <c r="G141" s="48" t="s">
         <v>528</v>
       </c>
-      <c r="H141" s="49" t="s">
+      <c r="H141" s="48" t="s">
         <v>585</v>
       </c>
-      <c r="I141" s="39" t="s">
+      <c r="I141" s="38" t="s">
         <v>69</v>
       </c>
       <c r="J141" s="7"/>
       <c r="K141" s="7"/>
     </row>
     <row r="142">
-      <c r="A142" s="115" t="s">
+      <c r="A142" s="114" t="s">
         <v>586</v>
       </c>
-      <c r="B142" s="116" t="s">
+      <c r="B142" s="115" t="s">
         <v>587</v>
       </c>
-      <c r="C142" s="89"/>
-      <c r="D142" s="89"/>
+      <c r="C142" s="88"/>
+      <c r="D142" s="88"/>
       <c r="E142" s="4"/>
-      <c r="F142" s="119"/>
-      <c r="G142" s="37"/>
-      <c r="H142" s="37"/>
+      <c r="F142" s="118"/>
+      <c r="G142" s="36"/>
+      <c r="H142" s="36"/>
       <c r="I142" s="7"/>
       <c r="J142" s="7"/>
       <c r="K142" s="7"/>
     </row>
     <row r="143">
-      <c r="A143" s="102" t="s">
+      <c r="A143" s="101" t="s">
         <v>588</v>
       </c>
-      <c r="B143" s="103" t="s">
+      <c r="B143" s="102" t="s">
         <v>589</v>
       </c>
-      <c r="C143" s="89" t="s">
+      <c r="C143" s="88" t="s">
         <v>590</v>
       </c>
-      <c r="D143" s="89" t="s">
+      <c r="D143" s="88" t="s">
         <v>591</v>
       </c>
-      <c r="E143" s="105" t="s">
+      <c r="E143" s="104" t="s">
         <v>592</v>
       </c>
-      <c r="F143" s="105"/>
-      <c r="G143" s="105" t="s">
+      <c r="F143" s="104"/>
+      <c r="G143" s="104" t="s">
         <v>563</v>
       </c>
-      <c r="H143" s="120" t="s">
+      <c r="H143" s="119" t="s">
         <v>593</v>
       </c>
       <c r="I143" s="7"/>
@@ -16041,10 +16038,10 @@
       <c r="K143" s="7"/>
     </row>
     <row r="144">
-      <c r="A144" s="47" t="s">
+      <c r="A144" s="46" t="s">
         <v>594</v>
       </c>
-      <c r="B144" s="48" t="s">
+      <c r="B144" s="47" t="s">
         <v>595</v>
       </c>
       <c r="C144" s="7"/>
@@ -16058,47 +16055,47 @@
       <c r="K144" s="7"/>
     </row>
     <row r="145">
-      <c r="A145" s="53" t="s">
+      <c r="A145" s="52" t="s">
         <v>596</v>
       </c>
-      <c r="B145" s="54" t="s">
+      <c r="B145" s="53" t="s">
         <v>597</v>
       </c>
-      <c r="C145" s="60" t="s">
+      <c r="C145" s="59" t="s">
         <v>598</v>
       </c>
-      <c r="D145" s="60" t="s">
+      <c r="D145" s="59" t="s">
         <v>599</v>
       </c>
-      <c r="E145" s="49"/>
-      <c r="F145" s="36"/>
-      <c r="G145" s="49"/>
-      <c r="H145" s="37"/>
+      <c r="E145" s="48"/>
+      <c r="F145" s="35"/>
+      <c r="G145" s="48"/>
+      <c r="H145" s="36"/>
       <c r="I145" s="7"/>
       <c r="J145" s="7"/>
       <c r="K145" s="7"/>
     </row>
     <row r="146">
-      <c r="A146" s="69" t="s">
+      <c r="A146" s="68" t="s">
         <v>600</v>
       </c>
-      <c r="B146" s="70" t="s">
+      <c r="B146" s="69" t="s">
         <v>601</v>
       </c>
-      <c r="C146" s="60" t="s">
+      <c r="C146" s="59" t="s">
         <v>598</v>
       </c>
-      <c r="D146" s="60" t="s">
+      <c r="D146" s="59" t="s">
         <v>599</v>
       </c>
-      <c r="E146" s="49" t="s">
+      <c r="E146" s="48" t="s">
         <v>602</v>
       </c>
-      <c r="F146" s="36"/>
-      <c r="G146" s="49" t="s">
+      <c r="F146" s="35"/>
+      <c r="G146" s="48" t="s">
         <v>603</v>
       </c>
-      <c r="H146" s="121" t="s">
+      <c r="H146" s="120" t="s">
         <v>604</v>
       </c>
       <c r="I146" s="7"/>
@@ -16106,10 +16103,10 @@
       <c r="K146" s="7"/>
     </row>
     <row r="147">
-      <c r="A147" s="69" t="s">
+      <c r="A147" s="68" t="s">
         <v>605</v>
       </c>
-      <c r="B147" s="70" t="s">
+      <c r="B147" s="69" t="s">
         <v>606</v>
       </c>
       <c r="C147" s="7" t="s">
@@ -16118,14 +16115,14 @@
       <c r="D147" s="7" t="s">
         <v>599</v>
       </c>
-      <c r="E147" s="49" t="s">
+      <c r="E147" s="48" t="s">
         <v>607</v>
       </c>
-      <c r="F147" s="36"/>
-      <c r="G147" s="49" t="s">
+      <c r="F147" s="35"/>
+      <c r="G147" s="48" t="s">
         <v>603</v>
       </c>
-      <c r="H147" s="121" t="s">
+      <c r="H147" s="120" t="s">
         <v>608</v>
       </c>
       <c r="I147" s="7"/>
@@ -16133,39 +16130,39 @@
       <c r="K147" s="7"/>
     </row>
     <row r="148">
-      <c r="A148" s="53" t="s">
+      <c r="A148" s="52" t="s">
         <v>609</v>
       </c>
-      <c r="B148" s="54" t="s">
+      <c r="B148" s="53" t="s">
         <v>610</v>
       </c>
-      <c r="C148" s="60" t="s">
+      <c r="C148" s="59" t="s">
         <v>611</v>
       </c>
-      <c r="D148" s="60" t="s">
+      <c r="D148" s="59" t="s">
         <v>612</v>
       </c>
-      <c r="E148" s="42" t="s">
+      <c r="E148" s="41" t="s">
         <v>602</v>
       </c>
-      <c r="F148" s="49"/>
-      <c r="G148" s="49" t="s">
+      <c r="F148" s="48"/>
+      <c r="G148" s="48" t="s">
         <v>613</v>
       </c>
-      <c r="H148" s="121" t="s">
+      <c r="H148" s="120" t="s">
         <v>614</v>
       </c>
-      <c r="I148" s="39" t="s">
+      <c r="I148" s="38" t="s">
         <v>69</v>
       </c>
       <c r="J148" s="7"/>
       <c r="K148" s="7"/>
     </row>
     <row r="149">
-      <c r="A149" s="47" t="s">
+      <c r="A149" s="46" t="s">
         <v>615</v>
       </c>
-      <c r="B149" s="48" t="s">
+      <c r="B149" s="47" t="s">
         <v>616</v>
       </c>
       <c r="C149" s="7" t="s">
@@ -16174,457 +16171,457 @@
       <c r="D149" s="7" t="s">
         <v>618</v>
       </c>
-      <c r="E149" s="36" t="s">
+      <c r="E149" s="35" t="s">
         <v>619</v>
       </c>
-      <c r="F149" s="36"/>
-      <c r="G149" s="36" t="s">
+      <c r="F149" s="35"/>
+      <c r="G149" s="35" t="s">
         <v>378</v>
       </c>
-      <c r="H149" s="122" t="s">
+      <c r="H149" s="121" t="s">
         <v>620</v>
       </c>
-      <c r="I149" s="39" t="s">
+      <c r="I149" s="38" t="s">
         <v>69</v>
       </c>
       <c r="J149" s="7"/>
       <c r="K149" s="7"/>
     </row>
     <row r="150">
-      <c r="A150" s="34" t="s">
+      <c r="A150" s="33" t="s">
         <v>621</v>
       </c>
-      <c r="B150" s="90" t="s">
+      <c r="B150" s="89" t="s">
         <v>622</v>
       </c>
-      <c r="C150" s="37"/>
-      <c r="D150" s="89"/>
-      <c r="E150" s="49"/>
-      <c r="F150" s="37"/>
-      <c r="G150" s="49"/>
-      <c r="H150" s="49"/>
+      <c r="C150" s="36"/>
+      <c r="D150" s="88"/>
+      <c r="E150" s="48"/>
+      <c r="F150" s="36"/>
+      <c r="G150" s="48"/>
+      <c r="H150" s="48"/>
       <c r="I150" s="7"/>
       <c r="J150" s="7"/>
       <c r="K150" s="7"/>
     </row>
     <row r="151">
-      <c r="A151" s="40" t="s">
+      <c r="A151" s="39" t="s">
         <v>623</v>
       </c>
-      <c r="B151" s="41" t="s">
+      <c r="B151" s="40" t="s">
         <v>624</v>
       </c>
-      <c r="C151" s="89"/>
-      <c r="D151" s="89"/>
-      <c r="E151" s="49"/>
-      <c r="F151" s="37"/>
-      <c r="G151" s="49"/>
-      <c r="H151" s="49"/>
+      <c r="C151" s="88"/>
+      <c r="D151" s="88"/>
+      <c r="E151" s="48"/>
+      <c r="F151" s="36"/>
+      <c r="G151" s="48"/>
+      <c r="H151" s="48"/>
       <c r="I151" s="7"/>
       <c r="J151" s="7"/>
       <c r="K151" s="7"/>
     </row>
     <row r="152">
-      <c r="A152" s="115" t="s">
+      <c r="A152" s="114" t="s">
         <v>625</v>
       </c>
-      <c r="B152" s="116" t="s">
+      <c r="B152" s="115" t="s">
         <v>626</v>
       </c>
-      <c r="C152" s="89"/>
-      <c r="D152" s="89"/>
-      <c r="E152" s="37" t="s">
+      <c r="C152" s="88"/>
+      <c r="D152" s="88"/>
+      <c r="E152" s="36" t="s">
         <v>627</v>
       </c>
-      <c r="F152" s="37"/>
-      <c r="G152" s="123" t="s">
+      <c r="F152" s="36"/>
+      <c r="G152" s="122" t="s">
         <v>628</v>
       </c>
-      <c r="H152" s="124" t="s">
+      <c r="H152" s="123" t="s">
         <v>629</v>
       </c>
-      <c r="I152" s="113" t="s">
+      <c r="I152" s="112" t="s">
         <v>630</v>
       </c>
-      <c r="J152" s="113" t="s">
+      <c r="J152" s="112" t="s">
         <v>631</v>
       </c>
-      <c r="K152" s="125" t="s">
+      <c r="K152" s="124" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="102" t="s">
+      <c r="A153" s="101" t="s">
         <v>633</v>
       </c>
-      <c r="B153" s="103" t="s">
+      <c r="B153" s="102" t="s">
         <v>634</v>
       </c>
-      <c r="C153" s="119" t="s">
+      <c r="C153" s="118" t="s">
         <v>552</v>
       </c>
-      <c r="D153" s="113" t="s">
+      <c r="D153" s="112" t="s">
         <v>553</v>
       </c>
-      <c r="E153" s="37" t="s">
+      <c r="E153" s="36" t="s">
         <v>635</v>
       </c>
-      <c r="F153" s="37"/>
-      <c r="G153" s="123" t="s">
+      <c r="F153" s="36"/>
+      <c r="G153" s="122" t="s">
         <v>636</v>
       </c>
-      <c r="H153" s="124" t="s">
+      <c r="H153" s="123" t="s">
         <v>637</v>
       </c>
-      <c r="I153" s="113" t="s">
+      <c r="I153" s="112" t="s">
         <v>638</v>
       </c>
-      <c r="J153" s="113" t="s">
+      <c r="J153" s="112" t="s">
         <v>639</v>
       </c>
-      <c r="K153" s="125" t="s">
+      <c r="K153" s="124" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="115" t="s">
+      <c r="A154" s="114" t="s">
         <v>640</v>
       </c>
-      <c r="B154" s="116" t="s">
+      <c r="B154" s="115" t="s">
         <v>641</v>
       </c>
-      <c r="C154" s="119" t="s">
+      <c r="C154" s="118" t="s">
         <v>642</v>
       </c>
-      <c r="D154" s="119" t="s">
+      <c r="D154" s="118" t="s">
         <v>643</v>
       </c>
-      <c r="E154" s="37" t="s">
+      <c r="E154" s="36" t="s">
         <v>644</v>
       </c>
-      <c r="F154" s="37"/>
-      <c r="G154" s="123" t="s">
+      <c r="F154" s="36"/>
+      <c r="G154" s="122" t="s">
         <v>628</v>
       </c>
-      <c r="H154" s="124" t="s">
+      <c r="H154" s="123" t="s">
         <v>645</v>
       </c>
-      <c r="I154" s="113" t="s">
+      <c r="I154" s="112" t="s">
         <v>646</v>
       </c>
-      <c r="J154" s="113" t="s">
+      <c r="J154" s="112" t="s">
         <v>631</v>
       </c>
-      <c r="K154" s="125" t="s">
+      <c r="K154" s="124" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="102" t="s">
+      <c r="A155" s="101" t="s">
         <v>647</v>
       </c>
-      <c r="B155" s="103" t="s">
+      <c r="B155" s="102" t="s">
         <v>648</v>
       </c>
-      <c r="C155" s="117"/>
-      <c r="D155" s="117"/>
-      <c r="E155" s="104" t="s">
+      <c r="C155" s="116"/>
+      <c r="D155" s="116"/>
+      <c r="E155" s="103" t="s">
         <v>644</v>
       </c>
-      <c r="F155" s="37"/>
-      <c r="G155" s="107"/>
-      <c r="H155" s="107"/>
-      <c r="I155" s="89" t="s">
+      <c r="F155" s="36"/>
+      <c r="G155" s="106"/>
+      <c r="H155" s="106"/>
+      <c r="I155" s="88" t="s">
         <v>649</v>
       </c>
-      <c r="J155" s="89" t="s">
+      <c r="J155" s="88" t="s">
         <v>650</v>
       </c>
-      <c r="K155" s="125" t="s">
+      <c r="K155" s="124" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="102" t="s">
+      <c r="A156" s="101" t="s">
         <v>652</v>
       </c>
-      <c r="B156" s="103" t="s">
+      <c r="B156" s="102" t="s">
         <v>653</v>
       </c>
-      <c r="C156" s="119" t="s">
+      <c r="C156" s="118" t="s">
         <v>552</v>
       </c>
-      <c r="D156" s="113" t="s">
+      <c r="D156" s="112" t="s">
         <v>553</v>
       </c>
-      <c r="E156" s="89" t="s">
+      <c r="E156" s="88" t="s">
         <v>654</v>
       </c>
-      <c r="F156" s="89"/>
-      <c r="G156" s="123" t="s">
+      <c r="F156" s="88"/>
+      <c r="G156" s="122" t="s">
         <v>636</v>
       </c>
-      <c r="H156" s="123" t="s">
+      <c r="H156" s="122" t="s">
         <v>637</v>
       </c>
-      <c r="I156" s="89" t="s">
+      <c r="I156" s="88" t="s">
         <v>655</v>
       </c>
-      <c r="J156" s="89" t="s">
+      <c r="J156" s="88" t="s">
         <v>639</v>
       </c>
-      <c r="K156" s="125" t="s">
+      <c r="K156" s="124" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="102" t="s">
+      <c r="A157" s="101" t="s">
         <v>656</v>
       </c>
-      <c r="B157" s="103" t="s">
+      <c r="B157" s="102" t="s">
         <v>657</v>
       </c>
-      <c r="C157" s="110" t="s">
+      <c r="C157" s="109" t="s">
         <v>552</v>
       </c>
-      <c r="D157" s="110" t="s">
+      <c r="D157" s="109" t="s">
         <v>553</v>
       </c>
-      <c r="E157" s="37" t="s">
+      <c r="E157" s="36" t="s">
         <v>658</v>
       </c>
-      <c r="F157" s="37"/>
-      <c r="G157" s="123" t="s">
+      <c r="F157" s="36"/>
+      <c r="G157" s="122" t="s">
         <v>659</v>
       </c>
-      <c r="H157" s="124" t="s">
+      <c r="H157" s="123" t="s">
         <v>660</v>
       </c>
-      <c r="I157" s="89" t="s">
+      <c r="I157" s="88" t="s">
         <v>655</v>
       </c>
-      <c r="J157" s="89" t="s">
+      <c r="J157" s="88" t="s">
         <v>661</v>
       </c>
-      <c r="K157" s="125" t="s">
+      <c r="K157" s="124" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="115" t="s">
+      <c r="A158" s="114" t="s">
         <v>662</v>
       </c>
-      <c r="B158" s="116" t="s">
+      <c r="B158" s="115" t="s">
         <v>663</v>
       </c>
-      <c r="C158" s="119" t="s">
+      <c r="C158" s="118" t="s">
         <v>642</v>
       </c>
-      <c r="D158" s="119" t="s">
+      <c r="D158" s="118" t="s">
         <v>643</v>
       </c>
-      <c r="E158" s="37" t="s">
+      <c r="E158" s="36" t="s">
         <v>664</v>
       </c>
-      <c r="F158" s="37"/>
-      <c r="G158" s="123" t="s">
+      <c r="F158" s="36"/>
+      <c r="G158" s="122" t="s">
         <v>628</v>
       </c>
-      <c r="H158" s="124" t="s">
+      <c r="H158" s="123" t="s">
         <v>665</v>
       </c>
-      <c r="I158" s="113" t="s">
+      <c r="I158" s="112" t="s">
         <v>666</v>
       </c>
-      <c r="J158" s="113" t="s">
+      <c r="J158" s="112" t="s">
         <v>631</v>
       </c>
-      <c r="K158" s="125" t="s">
+      <c r="K158" s="124" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="102" t="s">
+      <c r="A159" s="101" t="s">
         <v>667</v>
       </c>
-      <c r="B159" s="103" t="s">
+      <c r="B159" s="102" t="s">
         <v>648</v>
       </c>
-      <c r="C159" s="117"/>
-      <c r="D159" s="117"/>
-      <c r="E159" s="104" t="s">
+      <c r="C159" s="116"/>
+      <c r="D159" s="116"/>
+      <c r="E159" s="103" t="s">
         <v>664</v>
       </c>
-      <c r="F159" s="37"/>
-      <c r="G159" s="107"/>
-      <c r="H159" s="107"/>
-      <c r="I159" s="89" t="s">
+      <c r="F159" s="36"/>
+      <c r="G159" s="106"/>
+      <c r="H159" s="106"/>
+      <c r="I159" s="88" t="s">
         <v>668</v>
       </c>
-      <c r="J159" s="89" t="s">
+      <c r="J159" s="88" t="s">
         <v>650</v>
       </c>
-      <c r="K159" s="125" t="s">
+      <c r="K159" s="124" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="102" t="s">
+      <c r="A160" s="101" t="s">
         <v>669</v>
       </c>
-      <c r="B160" s="103" t="s">
+      <c r="B160" s="102" t="s">
         <v>653</v>
       </c>
-      <c r="C160" s="119" t="s">
+      <c r="C160" s="118" t="s">
         <v>552</v>
       </c>
-      <c r="D160" s="113" t="s">
+      <c r="D160" s="112" t="s">
         <v>553</v>
       </c>
-      <c r="E160" s="37" t="s">
+      <c r="E160" s="36" t="s">
         <v>670</v>
       </c>
-      <c r="F160" s="37"/>
-      <c r="G160" s="123" t="s">
+      <c r="F160" s="36"/>
+      <c r="G160" s="122" t="s">
         <v>636</v>
       </c>
-      <c r="H160" s="123" t="s">
+      <c r="H160" s="122" t="s">
         <v>637</v>
       </c>
-      <c r="I160" s="89" t="s">
+      <c r="I160" s="88" t="s">
         <v>671</v>
       </c>
-      <c r="J160" s="89" t="s">
+      <c r="J160" s="88" t="s">
         <v>639</v>
       </c>
-      <c r="K160" s="125" t="s">
+      <c r="K160" s="124" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="102" t="s">
+      <c r="A161" s="101" t="s">
         <v>672</v>
       </c>
-      <c r="B161" s="103" t="s">
+      <c r="B161" s="102" t="s">
         <v>673</v>
       </c>
-      <c r="C161" s="110" t="s">
+      <c r="C161" s="109" t="s">
         <v>552</v>
       </c>
-      <c r="D161" s="110" t="s">
+      <c r="D161" s="109" t="s">
         <v>553</v>
       </c>
-      <c r="E161" s="37" t="s">
+      <c r="E161" s="36" t="s">
         <v>674</v>
       </c>
-      <c r="F161" s="37"/>
-      <c r="G161" s="123" t="s">
+      <c r="F161" s="36"/>
+      <c r="G161" s="122" t="s">
         <v>659</v>
       </c>
-      <c r="H161" s="123" t="s">
+      <c r="H161" s="122" t="s">
         <v>660</v>
       </c>
-      <c r="I161" s="89" t="s">
+      <c r="I161" s="88" t="s">
         <v>671</v>
       </c>
-      <c r="J161" s="89" t="s">
+      <c r="J161" s="88" t="s">
         <v>661</v>
       </c>
-      <c r="K161" s="125" t="s">
+      <c r="K161" s="124" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="47" t="s">
+      <c r="A162" s="46" t="s">
         <v>675</v>
       </c>
-      <c r="B162" s="48" t="s">
+      <c r="B162" s="47" t="s">
         <v>676</v>
       </c>
-      <c r="C162" s="89"/>
-      <c r="D162" s="89"/>
-      <c r="E162" s="49"/>
-      <c r="F162" s="37"/>
-      <c r="G162" s="49"/>
-      <c r="H162" s="49"/>
+      <c r="C162" s="88"/>
+      <c r="D162" s="88"/>
+      <c r="E162" s="48"/>
+      <c r="F162" s="36"/>
+      <c r="G162" s="48"/>
+      <c r="H162" s="48"/>
       <c r="I162" s="7"/>
       <c r="J162" s="7"/>
       <c r="K162" s="7"/>
     </row>
     <row r="163">
-      <c r="A163" s="53" t="s">
+      <c r="A163" s="52" t="s">
         <v>677</v>
       </c>
-      <c r="B163" s="54" t="s">
+      <c r="B163" s="53" t="s">
         <v>678</v>
       </c>
-      <c r="C163" s="89" t="s">
+      <c r="C163" s="88" t="s">
         <v>679</v>
       </c>
-      <c r="D163" s="89"/>
-      <c r="E163" s="60" t="s">
+      <c r="D163" s="88"/>
+      <c r="E163" s="59" t="s">
         <v>680</v>
       </c>
-      <c r="F163" s="89"/>
-      <c r="G163" s="60"/>
-      <c r="H163" s="60"/>
+      <c r="F163" s="88"/>
+      <c r="G163" s="59"/>
+      <c r="H163" s="59"/>
       <c r="I163" s="7"/>
       <c r="J163" s="7"/>
-      <c r="K163" s="39" t="s">
+      <c r="K163" s="38" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="53" t="s">
+      <c r="A164" s="52" t="s">
         <v>682</v>
       </c>
-      <c r="B164" s="54" t="s">
+      <c r="B164" s="53" t="s">
         <v>683</v>
       </c>
-      <c r="C164" s="89" t="s">
+      <c r="C164" s="88" t="s">
         <v>684</v>
       </c>
-      <c r="D164" s="89"/>
-      <c r="E164" s="49" t="s">
+      <c r="D164" s="88"/>
+      <c r="E164" s="48" t="s">
         <v>685</v>
       </c>
-      <c r="F164" s="37"/>
-      <c r="G164" s="49"/>
-      <c r="H164" s="49"/>
+      <c r="F164" s="36"/>
+      <c r="G164" s="48"/>
+      <c r="H164" s="48"/>
       <c r="I164" s="7"/>
       <c r="J164" s="7"/>
-      <c r="K164" s="39" t="s">
+      <c r="K164" s="38" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="53" t="s">
+      <c r="A165" s="52" t="s">
         <v>686</v>
       </c>
-      <c r="B165" s="54" t="s">
+      <c r="B165" s="53" t="s">
         <v>687</v>
       </c>
-      <c r="C165" s="89" t="s">
+      <c r="C165" s="88" t="s">
         <v>679</v>
       </c>
-      <c r="D165" s="89"/>
-      <c r="E165" s="60" t="s">
+      <c r="D165" s="88"/>
+      <c r="E165" s="59" t="s">
         <v>688</v>
       </c>
-      <c r="F165" s="89"/>
-      <c r="G165" s="60"/>
-      <c r="H165" s="60"/>
+      <c r="F165" s="88"/>
+      <c r="G165" s="59"/>
+      <c r="H165" s="59"/>
       <c r="I165" s="7"/>
       <c r="J165" s="7"/>
-      <c r="K165" s="39" t="s">
+      <c r="K165" s="38" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="40" t="s">
+      <c r="A166" s="39" t="s">
         <v>689</v>
       </c>
-      <c r="B166" s="41" t="s">
+      <c r="B166" s="40" t="s">
         <v>690</v>
       </c>
       <c r="C166" s="4"/>
@@ -16638,10 +16635,10 @@
       <c r="K166" s="7"/>
     </row>
     <row r="167">
-      <c r="A167" s="47" t="s">
+      <c r="A167" s="46" t="s">
         <v>691</v>
       </c>
-      <c r="B167" s="48" t="s">
+      <c r="B167" s="47" t="s">
         <v>692</v>
       </c>
       <c r="C167" s="7"/>
@@ -16655,10 +16652,10 @@
       <c r="K167" s="7"/>
     </row>
     <row r="168">
-      <c r="A168" s="53" t="s">
+      <c r="A168" s="52" t="s">
         <v>693</v>
       </c>
-      <c r="B168" s="54" t="s">
+      <c r="B168" s="53" t="s">
         <v>694</v>
       </c>
       <c r="C168" s="7" t="s">
@@ -16671,21 +16668,21 @@
       <c r="F168" s="18"/>
       <c r="G168" s="4"/>
       <c r="H168" s="4"/>
-      <c r="I168" s="110" t="s">
+      <c r="I168" s="109" t="s">
         <v>696</v>
       </c>
-      <c r="J168" s="110" t="s">
+      <c r="J168" s="109" t="s">
         <v>697</v>
       </c>
-      <c r="K168" s="39" t="s">
+      <c r="K168" s="38" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="102" t="s">
+      <c r="A169" s="101" t="s">
         <v>698</v>
       </c>
-      <c r="B169" s="54" t="s">
+      <c r="B169" s="53" t="s">
         <v>699</v>
       </c>
       <c r="C169" s="7" t="s">
@@ -16698,21 +16695,21 @@
       <c r="F169" s="18"/>
       <c r="G169" s="4"/>
       <c r="H169" s="4"/>
-      <c r="I169" s="126" t="s">
+      <c r="I169" s="125" t="s">
         <v>702</v>
       </c>
-      <c r="J169" s="110" t="s">
+      <c r="J169" s="109" t="s">
         <v>703</v>
       </c>
-      <c r="K169" s="39" t="s">
+      <c r="K169" s="38" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="47" t="s">
+      <c r="A170" s="46" t="s">
         <v>704</v>
       </c>
-      <c r="B170" s="48" t="s">
+      <c r="B170" s="47" t="s">
         <v>705</v>
       </c>
       <c r="C170" s="7" t="s">
@@ -16727,15 +16724,15 @@
       <c r="H170" s="7"/>
       <c r="I170" s="7"/>
       <c r="J170" s="7"/>
-      <c r="K170" s="39" t="s">
+      <c r="K170" s="38" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="47" t="s">
+      <c r="A171" s="46" t="s">
         <v>708</v>
       </c>
-      <c r="B171" s="48" t="s">
+      <c r="B171" s="47" t="s">
         <v>709</v>
       </c>
       <c r="C171" s="7"/>
@@ -16746,13 +16743,13 @@
       <c r="H171" s="4"/>
       <c r="I171" s="7"/>
       <c r="J171" s="7"/>
-      <c r="K171" s="39"/>
+      <c r="K171" s="38"/>
     </row>
     <row r="172">
-      <c r="A172" s="53" t="s">
+      <c r="A172" s="52" t="s">
         <v>710</v>
       </c>
-      <c r="B172" s="54" t="s">
+      <c r="B172" s="53" t="s">
         <v>711</v>
       </c>
       <c r="C172" s="7" t="s">
@@ -16767,34 +16764,34 @@
       <c r="H172" s="7"/>
       <c r="I172" s="7"/>
       <c r="J172" s="7"/>
-      <c r="K172" s="39" t="s">
+      <c r="K172" s="38" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="34" t="s">
+      <c r="A173" s="33" t="s">
         <v>714</v>
       </c>
-      <c r="B173" s="90" t="s">
+      <c r="B173" s="89" t="s">
         <v>715</v>
       </c>
       <c r="C173" s="7"/>
       <c r="D173" s="7"/>
-      <c r="E173" s="84" t="s">
+      <c r="E173" s="83" t="s">
         <v>716</v>
       </c>
       <c r="F173" s="18"/>
-      <c r="G173" s="61"/>
-      <c r="H173" s="61"/>
+      <c r="G173" s="60"/>
+      <c r="H173" s="60"/>
       <c r="I173" s="7"/>
       <c r="J173" s="7"/>
       <c r="K173" s="7"/>
     </row>
     <row r="174">
-      <c r="A174" s="40" t="s">
+      <c r="A174" s="39" t="s">
         <v>717</v>
       </c>
-      <c r="B174" s="41" t="s">
+      <c r="B174" s="40" t="s">
         <v>8</v>
       </c>
       <c r="C174" s="7"/>
@@ -16808,10 +16805,10 @@
       <c r="K174" s="7"/>
     </row>
     <row r="175">
-      <c r="A175" s="47" t="s">
+      <c r="A175" s="46" t="s">
         <v>718</v>
       </c>
-      <c r="B175" s="48" t="s">
+      <c r="B175" s="47" t="s">
         <v>719</v>
       </c>
       <c r="C175" s="7"/>
@@ -16825,26 +16822,26 @@
       <c r="K175" s="7"/>
     </row>
     <row r="176">
-      <c r="A176" s="53" t="s">
+      <c r="A176" s="52" t="s">
         <v>720</v>
       </c>
-      <c r="B176" s="54" t="s">
+      <c r="B176" s="53" t="s">
         <v>721</v>
       </c>
-      <c r="C176" s="60" t="s">
+      <c r="C176" s="59" t="s">
         <v>722</v>
       </c>
-      <c r="D176" s="60" t="s">
+      <c r="D176" s="59" t="s">
         <v>723</v>
       </c>
-      <c r="E176" s="127" t="s">
+      <c r="E176" s="126" t="s">
         <v>724</v>
       </c>
-      <c r="F176" s="127"/>
-      <c r="G176" s="37" t="s">
+      <c r="F176" s="126"/>
+      <c r="G176" s="36" t="s">
         <v>725</v>
       </c>
-      <c r="H176" s="62" t="s">
+      <c r="H176" s="61" t="s">
         <v>726</v>
       </c>
       <c r="I176" s="7"/>
@@ -16852,26 +16849,26 @@
       <c r="K176" s="7"/>
     </row>
     <row r="177">
-      <c r="A177" s="69" t="s">
+      <c r="A177" s="68" t="s">
         <v>727</v>
       </c>
-      <c r="B177" s="70" t="s">
+      <c r="B177" s="69" t="s">
         <v>728</v>
       </c>
-      <c r="C177" s="60" t="s">
+      <c r="C177" s="59" t="s">
         <v>729</v>
       </c>
-      <c r="D177" s="60" t="s">
+      <c r="D177" s="59" t="s">
         <v>730</v>
       </c>
-      <c r="E177" s="127" t="s">
+      <c r="E177" s="126" t="s">
         <v>731</v>
       </c>
-      <c r="F177" s="127"/>
-      <c r="G177" s="37" t="s">
+      <c r="F177" s="126"/>
+      <c r="G177" s="36" t="s">
         <v>732</v>
       </c>
-      <c r="H177" s="62" t="s">
+      <c r="H177" s="61" t="s">
         <v>733</v>
       </c>
       <c r="I177" s="7"/>
@@ -16879,55 +16876,55 @@
       <c r="K177" s="7"/>
     </row>
     <row r="178">
-      <c r="A178" s="69" t="s">
+      <c r="A178" s="68" t="s">
         <v>734</v>
       </c>
-      <c r="B178" s="70" t="s">
+      <c r="B178" s="69" t="s">
         <v>735</v>
       </c>
-      <c r="C178" s="60" t="s">
+      <c r="C178" s="59" t="s">
         <v>736</v>
       </c>
-      <c r="D178" s="60" t="s">
+      <c r="D178" s="59" t="s">
         <v>737</v>
       </c>
-      <c r="E178" s="128" t="s">
+      <c r="E178" s="127" t="s">
         <v>731</v>
       </c>
-      <c r="F178" s="127"/>
-      <c r="G178" s="37" t="s">
+      <c r="F178" s="126"/>
+      <c r="G178" s="36" t="s">
         <v>738</v>
       </c>
-      <c r="H178" s="62" t="s">
+      <c r="H178" s="61" t="s">
         <v>739</v>
       </c>
-      <c r="I178" s="39" t="s">
+      <c r="I178" s="38" t="s">
         <v>740</v>
       </c>
       <c r="J178" s="7"/>
       <c r="K178" s="7"/>
     </row>
     <row r="179">
-      <c r="A179" s="53" t="s">
+      <c r="A179" s="52" t="s">
         <v>741</v>
       </c>
-      <c r="B179" s="54" t="s">
+      <c r="B179" s="53" t="s">
         <v>742</v>
       </c>
-      <c r="C179" s="49" t="s">
+      <c r="C179" s="48" t="s">
         <v>722</v>
       </c>
-      <c r="D179" s="60" t="s">
+      <c r="D179" s="59" t="s">
         <v>723</v>
       </c>
-      <c r="E179" s="127" t="s">
+      <c r="E179" s="126" t="s">
         <v>743</v>
       </c>
-      <c r="F179" s="127"/>
-      <c r="G179" s="37" t="s">
+      <c r="F179" s="126"/>
+      <c r="G179" s="36" t="s">
         <v>725</v>
       </c>
-      <c r="H179" s="62" t="s">
+      <c r="H179" s="61" t="s">
         <v>744</v>
       </c>
       <c r="I179" s="7"/>
@@ -16935,26 +16932,26 @@
       <c r="K179" s="7"/>
     </row>
     <row r="180">
-      <c r="A180" s="69" t="s">
+      <c r="A180" s="68" t="s">
         <v>745</v>
       </c>
-      <c r="B180" s="70" t="s">
+      <c r="B180" s="69" t="s">
         <v>728</v>
       </c>
-      <c r="C180" s="60" t="s">
+      <c r="C180" s="59" t="s">
         <v>729</v>
       </c>
-      <c r="D180" s="60" t="s">
+      <c r="D180" s="59" t="s">
         <v>730</v>
       </c>
-      <c r="E180" s="42" t="s">
+      <c r="E180" s="41" t="s">
         <v>731</v>
       </c>
-      <c r="F180" s="49"/>
-      <c r="G180" s="37" t="s">
+      <c r="F180" s="48"/>
+      <c r="G180" s="36" t="s">
         <v>732</v>
       </c>
-      <c r="H180" s="62" t="s">
+      <c r="H180" s="61" t="s">
         <v>746</v>
       </c>
       <c r="I180" s="7"/>
@@ -16962,55 +16959,55 @@
       <c r="K180" s="7"/>
     </row>
     <row r="181">
-      <c r="A181" s="69" t="s">
+      <c r="A181" s="68" t="s">
         <v>747</v>
       </c>
-      <c r="B181" s="70" t="s">
+      <c r="B181" s="69" t="s">
         <v>735</v>
       </c>
-      <c r="C181" s="60" t="s">
+      <c r="C181" s="59" t="s">
         <v>736</v>
       </c>
-      <c r="D181" s="60" t="s">
+      <c r="D181" s="59" t="s">
         <v>737</v>
       </c>
-      <c r="E181" s="42" t="s">
+      <c r="E181" s="41" t="s">
         <v>731</v>
       </c>
-      <c r="F181" s="49"/>
-      <c r="G181" s="37" t="s">
+      <c r="F181" s="48"/>
+      <c r="G181" s="36" t="s">
         <v>738</v>
       </c>
-      <c r="H181" s="37" t="s">
+      <c r="H181" s="36" t="s">
         <v>748</v>
       </c>
-      <c r="I181" s="39" t="s">
+      <c r="I181" s="38" t="s">
         <v>740</v>
       </c>
       <c r="J181" s="7"/>
       <c r="K181" s="7"/>
     </row>
     <row r="182">
-      <c r="A182" s="53" t="s">
+      <c r="A182" s="52" t="s">
         <v>749</v>
       </c>
-      <c r="B182" s="54" t="s">
+      <c r="B182" s="53" t="s">
         <v>750</v>
       </c>
-      <c r="C182" s="60" t="s">
+      <c r="C182" s="59" t="s">
         <v>722</v>
       </c>
-      <c r="D182" s="60" t="s">
+      <c r="D182" s="59" t="s">
         <v>723</v>
       </c>
-      <c r="E182" s="49" t="s">
+      <c r="E182" s="48" t="s">
         <v>751</v>
       </c>
-      <c r="F182" s="49"/>
-      <c r="G182" s="37" t="s">
+      <c r="F182" s="48"/>
+      <c r="G182" s="36" t="s">
         <v>725</v>
       </c>
-      <c r="H182" s="49" t="s">
+      <c r="H182" s="48" t="s">
         <v>752</v>
       </c>
       <c r="I182" s="7"/>
@@ -17018,26 +17015,26 @@
       <c r="K182" s="7"/>
     </row>
     <row r="183">
-      <c r="A183" s="69" t="s">
+      <c r="A183" s="68" t="s">
         <v>753</v>
       </c>
-      <c r="B183" s="70" t="s">
+      <c r="B183" s="69" t="s">
         <v>728</v>
       </c>
-      <c r="C183" s="60" t="s">
+      <c r="C183" s="59" t="s">
         <v>729</v>
       </c>
-      <c r="D183" s="60" t="s">
+      <c r="D183" s="59" t="s">
         <v>730</v>
       </c>
-      <c r="E183" s="42" t="s">
+      <c r="E183" s="41" t="s">
         <v>731</v>
       </c>
-      <c r="F183" s="60"/>
-      <c r="G183" s="37" t="s">
+      <c r="F183" s="59"/>
+      <c r="G183" s="36" t="s">
         <v>732</v>
       </c>
-      <c r="H183" s="62" t="s">
+      <c r="H183" s="61" t="s">
         <v>754</v>
       </c>
       <c r="I183" s="7"/>
@@ -17045,55 +17042,55 @@
       <c r="K183" s="7"/>
     </row>
     <row r="184">
-      <c r="A184" s="69" t="s">
+      <c r="A184" s="68" t="s">
         <v>755</v>
       </c>
-      <c r="B184" s="70" t="s">
+      <c r="B184" s="69" t="s">
         <v>735</v>
       </c>
-      <c r="C184" s="60" t="s">
+      <c r="C184" s="59" t="s">
         <v>736</v>
       </c>
-      <c r="D184" s="60" t="s">
+      <c r="D184" s="59" t="s">
         <v>737</v>
       </c>
-      <c r="E184" s="42" t="s">
+      <c r="E184" s="41" t="s">
         <v>731</v>
       </c>
-      <c r="F184" s="49"/>
-      <c r="G184" s="37" t="s">
+      <c r="F184" s="48"/>
+      <c r="G184" s="36" t="s">
         <v>738</v>
       </c>
-      <c r="H184" s="37" t="s">
+      <c r="H184" s="36" t="s">
         <v>748</v>
       </c>
-      <c r="I184" s="39" t="s">
+      <c r="I184" s="38" t="s">
         <v>740</v>
       </c>
       <c r="J184" s="7"/>
       <c r="K184" s="7"/>
     </row>
     <row r="185">
-      <c r="A185" s="53" t="s">
+      <c r="A185" s="52" t="s">
         <v>756</v>
       </c>
-      <c r="B185" s="54" t="s">
+      <c r="B185" s="53" t="s">
         <v>757</v>
       </c>
-      <c r="C185" s="60" t="s">
+      <c r="C185" s="59" t="s">
         <v>722</v>
       </c>
-      <c r="D185" s="60" t="s">
+      <c r="D185" s="59" t="s">
         <v>723</v>
       </c>
-      <c r="E185" s="49" t="s">
+      <c r="E185" s="48" t="s">
         <v>758</v>
       </c>
-      <c r="F185" s="49"/>
-      <c r="G185" s="37" t="s">
+      <c r="F185" s="48"/>
+      <c r="G185" s="36" t="s">
         <v>725</v>
       </c>
-      <c r="H185" s="49" t="s">
+      <c r="H185" s="48" t="s">
         <v>759</v>
       </c>
       <c r="I185" s="7"/>
@@ -17101,26 +17098,26 @@
       <c r="K185" s="7"/>
     </row>
     <row r="186">
-      <c r="A186" s="53" t="s">
+      <c r="A186" s="52" t="s">
         <v>760</v>
       </c>
-      <c r="B186" s="54" t="s">
+      <c r="B186" s="53" t="s">
         <v>761</v>
       </c>
-      <c r="C186" s="60" t="s">
+      <c r="C186" s="59" t="s">
         <v>722</v>
       </c>
-      <c r="D186" s="60" t="s">
+      <c r="D186" s="59" t="s">
         <v>723</v>
       </c>
-      <c r="E186" s="49" t="s">
+      <c r="E186" s="48" t="s">
         <v>762</v>
       </c>
-      <c r="F186" s="49"/>
-      <c r="G186" s="37" t="s">
+      <c r="F186" s="48"/>
+      <c r="G186" s="36" t="s">
         <v>725</v>
       </c>
-      <c r="H186" s="49" t="s">
+      <c r="H186" s="48" t="s">
         <v>763</v>
       </c>
       <c r="I186" s="7"/>
@@ -17128,26 +17125,26 @@
       <c r="K186" s="7"/>
     </row>
     <row r="187">
-      <c r="A187" s="53" t="s">
+      <c r="A187" s="52" t="s">
         <v>764</v>
       </c>
-      <c r="B187" s="54" t="s">
+      <c r="B187" s="53" t="s">
         <v>765</v>
       </c>
-      <c r="C187" s="60" t="s">
+      <c r="C187" s="59" t="s">
         <v>766</v>
       </c>
-      <c r="D187" s="60" t="s">
+      <c r="D187" s="59" t="s">
         <v>767</v>
       </c>
-      <c r="E187" s="49" t="s">
+      <c r="E187" s="48" t="s">
         <v>768</v>
       </c>
-      <c r="F187" s="49"/>
-      <c r="G187" s="37" t="s">
+      <c r="F187" s="48"/>
+      <c r="G187" s="36" t="s">
         <v>769</v>
       </c>
-      <c r="H187" s="37" t="s">
+      <c r="H187" s="36" t="s">
         <v>770</v>
       </c>
       <c r="I187" s="7"/>
@@ -17155,87 +17152,87 @@
       <c r="K187" s="7"/>
     </row>
     <row r="188">
-      <c r="A188" s="111" t="s">
+      <c r="A188" s="110" t="s">
         <v>771</v>
       </c>
-      <c r="B188" s="112" t="s">
+      <c r="B188" s="111" t="s">
         <v>772</v>
       </c>
-      <c r="C188" s="117" t="s">
+      <c r="C188" s="116" t="s">
         <v>773</v>
       </c>
-      <c r="D188" s="117" t="s">
+      <c r="D188" s="116" t="s">
         <v>774</v>
       </c>
-      <c r="E188" s="114" t="s">
+      <c r="E188" s="113" t="s">
         <v>775</v>
       </c>
-      <c r="F188" s="114"/>
-      <c r="G188" s="118"/>
-      <c r="H188" s="118"/>
-      <c r="I188" s="89"/>
-      <c r="J188" s="89"/>
-      <c r="K188" s="125" t="s">
+      <c r="F188" s="113"/>
+      <c r="G188" s="117"/>
+      <c r="H188" s="117"/>
+      <c r="I188" s="88"/>
+      <c r="J188" s="88"/>
+      <c r="K188" s="124" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="111" t="s">
+      <c r="A189" s="110" t="s">
         <v>777</v>
       </c>
-      <c r="B189" s="112" t="s">
+      <c r="B189" s="111" t="s">
         <v>778</v>
       </c>
-      <c r="C189" s="129" t="s">
+      <c r="C189" s="128" t="s">
         <v>773</v>
       </c>
-      <c r="D189" s="117" t="s">
+      <c r="D189" s="116" t="s">
         <v>774</v>
       </c>
-      <c r="E189" s="114" t="s">
+      <c r="E189" s="113" t="s">
         <v>779</v>
       </c>
-      <c r="F189" s="114"/>
-      <c r="G189" s="118"/>
-      <c r="H189" s="118"/>
-      <c r="I189" s="89"/>
-      <c r="J189" s="89"/>
-      <c r="K189" s="125" t="s">
+      <c r="F189" s="113"/>
+      <c r="G189" s="117"/>
+      <c r="H189" s="117"/>
+      <c r="I189" s="88"/>
+      <c r="J189" s="88"/>
+      <c r="K189" s="124" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="111" t="s">
+      <c r="A190" s="110" t="s">
         <v>780</v>
       </c>
-      <c r="B190" s="112" t="s">
+      <c r="B190" s="111" t="s">
         <v>781</v>
       </c>
-      <c r="C190" s="113" t="s">
+      <c r="C190" s="112" t="s">
         <v>782</v>
       </c>
-      <c r="D190" s="113" t="s">
+      <c r="D190" s="112" t="s">
         <v>783</v>
       </c>
-      <c r="E190" s="114" t="s">
+      <c r="E190" s="113" t="s">
         <v>784</v>
       </c>
-      <c r="F190" s="114"/>
-      <c r="G190" s="114" t="s">
+      <c r="F190" s="113"/>
+      <c r="G190" s="113" t="s">
         <v>785</v>
       </c>
-      <c r="H190" s="114" t="s">
+      <c r="H190" s="113" t="s">
         <v>786</v>
       </c>
-      <c r="I190" s="89"/>
-      <c r="J190" s="89"/>
+      <c r="I190" s="88"/>
+      <c r="J190" s="88"/>
       <c r="K190" s="7"/>
     </row>
     <row r="191">
-      <c r="A191" s="53" t="s">
+      <c r="A191" s="52" t="s">
         <v>787</v>
       </c>
-      <c r="B191" s="54" t="s">
+      <c r="B191" s="53" t="s">
         <v>788</v>
       </c>
       <c r="C191" s="7" t="s">
@@ -17251,7 +17248,7 @@
       <c r="G191" s="4" t="s">
         <v>792</v>
       </c>
-      <c r="H191" s="130" t="s">
+      <c r="H191" s="129" t="s">
         <v>793</v>
       </c>
       <c r="I191" s="7"/>
@@ -17259,37 +17256,37 @@
       <c r="K191" s="7"/>
     </row>
     <row r="192">
-      <c r="A192" s="111" t="s">
+      <c r="A192" s="110" t="s">
         <v>794</v>
       </c>
-      <c r="B192" s="112" t="s">
+      <c r="B192" s="111" t="s">
         <v>795</v>
       </c>
-      <c r="C192" s="113" t="s">
+      <c r="C192" s="112" t="s">
         <v>789</v>
       </c>
-      <c r="D192" s="113" t="s">
+      <c r="D192" s="112" t="s">
         <v>790</v>
       </c>
-      <c r="E192" s="114" t="s">
+      <c r="E192" s="113" t="s">
         <v>796</v>
       </c>
       <c r="F192" s="4"/>
-      <c r="G192" s="114" t="s">
+      <c r="G192" s="113" t="s">
         <v>797</v>
       </c>
-      <c r="H192" s="131" t="s">
+      <c r="H192" s="130" t="s">
         <v>798</v>
       </c>
-      <c r="I192" s="89"/>
-      <c r="J192" s="89"/>
+      <c r="I192" s="88"/>
+      <c r="J192" s="88"/>
       <c r="K192" s="7"/>
     </row>
     <row r="193">
-      <c r="A193" s="53" t="s">
+      <c r="A193" s="52" t="s">
         <v>787</v>
       </c>
-      <c r="B193" s="54" t="s">
+      <c r="B193" s="53" t="s">
         <v>799</v>
       </c>
       <c r="C193" s="7" t="s">
@@ -17306,144 +17303,144 @@
       <c r="H193" s="4" t="s">
         <v>803</v>
       </c>
-      <c r="I193" s="39" t="s">
+      <c r="I193" s="38" t="s">
         <v>804</v>
       </c>
       <c r="J193" s="7"/>
       <c r="K193" s="7"/>
     </row>
     <row r="194">
-      <c r="A194" s="132" t="s">
+      <c r="A194" s="131" t="s">
         <v>805</v>
       </c>
-      <c r="B194" s="116" t="s">
+      <c r="B194" s="115" t="s">
         <v>806</v>
       </c>
-      <c r="C194" s="113"/>
-      <c r="D194" s="89"/>
-      <c r="E194" s="37"/>
-      <c r="F194" s="89"/>
-      <c r="G194" s="37"/>
-      <c r="H194" s="37"/>
-      <c r="I194" s="89"/>
-      <c r="J194" s="89"/>
+      <c r="C194" s="112"/>
+      <c r="D194" s="88"/>
+      <c r="E194" s="36"/>
+      <c r="F194" s="88"/>
+      <c r="G194" s="36"/>
+      <c r="H194" s="36"/>
+      <c r="I194" s="88"/>
+      <c r="J194" s="88"/>
       <c r="K194" s="7"/>
     </row>
     <row r="195">
-      <c r="A195" s="102" t="s">
+      <c r="A195" s="101" t="s">
         <v>807</v>
       </c>
-      <c r="B195" s="103" t="s">
+      <c r="B195" s="102" t="s">
         <v>808</v>
       </c>
-      <c r="C195" s="113" t="s">
+      <c r="C195" s="112" t="s">
         <v>809</v>
       </c>
-      <c r="D195" s="89" t="s">
+      <c r="D195" s="88" t="s">
         <v>810</v>
       </c>
-      <c r="E195" s="105" t="s">
+      <c r="E195" s="104" t="s">
         <v>811</v>
       </c>
-      <c r="F195" s="37"/>
-      <c r="G195" s="118" t="s">
+      <c r="F195" s="36"/>
+      <c r="G195" s="117" t="s">
         <v>812</v>
       </c>
-      <c r="H195" s="118" t="s">
+      <c r="H195" s="117" t="s">
         <v>813</v>
       </c>
-      <c r="I195" s="89"/>
-      <c r="J195" s="89"/>
-      <c r="K195" s="125" t="s">
+      <c r="I195" s="88"/>
+      <c r="J195" s="88"/>
+      <c r="K195" s="124" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="132" t="s">
+      <c r="A196" s="131" t="s">
         <v>815</v>
       </c>
-      <c r="B196" s="116" t="s">
+      <c r="B196" s="115" t="s">
         <v>816</v>
       </c>
-      <c r="C196" s="113"/>
-      <c r="D196" s="89"/>
-      <c r="E196" s="37"/>
-      <c r="F196" s="37"/>
-      <c r="G196" s="37"/>
-      <c r="H196" s="37"/>
-      <c r="I196" s="89"/>
-      <c r="J196" s="89"/>
+      <c r="C196" s="112"/>
+      <c r="D196" s="88"/>
+      <c r="E196" s="36"/>
+      <c r="F196" s="36"/>
+      <c r="G196" s="36"/>
+      <c r="H196" s="36"/>
+      <c r="I196" s="88"/>
+      <c r="J196" s="88"/>
       <c r="K196" s="7"/>
     </row>
     <row r="197">
-      <c r="A197" s="102" t="s">
+      <c r="A197" s="101" t="s">
         <v>817</v>
       </c>
-      <c r="B197" s="103" t="s">
+      <c r="B197" s="102" t="s">
         <v>818</v>
       </c>
-      <c r="C197" s="113" t="s">
+      <c r="C197" s="112" t="s">
         <v>819</v>
       </c>
-      <c r="D197" s="89" t="s">
+      <c r="D197" s="88" t="s">
         <v>820</v>
       </c>
-      <c r="E197" s="105" t="s">
+      <c r="E197" s="104" t="s">
         <v>821</v>
       </c>
-      <c r="F197" s="37"/>
-      <c r="G197" s="118" t="s">
+      <c r="F197" s="36"/>
+      <c r="G197" s="117" t="s">
         <v>812</v>
       </c>
-      <c r="H197" s="118" t="s">
+      <c r="H197" s="117" t="s">
         <v>822</v>
       </c>
-      <c r="I197" s="89"/>
-      <c r="J197" s="89"/>
-      <c r="K197" s="125" t="s">
+      <c r="I197" s="88"/>
+      <c r="J197" s="88"/>
+      <c r="K197" s="124" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="47" t="s">
+      <c r="A198" s="46" t="s">
         <v>824</v>
       </c>
-      <c r="B198" s="48" t="s">
+      <c r="B198" s="47" t="s">
         <v>825</v>
       </c>
       <c r="C198" s="7" t="s">
         <v>826</v>
       </c>
-      <c r="D198" s="89"/>
-      <c r="E198" s="37"/>
-      <c r="F198" s="37"/>
-      <c r="G198" s="37"/>
-      <c r="H198" s="37"/>
+      <c r="D198" s="88"/>
+      <c r="E198" s="36"/>
+      <c r="F198" s="36"/>
+      <c r="G198" s="36"/>
+      <c r="H198" s="36"/>
       <c r="I198" s="7"/>
       <c r="J198" s="7"/>
       <c r="K198" s="7"/>
     </row>
     <row r="199">
-      <c r="A199" s="53" t="s">
+      <c r="A199" s="52" t="s">
         <v>827</v>
       </c>
-      <c r="B199" s="54" t="s">
+      <c r="B199" s="53" t="s">
         <v>828</v>
       </c>
-      <c r="C199" s="60" t="s">
+      <c r="C199" s="59" t="s">
         <v>829</v>
       </c>
-      <c r="D199" s="60" t="s">
+      <c r="D199" s="59" t="s">
         <v>830</v>
       </c>
-      <c r="E199" s="49" t="s">
+      <c r="E199" s="48" t="s">
         <v>831</v>
       </c>
-      <c r="F199" s="49"/>
-      <c r="G199" s="37" t="s">
+      <c r="F199" s="48"/>
+      <c r="G199" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="H199" s="62" t="s">
+      <c r="H199" s="61" t="s">
         <v>833</v>
       </c>
       <c r="I199" s="7"/>
@@ -17451,47 +17448,47 @@
       <c r="K199" s="7"/>
     </row>
     <row r="200">
-      <c r="A200" s="47" t="s">
+      <c r="A200" s="46" t="s">
         <v>834</v>
       </c>
-      <c r="B200" s="48" t="s">
+      <c r="B200" s="47" t="s">
         <v>835</v>
       </c>
-      <c r="C200" s="49" t="s">
+      <c r="C200" s="48" t="s">
         <v>836</v>
       </c>
-      <c r="D200" s="60" t="s">
+      <c r="D200" s="59" t="s">
         <v>837</v>
       </c>
-      <c r="E200" s="49"/>
-      <c r="F200" s="37"/>
-      <c r="G200" s="37"/>
-      <c r="H200" s="37"/>
+      <c r="E200" s="48"/>
+      <c r="F200" s="36"/>
+      <c r="G200" s="36"/>
+      <c r="H200" s="36"/>
       <c r="I200" s="7"/>
       <c r="J200" s="7"/>
       <c r="K200" s="7"/>
     </row>
     <row r="201">
-      <c r="A201" s="53" t="s">
+      <c r="A201" s="52" t="s">
         <v>838</v>
       </c>
-      <c r="B201" s="54" t="s">
+      <c r="B201" s="53" t="s">
         <v>839</v>
       </c>
-      <c r="C201" s="60" t="s">
+      <c r="C201" s="59" t="s">
         <v>836</v>
       </c>
-      <c r="D201" s="60" t="s">
+      <c r="D201" s="59" t="s">
         <v>837</v>
       </c>
-      <c r="E201" s="49" t="s">
+      <c r="E201" s="48" t="s">
         <v>840</v>
       </c>
-      <c r="F201" s="37"/>
-      <c r="G201" s="37" t="s">
+      <c r="F201" s="36"/>
+      <c r="G201" s="36" t="s">
         <v>732</v>
       </c>
-      <c r="H201" s="62" t="s">
+      <c r="H201" s="61" t="s">
         <v>841</v>
       </c>
       <c r="I201" s="7"/>
@@ -17499,26 +17496,26 @@
       <c r="K201" s="7"/>
     </row>
     <row r="202">
-      <c r="A202" s="53" t="s">
+      <c r="A202" s="52" t="s">
         <v>842</v>
       </c>
-      <c r="B202" s="54" t="s">
+      <c r="B202" s="53" t="s">
         <v>843</v>
       </c>
-      <c r="C202" s="60" t="s">
+      <c r="C202" s="59" t="s">
         <v>836</v>
       </c>
-      <c r="D202" s="60" t="s">
+      <c r="D202" s="59" t="s">
         <v>837</v>
       </c>
-      <c r="E202" s="49" t="s">
+      <c r="E202" s="48" t="s">
         <v>844</v>
       </c>
-      <c r="F202" s="37"/>
-      <c r="G202" s="37" t="s">
+      <c r="F202" s="36"/>
+      <c r="G202" s="36" t="s">
         <v>732</v>
       </c>
-      <c r="H202" s="62" t="s">
+      <c r="H202" s="61" t="s">
         <v>845</v>
       </c>
       <c r="I202" s="7"/>
@@ -17526,10 +17523,10 @@
       <c r="K202" s="7"/>
     </row>
     <row r="203">
-      <c r="A203" s="40" t="s">
+      <c r="A203" s="39" t="s">
         <v>846</v>
       </c>
-      <c r="B203" s="41" t="s">
+      <c r="B203" s="40" t="s">
         <v>847</v>
       </c>
       <c r="C203" s="7"/>
@@ -17543,107 +17540,107 @@
       <c r="K203" s="7"/>
     </row>
     <row r="204">
-      <c r="A204" s="47" t="s">
+      <c r="A204" s="46" t="s">
         <v>848</v>
       </c>
-      <c r="B204" s="48" t="s">
+      <c r="B204" s="47" t="s">
         <v>849</v>
       </c>
-      <c r="C204" s="133"/>
-      <c r="D204" s="133"/>
-      <c r="E204" s="49" t="s">
+      <c r="C204" s="132"/>
+      <c r="D204" s="132"/>
+      <c r="E204" s="48" t="s">
         <v>850</v>
       </c>
-      <c r="F204" s="37"/>
-      <c r="G204" s="49" t="s">
+      <c r="F204" s="36"/>
+      <c r="G204" s="48" t="s">
         <v>851</v>
       </c>
-      <c r="H204" s="62" t="s">
+      <c r="H204" s="61" t="s">
         <v>852</v>
       </c>
-      <c r="I204" s="39" t="s">
+      <c r="I204" s="38" t="s">
         <v>77</v>
       </c>
       <c r="J204" s="7"/>
       <c r="K204" s="7"/>
     </row>
     <row r="205">
-      <c r="A205" s="47" t="s">
+      <c r="A205" s="46" t="s">
         <v>853</v>
       </c>
-      <c r="B205" s="48" t="s">
+      <c r="B205" s="47" t="s">
         <v>854</v>
       </c>
       <c r="C205" s="7" t="s">
         <v>700</v>
       </c>
       <c r="D205" s="7"/>
-      <c r="E205" s="39" t="s">
+      <c r="E205" s="38" t="s">
         <v>855</v>
       </c>
-      <c r="F205" s="39" t="s">
+      <c r="F205" s="38" t="s">
         <v>856</v>
       </c>
-      <c r="G205" s="39" t="s">
+      <c r="G205" s="38" t="s">
         <v>857</v>
       </c>
-      <c r="H205" s="39" t="s">
+      <c r="H205" s="38" t="s">
         <v>858</v>
       </c>
       <c r="I205" s="7"/>
       <c r="J205" s="7"/>
-      <c r="K205" s="39" t="s">
+      <c r="K205" s="38" t="s">
         <v>859</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="47" t="s">
+      <c r="A206" s="46" t="s">
         <v>860</v>
       </c>
-      <c r="B206" s="48" t="s">
+      <c r="B206" s="47" t="s">
         <v>854</v>
       </c>
       <c r="C206" s="7" t="s">
         <v>700</v>
       </c>
       <c r="D206" s="7"/>
-      <c r="E206" s="36" t="s">
+      <c r="E206" s="35" t="s">
         <v>861</v>
       </c>
-      <c r="F206" s="39" t="s">
+      <c r="F206" s="38" t="s">
         <v>862</v>
       </c>
-      <c r="G206" s="39" t="s">
+      <c r="G206" s="38" t="s">
         <v>857</v>
       </c>
-      <c r="H206" s="39" t="s">
+      <c r="H206" s="38" t="s">
         <v>863</v>
       </c>
       <c r="I206" s="7"/>
       <c r="J206" s="7"/>
-      <c r="K206" s="39" t="s">
+      <c r="K206" s="38" t="s">
         <v>864</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="47" t="s">
+      <c r="A207" s="46" t="s">
         <v>865</v>
       </c>
-      <c r="B207" s="48" t="s">
+      <c r="B207" s="47" t="s">
         <v>866</v>
       </c>
       <c r="C207" s="7" t="s">
         <v>867</v>
       </c>
       <c r="D207" s="7"/>
-      <c r="E207" s="36" t="s">
+      <c r="E207" s="35" t="s">
         <v>868</v>
       </c>
       <c r="F207" s="4"/>
       <c r="G207" s="4" t="s">
         <v>869</v>
       </c>
-      <c r="H207" s="36" t="s">
+      <c r="H207" s="35" t="s">
         <v>870</v>
       </c>
       <c r="I207" s="7"/>
@@ -17651,54 +17648,54 @@
       <c r="K207" s="7"/>
     </row>
     <row r="208">
-      <c r="A208" s="115" t="s">
+      <c r="A208" s="114" t="s">
         <v>871</v>
       </c>
-      <c r="B208" s="116" t="s">
+      <c r="B208" s="115" t="s">
         <v>872</v>
       </c>
       <c r="C208" s="7"/>
       <c r="D208" s="7"/>
       <c r="E208" s="4"/>
       <c r="F208" s="7"/>
-      <c r="G208" s="37"/>
-      <c r="H208" s="37"/>
-      <c r="I208" s="89"/>
-      <c r="J208" s="89"/>
+      <c r="G208" s="36"/>
+      <c r="H208" s="36"/>
+      <c r="I208" s="88"/>
+      <c r="J208" s="88"/>
       <c r="K208" s="7"/>
     </row>
     <row r="209">
-      <c r="A209" s="102" t="s">
+      <c r="A209" s="101" t="s">
         <v>873</v>
       </c>
-      <c r="B209" s="103" t="s">
+      <c r="B209" s="102" t="s">
         <v>874</v>
       </c>
-      <c r="C209" s="113" t="s">
+      <c r="C209" s="112" t="s">
         <v>875</v>
       </c>
-      <c r="D209" s="113" t="s">
+      <c r="D209" s="112" t="s">
         <v>876</v>
       </c>
-      <c r="E209" s="114" t="s">
+      <c r="E209" s="113" t="s">
         <v>877</v>
       </c>
       <c r="F209" s="7"/>
-      <c r="G209" s="114" t="s">
+      <c r="G209" s="113" t="s">
         <v>878</v>
       </c>
-      <c r="H209" s="114" t="s">
+      <c r="H209" s="113" t="s">
         <v>879</v>
       </c>
-      <c r="I209" s="89"/>
-      <c r="J209" s="89"/>
+      <c r="I209" s="88"/>
+      <c r="J209" s="88"/>
       <c r="K209" s="7"/>
     </row>
     <row r="210">
-      <c r="A210" s="102" t="s">
+      <c r="A210" s="101" t="s">
         <v>880</v>
       </c>
-      <c r="B210" s="103" t="s">
+      <c r="B210" s="102" t="s">
         <v>881</v>
       </c>
       <c r="C210" s="7" t="s">
@@ -17707,23 +17704,23 @@
       <c r="D210" s="7" t="s">
         <v>883</v>
       </c>
-      <c r="E210" s="134" t="s">
+      <c r="E210" s="133" t="s">
         <v>884</v>
       </c>
       <c r="F210" s="18"/>
-      <c r="G210" s="118"/>
-      <c r="H210" s="107"/>
-      <c r="I210" s="89"/>
-      <c r="J210" s="89"/>
-      <c r="K210" s="125" t="s">
+      <c r="G210" s="117"/>
+      <c r="H210" s="106"/>
+      <c r="I210" s="88"/>
+      <c r="J210" s="88"/>
+      <c r="K210" s="124" t="s">
         <v>885</v>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="102" t="s">
+      <c r="A211" s="101" t="s">
         <v>880</v>
       </c>
-      <c r="B211" s="103" t="s">
+      <c r="B211" s="102" t="s">
         <v>881</v>
       </c>
       <c r="C211" s="7" t="s">
@@ -17732,127 +17729,127 @@
       <c r="D211" s="7" t="s">
         <v>883</v>
       </c>
-      <c r="E211" s="134" t="s">
+      <c r="E211" s="133" t="s">
         <v>886</v>
       </c>
       <c r="F211" s="18"/>
-      <c r="G211" s="108"/>
-      <c r="H211" s="135"/>
-      <c r="I211" s="89"/>
-      <c r="J211" s="89"/>
-      <c r="K211" s="125" t="s">
+      <c r="G211" s="107"/>
+      <c r="H211" s="134"/>
+      <c r="I211" s="88"/>
+      <c r="J211" s="88"/>
+      <c r="K211" s="124" t="s">
         <v>887</v>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="115" t="s">
+      <c r="A212" s="114" t="s">
         <v>888</v>
       </c>
-      <c r="B212" s="116" t="s">
+      <c r="B212" s="115" t="s">
         <v>889</v>
       </c>
-      <c r="C212" s="113"/>
-      <c r="D212" s="113"/>
+      <c r="C212" s="112"/>
+      <c r="D212" s="112"/>
       <c r="E212" s="18"/>
       <c r="F212" s="18"/>
-      <c r="G212" s="37"/>
-      <c r="H212" s="37"/>
-      <c r="I212" s="89"/>
-      <c r="J212" s="89"/>
+      <c r="G212" s="36"/>
+      <c r="H212" s="36"/>
+      <c r="I212" s="88"/>
+      <c r="J212" s="88"/>
       <c r="K212" s="7"/>
     </row>
     <row r="213">
-      <c r="A213" s="102" t="s">
+      <c r="A213" s="101" t="s">
         <v>890</v>
       </c>
-      <c r="B213" s="103" t="s">
+      <c r="B213" s="102" t="s">
         <v>891</v>
       </c>
-      <c r="C213" s="113" t="s">
+      <c r="C213" s="112" t="s">
         <v>892</v>
       </c>
-      <c r="D213" s="113" t="s">
+      <c r="D213" s="112" t="s">
         <v>893</v>
       </c>
-      <c r="E213" s="134" t="s">
+      <c r="E213" s="133" t="s">
         <v>894</v>
       </c>
       <c r="F213" s="18"/>
-      <c r="G213" s="118" t="s">
+      <c r="G213" s="117" t="s">
         <v>895</v>
       </c>
-      <c r="H213" s="107" t="s">
+      <c r="H213" s="106" t="s">
         <v>896</v>
       </c>
-      <c r="I213" s="89"/>
-      <c r="J213" s="89"/>
-      <c r="K213" s="125" t="s">
+      <c r="I213" s="88"/>
+      <c r="J213" s="88"/>
+      <c r="K213" s="124" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="102" t="s">
+      <c r="A214" s="101" t="s">
         <v>897</v>
       </c>
-      <c r="B214" s="103" t="s">
+      <c r="B214" s="102" t="s">
         <v>898</v>
       </c>
-      <c r="C214" s="113" t="s">
+      <c r="C214" s="112" t="s">
         <v>899</v>
       </c>
-      <c r="D214" s="113" t="s">
+      <c r="D214" s="112" t="s">
         <v>900</v>
       </c>
-      <c r="E214" s="134" t="s">
+      <c r="E214" s="133" t="s">
         <v>901</v>
       </c>
       <c r="F214" s="18"/>
-      <c r="G214" s="118" t="s">
+      <c r="G214" s="117" t="s">
         <v>902</v>
       </c>
-      <c r="H214" s="107" t="s">
+      <c r="H214" s="106" t="s">
         <v>903</v>
       </c>
-      <c r="I214" s="89"/>
-      <c r="J214" s="89"/>
-      <c r="K214" s="125" t="s">
+      <c r="I214" s="88"/>
+      <c r="J214" s="88"/>
+      <c r="K214" s="124" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="102" t="s">
+      <c r="A215" s="101" t="s">
         <v>904</v>
       </c>
-      <c r="B215" s="103" t="s">
+      <c r="B215" s="102" t="s">
         <v>905</v>
       </c>
-      <c r="C215" s="113" t="s">
+      <c r="C215" s="112" t="s">
         <v>906</v>
       </c>
-      <c r="D215" s="113" t="s">
+      <c r="D215" s="112" t="s">
         <v>907</v>
       </c>
-      <c r="E215" s="134" t="s">
+      <c r="E215" s="133" t="s">
         <v>908</v>
       </c>
       <c r="F215" s="18"/>
-      <c r="G215" s="118" t="s">
+      <c r="G215" s="117" t="s">
         <v>909</v>
       </c>
-      <c r="H215" s="107" t="s">
+      <c r="H215" s="106" t="s">
         <v>910</v>
       </c>
-      <c r="I215" s="89"/>
-      <c r="J215" s="89"/>
-      <c r="K215" s="125" t="s">
+      <c r="I215" s="88"/>
+      <c r="J215" s="88"/>
+      <c r="K215" s="124" t="s">
         <v>823</v>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="34" t="s">
+      <c r="A216" s="33" t="s">
         <v>911</v>
       </c>
-      <c r="B216" s="35" t="s">
+      <c r="B216" s="34" t="s">
         <v>912</v>
       </c>
       <c r="C216" s="7"/>
@@ -17866,131 +17863,131 @@
       <c r="K216" s="7"/>
     </row>
     <row r="217">
-      <c r="A217" s="136" t="s">
+      <c r="A217" s="135" t="s">
         <v>913</v>
       </c>
-      <c r="B217" s="137" t="s">
+      <c r="B217" s="136" t="s">
         <v>914</v>
       </c>
       <c r="C217" s="7"/>
-      <c r="D217" s="113"/>
+      <c r="D217" s="112"/>
       <c r="E217" s="18"/>
       <c r="F217" s="18"/>
-      <c r="G217" s="37"/>
-      <c r="H217" s="37"/>
-      <c r="I217" s="89"/>
-      <c r="J217" s="89"/>
+      <c r="G217" s="36"/>
+      <c r="H217" s="36"/>
+      <c r="I217" s="88"/>
+      <c r="J217" s="88"/>
       <c r="K217" s="7"/>
     </row>
     <row r="218">
-      <c r="A218" s="115" t="s">
+      <c r="A218" s="114" t="s">
         <v>915</v>
       </c>
-      <c r="B218" s="116" t="s">
+      <c r="B218" s="115" t="s">
         <v>916</v>
       </c>
-      <c r="C218" s="113" t="s">
+      <c r="C218" s="112" t="s">
         <v>917</v>
       </c>
-      <c r="D218" s="113" t="s">
+      <c r="D218" s="112" t="s">
         <v>918</v>
       </c>
       <c r="E218" s="18"/>
       <c r="F218" s="18"/>
-      <c r="G218" s="114"/>
-      <c r="H218" s="37"/>
-      <c r="I218" s="89"/>
-      <c r="J218" s="89"/>
+      <c r="G218" s="113"/>
+      <c r="H218" s="36"/>
+      <c r="I218" s="88"/>
+      <c r="J218" s="88"/>
       <c r="K218" s="7"/>
     </row>
     <row r="219">
-      <c r="A219" s="102" t="s">
+      <c r="A219" s="101" t="s">
         <v>919</v>
       </c>
-      <c r="B219" s="103" t="s">
+      <c r="B219" s="102" t="s">
         <v>920</v>
       </c>
-      <c r="C219" s="113" t="s">
+      <c r="C219" s="112" t="s">
         <v>917</v>
       </c>
-      <c r="D219" s="113" t="s">
+      <c r="D219" s="112" t="s">
         <v>918</v>
       </c>
       <c r="E219" s="18" t="s">
         <v>921</v>
       </c>
       <c r="F219" s="18"/>
-      <c r="G219" s="37" t="s">
+      <c r="G219" s="36" t="s">
         <v>732</v>
       </c>
-      <c r="H219" s="37" t="s">
+      <c r="H219" s="36" t="s">
         <v>922</v>
       </c>
-      <c r="I219" s="89"/>
-      <c r="J219" s="89"/>
+      <c r="I219" s="88"/>
+      <c r="J219" s="88"/>
       <c r="K219" s="7"/>
     </row>
     <row r="220">
-      <c r="A220" s="102" t="s">
+      <c r="A220" s="101" t="s">
         <v>923</v>
       </c>
-      <c r="B220" s="103" t="s">
+      <c r="B220" s="102" t="s">
         <v>924</v>
       </c>
-      <c r="C220" s="113" t="s">
+      <c r="C220" s="112" t="s">
         <v>917</v>
       </c>
-      <c r="D220" s="113" t="s">
+      <c r="D220" s="112" t="s">
         <v>918</v>
       </c>
       <c r="E220" s="18" t="s">
         <v>925</v>
       </c>
       <c r="F220" s="18"/>
-      <c r="G220" s="89" t="s">
+      <c r="G220" s="88" t="s">
         <v>732</v>
       </c>
-      <c r="H220" s="89" t="s">
+      <c r="H220" s="88" t="s">
         <v>926</v>
       </c>
-      <c r="I220" s="89"/>
-      <c r="J220" s="89"/>
+      <c r="I220" s="88"/>
+      <c r="J220" s="88"/>
       <c r="K220" s="7"/>
     </row>
     <row r="221">
-      <c r="A221" s="115" t="s">
+      <c r="A221" s="114" t="s">
         <v>927</v>
       </c>
-      <c r="B221" s="138" t="s">
+      <c r="B221" s="137" t="s">
         <v>928</v>
       </c>
-      <c r="C221" s="113" t="s">
+      <c r="C221" s="112" t="s">
         <v>929</v>
       </c>
-      <c r="D221" s="113" t="s">
+      <c r="D221" s="112" t="s">
         <v>930</v>
       </c>
       <c r="E221" s="18" t="s">
         <v>931</v>
       </c>
       <c r="F221" s="18"/>
-      <c r="G221" s="37" t="s">
+      <c r="G221" s="36" t="s">
         <v>738</v>
       </c>
-      <c r="H221" s="37" t="s">
+      <c r="H221" s="36" t="s">
         <v>932</v>
       </c>
       <c r="I221" s="7"/>
       <c r="J221" s="7"/>
-      <c r="K221" s="113" t="s">
+      <c r="K221" s="112" t="s">
         <v>933</v>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="40" t="s">
+      <c r="A222" s="39" t="s">
         <v>934</v>
       </c>
-      <c r="B222" s="139" t="s">
+      <c r="B222" s="138" t="s">
         <v>935</v>
       </c>
       <c r="C222" s="7"/>
@@ -17998,16 +17995,16 @@
       <c r="E222" s="18"/>
       <c r="F222" s="18"/>
       <c r="G222" s="4"/>
-      <c r="H222" s="49"/>
+      <c r="H222" s="48"/>
       <c r="I222" s="7"/>
       <c r="J222" s="7"/>
       <c r="K222" s="7"/>
     </row>
     <row r="223">
-      <c r="A223" s="47" t="s">
+      <c r="A223" s="46" t="s">
         <v>936</v>
       </c>
-      <c r="B223" s="140" t="s">
+      <c r="B223" s="139" t="s">
         <v>937</v>
       </c>
       <c r="C223" s="7" t="s">
@@ -18021,18 +18018,18 @@
       <c r="G223" s="7" t="s">
         <v>940</v>
       </c>
-      <c r="H223" s="141" t="s">
+      <c r="H223" s="140" t="s">
         <v>941</v>
       </c>
       <c r="I223" s="7"/>
       <c r="J223" s="7"/>
-      <c r="K223" s="39"/>
+      <c r="K223" s="38"/>
     </row>
     <row r="224">
-      <c r="A224" s="47" t="s">
+      <c r="A224" s="46" t="s">
         <v>942</v>
       </c>
-      <c r="B224" s="140" t="s">
+      <c r="B224" s="139" t="s">
         <v>943</v>
       </c>
       <c r="C224" s="7" t="s">
@@ -18046,20 +18043,20 @@
       <c r="G224" s="4" t="s">
         <v>940</v>
       </c>
-      <c r="H224" s="130" t="s">
+      <c r="H224" s="129" t="s">
         <v>946</v>
       </c>
       <c r="I224" s="7"/>
       <c r="J224" s="7"/>
-      <c r="K224" s="77" t="s">
+      <c r="K224" s="76" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="47" t="s">
+      <c r="A225" s="46" t="s">
         <v>948</v>
       </c>
-      <c r="B225" s="140" t="s">
+      <c r="B225" s="139" t="s">
         <v>949</v>
       </c>
       <c r="C225" s="7" t="s">
@@ -18073,55 +18070,55 @@
       <c r="G225" s="7" t="s">
         <v>940</v>
       </c>
-      <c r="H225" s="141" t="s">
+      <c r="H225" s="140" t="s">
         <v>952</v>
       </c>
       <c r="I225" s="7"/>
       <c r="J225" s="7"/>
-      <c r="K225" s="39"/>
+      <c r="K225" s="38"/>
     </row>
     <row r="226">
-      <c r="A226" s="40" t="s">
+      <c r="A226" s="39" t="s">
         <v>953</v>
       </c>
-      <c r="B226" s="139" t="s">
+      <c r="B226" s="138" t="s">
         <v>616</v>
       </c>
-      <c r="C226" s="60" t="s">
+      <c r="C226" s="59" t="s">
         <v>617</v>
       </c>
       <c r="D226" s="7" t="s">
         <v>618</v>
       </c>
-      <c r="E226" s="127" t="s">
+      <c r="E226" s="126" t="s">
         <v>954</v>
       </c>
-      <c r="F226" s="127"/>
-      <c r="G226" s="142" t="s">
+      <c r="F226" s="126"/>
+      <c r="G226" s="141" t="s">
         <v>738</v>
       </c>
-      <c r="H226" s="143" t="s">
+      <c r="H226" s="142" t="s">
         <v>955</v>
       </c>
-      <c r="I226" s="39" t="s">
+      <c r="I226" s="38" t="s">
         <v>69</v>
       </c>
       <c r="J226" s="7"/>
       <c r="K226" s="7"/>
     </row>
     <row r="227">
-      <c r="A227" s="40" t="s">
+      <c r="A227" s="39" t="s">
         <v>956</v>
       </c>
-      <c r="B227" s="139" t="s">
+      <c r="B227" s="138" t="s">
         <v>957</v>
       </c>
-      <c r="C227" s="144" t="s">
+      <c r="C227" s="143" t="s">
         <v>826</v>
       </c>
       <c r="D227" s="7"/>
-      <c r="E227" s="145"/>
-      <c r="F227" s="145"/>
+      <c r="E227" s="144"/>
+      <c r="F227" s="144"/>
       <c r="G227" s="7"/>
       <c r="H227" s="7"/>
       <c r="I227" s="7"/>
@@ -18129,24 +18126,24 @@
       <c r="K227" s="7"/>
     </row>
     <row r="228">
-      <c r="A228" s="47" t="s">
+      <c r="A228" s="46" t="s">
         <v>958</v>
       </c>
-      <c r="B228" s="140" t="s">
+      <c r="B228" s="139" t="s">
         <v>959</v>
       </c>
-      <c r="C228" s="146" t="s">
+      <c r="C228" s="145" t="s">
         <v>826</v>
       </c>
       <c r="D228" s="7"/>
-      <c r="E228" s="39" t="s">
+      <c r="E228" s="38" t="s">
         <v>960</v>
       </c>
-      <c r="F228" s="89"/>
-      <c r="G228" s="89" t="s">
+      <c r="F228" s="88"/>
+      <c r="G228" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="H228" s="89" t="s">
+      <c r="H228" s="88" t="s">
         <v>59</v>
       </c>
       <c r="I228" s="7"/>
@@ -18154,55 +18151,55 @@
       <c r="K228" s="7"/>
     </row>
     <row r="229">
-      <c r="A229" s="53" t="s">
+      <c r="A229" s="52" t="s">
         <v>961</v>
       </c>
-      <c r="B229" s="59" t="s">
+      <c r="B229" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="C229" s="60" t="s">
+      <c r="C229" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="D229" s="60" t="s">
+      <c r="D229" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="E229" s="89" t="s">
+      <c r="E229" s="88" t="s">
         <v>962</v>
       </c>
-      <c r="F229" s="89"/>
-      <c r="G229" s="39" t="s">
+      <c r="F229" s="88"/>
+      <c r="G229" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="H229" s="39" t="s">
+      <c r="H229" s="38" t="s">
         <v>963</v>
       </c>
-      <c r="I229" s="39" t="s">
+      <c r="I229" s="38" t="s">
         <v>69</v>
       </c>
       <c r="J229" s="7"/>
       <c r="K229" s="7"/>
     </row>
     <row r="230">
-      <c r="A230" s="53" t="s">
+      <c r="A230" s="52" t="s">
         <v>964</v>
       </c>
-      <c r="B230" s="59" t="s">
+      <c r="B230" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="C230" s="60" t="s">
+      <c r="C230" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="D230" s="60" t="s">
+      <c r="D230" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="E230" s="89" t="s">
+      <c r="E230" s="88" t="s">
         <v>965</v>
       </c>
-      <c r="F230" s="89"/>
-      <c r="G230" s="39" t="s">
+      <c r="F230" s="88"/>
+      <c r="G230" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="H230" s="98" t="s">
+      <c r="H230" s="97" t="s">
         <v>966</v>
       </c>
       <c r="I230" s="7"/>
@@ -18210,26 +18207,26 @@
       <c r="K230" s="7"/>
     </row>
     <row r="231">
-      <c r="A231" s="53" t="s">
+      <c r="A231" s="52" t="s">
         <v>967</v>
       </c>
-      <c r="B231" s="59" t="s">
+      <c r="B231" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="C231" s="60" t="s">
+      <c r="C231" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="D231" s="60" t="s">
+      <c r="D231" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="E231" s="89" t="s">
+      <c r="E231" s="88" t="s">
         <v>968</v>
       </c>
-      <c r="F231" s="89"/>
-      <c r="G231" s="39" t="s">
+      <c r="F231" s="88"/>
+      <c r="G231" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="H231" s="39" t="s">
+      <c r="H231" s="38" t="s">
         <v>969</v>
       </c>
       <c r="I231" s="7"/>
@@ -18237,26 +18234,26 @@
       <c r="K231" s="7"/>
     </row>
     <row r="232">
-      <c r="A232" s="53" t="s">
+      <c r="A232" s="52" t="s">
         <v>970</v>
       </c>
-      <c r="B232" s="59" t="s">
+      <c r="B232" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="C232" s="60" t="s">
+      <c r="C232" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="D232" s="60" t="s">
+      <c r="D232" s="59" t="s">
         <v>971</v>
       </c>
-      <c r="E232" s="89" t="s">
+      <c r="E232" s="88" t="s">
         <v>972</v>
       </c>
-      <c r="F232" s="89"/>
-      <c r="G232" s="39" t="s">
+      <c r="F232" s="88"/>
+      <c r="G232" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="H232" s="39" t="s">
+      <c r="H232" s="38" t="s">
         <v>973</v>
       </c>
       <c r="I232" s="7"/>
@@ -18264,26 +18261,26 @@
       <c r="K232" s="7"/>
     </row>
     <row r="233">
-      <c r="A233" s="53" t="s">
+      <c r="A233" s="52" t="s">
         <v>974</v>
       </c>
-      <c r="B233" s="59" t="s">
+      <c r="B233" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="C233" s="60" t="s">
+      <c r="C233" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="D233" s="60" t="s">
+      <c r="D233" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="E233" s="89" t="s">
+      <c r="E233" s="88" t="s">
         <v>975</v>
       </c>
-      <c r="F233" s="89"/>
-      <c r="G233" s="60" t="s">
+      <c r="F233" s="88"/>
+      <c r="G233" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="H233" s="60" t="s">
+      <c r="H233" s="59" t="s">
         <v>976</v>
       </c>
       <c r="I233" s="7"/>
@@ -18291,26 +18288,26 @@
       <c r="K233" s="7"/>
     </row>
     <row r="234">
-      <c r="A234" s="53" t="s">
+      <c r="A234" s="52" t="s">
         <v>977</v>
       </c>
-      <c r="B234" s="59" t="s">
+      <c r="B234" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="C234" s="60" t="s">
+      <c r="C234" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="D234" s="60" t="s">
+      <c r="D234" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="E234" s="89" t="s">
+      <c r="E234" s="88" t="s">
         <v>978</v>
       </c>
-      <c r="F234" s="89"/>
-      <c r="G234" s="60" t="s">
+      <c r="F234" s="88"/>
+      <c r="G234" s="59" t="s">
         <v>979</v>
       </c>
-      <c r="H234" s="60" t="s">
+      <c r="H234" s="59" t="s">
         <v>980</v>
       </c>
       <c r="I234" s="7"/>
@@ -18318,26 +18315,26 @@
       <c r="K234" s="7"/>
     </row>
     <row r="235">
-      <c r="A235" s="53" t="s">
+      <c r="A235" s="52" t="s">
         <v>981</v>
       </c>
-      <c r="B235" s="59" t="s">
+      <c r="B235" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="C235" s="60" t="s">
+      <c r="C235" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="D235" s="60" t="s">
+      <c r="D235" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="E235" s="89" t="s">
+      <c r="E235" s="88" t="s">
         <v>982</v>
       </c>
-      <c r="F235" s="89"/>
-      <c r="G235" s="60" t="s">
+      <c r="F235" s="88"/>
+      <c r="G235" s="59" t="s">
         <v>983</v>
       </c>
-      <c r="H235" s="60" t="s">
+      <c r="H235" s="59" t="s">
         <v>984</v>
       </c>
       <c r="I235" s="7"/>
@@ -18345,26 +18342,26 @@
       <c r="K235" s="7"/>
     </row>
     <row r="236">
-      <c r="A236" s="53" t="s">
+      <c r="A236" s="52" t="s">
         <v>985</v>
       </c>
-      <c r="B236" s="59" t="s">
+      <c r="B236" s="58" t="s">
         <v>986</v>
       </c>
-      <c r="C236" s="60" t="s">
+      <c r="C236" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="D236" s="60" t="s">
+      <c r="D236" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="E236" s="89" t="s">
+      <c r="E236" s="88" t="s">
         <v>987</v>
       </c>
-      <c r="F236" s="89"/>
-      <c r="G236" s="147" t="s">
+      <c r="F236" s="88"/>
+      <c r="G236" s="146" t="s">
         <v>979</v>
       </c>
-      <c r="H236" s="147" t="s">
+      <c r="H236" s="146" t="s">
         <v>988</v>
       </c>
       <c r="I236" s="7"/>
@@ -18372,26 +18369,26 @@
       <c r="K236" s="7"/>
     </row>
     <row r="237">
-      <c r="A237" s="53" t="s">
+      <c r="A237" s="52" t="s">
         <v>989</v>
       </c>
-      <c r="B237" s="59" t="s">
+      <c r="B237" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="C237" s="60" t="s">
+      <c r="C237" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="D237" s="60" t="s">
+      <c r="D237" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="E237" s="89" t="s">
+      <c r="E237" s="88" t="s">
         <v>990</v>
       </c>
-      <c r="F237" s="89"/>
-      <c r="G237" s="60" t="s">
+      <c r="F237" s="88"/>
+      <c r="G237" s="59" t="s">
         <v>983</v>
       </c>
-      <c r="H237" s="60" t="s">
+      <c r="H237" s="59" t="s">
         <v>991</v>
       </c>
       <c r="I237" s="7"/>
@@ -18399,24 +18396,24 @@
       <c r="K237" s="7"/>
     </row>
     <row r="238">
-      <c r="A238" s="47" t="s">
+      <c r="A238" s="46" t="s">
         <v>992</v>
       </c>
-      <c r="B238" s="140" t="s">
+      <c r="B238" s="139" t="s">
         <v>993</v>
       </c>
-      <c r="C238" s="146" t="s">
+      <c r="C238" s="145" t="s">
         <v>826</v>
       </c>
-      <c r="D238" s="148"/>
-      <c r="E238" s="39" t="s">
+      <c r="D238" s="147"/>
+      <c r="E238" s="38" t="s">
         <v>994</v>
       </c>
-      <c r="F238" s="89"/>
-      <c r="G238" s="89" t="s">
+      <c r="F238" s="88"/>
+      <c r="G238" s="88" t="s">
         <v>995</v>
       </c>
-      <c r="H238" s="89" t="s">
+      <c r="H238" s="88" t="s">
         <v>59</v>
       </c>
       <c r="I238" s="7"/>
@@ -18424,55 +18421,55 @@
       <c r="K238" s="7"/>
     </row>
     <row r="239">
-      <c r="A239" s="53" t="s">
+      <c r="A239" s="52" t="s">
         <v>996</v>
       </c>
-      <c r="B239" s="59" t="s">
+      <c r="B239" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="C239" s="60" t="s">
+      <c r="C239" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="D239" s="60" t="s">
+      <c r="D239" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="E239" s="89" t="s">
+      <c r="E239" s="88" t="s">
         <v>997</v>
       </c>
-      <c r="F239" s="89"/>
-      <c r="G239" s="39" t="s">
+      <c r="F239" s="88"/>
+      <c r="G239" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="H239" s="39" t="s">
+      <c r="H239" s="38" t="s">
         <v>998</v>
       </c>
-      <c r="I239" s="39" t="s">
+      <c r="I239" s="38" t="s">
         <v>69</v>
       </c>
       <c r="J239" s="7"/>
       <c r="K239" s="7"/>
     </row>
     <row r="240">
-      <c r="A240" s="53" t="s">
+      <c r="A240" s="52" t="s">
         <v>999</v>
       </c>
-      <c r="B240" s="59" t="s">
+      <c r="B240" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="C240" s="60" t="s">
+      <c r="C240" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="D240" s="60" t="s">
+      <c r="D240" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="E240" s="89" t="s">
+      <c r="E240" s="88" t="s">
         <v>1000</v>
       </c>
-      <c r="F240" s="89"/>
-      <c r="G240" s="39" t="s">
+      <c r="F240" s="88"/>
+      <c r="G240" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="H240" s="39" t="s">
+      <c r="H240" s="38" t="s">
         <v>1001</v>
       </c>
       <c r="I240" s="7"/>
@@ -18480,26 +18477,26 @@
       <c r="K240" s="7"/>
     </row>
     <row r="241">
-      <c r="A241" s="53" t="s">
+      <c r="A241" s="52" t="s">
         <v>1002</v>
       </c>
-      <c r="B241" s="59" t="s">
+      <c r="B241" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="C241" s="60" t="s">
+      <c r="C241" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="D241" s="60" t="s">
+      <c r="D241" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="E241" s="89" t="s">
+      <c r="E241" s="88" t="s">
         <v>1003</v>
       </c>
-      <c r="F241" s="89"/>
-      <c r="G241" s="39" t="s">
+      <c r="F241" s="88"/>
+      <c r="G241" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="H241" s="39" t="s">
+      <c r="H241" s="38" t="s">
         <v>1004</v>
       </c>
       <c r="I241" s="7"/>
@@ -18507,26 +18504,26 @@
       <c r="K241" s="7"/>
     </row>
     <row r="242">
-      <c r="A242" s="53" t="s">
+      <c r="A242" s="52" t="s">
         <v>1005</v>
       </c>
-      <c r="B242" s="59" t="s">
+      <c r="B242" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="C242" s="60" t="s">
+      <c r="C242" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="D242" s="60" t="s">
+      <c r="D242" s="59" t="s">
         <v>971</v>
       </c>
-      <c r="E242" s="89" t="s">
+      <c r="E242" s="88" t="s">
         <v>1006</v>
       </c>
-      <c r="F242" s="89"/>
-      <c r="G242" s="39" t="s">
+      <c r="F242" s="88"/>
+      <c r="G242" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="H242" s="39" t="s">
+      <c r="H242" s="38" t="s">
         <v>1007</v>
       </c>
       <c r="I242" s="7"/>
@@ -18534,26 +18531,26 @@
       <c r="K242" s="7"/>
     </row>
     <row r="243">
-      <c r="A243" s="53" t="s">
+      <c r="A243" s="52" t="s">
         <v>1008</v>
       </c>
-      <c r="B243" s="59" t="s">
+      <c r="B243" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="C243" s="60" t="s">
+      <c r="C243" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="D243" s="60" t="s">
+      <c r="D243" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="E243" s="89" t="s">
+      <c r="E243" s="88" t="s">
         <v>1009</v>
       </c>
-      <c r="F243" s="89"/>
-      <c r="G243" s="39" t="s">
+      <c r="F243" s="88"/>
+      <c r="G243" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="H243" s="39" t="s">
+      <c r="H243" s="38" t="s">
         <v>1010</v>
       </c>
       <c r="I243" s="7"/>
@@ -18561,26 +18558,26 @@
       <c r="K243" s="7"/>
     </row>
     <row r="244">
-      <c r="A244" s="53" t="s">
+      <c r="A244" s="52" t="s">
         <v>1011</v>
       </c>
-      <c r="B244" s="59" t="s">
+      <c r="B244" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="C244" s="60" t="s">
+      <c r="C244" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="D244" s="60" t="s">
+      <c r="D244" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="E244" s="89" t="s">
+      <c r="E244" s="88" t="s">
         <v>1012</v>
       </c>
-      <c r="F244" s="89"/>
-      <c r="G244" s="60" t="s">
+      <c r="F244" s="88"/>
+      <c r="G244" s="59" t="s">
         <v>979</v>
       </c>
-      <c r="H244" s="60" t="s">
+      <c r="H244" s="59" t="s">
         <v>980</v>
       </c>
       <c r="I244" s="7"/>
@@ -18588,26 +18585,26 @@
       <c r="K244" s="7"/>
     </row>
     <row r="245">
-      <c r="A245" s="53" t="s">
+      <c r="A245" s="52" t="s">
         <v>1013</v>
       </c>
-      <c r="B245" s="59" t="s">
+      <c r="B245" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="C245" s="60" t="s">
+      <c r="C245" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="D245" s="60" t="s">
+      <c r="D245" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="E245" s="89" t="s">
+      <c r="E245" s="88" t="s">
         <v>1014</v>
       </c>
-      <c r="F245" s="89"/>
-      <c r="G245" s="60" t="s">
+      <c r="F245" s="88"/>
+      <c r="G245" s="59" t="s">
         <v>983</v>
       </c>
-      <c r="H245" s="60" t="s">
+      <c r="H245" s="59" t="s">
         <v>984</v>
       </c>
       <c r="I245" s="7"/>
@@ -18615,26 +18612,26 @@
       <c r="K245" s="7"/>
     </row>
     <row r="246">
-      <c r="A246" s="53" t="s">
+      <c r="A246" s="52" t="s">
         <v>1015</v>
       </c>
-      <c r="B246" s="59" t="s">
+      <c r="B246" s="58" t="s">
         <v>986</v>
       </c>
-      <c r="C246" s="60" t="s">
+      <c r="C246" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="D246" s="60" t="s">
+      <c r="D246" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="E246" s="89" t="s">
+      <c r="E246" s="88" t="s">
         <v>1016</v>
       </c>
-      <c r="F246" s="89"/>
-      <c r="G246" s="147" t="s">
+      <c r="F246" s="88"/>
+      <c r="G246" s="146" t="s">
         <v>979</v>
       </c>
-      <c r="H246" s="147" t="s">
+      <c r="H246" s="146" t="s">
         <v>1017</v>
       </c>
       <c r="I246" s="7"/>
@@ -18642,26 +18639,26 @@
       <c r="K246" s="7"/>
     </row>
     <row r="247">
-      <c r="A247" s="53" t="s">
+      <c r="A247" s="52" t="s">
         <v>1018</v>
       </c>
-      <c r="B247" s="59" t="s">
+      <c r="B247" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="C247" s="60" t="s">
+      <c r="C247" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="D247" s="60" t="s">
+      <c r="D247" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="E247" s="89" t="s">
+      <c r="E247" s="88" t="s">
         <v>1019</v>
       </c>
-      <c r="F247" s="89"/>
-      <c r="G247" s="60" t="s">
+      <c r="F247" s="88"/>
+      <c r="G247" s="59" t="s">
         <v>983</v>
       </c>
-      <c r="H247" s="60" t="s">
+      <c r="H247" s="59" t="s">
         <v>991</v>
       </c>
       <c r="I247" s="7"/>
@@ -18669,26 +18666,26 @@
       <c r="K247" s="7"/>
     </row>
     <row r="248">
-      <c r="A248" s="47" t="s">
+      <c r="A248" s="46" t="s">
         <v>1020</v>
       </c>
-      <c r="B248" s="140" t="s">
+      <c r="B248" s="139" t="s">
         <v>1021</v>
       </c>
-      <c r="C248" s="60" t="s">
+      <c r="C248" s="59" t="s">
         <v>1022</v>
       </c>
-      <c r="D248" s="60" t="s">
+      <c r="D248" s="59" t="s">
         <v>1023</v>
       </c>
-      <c r="E248" s="89" t="s">
+      <c r="E248" s="88" t="s">
         <v>1024</v>
       </c>
-      <c r="F248" s="89"/>
-      <c r="G248" s="39" t="s">
+      <c r="F248" s="88"/>
+      <c r="G248" s="38" t="s">
         <v>1025</v>
       </c>
-      <c r="H248" s="60" t="s">
+      <c r="H248" s="59" t="s">
         <v>1026</v>
       </c>
       <c r="I248" s="7"/>
@@ -18696,22 +18693,22 @@
       <c r="K248" s="7"/>
     </row>
     <row r="249">
-      <c r="A249" s="47" t="s">
+      <c r="A249" s="46" t="s">
         <v>1027</v>
       </c>
-      <c r="B249" s="140" t="s">
+      <c r="B249" s="139" t="s">
         <v>1028</v>
       </c>
       <c r="C249" s="7"/>
       <c r="D249" s="7"/>
-      <c r="E249" s="39" t="s">
+      <c r="E249" s="38" t="s">
         <v>1029</v>
       </c>
-      <c r="F249" s="89"/>
-      <c r="G249" s="89" t="s">
+      <c r="F249" s="88"/>
+      <c r="G249" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="H249" s="89" t="s">
+      <c r="H249" s="88" t="s">
         <v>59</v>
       </c>
       <c r="I249" s="7"/>
@@ -18719,55 +18716,55 @@
       <c r="K249" s="7"/>
     </row>
     <row r="250">
-      <c r="A250" s="53" t="s">
+      <c r="A250" s="52" t="s">
         <v>1030</v>
       </c>
-      <c r="B250" s="59" t="s">
+      <c r="B250" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="C250" s="60" t="s">
+      <c r="C250" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="D250" s="60" t="s">
+      <c r="D250" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="E250" s="89" t="s">
+      <c r="E250" s="88" t="s">
         <v>1031</v>
       </c>
-      <c r="F250" s="89"/>
-      <c r="G250" s="39" t="s">
+      <c r="F250" s="88"/>
+      <c r="G250" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="H250" s="39" t="s">
+      <c r="H250" s="38" t="s">
         <v>1032</v>
       </c>
-      <c r="I250" s="39" t="s">
+      <c r="I250" s="38" t="s">
         <v>69</v>
       </c>
       <c r="J250" s="7"/>
       <c r="K250" s="7"/>
     </row>
     <row r="251">
-      <c r="A251" s="53" t="s">
+      <c r="A251" s="52" t="s">
         <v>1033</v>
       </c>
-      <c r="B251" s="59" t="s">
+      <c r="B251" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="C251" s="60" t="s">
+      <c r="C251" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="D251" s="60" t="s">
+      <c r="D251" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="E251" s="89" t="s">
+      <c r="E251" s="88" t="s">
         <v>1034</v>
       </c>
-      <c r="F251" s="89"/>
-      <c r="G251" s="39" t="s">
+      <c r="F251" s="88"/>
+      <c r="G251" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="H251" s="39" t="s">
+      <c r="H251" s="38" t="s">
         <v>1035</v>
       </c>
       <c r="I251" s="7"/>
@@ -18775,26 +18772,26 @@
       <c r="K251" s="7"/>
     </row>
     <row r="252">
-      <c r="A252" s="53" t="s">
+      <c r="A252" s="52" t="s">
         <v>1036</v>
       </c>
-      <c r="B252" s="59" t="s">
+      <c r="B252" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="C252" s="60" t="s">
+      <c r="C252" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="D252" s="60" t="s">
+      <c r="D252" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="E252" s="89" t="s">
+      <c r="E252" s="88" t="s">
         <v>1037</v>
       </c>
-      <c r="F252" s="89"/>
-      <c r="G252" s="39" t="s">
+      <c r="F252" s="88"/>
+      <c r="G252" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="H252" s="39" t="s">
+      <c r="H252" s="38" t="s">
         <v>1038</v>
       </c>
       <c r="I252" s="7"/>
@@ -18802,26 +18799,26 @@
       <c r="K252" s="7"/>
     </row>
     <row r="253">
-      <c r="A253" s="53" t="s">
+      <c r="A253" s="52" t="s">
         <v>1039</v>
       </c>
-      <c r="B253" s="59" t="s">
+      <c r="B253" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="C253" s="60" t="s">
+      <c r="C253" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="D253" s="60" t="s">
+      <c r="D253" s="59" t="s">
         <v>971</v>
       </c>
-      <c r="E253" s="89" t="s">
+      <c r="E253" s="88" t="s">
         <v>1040</v>
       </c>
-      <c r="F253" s="89"/>
-      <c r="G253" s="39" t="s">
+      <c r="F253" s="88"/>
+      <c r="G253" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="H253" s="39" t="s">
+      <c r="H253" s="38" t="s">
         <v>1041</v>
       </c>
       <c r="I253" s="7"/>
@@ -18829,26 +18826,26 @@
       <c r="K253" s="7"/>
     </row>
     <row r="254">
-      <c r="A254" s="53" t="s">
+      <c r="A254" s="52" t="s">
         <v>1042</v>
       </c>
-      <c r="B254" s="59" t="s">
+      <c r="B254" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="C254" s="60" t="s">
+      <c r="C254" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="D254" s="60" t="s">
+      <c r="D254" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="E254" s="89" t="s">
+      <c r="E254" s="88" t="s">
         <v>1043</v>
       </c>
-      <c r="F254" s="89"/>
-      <c r="G254" s="60" t="s">
+      <c r="F254" s="88"/>
+      <c r="G254" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="H254" s="60" t="s">
+      <c r="H254" s="59" t="s">
         <v>1044</v>
       </c>
       <c r="I254" s="7"/>
@@ -18856,26 +18853,26 @@
       <c r="K254" s="7"/>
     </row>
     <row r="255">
-      <c r="A255" s="53" t="s">
+      <c r="A255" s="52" t="s">
         <v>1045</v>
       </c>
-      <c r="B255" s="59" t="s">
+      <c r="B255" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="C255" s="60" t="s">
+      <c r="C255" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="D255" s="60" t="s">
+      <c r="D255" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="E255" s="89" t="s">
+      <c r="E255" s="88" t="s">
         <v>1046</v>
       </c>
-      <c r="F255" s="89"/>
-      <c r="G255" s="60" t="s">
+      <c r="F255" s="88"/>
+      <c r="G255" s="59" t="s">
         <v>979</v>
       </c>
-      <c r="H255" s="60" t="s">
+      <c r="H255" s="59" t="s">
         <v>980</v>
       </c>
       <c r="I255" s="7"/>
@@ -18883,26 +18880,26 @@
       <c r="K255" s="7"/>
     </row>
     <row r="256">
-      <c r="A256" s="53" t="s">
+      <c r="A256" s="52" t="s">
         <v>1047</v>
       </c>
-      <c r="B256" s="59" t="s">
+      <c r="B256" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="C256" s="60" t="s">
+      <c r="C256" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="D256" s="60" t="s">
+      <c r="D256" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="E256" s="89" t="s">
+      <c r="E256" s="88" t="s">
         <v>1048</v>
       </c>
-      <c r="F256" s="89"/>
-      <c r="G256" s="60" t="s">
+      <c r="F256" s="88"/>
+      <c r="G256" s="59" t="s">
         <v>983</v>
       </c>
-      <c r="H256" s="60" t="s">
+      <c r="H256" s="59" t="s">
         <v>984</v>
       </c>
       <c r="I256" s="7"/>
@@ -18910,26 +18907,26 @@
       <c r="K256" s="7"/>
     </row>
     <row r="257">
-      <c r="A257" s="53" t="s">
+      <c r="A257" s="52" t="s">
         <v>1049</v>
       </c>
-      <c r="B257" s="59" t="s">
+      <c r="B257" s="58" t="s">
         <v>986</v>
       </c>
-      <c r="C257" s="60" t="s">
+      <c r="C257" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="D257" s="60" t="s">
+      <c r="D257" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="E257" s="89" t="s">
+      <c r="E257" s="88" t="s">
         <v>1050</v>
       </c>
-      <c r="F257" s="89"/>
-      <c r="G257" s="147" t="s">
+      <c r="F257" s="88"/>
+      <c r="G257" s="146" t="s">
         <v>979</v>
       </c>
-      <c r="H257" s="147" t="s">
+      <c r="H257" s="146" t="s">
         <v>1051</v>
       </c>
       <c r="I257" s="7"/>
@@ -18937,26 +18934,26 @@
       <c r="K257" s="7"/>
     </row>
     <row r="258">
-      <c r="A258" s="53" t="s">
+      <c r="A258" s="52" t="s">
         <v>1052</v>
       </c>
-      <c r="B258" s="59" t="s">
+      <c r="B258" s="58" t="s">
         <v>133</v>
       </c>
-      <c r="C258" s="60" t="s">
+      <c r="C258" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="D258" s="60" t="s">
+      <c r="D258" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="E258" s="89" t="s">
+      <c r="E258" s="88" t="s">
         <v>1053</v>
       </c>
-      <c r="F258" s="89"/>
-      <c r="G258" s="60" t="s">
+      <c r="F258" s="88"/>
+      <c r="G258" s="59" t="s">
         <v>983</v>
       </c>
-      <c r="H258" s="60" t="s">
+      <c r="H258" s="59" t="s">
         <v>991</v>
       </c>
       <c r="I258" s="7"/>
@@ -18964,26 +18961,26 @@
       <c r="K258" s="7"/>
     </row>
     <row r="259">
-      <c r="A259" s="40" t="s">
+      <c r="A259" s="39" t="s">
         <v>1054</v>
       </c>
-      <c r="B259" s="139" t="s">
+      <c r="B259" s="138" t="s">
         <v>1055</v>
       </c>
-      <c r="C259" s="149" t="s">
+      <c r="C259" s="148" t="s">
         <v>1056</v>
       </c>
-      <c r="D259" s="149" t="s">
+      <c r="D259" s="148" t="s">
         <v>1057</v>
       </c>
-      <c r="E259" s="150" t="s">
+      <c r="E259" s="149" t="s">
         <v>1058</v>
       </c>
-      <c r="F259" s="150"/>
-      <c r="G259" s="39" t="s">
+      <c r="F259" s="149"/>
+      <c r="G259" s="38" t="s">
         <v>1059</v>
       </c>
-      <c r="H259" s="109" t="s">
+      <c r="H259" s="108" t="s">
         <v>1060</v>
       </c>
       <c r="I259" s="7"/>
@@ -19069,22 +19066,22 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="150" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="152" t="s">
+      <c r="B1" s="151" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="152" t="s">
+      <c r="C1" s="151" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="152" t="s">
+      <c r="D1" s="151" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="152" t="s">
+      <c r="E1" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="152" t="s">
+      <c r="F1" s="151" t="s">
         <v>2</v>
       </c>
     </row>
@@ -19095,16 +19092,16 @@
       <c r="B2" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="38" t="s">
         <v>398</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="38" t="s">
         <v>399</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>1062</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="35" t="s">
         <v>1063</v>
       </c>
     </row>
@@ -19112,17 +19109,17 @@
       <c r="A3" s="18" t="s">
         <v>1064</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="38" t="s">
         <v>1065</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="59" t="s">
         <v>1066</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="36" t="s">
+      <c r="D3" s="59"/>
+      <c r="E3" s="35" t="s">
         <v>1067</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="35" t="s">
         <v>1068</v>
       </c>
     </row>
@@ -19130,17 +19127,17 @@
       <c r="A4" s="18" t="s">
         <v>1064</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="38" t="s">
         <v>1065</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="59" t="s">
         <v>1066</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="36" t="s">
+      <c r="D4" s="59"/>
+      <c r="E4" s="35" t="s">
         <v>1069</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="35" t="s">
         <v>1070</v>
       </c>
     </row>
@@ -19151,82 +19148,82 @@
       <c r="B5" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="38" t="s">
         <v>398</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="38" t="s">
         <v>399</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="35" t="s">
         <v>1071</v>
       </c>
-      <c r="G5" s="153"/>
-      <c r="H5" s="153"/>
-      <c r="I5" s="153"/>
-      <c r="J5" s="153"/>
-      <c r="K5" s="153"/>
-      <c r="L5" s="153"/>
-      <c r="M5" s="153"/>
-      <c r="N5" s="153"/>
-      <c r="O5" s="153"/>
-      <c r="P5" s="153"/>
-      <c r="Q5" s="153"/>
-      <c r="R5" s="153"/>
-      <c r="S5" s="153"/>
-      <c r="T5" s="153"/>
-      <c r="U5" s="153"/>
-      <c r="V5" s="153"/>
-      <c r="W5" s="153"/>
-      <c r="X5" s="153"/>
-      <c r="Y5" s="153"/>
-      <c r="Z5" s="153"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="152"/>
+      <c r="I5" s="152"/>
+      <c r="J5" s="152"/>
+      <c r="K5" s="152"/>
+      <c r="L5" s="152"/>
+      <c r="M5" s="152"/>
+      <c r="N5" s="152"/>
+      <c r="O5" s="152"/>
+      <c r="P5" s="152"/>
+      <c r="Q5" s="152"/>
+      <c r="R5" s="152"/>
+      <c r="S5" s="152"/>
+      <c r="T5" s="152"/>
+      <c r="U5" s="152"/>
+      <c r="V5" s="152"/>
+      <c r="W5" s="152"/>
+      <c r="X5" s="152"/>
+      <c r="Y5" s="152"/>
+      <c r="Z5" s="152"/>
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
         <v>1072</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="38" t="s">
         <v>1073</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="59" t="s">
         <v>1074</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="59" t="s">
         <v>1075</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="35" t="s">
         <v>1076</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="153"/>
-      <c r="H6" s="153"/>
-      <c r="I6" s="153"/>
-      <c r="J6" s="153"/>
-      <c r="K6" s="153"/>
-      <c r="L6" s="153"/>
-      <c r="M6" s="153"/>
-      <c r="N6" s="153"/>
-      <c r="O6" s="153"/>
-      <c r="P6" s="153"/>
-      <c r="Q6" s="153"/>
-      <c r="R6" s="153"/>
-      <c r="S6" s="153"/>
-      <c r="T6" s="153"/>
-      <c r="U6" s="153"/>
-      <c r="V6" s="153"/>
-      <c r="W6" s="153"/>
-      <c r="X6" s="153"/>
-      <c r="Y6" s="153"/>
-      <c r="Z6" s="153"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="152"/>
+      <c r="H6" s="152"/>
+      <c r="I6" s="152"/>
+      <c r="J6" s="152"/>
+      <c r="K6" s="152"/>
+      <c r="L6" s="152"/>
+      <c r="M6" s="152"/>
+      <c r="N6" s="152"/>
+      <c r="O6" s="152"/>
+      <c r="P6" s="152"/>
+      <c r="Q6" s="152"/>
+      <c r="R6" s="152"/>
+      <c r="S6" s="152"/>
+      <c r="T6" s="152"/>
+      <c r="U6" s="152"/>
+      <c r="V6" s="152"/>
+      <c r="W6" s="152"/>
+      <c r="X6" s="152"/>
+      <c r="Y6" s="152"/>
+      <c r="Z6" s="152"/>
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
         <v>1077</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="35" t="s">
         <v>1078</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -19235,10 +19232,10 @@
       <c r="D7" s="7" t="s">
         <v>1080</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="35" t="s">
         <v>1081</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="35" t="s">
         <v>1082</v>
       </c>
     </row>
@@ -19249,32 +19246,32 @@
       <c r="B8" s="7" t="s">
         <v>1084</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="38" t="s">
         <v>700</v>
       </c>
       <c r="D8" s="7"/>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="38" t="s">
         <v>1085</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="38" t="s">
         <v>1086</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="76" t="s">
         <v>1087</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="76" t="s">
         <v>1088</v>
       </c>
-      <c r="C9" s="77" t="s">
+      <c r="C9" s="76" t="s">
         <v>700</v>
       </c>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77" t="s">
+      <c r="D9" s="76"/>
+      <c r="E9" s="76" t="s">
         <v>1089</v>
       </c>
-      <c r="F9" s="77" t="s">
+      <c r="F9" s="76" t="s">
         <v>1086</v>
       </c>
     </row>
@@ -19282,17 +19279,17 @@
       <c r="A10" s="7" t="s">
         <v>1090</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="38" t="s">
         <v>1091</v>
       </c>
-      <c r="C10" s="154" t="s">
+      <c r="C10" s="153" t="s">
         <v>1092</v>
       </c>
       <c r="D10" s="7"/>
-      <c r="E10" s="39" t="s">
+      <c r="E10" s="38" t="s">
         <v>1093</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="38" t="s">
         <v>1094</v>
       </c>
     </row>
@@ -19300,7 +19297,7 @@
       <c r="A11" s="7" t="s">
         <v>1095</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="38" t="s">
         <v>1096</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -19309,30 +19306,30 @@
       <c r="D11" s="7" t="s">
         <v>1098</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="38" t="s">
         <v>1099</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="38" t="s">
         <v>1100</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="77" t="s">
         <v>1101</v>
       </c>
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="76" t="s">
         <v>1102</v>
       </c>
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="77" t="s">
         <v>472</v>
       </c>
-      <c r="D12" s="78" t="s">
+      <c r="D12" s="77" t="s">
         <v>473</v>
       </c>
-      <c r="E12" s="77" t="s">
+      <c r="E12" s="76" t="s">
         <v>1103</v>
       </c>
-      <c r="F12" s="155" t="s">
+      <c r="F12" s="154" t="s">
         <v>1104</v>
       </c>
     </row>
@@ -19340,31 +19337,31 @@
       <c r="A13" s="7" t="s">
         <v>1105</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="38" t="s">
         <v>1106</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="38" t="s">
         <v>1107</v>
       </c>
-      <c r="F13" s="98" t="s">
+      <c r="F13" s="97" t="s">
         <v>1108</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="127" t="s">
+      <c r="A14" s="126" t="s">
         <v>1109</v>
       </c>
-      <c r="B14" s="145"/>
-      <c r="C14" s="145"/>
-      <c r="D14" s="60" t="s">
+      <c r="B14" s="144"/>
+      <c r="C14" s="144"/>
+      <c r="D14" s="59" t="s">
         <v>1110</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="38" t="s">
         <v>1111</v>
       </c>
-      <c r="F14" s="98" t="s">
+      <c r="F14" s="97" t="s">
         <v>1112</v>
       </c>
     </row>
@@ -23346,93 +23343,93 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" s="156" t="s">
+      <c r="A2" s="155" t="s">
         <v>1113</v>
       </c>
-      <c r="B2" s="157" t="s">
+      <c r="B2" s="156" t="s">
         <v>1114</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="157" t="s">
         <v>1115</v>
       </c>
-      <c r="B3" s="157" t="s">
+      <c r="B3" s="156" t="s">
         <v>1116</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="159" t="s">
+      <c r="A4" s="158" t="s">
         <v>1117</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="160" t="s">
+      <c r="A6" s="159" t="s">
         <v>1118</v>
       </c>
-      <c r="B6" s="157" t="s">
+      <c r="B6" s="156" t="s">
         <v>1119</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="157" t="s">
+      <c r="B7" s="156" t="s">
         <v>1120</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="157"/>
+      <c r="B8" s="156"/>
     </row>
     <row r="9">
-      <c r="B9" s="157"/>
+      <c r="B9" s="156"/>
     </row>
     <row r="10">
-      <c r="A10" s="160" t="s">
+      <c r="A10" s="159" t="s">
         <v>1121</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="160" t="s">
+      <c r="A11" s="159" t="s">
         <v>1122</v>
       </c>
-      <c r="B11" s="161" t="s">
+      <c r="B11" s="160" t="s">
         <v>1123</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="162" t="s">
+      <c r="B12" s="161" t="s">
         <v>1124</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="163"/>
-      <c r="B13" s="164" t="s">
+      <c r="A13" s="162"/>
+      <c r="B13" s="163" t="s">
         <v>1125</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="165" t="s">
+      <c r="B14" s="164" t="s">
         <v>1126</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="166" t="s">
+      <c r="B15" s="165" t="s">
         <v>1127</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="167" t="s">
+      <c r="B16" s="166" t="s">
         <v>1128</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="160"/>
+      <c r="A17" s="159"/>
       <c r="B17" s="28"/>
     </row>
     <row r="18">
-      <c r="A18" s="160" t="s">
+      <c r="A18" s="159" t="s">
         <v>1129</v>
       </c>
-      <c r="B18" s="168" t="s">
+      <c r="B18" s="167" t="s">
         <v>1130</v>
       </c>
     </row>
@@ -23440,13 +23437,13 @@
       <c r="A19" s="7" t="s">
         <v>1131</v>
       </c>
-      <c r="B19" s="169"/>
+      <c r="B19" s="168"/>
     </row>
     <row r="21">
-      <c r="A21" s="160" t="s">
+      <c r="A21" s="159" t="s">
         <v>1132</v>
       </c>
-      <c r="B21" s="170" t="s">
+      <c r="B21" s="169" t="s">
         <v>1133</v>
       </c>
     </row>
@@ -23472,47 +23469,47 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="159" t="s">
         <v>1134</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="171" t="s">
+      <c r="A2" s="170" t="s">
         <v>1135</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="157" t="s">
+      <c r="A3" s="156" t="s">
         <v>1136</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="171" t="s">
+      <c r="A4" s="170" t="s">
         <v>1137</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="157" t="s">
+      <c r="A5" s="156" t="s">
         <v>1138</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="157" t="s">
+      <c r="A6" s="156" t="s">
         <v>1139</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="157" t="s">
+      <c r="A7" s="156" t="s">
         <v>1140</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="171" t="s">
+      <c r="A8" s="170" t="s">
         <v>1141</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="157" t="s">
+      <c r="A9" s="156" t="s">
         <v>1142</v>
       </c>
     </row>
@@ -23541,7 +23538,7 @@
       <c r="A1" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="B1" s="172" t="s">
+      <c r="B1" s="171" t="s">
         <v>1143</v>
       </c>
     </row>
@@ -23599,7 +23596,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="161"/>
+      <c r="A1" s="160"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -23623,13 +23620,13 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="172" t="s">
         <v>1152</v>
       </c>
-      <c r="C1" s="173" t="s">
+      <c r="C1" s="172" t="s">
         <v>1153</v>
       </c>
-      <c r="E1" s="174" t="s">
+      <c r="E1" s="173" t="s">
         <v>2</v>
       </c>
     </row>
@@ -23649,10 +23646,10 @@
       <c r="E2" s="7"/>
     </row>
     <row r="3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="35" t="s">
         <v>1158</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="35" t="s">
         <v>1159</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -23665,10 +23662,10 @@
       <c r="E3" s="7"/>
     </row>
     <row r="4">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="35" t="s">
         <v>1161</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="35" t="s">
         <v>1159</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -23681,16 +23678,16 @@
       <c r="E4" s="7"/>
     </row>
     <row r="5">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="35" t="s">
         <v>1162</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="35" t="s">
         <v>1163</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>1160</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="36" t="s">
         <v>1164</v>
       </c>
       <c r="E5" s="7" t="s">
@@ -23749,220 +23746,220 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="175" t="s">
+      <c r="A9" s="174" t="s">
         <v>1178</v>
       </c>
-      <c r="B9" s="176" t="s">
+      <c r="B9" s="175" t="s">
         <v>1179</v>
       </c>
-      <c r="C9" s="176" t="s">
+      <c r="C9" s="175" t="s">
         <v>1160</v>
       </c>
-      <c r="D9" s="176" t="s">
+      <c r="D9" s="175" t="s">
         <v>1180</v>
       </c>
-      <c r="E9" s="176"/>
-      <c r="F9" s="176"/>
-      <c r="G9" s="176"/>
-      <c r="H9" s="176"/>
-      <c r="I9" s="176"/>
-      <c r="J9" s="176"/>
-      <c r="K9" s="176"/>
-      <c r="L9" s="176"/>
-      <c r="M9" s="176"/>
-      <c r="N9" s="176"/>
-      <c r="O9" s="176"/>
-      <c r="P9" s="176"/>
-      <c r="Q9" s="176"/>
-      <c r="R9" s="176"/>
-      <c r="S9" s="176"/>
-      <c r="T9" s="176"/>
-      <c r="U9" s="176"/>
-      <c r="V9" s="176"/>
-      <c r="W9" s="176"/>
-      <c r="X9" s="176"/>
-      <c r="Y9" s="176"/>
-      <c r="Z9" s="176"/>
+      <c r="E9" s="175"/>
+      <c r="F9" s="175"/>
+      <c r="G9" s="175"/>
+      <c r="H9" s="175"/>
+      <c r="I9" s="175"/>
+      <c r="J9" s="175"/>
+      <c r="K9" s="175"/>
+      <c r="L9" s="175"/>
+      <c r="M9" s="175"/>
+      <c r="N9" s="175"/>
+      <c r="O9" s="175"/>
+      <c r="P9" s="175"/>
+      <c r="Q9" s="175"/>
+      <c r="R9" s="175"/>
+      <c r="S9" s="175"/>
+      <c r="T9" s="175"/>
+      <c r="U9" s="175"/>
+      <c r="V9" s="175"/>
+      <c r="W9" s="175"/>
+      <c r="X9" s="175"/>
+      <c r="Y9" s="175"/>
+      <c r="Z9" s="175"/>
     </row>
     <row r="10">
-      <c r="A10" s="175" t="s">
+      <c r="A10" s="174" t="s">
         <v>1181</v>
       </c>
-      <c r="B10" s="176" t="s">
+      <c r="B10" s="175" t="s">
         <v>1179</v>
       </c>
-      <c r="C10" s="176" t="s">
+      <c r="C10" s="175" t="s">
         <v>1160</v>
       </c>
-      <c r="D10" s="176" t="s">
+      <c r="D10" s="175" t="s">
         <v>1182</v>
       </c>
-      <c r="E10" s="177"/>
-      <c r="F10" s="177"/>
-      <c r="G10" s="177"/>
-      <c r="H10" s="177"/>
-      <c r="I10" s="177"/>
-      <c r="J10" s="177"/>
-      <c r="K10" s="177"/>
-      <c r="L10" s="177"/>
-      <c r="M10" s="177"/>
-      <c r="N10" s="177"/>
-      <c r="O10" s="177"/>
-      <c r="P10" s="177"/>
-      <c r="Q10" s="177"/>
-      <c r="R10" s="177"/>
-      <c r="S10" s="177"/>
-      <c r="T10" s="177"/>
-      <c r="U10" s="177"/>
-      <c r="V10" s="177"/>
-      <c r="W10" s="177"/>
-      <c r="X10" s="177"/>
-      <c r="Y10" s="177"/>
-      <c r="Z10" s="177"/>
+      <c r="E10" s="176"/>
+      <c r="F10" s="176"/>
+      <c r="G10" s="176"/>
+      <c r="H10" s="176"/>
+      <c r="I10" s="176"/>
+      <c r="J10" s="176"/>
+      <c r="K10" s="176"/>
+      <c r="L10" s="176"/>
+      <c r="M10" s="176"/>
+      <c r="N10" s="176"/>
+      <c r="O10" s="176"/>
+      <c r="P10" s="176"/>
+      <c r="Q10" s="176"/>
+      <c r="R10" s="176"/>
+      <c r="S10" s="176"/>
+      <c r="T10" s="176"/>
+      <c r="U10" s="176"/>
+      <c r="V10" s="176"/>
+      <c r="W10" s="176"/>
+      <c r="X10" s="176"/>
+      <c r="Y10" s="176"/>
+      <c r="Z10" s="176"/>
     </row>
     <row r="11">
-      <c r="A11" s="175" t="s">
+      <c r="A11" s="174" t="s">
         <v>1183</v>
       </c>
-      <c r="B11" s="176" t="s">
+      <c r="B11" s="175" t="s">
         <v>1184</v>
       </c>
-      <c r="C11" s="176" t="s">
+      <c r="C11" s="175" t="s">
         <v>1160</v>
       </c>
-      <c r="D11" s="176" t="s">
+      <c r="D11" s="175" t="s">
         <v>1185</v>
       </c>
-      <c r="E11" s="177"/>
-      <c r="F11" s="177"/>
-      <c r="G11" s="177"/>
-      <c r="H11" s="177"/>
-      <c r="I11" s="177"/>
-      <c r="J11" s="177"/>
-      <c r="K11" s="177"/>
-      <c r="L11" s="177"/>
-      <c r="M11" s="177"/>
-      <c r="N11" s="177"/>
-      <c r="O11" s="177"/>
-      <c r="P11" s="177"/>
-      <c r="Q11" s="177"/>
-      <c r="R11" s="177"/>
-      <c r="S11" s="177"/>
-      <c r="T11" s="177"/>
-      <c r="U11" s="177"/>
-      <c r="V11" s="177"/>
-      <c r="W11" s="177"/>
-      <c r="X11" s="177"/>
-      <c r="Y11" s="177"/>
-      <c r="Z11" s="177"/>
+      <c r="E11" s="176"/>
+      <c r="F11" s="176"/>
+      <c r="G11" s="176"/>
+      <c r="H11" s="176"/>
+      <c r="I11" s="176"/>
+      <c r="J11" s="176"/>
+      <c r="K11" s="176"/>
+      <c r="L11" s="176"/>
+      <c r="M11" s="176"/>
+      <c r="N11" s="176"/>
+      <c r="O11" s="176"/>
+      <c r="P11" s="176"/>
+      <c r="Q11" s="176"/>
+      <c r="R11" s="176"/>
+      <c r="S11" s="176"/>
+      <c r="T11" s="176"/>
+      <c r="U11" s="176"/>
+      <c r="V11" s="176"/>
+      <c r="W11" s="176"/>
+      <c r="X11" s="176"/>
+      <c r="Y11" s="176"/>
+      <c r="Z11" s="176"/>
     </row>
     <row r="12">
-      <c r="A12" s="175" t="s">
+      <c r="A12" s="174" t="s">
         <v>1186</v>
       </c>
-      <c r="B12" s="176" t="s">
+      <c r="B12" s="175" t="s">
         <v>1184</v>
       </c>
-      <c r="C12" s="176" t="s">
+      <c r="C12" s="175" t="s">
         <v>1160</v>
       </c>
-      <c r="D12" s="176" t="s">
+      <c r="D12" s="175" t="s">
         <v>1187</v>
       </c>
-      <c r="E12" s="177"/>
-      <c r="F12" s="177"/>
-      <c r="G12" s="177"/>
-      <c r="H12" s="177"/>
-      <c r="I12" s="177"/>
-      <c r="J12" s="177"/>
-      <c r="K12" s="177"/>
-      <c r="L12" s="177"/>
-      <c r="M12" s="177"/>
-      <c r="N12" s="177"/>
-      <c r="O12" s="177"/>
-      <c r="P12" s="177"/>
-      <c r="Q12" s="177"/>
-      <c r="R12" s="177"/>
-      <c r="S12" s="177"/>
-      <c r="T12" s="177"/>
-      <c r="U12" s="177"/>
-      <c r="V12" s="177"/>
-      <c r="W12" s="177"/>
-      <c r="X12" s="177"/>
-      <c r="Y12" s="177"/>
-      <c r="Z12" s="177"/>
+      <c r="E12" s="176"/>
+      <c r="F12" s="176"/>
+      <c r="G12" s="176"/>
+      <c r="H12" s="176"/>
+      <c r="I12" s="176"/>
+      <c r="J12" s="176"/>
+      <c r="K12" s="176"/>
+      <c r="L12" s="176"/>
+      <c r="M12" s="176"/>
+      <c r="N12" s="176"/>
+      <c r="O12" s="176"/>
+      <c r="P12" s="176"/>
+      <c r="Q12" s="176"/>
+      <c r="R12" s="176"/>
+      <c r="S12" s="176"/>
+      <c r="T12" s="176"/>
+      <c r="U12" s="176"/>
+      <c r="V12" s="176"/>
+      <c r="W12" s="176"/>
+      <c r="X12" s="176"/>
+      <c r="Y12" s="176"/>
+      <c r="Z12" s="176"/>
     </row>
     <row r="13">
-      <c r="A13" s="175" t="s">
+      <c r="A13" s="174" t="s">
         <v>1188</v>
       </c>
-      <c r="B13" s="175" t="s">
+      <c r="B13" s="174" t="s">
         <v>1163</v>
       </c>
-      <c r="C13" s="176" t="s">
+      <c r="C13" s="175" t="s">
         <v>1160</v>
       </c>
-      <c r="D13" s="176" t="s">
+      <c r="D13" s="175" t="s">
         <v>1189</v>
       </c>
-      <c r="E13" s="177"/>
-      <c r="F13" s="177"/>
-      <c r="G13" s="177"/>
-      <c r="H13" s="177"/>
-      <c r="I13" s="177"/>
-      <c r="J13" s="177"/>
-      <c r="K13" s="177"/>
-      <c r="L13" s="177"/>
-      <c r="M13" s="177"/>
-      <c r="N13" s="177"/>
-      <c r="O13" s="177"/>
-      <c r="P13" s="177"/>
-      <c r="Q13" s="177"/>
-      <c r="R13" s="177"/>
-      <c r="S13" s="177"/>
-      <c r="T13" s="177"/>
-      <c r="U13" s="177"/>
-      <c r="V13" s="177"/>
-      <c r="W13" s="177"/>
-      <c r="X13" s="177"/>
-      <c r="Y13" s="177"/>
-      <c r="Z13" s="177"/>
+      <c r="E13" s="176"/>
+      <c r="F13" s="176"/>
+      <c r="G13" s="176"/>
+      <c r="H13" s="176"/>
+      <c r="I13" s="176"/>
+      <c r="J13" s="176"/>
+      <c r="K13" s="176"/>
+      <c r="L13" s="176"/>
+      <c r="M13" s="176"/>
+      <c r="N13" s="176"/>
+      <c r="O13" s="176"/>
+      <c r="P13" s="176"/>
+      <c r="Q13" s="176"/>
+      <c r="R13" s="176"/>
+      <c r="S13" s="176"/>
+      <c r="T13" s="176"/>
+      <c r="U13" s="176"/>
+      <c r="V13" s="176"/>
+      <c r="W13" s="176"/>
+      <c r="X13" s="176"/>
+      <c r="Y13" s="176"/>
+      <c r="Z13" s="176"/>
     </row>
     <row r="14">
-      <c r="A14" s="175" t="s">
+      <c r="A14" s="174" t="s">
         <v>1190</v>
       </c>
-      <c r="B14" s="175" t="s">
+      <c r="B14" s="174" t="s">
         <v>1163</v>
       </c>
-      <c r="C14" s="176" t="s">
+      <c r="C14" s="175" t="s">
         <v>1160</v>
       </c>
-      <c r="D14" s="176" t="s">
+      <c r="D14" s="175" t="s">
         <v>1191</v>
       </c>
-      <c r="E14" s="177"/>
-      <c r="F14" s="177"/>
-      <c r="G14" s="177"/>
-      <c r="H14" s="177"/>
-      <c r="I14" s="177"/>
-      <c r="J14" s="177"/>
-      <c r="K14" s="177"/>
-      <c r="L14" s="177"/>
-      <c r="M14" s="177"/>
-      <c r="N14" s="177"/>
-      <c r="O14" s="177"/>
-      <c r="P14" s="177"/>
-      <c r="Q14" s="177"/>
-      <c r="R14" s="177"/>
-      <c r="S14" s="177"/>
-      <c r="T14" s="177"/>
-      <c r="U14" s="177"/>
-      <c r="V14" s="177"/>
-      <c r="W14" s="177"/>
-      <c r="X14" s="177"/>
-      <c r="Y14" s="177"/>
-      <c r="Z14" s="177"/>
+      <c r="E14" s="176"/>
+      <c r="F14" s="176"/>
+      <c r="G14" s="176"/>
+      <c r="H14" s="176"/>
+      <c r="I14" s="176"/>
+      <c r="J14" s="176"/>
+      <c r="K14" s="176"/>
+      <c r="L14" s="176"/>
+      <c r="M14" s="176"/>
+      <c r="N14" s="176"/>
+      <c r="O14" s="176"/>
+      <c r="P14" s="176"/>
+      <c r="Q14" s="176"/>
+      <c r="R14" s="176"/>
+      <c r="S14" s="176"/>
+      <c r="T14" s="176"/>
+      <c r="U14" s="176"/>
+      <c r="V14" s="176"/>
+      <c r="W14" s="176"/>
+      <c r="X14" s="176"/>
+      <c r="Y14" s="176"/>
+      <c r="Z14" s="176"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -23990,51 +23987,51 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="178" t="s">
+      <c r="A1" s="177" t="s">
         <v>1152</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="160" t="s">
+      <c r="A2" s="159" t="s">
         <v>1154</v>
       </c>
-      <c r="B2" s="160" t="s">
+      <c r="B2" s="159" t="s">
         <v>1155</v>
       </c>
-      <c r="C2" s="160" t="s">
+      <c r="C2" s="159" t="s">
         <v>1156</v>
       </c>
-      <c r="D2" s="160" t="s">
+      <c r="D2" s="159" t="s">
         <v>1157</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="157" t="s">
+      <c r="A3" s="156" t="s">
         <v>1192</v>
       </c>
-      <c r="B3" s="157" t="s">
+      <c r="B3" s="156" t="s">
         <v>1193</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="157" t="s">
+      <c r="A4" s="156" t="s">
         <v>1194</v>
       </c>
-      <c r="B4" s="157" t="s">
+      <c r="B4" s="156" t="s">
         <v>1195</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="157" t="s">
+      <c r="A5" s="156" t="s">
         <v>1196</v>
       </c>
-      <c r="B5" s="157" t="s">
+      <c r="B5" s="156" t="s">
         <v>1197</v>
       </c>
-      <c r="C5" s="179" t="s">
+      <c r="C5" s="178" t="s">
         <v>1195</v>
       </c>
-      <c r="D5" s="157" t="s">
+      <c r="D5" s="156" t="s">
         <v>1198</v>
       </c>
     </row>

--- a/mappings/package_F02/transformation/conceptual_mappings.xlsx
+++ b/mappings/package_F02/transformation/conceptual_mappings.xlsx
@@ -54,7 +54,7 @@
     <t>Mapping Version</t>
   </si>
   <si>
-    <t>2.2.0-alpha.1</t>
+    <t>2.2.0-rc.1</t>
   </si>
   <si>
     <r>
